--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serdar\Desktop\Yerlesim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serdar\Desktop\depo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F4EF4-6989-46F1-9E6F-92D438C7D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1231,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1321,6 +1321,37 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1330,48 +1361,246 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1381,15 +1610,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1398,228 +1618,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1929,8 +1927,8 @@
   </sheetPr>
   <dimension ref="A1:BU2566"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BY15" sqref="BY15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CH21" sqref="CH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,20 +1944,20 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
-      <c r="M1" s="115" t="s">
+      <c r="M1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="116"/>
-      <c r="O1" s="117"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
@@ -1974,28 +1972,28 @@
       <c r="AA1" s="32"/>
       <c r="AB1" s="32"/>
       <c r="AC1" s="32"/>
-      <c r="AD1" s="140" t="s">
+      <c r="AD1" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="140"/>
-      <c r="AG1" s="140"/>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="140"/>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="141" t="s">
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="AL1" s="142">
+      <c r="AL1" s="55">
         <v>45878</v>
       </c>
-      <c r="AM1" s="142"/>
-      <c r="AN1" s="142"/>
-      <c r="AO1" s="142"/>
-      <c r="AP1" s="142"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
       <c r="AQ1" s="32"/>
       <c r="AR1" s="32"/>
-      <c r="AS1" s="139"/>
+      <c r="AS1" s="50"/>
       <c r="AT1" s="32"/>
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
@@ -2036,170 +2034,170 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="118" t="s">
+      <c r="K2" s="104"/>
+      <c r="L2" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="105" t="s">
+      <c r="M2" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="105" t="s">
+      <c r="P2" s="101"/>
+      <c r="Q2" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="105" t="s">
+      <c r="R2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="105" t="s">
+      <c r="S2" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="105" t="s">
+      <c r="T2" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="105" t="s">
+      <c r="U2" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="105" t="s">
+      <c r="V2" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="108" t="s">
+      <c r="W2" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49" t="s">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="69" t="s">
+      <c r="AB2" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="134" t="s">
+      <c r="AC2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49" t="s">
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AG2" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="49" t="s">
+      <c r="AJ2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="49" t="s">
+      <c r="AK2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="49" t="s">
+      <c r="AL2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" s="49" t="s">
+      <c r="AM2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="49" t="s">
+      <c r="AN2" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="AO2" s="49" t="s">
+      <c r="AO2" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="49" t="s">
+      <c r="AP2" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="AQ2" s="49" t="s">
+      <c r="AQ2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AR2" s="49" t="s">
+      <c r="AR2" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="AS2" s="49" t="s">
+      <c r="AS2" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="AT2" s="49" t="s">
+      <c r="AT2" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="AU2" s="49" t="s">
+      <c r="AU2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="AV2" s="49" t="s">
+      <c r="AV2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="AW2" s="49" t="s">
+      <c r="AW2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="AX2" s="49" t="s">
+      <c r="AX2" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AY2" s="49" t="s">
+      <c r="AY2" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="AZ2" s="69" t="s">
+      <c r="AZ2" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="127" t="s">
+      <c r="BA2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="91" t="s">
+      <c r="BB2" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="BC2" s="49" t="s">
+      <c r="BC2" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="BD2" s="49" t="s">
+      <c r="BD2" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="BE2" s="49" t="s">
+      <c r="BE2" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="BF2" s="49" t="s">
+      <c r="BF2" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="BG2" s="49" t="s">
+      <c r="BG2" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="BH2" s="49" t="s">
+      <c r="BH2" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="BI2" s="49" t="s">
+      <c r="BI2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="BJ2" s="49" t="s">
+      <c r="BJ2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="BK2" s="49" t="s">
+      <c r="BK2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="BL2" s="49" t="s">
+      <c r="BL2" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="BM2" s="49" t="s">
+      <c r="BM2" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="BN2" s="49" t="s">
+      <c r="BN2" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="BO2" s="49" t="s">
+      <c r="BO2" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="BP2" s="49" t="s">
+      <c r="BP2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="BQ2" s="49" t="s">
+      <c r="BQ2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="BR2" s="69" t="s">
+      <c r="BR2" s="76" t="s">
         <v>92</v>
       </c>
       <c r="BS2" s="2"/>
@@ -2209,241 +2207,216 @@
     <row r="3" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="143"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="21"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50"/>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="50"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="70"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="92"/>
-      <c r="BC3" s="50"/>
-      <c r="BD3" s="50"/>
-      <c r="BE3" s="50"/>
-      <c r="BF3" s="50"/>
-      <c r="BG3" s="50"/>
-      <c r="BH3" s="50"/>
-      <c r="BI3" s="50"/>
-      <c r="BJ3" s="50"/>
-      <c r="BK3" s="50"/>
-      <c r="BL3" s="50"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="50"/>
-      <c r="BO3" s="50"/>
-      <c r="BP3" s="50"/>
-      <c r="BQ3" s="50"/>
-      <c r="BR3" s="70"/>
-      <c r="BS3" s="144"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
+      <c r="BR3" s="77"/>
       <c r="BT3" s="4"/>
       <c r="BU3" s="37"/>
     </row>
     <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="39"/>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="109"/>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="50"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="128"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="50"/>
-      <c r="BD4" s="50"/>
-      <c r="BE4" s="50"/>
-      <c r="BF4" s="50"/>
-      <c r="BG4" s="50"/>
-      <c r="BH4" s="50"/>
-      <c r="BI4" s="50"/>
-      <c r="BJ4" s="50"/>
-      <c r="BK4" s="50"/>
-      <c r="BL4" s="50"/>
-      <c r="BM4" s="50"/>
-      <c r="BN4" s="50"/>
-      <c r="BO4" s="50"/>
-      <c r="BP4" s="50"/>
-      <c r="BQ4" s="50"/>
-      <c r="BR4" s="70"/>
-      <c r="BS4" s="144"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="77"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="63"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="63"/>
+      <c r="BI4" s="63"/>
+      <c r="BJ4" s="63"/>
+      <c r="BK4" s="63"/>
+      <c r="BL4" s="63"/>
+      <c r="BM4" s="63"/>
+      <c r="BN4" s="63"/>
+      <c r="BO4" s="63"/>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="63"/>
+      <c r="BR4" s="77"/>
       <c r="BT4" s="4"/>
       <c r="BU4" s="37"/>
     </row>
     <row r="5" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="143"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="21"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="109"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="135"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="70"/>
-      <c r="BA5" s="128"/>
-      <c r="BB5" s="92"/>
-      <c r="BC5" s="50"/>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="50"/>
-      <c r="BF5" s="50"/>
-      <c r="BG5" s="50"/>
-      <c r="BH5" s="50"/>
-      <c r="BI5" s="50"/>
-      <c r="BJ5" s="50"/>
-      <c r="BK5" s="50"/>
-      <c r="BL5" s="50"/>
-      <c r="BM5" s="50"/>
-      <c r="BN5" s="50"/>
-      <c r="BO5" s="50"/>
-      <c r="BP5" s="50"/>
-      <c r="BQ5" s="50"/>
-      <c r="BR5" s="70"/>
-      <c r="BS5" s="144"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="77"/>
+      <c r="BA5" s="73"/>
+      <c r="BB5" s="60"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="63"/>
+      <c r="BE5" s="63"/>
+      <c r="BF5" s="63"/>
+      <c r="BG5" s="63"/>
+      <c r="BH5" s="63"/>
+      <c r="BI5" s="63"/>
+      <c r="BJ5" s="63"/>
+      <c r="BK5" s="63"/>
+      <c r="BL5" s="63"/>
+      <c r="BM5" s="63"/>
+      <c r="BN5" s="63"/>
+      <c r="BO5" s="63"/>
+      <c r="BP5" s="63"/>
+      <c r="BQ5" s="63"/>
+      <c r="BR5" s="77"/>
       <c r="BT5" s="4"/>
       <c r="BU5" s="37"/>
     </row>
     <row r="6" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="143"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="J6" s="144"/>
       <c r="K6" s="48" t="s">
         <v>24</v>
       </c>
@@ -2498,7 +2471,7 @@
       <c r="AB6" s="43">
         <v>6</v>
       </c>
-      <c r="AC6" s="136"/>
+      <c r="AC6" s="67"/>
       <c r="AD6" s="47">
         <v>1</v>
       </c>
@@ -2568,7 +2541,7 @@
       <c r="AZ6" s="43">
         <v>23</v>
       </c>
-      <c r="BA6" s="129"/>
+      <c r="BA6" s="74"/>
       <c r="BB6" s="47">
         <v>1</v>
       </c>
@@ -2620,221 +2593,140 @@
       <c r="BR6" s="43">
         <v>17</v>
       </c>
-      <c r="BS6" s="144"/>
       <c r="BT6" s="4"/>
       <c r="BU6" s="37"/>
     </row>
     <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="39"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="121"/>
       <c r="F7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="144"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-      <c r="O7" s="144"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="144"/>
-      <c r="R7" s="144"/>
-      <c r="S7" s="144"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="146" t="s">
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="W7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="144"/>
-      <c r="AD7" s="65" t="s">
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AD7" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="65"/>
-      <c r="AH7" s="65"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="65"/>
-      <c r="AO7" s="65"/>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="144"/>
-      <c r="BB7" s="65" t="s">
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84"/>
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="84"/>
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="84"/>
+      <c r="AZ7" s="84"/>
+      <c r="BB7" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="BC7" s="65"/>
-      <c r="BD7" s="65"/>
-      <c r="BE7" s="65"/>
-      <c r="BF7" s="65"/>
-      <c r="BG7" s="65"/>
-      <c r="BH7" s="65"/>
-      <c r="BI7" s="65"/>
-      <c r="BJ7" s="65"/>
-      <c r="BK7" s="65"/>
-      <c r="BL7" s="65"/>
-      <c r="BM7" s="65"/>
-      <c r="BN7" s="65"/>
-      <c r="BO7" s="65"/>
-      <c r="BP7" s="65"/>
-      <c r="BQ7" s="65"/>
-      <c r="BR7" s="65"/>
-      <c r="BS7" s="144"/>
+      <c r="BC7" s="84"/>
+      <c r="BD7" s="84"/>
+      <c r="BE7" s="84"/>
+      <c r="BF7" s="84"/>
+      <c r="BG7" s="84"/>
+      <c r="BH7" s="84"/>
+      <c r="BI7" s="84"/>
+      <c r="BJ7" s="84"/>
+      <c r="BK7" s="84"/>
+      <c r="BL7" s="84"/>
+      <c r="BM7" s="84"/>
+      <c r="BN7" s="84"/>
+      <c r="BO7" s="84"/>
+      <c r="BP7" s="84"/>
+      <c r="BQ7" s="84"/>
+      <c r="BR7" s="84"/>
       <c r="BT7" s="4"/>
       <c r="BU7" s="37"/>
     </row>
     <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39"/>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="144"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-      <c r="O8" s="144"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="144"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="144"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="144"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
       <c r="V8" s="14"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144"/>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144"/>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144"/>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="144"/>
-      <c r="AG8" s="144"/>
-      <c r="AH8" s="144"/>
-      <c r="AI8" s="144"/>
-      <c r="AJ8" s="144"/>
-      <c r="AK8" s="144"/>
-      <c r="AL8" s="144"/>
-      <c r="AM8" s="144"/>
-      <c r="AN8" s="144"/>
-      <c r="AO8" s="144"/>
-      <c r="AP8" s="144"/>
-      <c r="AQ8" s="144"/>
-      <c r="AR8" s="144"/>
-      <c r="AS8" s="144"/>
-      <c r="AT8" s="144"/>
-      <c r="AU8" s="144"/>
-      <c r="AV8" s="144"/>
-      <c r="AW8" s="144"/>
-      <c r="AX8" s="144"/>
-      <c r="AY8" s="144"/>
-      <c r="AZ8" s="144"/>
-      <c r="BA8" s="144"/>
-      <c r="BB8" s="144"/>
-      <c r="BC8" s="144"/>
-      <c r="BD8" s="144"/>
-      <c r="BE8" s="144"/>
-      <c r="BF8" s="144"/>
-      <c r="BG8" s="144"/>
-      <c r="BH8" s="144"/>
-      <c r="BI8" s="144"/>
-      <c r="BJ8" s="144"/>
-      <c r="BK8" s="144"/>
-      <c r="BL8" s="144"/>
-      <c r="BM8" s="144"/>
-      <c r="BN8" s="144"/>
-      <c r="BO8" s="144"/>
-      <c r="BP8" s="144"/>
-      <c r="BQ8" s="144"/>
-      <c r="BR8" s="144"/>
-      <c r="BS8" s="144"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="37"/>
     </row>
     <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="100"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="144"/>
-      <c r="H9" s="78" t="s">
+      <c r="H9" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="147"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80" t="s">
+      <c r="I9" s="139"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="80"/>
-      <c r="AI9" s="80"/>
-      <c r="AJ9" s="80"/>
-      <c r="AK9" s="80"/>
-      <c r="AL9" s="80"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -2855,18 +2747,18 @@
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
-      <c r="BG9" s="130" t="s">
+      <c r="BG9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="BH9" s="130"/>
-      <c r="BI9" s="130"/>
-      <c r="BJ9" s="130"/>
-      <c r="BK9" s="130"/>
-      <c r="BL9" s="130"/>
-      <c r="BM9" s="130"/>
-      <c r="BN9" s="130"/>
-      <c r="BO9" s="130"/>
-      <c r="BP9" s="130"/>
+      <c r="BH9" s="82"/>
+      <c r="BI9" s="82"/>
+      <c r="BJ9" s="82"/>
+      <c r="BK9" s="82"/>
+      <c r="BL9" s="82"/>
+      <c r="BM9" s="82"/>
+      <c r="BN9" s="82"/>
+      <c r="BO9" s="82"/>
+      <c r="BP9" s="82"/>
       <c r="BQ9" s="9"/>
       <c r="BR9" s="9"/>
       <c r="BS9" s="9"/>
@@ -2875,47 +2767,46 @@
     </row>
     <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39"/>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="100"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="144"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="81"/>
-      <c r="AI10" s="81"/>
-      <c r="AJ10" s="81"/>
-      <c r="AK10" s="81"/>
-      <c r="AL10" s="81"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
@@ -2926,8 +2817,8 @@
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
-      <c r="AW10" s="148"/>
-      <c r="AX10" s="148"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
@@ -2936,16 +2827,16 @@
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
-      <c r="BG10" s="131"/>
-      <c r="BH10" s="131"/>
-      <c r="BI10" s="131"/>
-      <c r="BJ10" s="131"/>
-      <c r="BK10" s="131"/>
-      <c r="BL10" s="131"/>
-      <c r="BM10" s="131"/>
-      <c r="BN10" s="131"/>
-      <c r="BO10" s="131"/>
-      <c r="BP10" s="131"/>
+      <c r="BG10" s="83"/>
+      <c r="BH10" s="83"/>
+      <c r="BI10" s="83"/>
+      <c r="BJ10" s="83"/>
+      <c r="BK10" s="83"/>
+      <c r="BL10" s="83"/>
+      <c r="BM10" s="83"/>
+      <c r="BN10" s="83"/>
+      <c r="BO10" s="83"/>
+      <c r="BP10" s="83"/>
       <c r="BQ10" s="7"/>
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
@@ -2954,114 +2845,85 @@
     </row>
     <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="39"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="144"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="112" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="X11" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112"/>
-      <c r="AI11" s="112"/>
-      <c r="AJ11" s="112"/>
-      <c r="AK11" s="112"/>
-      <c r="AL11" s="112"/>
-      <c r="AM11" s="112"/>
-      <c r="AN11" s="112"/>
-      <c r="AO11" s="112"/>
-      <c r="AP11" s="112"/>
-      <c r="AQ11" s="112"/>
-      <c r="AR11" s="112"/>
-      <c r="AS11" s="112"/>
-      <c r="AT11" s="112"/>
-      <c r="AU11" s="149"/>
-      <c r="AV11" s="149"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="77"/>
-      <c r="AY11" s="149"/>
-      <c r="AZ11" s="112" t="s">
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="68"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="108"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="BA11" s="112"/>
-      <c r="BB11" s="112"/>
-      <c r="BC11" s="112"/>
-      <c r="BD11" s="112"/>
-      <c r="BE11" s="112"/>
-      <c r="BF11" s="112"/>
-      <c r="BG11" s="112"/>
-      <c r="BH11" s="112"/>
-      <c r="BI11" s="112"/>
-      <c r="BJ11" s="112"/>
-      <c r="BK11" s="112"/>
-      <c r="BL11" s="112"/>
-      <c r="BM11" s="112"/>
-      <c r="BN11" s="112"/>
-      <c r="BO11" s="112"/>
-      <c r="BP11" s="112"/>
-      <c r="BQ11" s="112"/>
-      <c r="BR11" s="112"/>
-      <c r="BS11" s="112"/>
+      <c r="BA11" s="68"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="68"/>
+      <c r="BD11" s="68"/>
+      <c r="BE11" s="68"/>
+      <c r="BF11" s="68"/>
+      <c r="BG11" s="68"/>
+      <c r="BH11" s="68"/>
+      <c r="BI11" s="68"/>
+      <c r="BJ11" s="68"/>
+      <c r="BK11" s="68"/>
+      <c r="BL11" s="68"/>
+      <c r="BM11" s="68"/>
+      <c r="BN11" s="68"/>
+      <c r="BO11" s="68"/>
+      <c r="BP11" s="68"/>
+      <c r="BQ11" s="68"/>
+      <c r="BR11" s="68"/>
+      <c r="BS11" s="68"/>
       <c r="BT11" s="4"/>
       <c r="BU11" s="37"/>
     </row>
     <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39"/>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="144"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-      <c r="O12" s="144"/>
-      <c r="P12" s="144"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="144"/>
-      <c r="S12" s="144"/>
-      <c r="T12" s="144"/>
-      <c r="U12" s="144"/>
-      <c r="V12" s="144"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
       <c r="W12" s="24">
         <v>23</v>
       </c>
@@ -3095,7 +2957,7 @@
       <c r="AG12" s="26">
         <v>13</v>
       </c>
-      <c r="AH12" s="72" t="s">
+      <c r="AH12" s="148" t="s">
         <v>11</v>
       </c>
       <c r="AI12" s="26">
@@ -3131,14 +2993,11 @@
       <c r="AS12" s="28">
         <v>2</v>
       </c>
-      <c r="AT12" s="127" t="s">
+      <c r="AT12" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AU12" s="144"/>
-      <c r="AV12" s="144"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="77"/>
-      <c r="AY12" s="144"/>
+      <c r="AW12" s="107"/>
+      <c r="AX12" s="108"/>
       <c r="AZ12" s="47">
         <v>1</v>
       </c>
@@ -3163,7 +3022,7 @@
       <c r="BG12" s="42">
         <v>8</v>
       </c>
-      <c r="BH12" s="127" t="s">
+      <c r="BH12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="BI12" s="26">
@@ -3204,134 +3063,118 @@
     </row>
     <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="144"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="49" t="s">
+      <c r="H13" s="70"/>
+      <c r="I13" s="71"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="Y13" s="49" t="s">
+      <c r="Y13" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="Z13" s="49" t="s">
+      <c r="Z13" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49" t="s">
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="AC13" s="49" t="s">
+      <c r="AC13" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="73"/>
-      <c r="AI13" s="49"/>
-      <c r="AJ13" s="49"/>
-      <c r="AK13" s="49"/>
-      <c r="AL13" s="49"/>
-      <c r="AM13" s="49" t="s">
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="AN13" s="49" t="s">
+      <c r="AN13" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="AO13" s="49" t="s">
+      <c r="AO13" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="AP13" s="49" t="s">
+      <c r="AP13" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AQ13" s="49" t="s">
+      <c r="AQ13" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="AR13" s="49" t="s">
+      <c r="AR13" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="AS13" s="69" t="s">
+      <c r="AS13" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AT13" s="128"/>
-      <c r="AU13" s="144"/>
-      <c r="AV13" s="144"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="77"/>
-      <c r="AY13" s="137"/>
-      <c r="AZ13" s="91" t="s">
+      <c r="AT13" s="73"/>
+      <c r="AW13" s="107"/>
+      <c r="AX13" s="108"/>
+      <c r="AY13" s="75"/>
+      <c r="AZ13" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="BA13" s="49" t="s">
+      <c r="BA13" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="BB13" s="49" t="s">
+      <c r="BB13" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="BC13" s="49" t="s">
+      <c r="BC13" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="BD13" s="49" t="s">
+      <c r="BD13" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="BE13" s="49" t="s">
+      <c r="BE13" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="BF13" s="49" t="s">
+      <c r="BF13" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="BG13" s="49" t="s">
+      <c r="BG13" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="BH13" s="132"/>
-      <c r="BI13" s="52" t="s">
+      <c r="BH13" s="85"/>
+      <c r="BI13" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="BJ13" s="55" t="s">
+      <c r="BJ13" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="BK13" s="55" t="s">
+      <c r="BK13" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="BL13" s="55"/>
-      <c r="BM13" s="55"/>
-      <c r="BN13" s="55"/>
-      <c r="BO13" s="55" t="s">
+      <c r="BL13" s="79"/>
+      <c r="BM13" s="79"/>
+      <c r="BN13" s="79"/>
+      <c r="BO13" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="BP13" s="55" t="s">
+      <c r="BP13" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="BQ13" s="55" t="s">
+      <c r="BQ13" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="BR13" s="55" t="s">
+      <c r="BR13" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="BS13" s="66" t="s">
+      <c r="BS13" s="145" t="s">
         <v>61</v>
       </c>
       <c r="BT13" s="4"/>
@@ -3339,476 +3182,361 @@
     </row>
     <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="144"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-      <c r="O14" s="144"/>
-      <c r="P14" s="144"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="50"/>
-      <c r="AA14" s="50"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="50"/>
-      <c r="AE14" s="50"/>
-      <c r="AF14" s="50"/>
-      <c r="AG14" s="50"/>
-      <c r="AH14" s="73"/>
-      <c r="AI14" s="50"/>
-      <c r="AJ14" s="50"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="70"/>
-      <c r="AT14" s="128"/>
-      <c r="AU14" s="144"/>
-      <c r="AV14" s="144"/>
-      <c r="AW14" s="78" t="s">
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="149"/>
+      <c r="AI14" s="63"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="77"/>
+      <c r="AT14" s="73"/>
+      <c r="AW14" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AX14" s="79"/>
-      <c r="AY14" s="137"/>
-      <c r="AZ14" s="92"/>
-      <c r="BA14" s="50"/>
-      <c r="BB14" s="50"/>
-      <c r="BC14" s="50"/>
-      <c r="BD14" s="50"/>
-      <c r="BE14" s="50"/>
-      <c r="BF14" s="50"/>
-      <c r="BG14" s="50"/>
-      <c r="BH14" s="132"/>
-      <c r="BI14" s="53"/>
-      <c r="BJ14" s="56"/>
-      <c r="BK14" s="56"/>
-      <c r="BL14" s="56"/>
-      <c r="BM14" s="56"/>
-      <c r="BN14" s="56"/>
-      <c r="BO14" s="56"/>
-      <c r="BP14" s="56"/>
-      <c r="BQ14" s="56"/>
-      <c r="BR14" s="56"/>
-      <c r="BS14" s="67"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
+      <c r="BC14" s="63"/>
+      <c r="BD14" s="63"/>
+      <c r="BE14" s="63"/>
+      <c r="BF14" s="63"/>
+      <c r="BG14" s="63"/>
+      <c r="BH14" s="85"/>
+      <c r="BI14" s="132"/>
+      <c r="BJ14" s="80"/>
+      <c r="BK14" s="80"/>
+      <c r="BL14" s="80"/>
+      <c r="BM14" s="80"/>
+      <c r="BN14" s="80"/>
+      <c r="BO14" s="80"/>
+      <c r="BP14" s="80"/>
+      <c r="BQ14" s="80"/>
+      <c r="BR14" s="80"/>
+      <c r="BS14" s="146"/>
       <c r="BT14" s="4"/>
       <c r="BU14" s="37"/>
     </row>
     <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="100"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="144"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="144"/>
-      <c r="P15" s="144"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="50"/>
-      <c r="AA15" s="50"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="50"/>
-      <c r="AE15" s="50"/>
-      <c r="AF15" s="50"/>
-      <c r="AG15" s="50"/>
-      <c r="AH15" s="73"/>
-      <c r="AI15" s="50"/>
-      <c r="AJ15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="70"/>
-      <c r="AT15" s="128"/>
-      <c r="AU15" s="144"/>
-      <c r="AV15" s="144"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="79"/>
-      <c r="AY15" s="137"/>
-      <c r="AZ15" s="92"/>
-      <c r="BA15" s="50"/>
-      <c r="BB15" s="50"/>
-      <c r="BC15" s="50"/>
-      <c r="BD15" s="50"/>
-      <c r="BE15" s="50"/>
-      <c r="BF15" s="50"/>
-      <c r="BG15" s="50"/>
-      <c r="BH15" s="132"/>
-      <c r="BI15" s="53"/>
-      <c r="BJ15" s="56"/>
-      <c r="BK15" s="56"/>
-      <c r="BL15" s="56"/>
-      <c r="BM15" s="56"/>
-      <c r="BN15" s="56"/>
-      <c r="BO15" s="56"/>
-      <c r="BP15" s="56"/>
-      <c r="BQ15" s="56"/>
-      <c r="BR15" s="56"/>
-      <c r="BS15" s="67"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="77"/>
+      <c r="AT15" s="73"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="71"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+      <c r="BC15" s="63"/>
+      <c r="BD15" s="63"/>
+      <c r="BE15" s="63"/>
+      <c r="BF15" s="63"/>
+      <c r="BG15" s="63"/>
+      <c r="BH15" s="85"/>
+      <c r="BI15" s="132"/>
+      <c r="BJ15" s="80"/>
+      <c r="BK15" s="80"/>
+      <c r="BL15" s="80"/>
+      <c r="BM15" s="80"/>
+      <c r="BN15" s="80"/>
+      <c r="BO15" s="80"/>
+      <c r="BP15" s="80"/>
+      <c r="BQ15" s="80"/>
+      <c r="BR15" s="80"/>
+      <c r="BS15" s="146"/>
       <c r="BT15" s="4"/>
       <c r="BU15" s="37"/>
     </row>
     <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39"/>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="100"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="144"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="74"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="51"/>
-      <c r="AP16" s="51"/>
-      <c r="AQ16" s="51"/>
-      <c r="AR16" s="51"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="129"/>
-      <c r="AU16" s="144"/>
-      <c r="AV16" s="144"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="79"/>
-      <c r="AY16" s="137"/>
-      <c r="AZ16" s="104"/>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
-      <c r="BG16" s="51"/>
-      <c r="BH16" s="133"/>
-      <c r="BI16" s="54"/>
-      <c r="BJ16" s="57"/>
-      <c r="BK16" s="57"/>
-      <c r="BL16" s="57"/>
-      <c r="BM16" s="57"/>
-      <c r="BN16" s="57"/>
-      <c r="BO16" s="57"/>
-      <c r="BP16" s="57"/>
-      <c r="BQ16" s="57"/>
-      <c r="BR16" s="57"/>
-      <c r="BS16" s="68"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="150"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="64"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="64"/>
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="64"/>
+      <c r="AP16" s="64"/>
+      <c r="AQ16" s="64"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="74"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="64"/>
+      <c r="BB16" s="64"/>
+      <c r="BC16" s="64"/>
+      <c r="BD16" s="64"/>
+      <c r="BE16" s="64"/>
+      <c r="BF16" s="64"/>
+      <c r="BG16" s="64"/>
+      <c r="BH16" s="86"/>
+      <c r="BI16" s="140"/>
+      <c r="BJ16" s="81"/>
+      <c r="BK16" s="81"/>
+      <c r="BL16" s="81"/>
+      <c r="BM16" s="81"/>
+      <c r="BN16" s="81"/>
+      <c r="BO16" s="81"/>
+      <c r="BP16" s="81"/>
+      <c r="BQ16" s="81"/>
+      <c r="BR16" s="81"/>
+      <c r="BS16" s="147"/>
       <c r="BT16" s="4"/>
       <c r="BU16" s="37"/>
     </row>
     <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="100"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="144"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="144"/>
-      <c r="S17" s="144"/>
-      <c r="T17" s="144"/>
-      <c r="U17" s="144"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144"/>
-      <c r="Z17" s="144"/>
-      <c r="AA17" s="144"/>
-      <c r="AB17" s="144"/>
-      <c r="AC17" s="144"/>
-      <c r="AD17" s="144"/>
-      <c r="AE17" s="144"/>
-      <c r="AF17" s="144"/>
-      <c r="AG17" s="144"/>
-      <c r="AH17" s="144"/>
-      <c r="AI17" s="144"/>
-      <c r="AJ17" s="144"/>
-      <c r="AK17" s="144"/>
-      <c r="AL17" s="144"/>
-      <c r="AM17" s="144"/>
-      <c r="AN17" s="144"/>
-      <c r="AO17" s="144"/>
-      <c r="AP17" s="144"/>
-      <c r="AQ17" s="144"/>
-      <c r="AR17" s="144"/>
-      <c r="AS17" s="144"/>
-      <c r="AT17" s="144"/>
-      <c r="AU17" s="144"/>
-      <c r="AV17" s="144"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="79"/>
-      <c r="AY17" s="144"/>
-      <c r="AZ17" s="144"/>
-      <c r="BA17" s="144"/>
-      <c r="BB17" s="144"/>
-      <c r="BC17" s="144"/>
-      <c r="BD17" s="144"/>
-      <c r="BE17" s="144"/>
-      <c r="BF17" s="144"/>
-      <c r="BG17" s="144"/>
-      <c r="BH17" s="144"/>
-      <c r="BI17" s="144"/>
-      <c r="BJ17" s="144"/>
-      <c r="BK17" s="144"/>
-      <c r="BL17" s="144"/>
-      <c r="BM17" s="144"/>
-      <c r="BN17" s="144"/>
-      <c r="BO17" s="144"/>
-      <c r="BP17" s="144"/>
-      <c r="BQ17" s="144"/>
-      <c r="BR17" s="144"/>
-      <c r="BS17" s="144"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="71"/>
       <c r="BT17" s="4"/>
       <c r="BU17" s="37"/>
     </row>
     <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="100"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="144"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55" t="s">
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="L18" s="131"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="T18" s="55" t="s">
+      <c r="T18" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="U18" s="55" t="s">
+      <c r="U18" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="V18" s="55" t="s">
+      <c r="V18" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="W18" s="55" t="s">
+      <c r="W18" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="X18" s="49" t="s">
+      <c r="X18" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="Y18" s="49" t="s">
+      <c r="Y18" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="Z18" s="49" t="s">
+      <c r="Z18" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="AA18" s="49" t="s">
+      <c r="AA18" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="AB18" s="49" t="s">
+      <c r="AB18" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="AC18" s="49" t="s">
+      <c r="AC18" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AD18" s="49" t="s">
+      <c r="AD18" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="AE18" s="49" t="s">
+      <c r="AE18" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" s="49" t="s">
+      <c r="AF18" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" s="49" t="s">
+      <c r="AG18" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="AH18" s="49" t="s">
+      <c r="AH18" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AI18" s="49" t="s">
+      <c r="AI18" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="AJ18" s="49" t="s">
+      <c r="AJ18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="AK18" s="49" t="s">
+      <c r="AK18" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AL18" s="49" t="s">
+      <c r="AL18" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="AM18" s="69" t="s">
+      <c r="AM18" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="AN18" s="91" t="s">
+      <c r="AN18" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="AO18" s="49" t="s">
+      <c r="AO18" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49" t="s">
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="AT18" s="69" t="s">
+      <c r="AT18" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="AU18" s="144"/>
-      <c r="AV18" s="144"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="144"/>
-      <c r="AZ18" s="91" t="s">
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="71"/>
+      <c r="AZ18" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="BA18" s="49" t="s">
+      <c r="BA18" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="BB18" s="49"/>
-      <c r="BC18" s="49" t="s">
+      <c r="BB18" s="62"/>
+      <c r="BC18" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="BD18" s="49" t="s">
+      <c r="BD18" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="BE18" s="49" t="s">
+      <c r="BE18" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="BF18" s="49" t="s">
+      <c r="BF18" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="BG18" s="49"/>
-      <c r="BH18" s="49"/>
-      <c r="BI18" s="49" t="s">
+      <c r="BG18" s="62"/>
+      <c r="BH18" s="62"/>
+      <c r="BI18" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="BJ18" s="49" t="s">
+      <c r="BJ18" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="BK18" s="49" t="s">
+      <c r="BK18" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="BL18" s="49" t="s">
+      <c r="BL18" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="BM18" s="49" t="s">
+      <c r="BM18" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="BN18" s="49" t="s">
+      <c r="BN18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="BO18" s="49" t="s">
+      <c r="BO18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="BP18" s="49" t="s">
+      <c r="BP18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="BQ18" s="49" t="s">
+      <c r="BQ18" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="BR18" s="49"/>
-      <c r="BS18" s="69" t="s">
+      <c r="BR18" s="62"/>
+      <c r="BS18" s="76" t="s">
         <v>87</v>
       </c>
       <c r="BT18" s="4"/>
@@ -3816,346 +3544,303 @@
     </row>
     <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="144"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="70"/>
-      <c r="AN19" s="92"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="144"/>
-      <c r="AV19" s="144"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="79"/>
-      <c r="AY19" s="144"/>
-      <c r="AZ19" s="92"/>
-      <c r="BA19" s="50"/>
-      <c r="BB19" s="50"/>
-      <c r="BC19" s="50"/>
-      <c r="BD19" s="50"/>
-      <c r="BE19" s="50"/>
-      <c r="BF19" s="50"/>
-      <c r="BG19" s="50"/>
-      <c r="BH19" s="50"/>
-      <c r="BI19" s="50"/>
-      <c r="BJ19" s="50"/>
-      <c r="BK19" s="50"/>
-      <c r="BL19" s="50"/>
-      <c r="BM19" s="50"/>
-      <c r="BN19" s="50"/>
-      <c r="BO19" s="50"/>
-      <c r="BP19" s="50"/>
-      <c r="BQ19" s="50"/>
-      <c r="BR19" s="50"/>
-      <c r="BS19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="71"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="77"/>
+      <c r="AN19" s="60"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="77"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="71"/>
+      <c r="AZ19" s="60"/>
+      <c r="BA19" s="63"/>
+      <c r="BB19" s="63"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="63"/>
+      <c r="BG19" s="63"/>
+      <c r="BH19" s="63"/>
+      <c r="BI19" s="63"/>
+      <c r="BJ19" s="63"/>
+      <c r="BK19" s="63"/>
+      <c r="BL19" s="63"/>
+      <c r="BM19" s="63"/>
+      <c r="BN19" s="63"/>
+      <c r="BO19" s="63"/>
+      <c r="BP19" s="63"/>
+      <c r="BQ19" s="63"/>
+      <c r="BR19" s="63"/>
+      <c r="BS19" s="77"/>
       <c r="BT19" s="4"/>
       <c r="BU19" s="37"/>
     </row>
     <row r="20" spans="1:73" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="50"/>
-      <c r="AI20" s="50"/>
-      <c r="AJ20" s="50"/>
-      <c r="AK20" s="50"/>
-      <c r="AL20" s="50"/>
-      <c r="AM20" s="70"/>
-      <c r="AN20" s="92"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="50"/>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="144"/>
-      <c r="AV20" s="144"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="79"/>
-      <c r="AY20" s="144"/>
-      <c r="AZ20" s="92"/>
-      <c r="BA20" s="50"/>
-      <c r="BB20" s="50"/>
-      <c r="BC20" s="50"/>
-      <c r="BD20" s="50"/>
-      <c r="BE20" s="50"/>
-      <c r="BF20" s="50"/>
-      <c r="BG20" s="50"/>
-      <c r="BH20" s="50"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="50"/>
-      <c r="BK20" s="50"/>
-      <c r="BL20" s="50"/>
-      <c r="BM20" s="50"/>
-      <c r="BN20" s="50"/>
-      <c r="BO20" s="50"/>
-      <c r="BP20" s="50"/>
-      <c r="BQ20" s="50"/>
-      <c r="BR20" s="50"/>
-      <c r="BS20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="60"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="77"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="71"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="63"/>
+      <c r="BB20" s="63"/>
+      <c r="BC20" s="63"/>
+      <c r="BD20" s="63"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="63"/>
+      <c r="BG20" s="63"/>
+      <c r="BH20" s="63"/>
+      <c r="BI20" s="63"/>
+      <c r="BJ20" s="63"/>
+      <c r="BK20" s="63"/>
+      <c r="BL20" s="63"/>
+      <c r="BM20" s="63"/>
+      <c r="BN20" s="63"/>
+      <c r="BO20" s="63"/>
+      <c r="BP20" s="63"/>
+      <c r="BQ20" s="63"/>
+      <c r="BR20" s="63"/>
+      <c r="BS20" s="77"/>
       <c r="BT20" s="4"/>
       <c r="BU20" s="37"/>
     </row>
     <row r="21" spans="1:73" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="50"/>
-      <c r="AM21" s="70"/>
-      <c r="AN21" s="92"/>
-      <c r="AO21" s="50"/>
-      <c r="AP21" s="50"/>
-      <c r="AQ21" s="50"/>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="70"/>
-      <c r="AU21" s="144"/>
-      <c r="AV21" s="144"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="79"/>
-      <c r="AY21" s="144"/>
-      <c r="AZ21" s="92"/>
-      <c r="BA21" s="50"/>
-      <c r="BB21" s="50"/>
-      <c r="BC21" s="50"/>
-      <c r="BD21" s="50"/>
-      <c r="BE21" s="50"/>
-      <c r="BF21" s="50"/>
-      <c r="BG21" s="50"/>
-      <c r="BH21" s="50"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="50"/>
-      <c r="BK21" s="50"/>
-      <c r="BL21" s="50"/>
-      <c r="BM21" s="50"/>
-      <c r="BN21" s="50"/>
-      <c r="BO21" s="50"/>
-      <c r="BP21" s="50"/>
-      <c r="BQ21" s="50"/>
-      <c r="BR21" s="50"/>
-      <c r="BS21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="60"/>
+      <c r="AO21" s="63"/>
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="63"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="77"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="71"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="63"/>
+      <c r="BB21" s="63"/>
+      <c r="BC21" s="63"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
+      <c r="BF21" s="63"/>
+      <c r="BG21" s="63"/>
+      <c r="BH21" s="63"/>
+      <c r="BI21" s="63"/>
+      <c r="BJ21" s="63"/>
+      <c r="BK21" s="63"/>
+      <c r="BL21" s="63"/>
+      <c r="BM21" s="63"/>
+      <c r="BN21" s="63"/>
+      <c r="BO21" s="63"/>
+      <c r="BP21" s="63"/>
+      <c r="BQ21" s="63"/>
+      <c r="BR21" s="63"/>
+      <c r="BS21" s="77"/>
       <c r="BT21" s="4"/>
       <c r="BU21" s="37"/>
     </row>
     <row r="22" spans="1:73" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="50"/>
-      <c r="AM22" s="70"/>
-      <c r="AN22" s="93"/>
-      <c r="AO22" s="94"/>
-      <c r="AP22" s="94"/>
-      <c r="AQ22" s="94"/>
-      <c r="AR22" s="94"/>
-      <c r="AS22" s="94"/>
-      <c r="AT22" s="90"/>
-      <c r="AU22" s="144"/>
-      <c r="AV22" s="144"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="79"/>
-      <c r="AY22" s="144"/>
-      <c r="AZ22" s="104"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="51"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="51"/>
-      <c r="BH22" s="51"/>
-      <c r="BI22" s="51"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="51"/>
-      <c r="BL22" s="51"/>
-      <c r="BM22" s="51"/>
-      <c r="BN22" s="51"/>
-      <c r="BO22" s="51"/>
-      <c r="BP22" s="51"/>
-      <c r="BQ22" s="51"/>
-      <c r="BR22" s="51"/>
-      <c r="BS22" s="71"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="135"/>
+      <c r="AO22" s="69"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="69"/>
+      <c r="AS22" s="69"/>
+      <c r="AT22" s="134"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="71"/>
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="64"/>
+      <c r="BC22" s="64"/>
+      <c r="BD22" s="64"/>
+      <c r="BE22" s="64"/>
+      <c r="BF22" s="64"/>
+      <c r="BG22" s="64"/>
+      <c r="BH22" s="64"/>
+      <c r="BI22" s="64"/>
+      <c r="BJ22" s="64"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="64"/>
+      <c r="BO22" s="64"/>
+      <c r="BP22" s="64"/>
+      <c r="BQ22" s="64"/>
+      <c r="BR22" s="64"/>
+      <c r="BS22" s="78"/>
       <c r="BT22" s="4"/>
       <c r="BU22" s="37"/>
     </row>
     <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="50"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="50"/>
-      <c r="AF23" s="50"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="50"/>
-      <c r="AJ23" s="50"/>
-      <c r="AK23" s="50"/>
-      <c r="AL23" s="50"/>
-      <c r="AM23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="77"/>
       <c r="AN23" s="29">
         <v>17</v>
       </c>
@@ -4177,11 +3862,8 @@
       <c r="AT23" s="23">
         <v>23</v>
       </c>
-      <c r="AU23" s="144"/>
-      <c r="AV23" s="144"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="79"/>
-      <c r="AY23" s="144"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="71"/>
       <c r="AZ23" s="47">
         <v>1</v>
       </c>
@@ -4248,167 +3930,120 @@
     <row r="24" spans="1:73" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="39"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="50"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="50"/>
-      <c r="AM24" s="70"/>
-      <c r="AN24" s="150"/>
-      <c r="AO24" s="150"/>
-      <c r="AP24" s="150"/>
-      <c r="AQ24" s="150"/>
-      <c r="AR24" s="150"/>
-      <c r="AS24" s="150"/>
-      <c r="AT24" s="150"/>
-      <c r="AU24" s="144"/>
-      <c r="AV24" s="144"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="54"/>
+      <c r="AO24" s="54"/>
+      <c r="AP24" s="54"/>
+      <c r="AQ24" s="54"/>
+      <c r="AR24" s="54"/>
+      <c r="AS24" s="54"/>
+      <c r="AT24" s="54"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="5"/>
-      <c r="AY24" s="144"/>
-      <c r="AZ24" s="65" t="s">
+      <c r="AZ24" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="BA24" s="65"/>
-      <c r="BB24" s="65"/>
-      <c r="BC24" s="65"/>
-      <c r="BD24" s="65"/>
-      <c r="BE24" s="65"/>
-      <c r="BF24" s="65"/>
-      <c r="BG24" s="65"/>
-      <c r="BH24" s="65"/>
-      <c r="BI24" s="65"/>
-      <c r="BJ24" s="65"/>
-      <c r="BK24" s="65"/>
-      <c r="BL24" s="65"/>
-      <c r="BM24" s="65"/>
-      <c r="BN24" s="65"/>
-      <c r="BO24" s="65"/>
-      <c r="BP24" s="65"/>
-      <c r="BQ24" s="65"/>
-      <c r="BR24" s="65"/>
-      <c r="BS24" s="65"/>
+      <c r="BA24" s="84"/>
+      <c r="BB24" s="84"/>
+      <c r="BC24" s="84"/>
+      <c r="BD24" s="84"/>
+      <c r="BE24" s="84"/>
+      <c r="BF24" s="84"/>
+      <c r="BG24" s="84"/>
+      <c r="BH24" s="84"/>
+      <c r="BI24" s="84"/>
+      <c r="BJ24" s="84"/>
+      <c r="BK24" s="84"/>
+      <c r="BL24" s="84"/>
+      <c r="BM24" s="84"/>
+      <c r="BN24" s="84"/>
+      <c r="BO24" s="84"/>
+      <c r="BP24" s="84"/>
+      <c r="BQ24" s="84"/>
+      <c r="BR24" s="84"/>
+      <c r="BS24" s="84"/>
       <c r="BT24" s="4"/>
       <c r="BU24" s="37"/>
     </row>
     <row r="25" spans="1:73" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="150"/>
-      <c r="AO25" s="150"/>
-      <c r="AP25" s="150"/>
-      <c r="AQ25" s="150"/>
-      <c r="AR25" s="150"/>
-      <c r="AS25" s="150"/>
-      <c r="AT25" s="150"/>
-      <c r="AU25" s="144"/>
-      <c r="AV25" s="144"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="54"/>
+      <c r="AO25" s="54"/>
+      <c r="AP25" s="54"/>
+      <c r="AQ25" s="54"/>
+      <c r="AR25" s="54"/>
+      <c r="AS25" s="54"/>
+      <c r="AT25" s="54"/>
       <c r="AW25" s="6"/>
       <c r="AX25" s="5"/>
-      <c r="AY25" s="144"/>
-      <c r="AZ25" s="144"/>
-      <c r="BA25" s="144"/>
-      <c r="BB25" s="144"/>
-      <c r="BC25" s="144"/>
-      <c r="BD25" s="144"/>
-      <c r="BE25" s="144"/>
-      <c r="BF25" s="144"/>
-      <c r="BG25" s="144"/>
-      <c r="BH25" s="144"/>
-      <c r="BI25" s="144"/>
-      <c r="BJ25" s="144"/>
-      <c r="BK25" s="144"/>
-      <c r="BL25" s="144"/>
-      <c r="BM25" s="144"/>
-      <c r="BN25" s="144"/>
-      <c r="BO25" s="144"/>
-      <c r="BP25" s="144"/>
-      <c r="BQ25" s="144"/>
-      <c r="BR25" s="144"/>
-      <c r="BS25" s="144"/>
       <c r="BT25" s="4"/>
       <c r="BU25" s="37"/>
     </row>
     <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
       <c r="L26" s="40" t="s">
         <v>12</v>
       </c>
@@ -4493,234 +4128,116 @@
       <c r="AM26" s="43">
         <v>16</v>
       </c>
-      <c r="AN26" s="150"/>
-      <c r="AO26" s="150"/>
-      <c r="AP26" s="150"/>
-      <c r="AQ26" s="150"/>
-      <c r="AR26" s="150"/>
-      <c r="AS26" s="150"/>
-      <c r="AT26" s="150"/>
-      <c r="AU26" s="144"/>
-      <c r="AV26" s="144"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="54"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="54"/>
+      <c r="AT26" s="54"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="5"/>
-      <c r="AY26" s="144"/>
-      <c r="AZ26" s="144"/>
-      <c r="BA26" s="144"/>
-      <c r="BB26" s="144"/>
-      <c r="BC26" s="144"/>
-      <c r="BD26" s="144"/>
-      <c r="BE26" s="144"/>
-      <c r="BF26" s="144"/>
-      <c r="BG26" s="144"/>
-      <c r="BH26" s="144"/>
-      <c r="BI26" s="144"/>
-      <c r="BJ26" s="144"/>
-      <c r="BK26" s="144"/>
-      <c r="BL26" s="144"/>
-      <c r="BM26" s="144"/>
-      <c r="BN26" s="144"/>
-      <c r="BO26" s="144"/>
-      <c r="BP26" s="144"/>
-      <c r="BQ26" s="144"/>
-      <c r="BR26" s="144"/>
-      <c r="BS26" s="144"/>
       <c r="BT26" s="4"/>
       <c r="BU26" s="37"/>
     </row>
     <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="39"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="149"/>
-      <c r="X27" s="151" t="s">
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="Y27" s="151"/>
-      <c r="Z27" s="151"/>
-      <c r="AA27" s="151"/>
-      <c r="AB27" s="151"/>
-      <c r="AC27" s="151"/>
-      <c r="AD27" s="151"/>
-      <c r="AE27" s="151"/>
-      <c r="AF27" s="151"/>
-      <c r="AG27" s="151"/>
-      <c r="AH27" s="151"/>
-      <c r="AI27" s="151"/>
-      <c r="AJ27" s="151"/>
-      <c r="AK27" s="151"/>
-      <c r="AL27" s="151"/>
-      <c r="AM27" s="151"/>
-      <c r="AN27" s="151"/>
-      <c r="AO27" s="151"/>
-      <c r="AP27" s="151"/>
-      <c r="AQ27" s="151"/>
-      <c r="AR27" s="151"/>
-      <c r="AS27" s="151"/>
-      <c r="AT27" s="151"/>
-      <c r="AU27" s="144"/>
-      <c r="AV27" s="144"/>
+      <c r="Y27" s="136"/>
+      <c r="Z27" s="136"/>
+      <c r="AA27" s="136"/>
+      <c r="AB27" s="136"/>
+      <c r="AC27" s="136"/>
+      <c r="AD27" s="136"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="136"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="136"/>
+      <c r="AJ27" s="136"/>
+      <c r="AK27" s="136"/>
+      <c r="AL27" s="136"/>
+      <c r="AM27" s="136"/>
+      <c r="AN27" s="136"/>
+      <c r="AO27" s="136"/>
+      <c r="AP27" s="136"/>
+      <c r="AQ27" s="136"/>
+      <c r="AR27" s="136"/>
+      <c r="AS27" s="136"/>
+      <c r="AT27" s="136"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="5"/>
-      <c r="AY27" s="144"/>
-      <c r="AZ27" s="62"/>
-      <c r="BA27" s="144"/>
-      <c r="BB27" s="62"/>
-      <c r="BC27" s="144"/>
-      <c r="BD27" s="144"/>
-      <c r="BE27" s="144"/>
-      <c r="BF27" s="62"/>
-      <c r="BG27" s="144"/>
-      <c r="BH27" s="62"/>
-      <c r="BI27" s="144"/>
-      <c r="BJ27" s="144"/>
-      <c r="BK27" s="144"/>
-      <c r="BL27" s="62"/>
-      <c r="BM27" s="144"/>
-      <c r="BN27" s="62"/>
-      <c r="BO27" s="144"/>
-      <c r="BP27" s="144"/>
-      <c r="BQ27" s="62"/>
-      <c r="BR27" s="144"/>
-      <c r="BS27" s="62"/>
+      <c r="AZ27" s="122"/>
+      <c r="BB27" s="122"/>
+      <c r="BF27" s="122"/>
+      <c r="BH27" s="122"/>
+      <c r="BL27" s="122"/>
+      <c r="BN27" s="122"/>
+      <c r="BQ27" s="122"/>
+      <c r="BS27" s="122"/>
       <c r="BT27" s="4"/>
       <c r="BU27" s="37"/>
     </row>
     <row r="28" spans="1:73" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="39"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
-      <c r="O28" s="144"/>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="144"/>
-      <c r="S28" s="144"/>
-      <c r="T28" s="144"/>
-      <c r="U28" s="144"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="144"/>
-      <c r="AB28" s="144"/>
-      <c r="AC28" s="144"/>
-      <c r="AD28" s="144"/>
-      <c r="AE28" s="144"/>
-      <c r="AF28" s="144"/>
-      <c r="AG28" s="144"/>
-      <c r="AH28" s="144"/>
-      <c r="AI28" s="144"/>
-      <c r="AJ28" s="144"/>
-      <c r="AK28" s="144"/>
-      <c r="AL28" s="144"/>
-      <c r="AM28" s="144"/>
-      <c r="AN28" s="144"/>
-      <c r="AO28" s="144"/>
-      <c r="AP28" s="144"/>
-      <c r="AQ28" s="144"/>
-      <c r="AR28" s="144"/>
-      <c r="AS28" s="144"/>
-      <c r="AT28" s="144"/>
-      <c r="AU28" s="144"/>
-      <c r="AV28" s="144"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="5"/>
-      <c r="AY28" s="144"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="144"/>
-      <c r="BB28" s="63"/>
-      <c r="BC28" s="144"/>
-      <c r="BD28" s="144"/>
-      <c r="BE28" s="144"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="144"/>
-      <c r="BH28" s="63"/>
-      <c r="BI28" s="144"/>
-      <c r="BJ28" s="144"/>
-      <c r="BK28" s="144"/>
-      <c r="BL28" s="63"/>
-      <c r="BM28" s="144"/>
-      <c r="BN28" s="63"/>
-      <c r="BO28" s="144"/>
-      <c r="BP28" s="144"/>
-      <c r="BQ28" s="63"/>
-      <c r="BR28" s="144"/>
-      <c r="BS28" s="63"/>
+      <c r="AZ28" s="123"/>
+      <c r="BB28" s="123"/>
+      <c r="BF28" s="123"/>
+      <c r="BH28" s="123"/>
+      <c r="BL28" s="123"/>
+      <c r="BN28" s="123"/>
+      <c r="BQ28" s="123"/>
+      <c r="BS28" s="123"/>
       <c r="BT28" s="4"/>
       <c r="BU28" s="37"/>
     </row>
     <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="141"/>
+      <c r="Q29" s="141"/>
+      <c r="R29" s="141"/>
+      <c r="S29" s="141"/>
+      <c r="T29" s="141"/>
+      <c r="U29" s="141"/>
+      <c r="V29" s="141"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="80" t="s">
+      <c r="AC29" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AD29" s="80"/>
-      <c r="AE29" s="80"/>
-      <c r="AF29" s="80"/>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
-      <c r="AI29" s="80"/>
-      <c r="AJ29" s="80"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
@@ -4731,31 +4248,31 @@
       <c r="AT29" s="9"/>
       <c r="AU29" s="9"/>
       <c r="AV29" s="9"/>
-      <c r="AW29" s="148"/>
-      <c r="AX29" s="148"/>
+      <c r="AW29" s="53"/>
+      <c r="AX29" s="53"/>
       <c r="AY29" s="9"/>
-      <c r="AZ29" s="63"/>
+      <c r="AZ29" s="123"/>
       <c r="BA29" s="9"/>
-      <c r="BB29" s="63"/>
+      <c r="BB29" s="123"/>
       <c r="BC29" s="9"/>
       <c r="BD29" s="9"/>
       <c r="BE29" s="9"/>
-      <c r="BF29" s="63"/>
+      <c r="BF29" s="123"/>
       <c r="BG29" s="9"/>
-      <c r="BH29" s="63"/>
-      <c r="BI29" s="82" t="s">
+      <c r="BH29" s="123"/>
+      <c r="BI29" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="BJ29" s="83"/>
-      <c r="BK29" s="84"/>
-      <c r="BL29" s="63"/>
+      <c r="BJ29" s="126"/>
+      <c r="BK29" s="127"/>
+      <c r="BL29" s="123"/>
       <c r="BM29" s="30"/>
-      <c r="BN29" s="63"/>
+      <c r="BN29" s="123"/>
       <c r="BO29" s="30"/>
       <c r="BP29" s="9"/>
-      <c r="BQ29" s="63"/>
+      <c r="BQ29" s="123"/>
       <c r="BR29" s="9"/>
-      <c r="BS29" s="63"/>
+      <c r="BS29" s="123"/>
       <c r="BT29" s="10"/>
       <c r="BU29" s="37"/>
     </row>
@@ -4767,37 +4284,37 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="142"/>
+      <c r="R30" s="142"/>
+      <c r="S30" s="142"/>
+      <c r="T30" s="142"/>
+      <c r="U30" s="142"/>
+      <c r="V30" s="142"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="81"/>
-      <c r="AD30" s="81"/>
-      <c r="AE30" s="81"/>
-      <c r="AF30" s="81"/>
-      <c r="AG30" s="81"/>
-      <c r="AH30" s="81"/>
-      <c r="AI30" s="81"/>
-      <c r="AJ30" s="81"/>
-      <c r="AK30" s="81"/>
-      <c r="AL30" s="81"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="58"/>
+      <c r="AK30" s="58"/>
+      <c r="AL30" s="58"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
@@ -4811,28 +4328,28 @@
       <c r="AW30" s="7"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
-      <c r="AZ30" s="64"/>
+      <c r="AZ30" s="124"/>
       <c r="BA30" s="7"/>
-      <c r="BB30" s="64"/>
+      <c r="BB30" s="124"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
       <c r="BE30" s="7"/>
-      <c r="BF30" s="64"/>
+      <c r="BF30" s="124"/>
       <c r="BG30" s="7"/>
-      <c r="BH30" s="64"/>
-      <c r="BI30" s="85" t="s">
+      <c r="BH30" s="124"/>
+      <c r="BI30" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="BJ30" s="86"/>
-      <c r="BK30" s="87"/>
-      <c r="BL30" s="64"/>
+      <c r="BJ30" s="129"/>
+      <c r="BK30" s="130"/>
+      <c r="BL30" s="124"/>
       <c r="BM30" s="31"/>
-      <c r="BN30" s="64"/>
+      <c r="BN30" s="124"/>
       <c r="BO30" s="31"/>
       <c r="BP30" s="7"/>
-      <c r="BQ30" s="64"/>
+      <c r="BQ30" s="124"/>
       <c r="BR30" s="7"/>
-      <c r="BS30" s="64"/>
+      <c r="BS30" s="124"/>
       <c r="BT30" s="8"/>
       <c r="BU30" s="37"/>
     </row>
@@ -4862,30 +4379,30 @@
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="138"/>
-      <c r="AB31" s="138"/>
-      <c r="AC31" s="138"/>
-      <c r="AD31" s="138"/>
-      <c r="AE31" s="138"/>
-      <c r="AF31" s="138"/>
-      <c r="AG31" s="138"/>
-      <c r="AH31" s="138"/>
-      <c r="AI31" s="138"/>
-      <c r="AJ31" s="138"/>
-      <c r="AK31" s="138"/>
-      <c r="AL31" s="138"/>
-      <c r="AM31" s="138"/>
-      <c r="AN31" s="138"/>
-      <c r="AO31" s="138"/>
-      <c r="AP31" s="138"/>
-      <c r="AQ31" s="138"/>
-      <c r="AR31" s="138"/>
-      <c r="AS31" s="138"/>
-      <c r="AT31" s="138"/>
-      <c r="AU31" s="138"/>
-      <c r="AV31" s="138"/>
-      <c r="AW31" s="138"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
       <c r="AX31" s="35"/>
       <c r="AY31" s="35"/>
       <c r="AZ31" s="35"/>
@@ -7505,6 +7022,187 @@
     <row r="2566" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="205">
+    <mergeCell ref="BG13:BG16"/>
+    <mergeCell ref="BI13:BI16"/>
+    <mergeCell ref="BJ13:BJ16"/>
+    <mergeCell ref="J29:V30"/>
+    <mergeCell ref="H29:I30"/>
+    <mergeCell ref="BH27:BH30"/>
+    <mergeCell ref="BD18:BD22"/>
+    <mergeCell ref="BC18:BC22"/>
+    <mergeCell ref="AZ24:BS24"/>
+    <mergeCell ref="BS13:BS16"/>
+    <mergeCell ref="BE13:BE16"/>
+    <mergeCell ref="BS18:BS22"/>
+    <mergeCell ref="BR18:BR22"/>
+    <mergeCell ref="BQ18:BQ22"/>
+    <mergeCell ref="BP18:BP22"/>
+    <mergeCell ref="BO18:BO22"/>
+    <mergeCell ref="BN18:BN22"/>
+    <mergeCell ref="BM18:BM22"/>
+    <mergeCell ref="BL18:BL22"/>
+    <mergeCell ref="BK18:BK22"/>
+    <mergeCell ref="AH12:AH16"/>
+    <mergeCell ref="BL27:BL30"/>
+    <mergeCell ref="BN27:BN30"/>
+    <mergeCell ref="BS27:BS30"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I28"/>
+    <mergeCell ref="J9:V10"/>
+    <mergeCell ref="AZ27:AZ30"/>
+    <mergeCell ref="BB27:BB30"/>
+    <mergeCell ref="BF27:BF30"/>
+    <mergeCell ref="AP13:AP16"/>
+    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="Z13:Z16"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="AK18:AK25"/>
+    <mergeCell ref="AL18:AL25"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AC18:AC25"/>
+    <mergeCell ref="AF13:AF16"/>
+    <mergeCell ref="AC29:AL30"/>
+    <mergeCell ref="BF13:BF16"/>
+    <mergeCell ref="BC13:BC16"/>
+    <mergeCell ref="AJ13:AJ16"/>
+    <mergeCell ref="AE13:AE16"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="AO13:AO16"/>
+    <mergeCell ref="BQ27:BQ30"/>
+    <mergeCell ref="BI29:BK29"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="M18:M25"/>
+    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="AE18:AE25"/>
+    <mergeCell ref="AF18:AF25"/>
+    <mergeCell ref="AG18:AG25"/>
+    <mergeCell ref="AT18:AT22"/>
+    <mergeCell ref="AN18:AN22"/>
+    <mergeCell ref="AH18:AH25"/>
+    <mergeCell ref="AI18:AI25"/>
+    <mergeCell ref="AJ18:AJ25"/>
+    <mergeCell ref="AO18:AO22"/>
+    <mergeCell ref="AP18:AP22"/>
+    <mergeCell ref="AQ18:AQ22"/>
+    <mergeCell ref="AR18:AR22"/>
+    <mergeCell ref="X18:X25"/>
+    <mergeCell ref="Y18:Y25"/>
+    <mergeCell ref="Z18:Z25"/>
+    <mergeCell ref="BE18:BE22"/>
+    <mergeCell ref="X27:AT27"/>
+    <mergeCell ref="BB18:BB22"/>
+    <mergeCell ref="BA18:BA22"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="W18:W25"/>
+    <mergeCell ref="V18:V25"/>
+    <mergeCell ref="U18:U25"/>
+    <mergeCell ref="T18:T25"/>
+    <mergeCell ref="S18:S25"/>
+    <mergeCell ref="R18:R25"/>
+    <mergeCell ref="Q18:Q25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="W13:W16"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AC13:AC16"/>
+    <mergeCell ref="AB13:AB16"/>
+    <mergeCell ref="AA13:AA16"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="AM2:AM5"/>
+    <mergeCell ref="AM13:AM16"/>
+    <mergeCell ref="AL13:AL16"/>
+    <mergeCell ref="AK13:AK16"/>
+    <mergeCell ref="AN13:AN16"/>
+    <mergeCell ref="AD13:AD16"/>
+    <mergeCell ref="AD7:AZ7"/>
+    <mergeCell ref="AU2:AU5"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="AX2:AX5"/>
+    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="AI2:AI5"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="AL2:AL5"/>
+    <mergeCell ref="AK2:AK5"/>
+    <mergeCell ref="AW11:AX13"/>
+    <mergeCell ref="AQ13:AQ16"/>
+    <mergeCell ref="AG13:AG16"/>
+    <mergeCell ref="AZ11:BS11"/>
+    <mergeCell ref="AI13:AI16"/>
+    <mergeCell ref="AR13:AR16"/>
+    <mergeCell ref="AS13:AS16"/>
+    <mergeCell ref="BD2:BD5"/>
+    <mergeCell ref="BC2:BC5"/>
+    <mergeCell ref="BB2:BB5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="BA2:BA6"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="AS2:AS5"/>
+    <mergeCell ref="AR2:AR5"/>
+    <mergeCell ref="AQ2:AQ5"/>
+    <mergeCell ref="AP2:AP5"/>
+    <mergeCell ref="AN2:AN5"/>
+    <mergeCell ref="AO2:AO5"/>
+    <mergeCell ref="AD2:AD5"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="BR2:BR5"/>
+    <mergeCell ref="BQ2:BQ5"/>
+    <mergeCell ref="BP2:BP5"/>
+    <mergeCell ref="BO2:BO5"/>
+    <mergeCell ref="BN2:BN5"/>
+    <mergeCell ref="BM2:BM5"/>
+    <mergeCell ref="BR13:BR16"/>
+    <mergeCell ref="BQ13:BQ16"/>
+    <mergeCell ref="BP13:BP16"/>
+    <mergeCell ref="BM13:BM16"/>
+    <mergeCell ref="BN13:BN16"/>
+    <mergeCell ref="BO13:BO16"/>
+    <mergeCell ref="BG9:BP10"/>
+    <mergeCell ref="BB7:BR7"/>
+    <mergeCell ref="BH12:BH16"/>
+    <mergeCell ref="BK13:BK16"/>
+    <mergeCell ref="BL13:BL16"/>
+    <mergeCell ref="BL2:BL5"/>
+    <mergeCell ref="BK2:BK5"/>
+    <mergeCell ref="BJ2:BJ5"/>
+    <mergeCell ref="BI2:BI5"/>
+    <mergeCell ref="BH2:BH5"/>
+    <mergeCell ref="BG2:BG5"/>
+    <mergeCell ref="BF2:BF5"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AD1:AJ1"/>
     <mergeCell ref="W9:AL10"/>
@@ -7529,187 +7227,6 @@
     <mergeCell ref="BG18:BG22"/>
     <mergeCell ref="BF18:BF22"/>
     <mergeCell ref="BE2:BE5"/>
-    <mergeCell ref="BR2:BR5"/>
-    <mergeCell ref="BQ2:BQ5"/>
-    <mergeCell ref="BP2:BP5"/>
-    <mergeCell ref="BO2:BO5"/>
-    <mergeCell ref="BN2:BN5"/>
-    <mergeCell ref="BM2:BM5"/>
-    <mergeCell ref="BR13:BR16"/>
-    <mergeCell ref="BQ13:BQ16"/>
-    <mergeCell ref="BP13:BP16"/>
-    <mergeCell ref="BM13:BM16"/>
-    <mergeCell ref="BN13:BN16"/>
-    <mergeCell ref="BO13:BO16"/>
-    <mergeCell ref="BG9:BP10"/>
-    <mergeCell ref="BB7:BR7"/>
-    <mergeCell ref="BH12:BH16"/>
-    <mergeCell ref="BK13:BK16"/>
-    <mergeCell ref="BL13:BL16"/>
-    <mergeCell ref="BL2:BL5"/>
-    <mergeCell ref="BK2:BK5"/>
-    <mergeCell ref="BJ2:BJ5"/>
-    <mergeCell ref="BI2:BI5"/>
-    <mergeCell ref="BH2:BH5"/>
-    <mergeCell ref="BG2:BG5"/>
-    <mergeCell ref="BF2:BF5"/>
-    <mergeCell ref="BD2:BD5"/>
-    <mergeCell ref="BC2:BC5"/>
-    <mergeCell ref="BB2:BB5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="BA2:BA6"/>
-    <mergeCell ref="AJ2:AJ5"/>
-    <mergeCell ref="AS2:AS5"/>
-    <mergeCell ref="AR2:AR5"/>
-    <mergeCell ref="AQ2:AQ5"/>
-    <mergeCell ref="AP2:AP5"/>
-    <mergeCell ref="AN2:AN5"/>
-    <mergeCell ref="AO2:AO5"/>
-    <mergeCell ref="AD2:AD5"/>
-    <mergeCell ref="AE2:AE5"/>
-    <mergeCell ref="AF2:AF5"/>
-    <mergeCell ref="AM2:AM5"/>
-    <mergeCell ref="AM13:AM16"/>
-    <mergeCell ref="AL13:AL16"/>
-    <mergeCell ref="AK13:AK16"/>
-    <mergeCell ref="AN13:AN16"/>
-    <mergeCell ref="AD13:AD16"/>
-    <mergeCell ref="AD7:AZ7"/>
-    <mergeCell ref="AU2:AU5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="AX2:AX5"/>
-    <mergeCell ref="AW2:AW5"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="AI2:AI5"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="AL2:AL5"/>
-    <mergeCell ref="AK2:AK5"/>
-    <mergeCell ref="AW11:AX13"/>
-    <mergeCell ref="AQ13:AQ16"/>
-    <mergeCell ref="AG13:AG16"/>
-    <mergeCell ref="AZ11:BS11"/>
-    <mergeCell ref="AI13:AI16"/>
-    <mergeCell ref="AR13:AR16"/>
-    <mergeCell ref="AS13:AS16"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="AC13:AC16"/>
-    <mergeCell ref="AB13:AB16"/>
-    <mergeCell ref="AA13:AA16"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W7:AB7"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="W18:W25"/>
-    <mergeCell ref="V18:V25"/>
-    <mergeCell ref="U18:U25"/>
-    <mergeCell ref="T18:T25"/>
-    <mergeCell ref="S18:S25"/>
-    <mergeCell ref="R18:R25"/>
-    <mergeCell ref="Q18:Q25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="W13:W16"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="BQ27:BQ30"/>
-    <mergeCell ref="BI29:BK29"/>
-    <mergeCell ref="BI30:BK30"/>
-    <mergeCell ref="M18:M25"/>
-    <mergeCell ref="L18:L25"/>
-    <mergeCell ref="AE18:AE25"/>
-    <mergeCell ref="AF18:AF25"/>
-    <mergeCell ref="AG18:AG25"/>
-    <mergeCell ref="AT18:AT22"/>
-    <mergeCell ref="AN18:AN22"/>
-    <mergeCell ref="AH18:AH25"/>
-    <mergeCell ref="AI18:AI25"/>
-    <mergeCell ref="AJ18:AJ25"/>
-    <mergeCell ref="AO18:AO22"/>
-    <mergeCell ref="AP18:AP22"/>
-    <mergeCell ref="AQ18:AQ22"/>
-    <mergeCell ref="AR18:AR22"/>
-    <mergeCell ref="X18:X25"/>
-    <mergeCell ref="Y18:Y25"/>
-    <mergeCell ref="Z18:Z25"/>
-    <mergeCell ref="BE18:BE22"/>
-    <mergeCell ref="X27:AT27"/>
-    <mergeCell ref="BB18:BB22"/>
-    <mergeCell ref="BA18:BA22"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I28"/>
-    <mergeCell ref="J9:V10"/>
-    <mergeCell ref="AZ27:AZ30"/>
-    <mergeCell ref="BB27:BB30"/>
-    <mergeCell ref="BF27:BF30"/>
-    <mergeCell ref="AP13:AP16"/>
-    <mergeCell ref="AA18:AA25"/>
-    <mergeCell ref="Z13:Z16"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="AK18:AK25"/>
-    <mergeCell ref="AL18:AL25"/>
-    <mergeCell ref="AB18:AB25"/>
-    <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AF13:AF16"/>
-    <mergeCell ref="AC29:AL30"/>
-    <mergeCell ref="BF13:BF16"/>
-    <mergeCell ref="BC13:BC16"/>
-    <mergeCell ref="AJ13:AJ16"/>
-    <mergeCell ref="AE13:AE16"/>
-    <mergeCell ref="X13:X16"/>
-    <mergeCell ref="AO13:AO16"/>
-    <mergeCell ref="BG13:BG16"/>
-    <mergeCell ref="BI13:BI16"/>
-    <mergeCell ref="BJ13:BJ16"/>
-    <mergeCell ref="J29:V30"/>
-    <mergeCell ref="H29:I30"/>
-    <mergeCell ref="BH27:BH30"/>
-    <mergeCell ref="BD18:BD22"/>
-    <mergeCell ref="BC18:BC22"/>
-    <mergeCell ref="AZ24:BS24"/>
-    <mergeCell ref="BS13:BS16"/>
-    <mergeCell ref="BE13:BE16"/>
-    <mergeCell ref="BS18:BS22"/>
-    <mergeCell ref="BR18:BR22"/>
-    <mergeCell ref="BQ18:BQ22"/>
-    <mergeCell ref="BP18:BP22"/>
-    <mergeCell ref="BO18:BO22"/>
-    <mergeCell ref="BN18:BN22"/>
-    <mergeCell ref="BM18:BM22"/>
-    <mergeCell ref="BL18:BL22"/>
-    <mergeCell ref="BK18:BK22"/>
-    <mergeCell ref="AH12:AH16"/>
-    <mergeCell ref="BL27:BL30"/>
-    <mergeCell ref="BN27:BN30"/>
-    <mergeCell ref="BS27:BS30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serdar\Desktop\depo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turkplast-my.sharepoint.com/personal/bobin_depo_turkambalaj_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57F245B4-35C4-4EAE-AAEF-7692DAC13377}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YERLESIM" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
   <si>
     <t>F BLOK</t>
   </si>
@@ -385,6 +387,9 @@
   </si>
   <si>
     <t>:</t>
+  </si>
+  <si>
+    <t>FLT 135/2250</t>
   </si>
 </sst>
 </file>
@@ -519,7 +524,7 @@
     </font>
     <font>
       <sz val="26"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
       <charset val="162"/>
@@ -576,7 +581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,12 +1328,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1634,6 +1639,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1928,17 +1937,17 @@
   <dimension ref="A1:BU2566"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CH21" sqref="CH21"/>
+      <selection activeCell="CD17" sqref="CD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1"/>
-    <col min="2" max="5" width="7.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="5.6640625" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1"/>
+    <col min="2" max="5" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="5.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="38"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1981,7 +1990,7 @@
       <c r="AH1" s="56"/>
       <c r="AI1" s="56"/>
       <c r="AJ1" s="56"/>
-      <c r="AK1" s="51" t="s">
+      <c r="AK1" s="54" t="s">
         <v>116</v>
       </c>
       <c r="AL1" s="55">
@@ -2023,7 +2032,7 @@
       <c r="BT1" s="33"/>
       <c r="BU1" s="33"/>
     </row>
-    <row r="2" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -2204,10 +2213,10 @@
       <c r="BT2" s="3"/>
       <c r="BU2" s="37"/>
     </row>
-    <row r="3" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="52"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="21"/>
       <c r="K3" s="105"/>
       <c r="L3" s="94"/>
@@ -2272,7 +2281,7 @@
       <c r="BT3" s="4"/>
       <c r="BU3" s="37"/>
     </row>
-    <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39"/>
       <c r="B4" s="87" t="s">
         <v>8</v>
@@ -2342,10 +2351,10 @@
       <c r="BT4" s="4"/>
       <c r="BU4" s="37"/>
     </row>
-    <row r="5" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="52"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="21"/>
       <c r="K5" s="106"/>
       <c r="L5" s="95"/>
@@ -2410,10 +2419,10 @@
       <c r="BT5" s="4"/>
       <c r="BU5" s="37"/>
     </row>
-    <row r="6" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="52"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="21"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
@@ -2596,7 +2605,7 @@
       <c r="BT6" s="4"/>
       <c r="BU6" s="37"/>
     </row>
-    <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39"/>
       <c r="B7" s="119" t="s">
         <v>53</v>
@@ -2664,7 +2673,7 @@
       <c r="BT7" s="4"/>
       <c r="BU7" s="37"/>
     </row>
-    <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
       <c r="B8" s="112" t="s">
         <v>53</v>
@@ -2681,7 +2690,7 @@
       <c r="BT8" s="4"/>
       <c r="BU8" s="37"/>
     </row>
-    <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="112" t="s">
         <v>54</v>
@@ -2765,7 +2774,7 @@
       <c r="BT9" s="10"/>
       <c r="BU9" s="37"/>
     </row>
-    <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="112" t="s">
         <v>55</v>
@@ -2817,8 +2826,8 @@
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
+      <c r="AW10" s="52"/>
+      <c r="AX10" s="52"/>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
@@ -2843,7 +2852,7 @@
       <c r="BT10" s="8"/>
       <c r="BU10" s="37"/>
     </row>
-    <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="39"/>
       <c r="B11" s="112" t="s">
         <v>56</v>
@@ -2911,7 +2920,7 @@
       <c r="BT11" s="4"/>
       <c r="BU11" s="37"/>
     </row>
-    <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="112" t="s">
         <v>56</v>
@@ -3061,7 +3070,7 @@
       <c r="BT12" s="4"/>
       <c r="BU12" s="37"/>
     </row>
-    <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="112" t="s">
         <v>57</v>
@@ -3074,7 +3083,9 @@
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="71"/>
-      <c r="W13" s="59"/>
+      <c r="W13" s="59" t="s">
+        <v>63</v>
+      </c>
       <c r="X13" s="62" t="s">
         <v>96</v>
       </c>
@@ -3180,7 +3191,7 @@
       <c r="BT13" s="4"/>
       <c r="BU13" s="37"/>
     </row>
-    <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="112"/>
       <c r="C14" s="113"/>
@@ -3243,7 +3254,7 @@
       <c r="BT14" s="4"/>
       <c r="BU14" s="37"/>
     </row>
-    <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="112" t="s">
         <v>58</v>
@@ -3306,7 +3317,7 @@
       <c r="BT15" s="4"/>
       <c r="BU15" s="37"/>
     </row>
-    <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="112" t="s">
         <v>59</v>
@@ -3369,7 +3380,7 @@
       <c r="BT16" s="4"/>
       <c r="BU16" s="37"/>
     </row>
-    <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="112" t="s">
         <v>54</v>
@@ -3387,7 +3398,7 @@
       <c r="BT17" s="4"/>
       <c r="BU17" s="37"/>
     </row>
-    <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="112" t="s">
         <v>60</v>
@@ -3477,8 +3488,12 @@
         <v>79</v>
       </c>
       <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
+      <c r="AQ18" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR18" s="62" t="s">
+        <v>117</v>
+      </c>
       <c r="AS18" s="62" t="s">
         <v>69</v>
       </c>
@@ -3542,7 +3557,7 @@
       <c r="BT18" s="4"/>
       <c r="BU18" s="37"/>
     </row>
-    <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="115"/>
       <c r="C19" s="116"/>
@@ -3613,7 +3628,7 @@
       <c r="BT19" s="4"/>
       <c r="BU19" s="37"/>
     </row>
-    <row r="20" spans="1:73" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="12"/>
       <c r="H20" s="70"/>
@@ -3678,7 +3693,7 @@
       <c r="BT20" s="4"/>
       <c r="BU20" s="37"/>
     </row>
-    <row r="21" spans="1:73" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="12"/>
       <c r="H21" s="70"/>
@@ -3743,7 +3758,7 @@
       <c r="BT21" s="4"/>
       <c r="BU21" s="37"/>
     </row>
-    <row r="22" spans="1:73" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="12"/>
       <c r="H22" s="70"/>
@@ -3808,7 +3823,7 @@
       <c r="BT22" s="4"/>
       <c r="BU22" s="37"/>
     </row>
-    <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="12"/>
       <c r="H23" s="70"/>
@@ -3927,7 +3942,7 @@
       <c r="BT23" s="4"/>
       <c r="BU23" s="37"/>
     </row>
-    <row r="24" spans="1:73" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="39"/>
       <c r="B24" s="12"/>
       <c r="H24" s="70"/>
@@ -3960,13 +3975,13 @@
       <c r="AK24" s="63"/>
       <c r="AL24" s="63"/>
       <c r="AM24" s="77"/>
-      <c r="AN24" s="54"/>
-      <c r="AO24" s="54"/>
-      <c r="AP24" s="54"/>
-      <c r="AQ24" s="54"/>
-      <c r="AR24" s="54"/>
-      <c r="AS24" s="54"/>
-      <c r="AT24" s="54"/>
+      <c r="AN24" s="53"/>
+      <c r="AO24" s="53"/>
+      <c r="AP24" s="53"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="53"/>
+      <c r="AT24" s="53"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="5"/>
       <c r="AZ24" s="84" t="s">
@@ -3994,7 +4009,7 @@
       <c r="BT24" s="4"/>
       <c r="BU24" s="37"/>
     </row>
-    <row r="25" spans="1:73" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="12"/>
       <c r="H25" s="70"/>
@@ -4027,19 +4042,19 @@
       <c r="AK25" s="64"/>
       <c r="AL25" s="64"/>
       <c r="AM25" s="78"/>
-      <c r="AN25" s="54"/>
-      <c r="AO25" s="54"/>
-      <c r="AP25" s="54"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="54"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="54"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
       <c r="AW25" s="6"/>
       <c r="AX25" s="5"/>
       <c r="BT25" s="4"/>
       <c r="BU25" s="37"/>
     </row>
-    <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="12"/>
       <c r="H26" s="70"/>
@@ -4128,19 +4143,19 @@
       <c r="AM26" s="43">
         <v>16</v>
       </c>
-      <c r="AN26" s="54"/>
-      <c r="AO26" s="54"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="54"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54"/>
+      <c r="AN26" s="53"/>
+      <c r="AO26" s="53"/>
+      <c r="AP26" s="53"/>
+      <c r="AQ26" s="53"/>
+      <c r="AR26" s="53"/>
+      <c r="AS26" s="53"/>
+      <c r="AT26" s="53"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="5"/>
       <c r="BT26" s="4"/>
       <c r="BU26" s="37"/>
     </row>
-    <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="39"/>
       <c r="B27" s="12"/>
       <c r="H27" s="70"/>
@@ -4184,7 +4199,7 @@
       <c r="BT27" s="4"/>
       <c r="BU27" s="37"/>
     </row>
-    <row r="28" spans="1:73" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="12"/>
       <c r="H28" s="70"/>
@@ -4202,7 +4217,7 @@
       <c r="BT28" s="4"/>
       <c r="BU28" s="37"/>
     </row>
-    <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="12"/>
       <c r="H29" s="107"/>
@@ -4248,8 +4263,8 @@
       <c r="AT29" s="9"/>
       <c r="AU29" s="9"/>
       <c r="AV29" s="9"/>
-      <c r="AW29" s="53"/>
-      <c r="AX29" s="53"/>
+      <c r="AW29" s="52"/>
+      <c r="AX29" s="52"/>
       <c r="AY29" s="9"/>
       <c r="AZ29" s="123"/>
       <c r="BA29" s="9"/>
@@ -4276,7 +4291,7 @@
       <c r="BT29" s="10"/>
       <c r="BU29" s="37"/>
     </row>
-    <row r="30" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -4353,7 +4368,7 @@
       <c r="BT30" s="8"/>
       <c r="BU30" s="37"/>
     </row>
-    <row r="31" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -4428,2598 +4443,2598 @@
       <c r="BT31" s="35"/>
       <c r="BU31" s="36"/>
     </row>
-    <row r="32" spans="1:73" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH79" s="11"/>
       <c r="BI79" s="11"/>
       <c r="BJ79" s="11"/>
     </row>
-    <row r="80" spans="60:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH80" s="11"/>
       <c r="BI80" s="11"/>
       <c r="BJ80" s="11"/>
     </row>
-    <row r="81" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH81" s="11"/>
       <c r="BI81" s="11"/>
       <c r="BJ81" s="11"/>
     </row>
-    <row r="82" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH82" s="11"/>
       <c r="BI82" s="11"/>
       <c r="BJ82" s="11"/>
     </row>
-    <row r="83" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH83" s="11"/>
       <c r="BI83" s="11"/>
       <c r="BJ83" s="11"/>
     </row>
-    <row r="84" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BG85" s="15"/>
       <c r="BH85" s="15"/>
       <c r="BI85" s="15"/>
       <c r="BJ85" s="15"/>
     </row>
-    <row r="86" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BG86" s="15"/>
       <c r="BH86" s="15"/>
       <c r="BI86" s="15"/>
       <c r="BJ86" s="15"/>
     </row>
-    <row r="87" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BG87" s="15"/>
       <c r="BH87" s="15"/>
       <c r="BI87" s="15"/>
       <c r="BJ87" s="15"/>
     </row>
-    <row r="88" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BG88" s="15"/>
       <c r="BH88" s="15"/>
       <c r="BI88" s="15"/>
       <c r="BJ88" s="15"/>
     </row>
-    <row r="89" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BG89" s="15"/>
       <c r="BH89" s="15"/>
       <c r="BI89" s="15"/>
       <c r="BJ89" s="15"/>
     </row>
-    <row r="90" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="59:62" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="59:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="59:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="59:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BH106" s="16"/>
       <c r="BI106" s="16"/>
       <c r="BJ106" s="16"/>
     </row>
-    <row r="107" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH108" s="15"/>
       <c r="BI108" s="15"/>
       <c r="BJ108" s="15"/>
     </row>
-    <row r="109" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH109" s="15"/>
       <c r="BI109" s="15"/>
       <c r="BJ109" s="15"/>
     </row>
-    <row r="110" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="60:62" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1001" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1002" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1003" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1004" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1005" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1006" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1007" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1008" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1009" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1010" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1011" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1012" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1013" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1014" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1015" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1016" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1017" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1018" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1019" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1020" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1021" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1022" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1023" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1024" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1025" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1026" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1027" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1028" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1029" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1030" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1031" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1032" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1033" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1034" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1035" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1036" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1037" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1038" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1039" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1040" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1041" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1042" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1043" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1044" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1045" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1046" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1047" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1048" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1049" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1050" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1051" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1052" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1053" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1054" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1055" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1056" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1057" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1058" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1059" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1060" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1061" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1062" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1063" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1064" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1065" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1066" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1067" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1068" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1069" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1070" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1071" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1072" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1073" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1074" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1075" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1076" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1077" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1078" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1079" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1080" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1081" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1082" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1083" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1084" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1085" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1086" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1087" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1088" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1089" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1090" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1091" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1092" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1093" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1094" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1095" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1096" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1097" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1098" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1099" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1100" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1101" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1102" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1103" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1104" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1105" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1106" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1107" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1108" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1109" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1110" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1111" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1112" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1113" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1114" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1115" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1116" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1117" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1118" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1119" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1120" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1121" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1122" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1123" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1124" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1125" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1126" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1127" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1128" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1129" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1130" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1131" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1132" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1133" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1134" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1135" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1136" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1137" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1138" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1139" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1140" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1141" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1142" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1143" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1144" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1145" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1146" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1147" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1148" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1149" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1150" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1151" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1152" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1153" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1154" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1155" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1156" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1157" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1158" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1159" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1160" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1161" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1162" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1163" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1164" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1165" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1166" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1167" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1168" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1169" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1170" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1171" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1172" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1173" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1174" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1175" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1176" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1177" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1178" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1179" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1180" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1181" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1182" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1183" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1184" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1185" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1186" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1187" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1188" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1189" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1190" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1191" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1192" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1193" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1194" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1195" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1196" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1197" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1198" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1199" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1200" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1201" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1202" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1203" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1204" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1205" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1206" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1207" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1208" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1209" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1210" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1211" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1212" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1213" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1214" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1215" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1216" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1217" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1218" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1219" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1220" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1221" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1222" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1223" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1224" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1225" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1226" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1227" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1228" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1229" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1230" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1231" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1232" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1233" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1234" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1235" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1236" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1237" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1238" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1239" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1240" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1241" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1242" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1243" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1244" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1245" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1246" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1247" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1248" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1249" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1250" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1251" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1252" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1253" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1254" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1255" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1257" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1258" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1259" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1260" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1261" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1262" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1263" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1264" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1265" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1266" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1267" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1268" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1269" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1270" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1271" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1272" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1273" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1274" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1275" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1276" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1277" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1278" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1279" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1280" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1281" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1282" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1283" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1284" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1285" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1286" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1287" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1288" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1289" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1290" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1291" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1292" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1293" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1294" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1295" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1296" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1297" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1298" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1299" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1300" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1301" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1302" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1303" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1304" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1305" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1306" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1307" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1308" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1309" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1310" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1311" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1312" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1313" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1314" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1315" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1316" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1317" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1318" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1319" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1320" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1321" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1322" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1323" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1324" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1325" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1326" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1327" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1328" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1329" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1330" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1331" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1332" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1333" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1334" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1335" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1336" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1337" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1338" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1339" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1340" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1341" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1342" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1343" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1344" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1345" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1346" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1347" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1348" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1349" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1350" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1351" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1352" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1353" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1354" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1355" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1356" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1357" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1358" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1359" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1360" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1361" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1362" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1363" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1364" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1365" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1366" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1367" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1368" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1369" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1370" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1371" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1372" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1373" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1374" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1375" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1376" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1377" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1378" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1379" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1380" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1381" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1382" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1383" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1384" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1385" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1386" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1387" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1388" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1389" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1390" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1391" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1392" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1393" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1394" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1395" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1396" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1397" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1398" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1399" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1400" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1401" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1402" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1403" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1404" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1405" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1406" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1407" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1408" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1409" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1410" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1411" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1412" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1413" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1414" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1415" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1416" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1417" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1418" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1419" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1420" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1421" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1422" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1423" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1424" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1425" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1426" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1427" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1428" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1429" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1430" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1431" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1432" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1433" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1434" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1435" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1436" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1437" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1438" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1439" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1440" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1441" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1442" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1443" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1444" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1445" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1446" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1447" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1448" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1449" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1450" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1451" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1452" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1453" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1454" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1455" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1456" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1457" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1458" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1459" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1460" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1461" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1462" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1463" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1464" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1465" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1466" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1467" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1468" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1469" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1470" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1471" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1472" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1473" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1474" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1475" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1476" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1477" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1478" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1479" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1480" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1481" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1482" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1483" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1484" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1485" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1486" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1487" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1488" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1489" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1490" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1491" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1492" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1493" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1494" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1495" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1496" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1497" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1498" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1499" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1500" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1501" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1502" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1503" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1504" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1505" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1506" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1507" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1508" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1509" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1510" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1511" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1512" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1513" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1514" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1515" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1516" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1517" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1518" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1519" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1520" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1521" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1522" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1523" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1524" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1525" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1526" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1527" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1528" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1529" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1530" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1531" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1532" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1533" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1534" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1535" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1536" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1537" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1538" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1539" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1540" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1541" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1542" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1543" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1544" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1545" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1546" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1547" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1548" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1549" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1550" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1551" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1552" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1553" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1554" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1555" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1556" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1557" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1558" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1559" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1560" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1561" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1562" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1563" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1564" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1565" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1566" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1567" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1568" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1569" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1570" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1571" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1572" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1573" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1574" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1575" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1576" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1577" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1578" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1579" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1580" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1581" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1582" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1583" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1584" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1585" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1586" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1587" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1588" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1589" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1590" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1591" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1592" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1593" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1594" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1595" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1596" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1597" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1598" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1599" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1600" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1601" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1602" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1603" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1604" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1605" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1606" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1607" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1608" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1609" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1610" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1611" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1612" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1613" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1614" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1615" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1616" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1617" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1618" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1619" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1620" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1621" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1622" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1623" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1624" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1625" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1626" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1627" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1628" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1629" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1630" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1631" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1632" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1633" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1634" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1635" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1636" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1637" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1638" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1639" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1640" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1641" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1642" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1643" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1644" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1645" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1646" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1647" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1648" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1649" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1650" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1651" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1652" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1653" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1654" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1655" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1656" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1657" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1658" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1659" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1660" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1661" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1662" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1663" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1664" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1665" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1666" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1667" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1668" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1669" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1670" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1671" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1672" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1673" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1674" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1675" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1676" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1677" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1678" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1679" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1680" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1681" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1682" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1683" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1684" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1685" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1686" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1687" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1688" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1689" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1690" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1691" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1692" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1693" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1694" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1695" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1696" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1697" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1698" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1699" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1700" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1701" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1702" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1703" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1704" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1705" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1706" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1707" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1708" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1709" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1710" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1711" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1712" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1713" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1714" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1715" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1716" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1717" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1718" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1719" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1720" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1721" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1722" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1723" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1724" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1725" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1726" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1727" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1728" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1729" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1730" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1731" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1732" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1733" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1734" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1735" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1736" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1737" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1738" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1739" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1740" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1741" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1742" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1743" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1744" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1745" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1746" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1747" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1748" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1749" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1750" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1751" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1752" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1753" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1754" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1755" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1756" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1757" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1758" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1759" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1760" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1761" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1762" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1763" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1764" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1765" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1766" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1767" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1768" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1769" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1770" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1771" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1772" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1773" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1774" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1775" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1776" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1777" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1778" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1779" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1780" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1781" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1782" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1783" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1784" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1785" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1786" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1787" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1788" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1789" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1790" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1791" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1792" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1793" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1794" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1795" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1796" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1797" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1798" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1799" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1800" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1801" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1802" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1803" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1804" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1805" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1806" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1807" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1808" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1809" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1810" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1811" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1812" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1813" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1814" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1815" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1816" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1817" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1818" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1819" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1820" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1821" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1822" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1823" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1824" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1825" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1826" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1827" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1828" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1829" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1830" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1831" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1832" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1833" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1834" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1835" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1836" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1837" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1838" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1839" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1840" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1841" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1842" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1843" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1844" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1845" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1846" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1847" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1848" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1849" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1850" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1851" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1852" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1853" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1854" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1855" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1856" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1857" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1858" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1859" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1860" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1861" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1862" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1863" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1864" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1865" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1866" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1867" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1868" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1869" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1870" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1871" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1872" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1873" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1874" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1875" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1876" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1877" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1878" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1879" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1880" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1881" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1882" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1883" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1884" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1885" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1886" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1887" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1888" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1889" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1890" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1891" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1892" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1893" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1894" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1895" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1896" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1897" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1898" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1899" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1900" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1901" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1902" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1903" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1904" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1905" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1906" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1907" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1908" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1909" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1910" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1911" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1912" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1913" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1914" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1915" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1916" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1917" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1918" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1919" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1920" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1921" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1922" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1923" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1924" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1925" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1926" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1927" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1928" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1929" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1930" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1931" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1932" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1933" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1934" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1935" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1936" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1937" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1938" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1939" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1940" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1941" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1942" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1943" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1944" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1945" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1946" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1947" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1948" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1949" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1950" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1951" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1952" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1953" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1954" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1955" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1956" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1957" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1958" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1959" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1960" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1961" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1962" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1963" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1964" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1965" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1966" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1967" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1968" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1969" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1970" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1971" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1972" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1973" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1974" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1975" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1976" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1977" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1978" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1979" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1980" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1981" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1982" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1983" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1984" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1985" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1986" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1987" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1988" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1989" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1990" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1991" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1992" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1993" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1994" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1995" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1996" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1997" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1998" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1999" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2000" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2001" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2002" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2003" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2004" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2005" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2006" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2007" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2008" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2009" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2010" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2011" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2012" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2013" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2014" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2015" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2016" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2017" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2018" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2019" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2020" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2021" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2022" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2023" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2024" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2025" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2026" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2027" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2028" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2029" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2030" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2031" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2032" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2033" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2034" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2035" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2036" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2037" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2038" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2039" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2040" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2041" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2042" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2043" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2044" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2045" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2046" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2047" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2048" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2049" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2050" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2051" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2052" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2053" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2054" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2055" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2056" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2057" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2058" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2059" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2060" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2061" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2062" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2063" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2064" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2065" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2066" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2067" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2068" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2069" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2070" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2071" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2072" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2073" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2074" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2075" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2076" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2077" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2078" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2079" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2080" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2081" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2082" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2083" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2084" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2085" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2086" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2087" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2088" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2089" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2090" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2091" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2092" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2093" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2094" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2095" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2096" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2097" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2098" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2099" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2100" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2101" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2102" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2103" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2104" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2105" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2106" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2107" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2108" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2109" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2110" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2111" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2112" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2113" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2114" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2115" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2116" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2117" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2118" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2119" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2120" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2121" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2122" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2123" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2124" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2125" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2126" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2127" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2128" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2129" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2130" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2131" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2132" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2133" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2134" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2135" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2136" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2137" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2138" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2139" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2140" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2141" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2142" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2143" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2144" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2145" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2146" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2147" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2148" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2149" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2150" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2151" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2152" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2153" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2154" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2155" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2156" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2157" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2158" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2159" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2160" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2161" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2162" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2163" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2164" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2165" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2166" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2167" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2168" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2169" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2170" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2171" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2172" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2173" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2174" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2175" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2176" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2177" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2178" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2179" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2180" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2181" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2182" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2183" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2184" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2185" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2186" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2187" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2188" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2189" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2190" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2191" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2192" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2193" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2194" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2195" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2196" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2197" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2198" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2199" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2200" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2201" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2202" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2203" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2204" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2205" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2206" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2207" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2208" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2209" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2210" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2211" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2212" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2213" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2214" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2215" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2216" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2217" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2218" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2219" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2220" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2221" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2222" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2223" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2224" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2225" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2226" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2227" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2228" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2229" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2230" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2231" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2232" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2233" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2234" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2235" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2236" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2237" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2238" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2239" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2240" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2241" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2242" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2243" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2244" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2245" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2246" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2247" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2248" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2249" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2250" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2251" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2252" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2253" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2254" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2255" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2256" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2257" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2258" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2259" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2260" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2261" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2262" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2263" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2264" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2265" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2266" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2267" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2268" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2269" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2270" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2271" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2272" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2273" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2274" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2275" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2276" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2277" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2278" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2279" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2280" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2281" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2282" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2283" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2284" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2285" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2286" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2287" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2288" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2289" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2290" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2291" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2292" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2293" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2294" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2295" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2296" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2297" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2298" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2299" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2300" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2301" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2302" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2303" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2304" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2305" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2306" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2307" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2308" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2309" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2310" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2311" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2312" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2313" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2314" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2315" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2316" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2317" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2318" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2319" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2320" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2321" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2322" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2323" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2324" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2325" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2326" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2327" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2328" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2329" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2330" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2331" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2332" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2333" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2334" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2335" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2336" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2337" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2338" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2339" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2340" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2341" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2342" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2343" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2344" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2345" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2346" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2347" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2348" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2349" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2350" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2351" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2352" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2353" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2354" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2355" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2356" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2357" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2358" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2359" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2360" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2361" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2362" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2363" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2364" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2365" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2366" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2367" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2368" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2369" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2370" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2371" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2372" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2373" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2374" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2375" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2376" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2377" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2378" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2379" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2380" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2381" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2382" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2383" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2384" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2385" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2386" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2387" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2388" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2389" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2390" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2391" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2392" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2393" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2394" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2395" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2396" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2397" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2398" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2399" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2400" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2401" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2402" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2403" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2404" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2405" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2406" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2407" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2408" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2409" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2410" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2411" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2412" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2413" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2414" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2415" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2416" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2417" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2418" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2419" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2420" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2421" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2422" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2423" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2424" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2425" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2426" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2427" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2428" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2429" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2430" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2431" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2432" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2433" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2434" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2435" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2436" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2437" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2438" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2439" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2440" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2441" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2442" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2443" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2444" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2445" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2446" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2447" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2448" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2449" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2450" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2451" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2452" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2453" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2454" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2455" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2456" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2457" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2458" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2459" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2460" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2461" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2462" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2463" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2464" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2465" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2466" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2467" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2468" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2469" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2470" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2471" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2472" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2473" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2474" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2475" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2476" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2477" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2478" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2479" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2480" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2481" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2482" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2483" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2484" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2485" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2486" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2487" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2488" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2489" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2490" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2491" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2492" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2493" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2494" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2495" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2496" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2497" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2498" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2499" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2500" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2501" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2502" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2503" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2504" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2505" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2506" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2507" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2508" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2509" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2510" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2511" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2512" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2513" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2514" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2515" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2516" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2517" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2518" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2519" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2520" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2521" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2522" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2523" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2524" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2525" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2526" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2527" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2528" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2529" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2530" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2531" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2532" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2533" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2534" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2535" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2536" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2537" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2538" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2539" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2540" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2541" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2542" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2543" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2544" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2545" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2546" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2547" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2548" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2549" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2550" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2551" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2552" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2553" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2554" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2555" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2556" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2557" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2558" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2559" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2560" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2561" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2562" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2563" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2564" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2565" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2566" ht="16.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1057" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1058" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1059" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1060" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1061" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1062" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1063" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1064" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1065" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1066" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1067" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1068" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1069" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1070" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1071" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1072" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1073" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1074" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1075" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1076" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1077" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1078" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1079" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1080" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1081" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1082" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1083" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1084" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1085" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1086" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1087" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1088" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1089" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1090" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1091" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1092" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1093" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1094" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1095" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1096" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1097" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1098" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1099" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1101" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1102" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1103" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1104" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1105" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1106" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1107" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1108" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1109" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1110" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1111" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1112" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1113" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1567" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1568" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1569" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1570" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1571" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1572" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1573" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1574" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1575" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1576" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1577" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1578" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1579" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1580" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1581" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1582" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1583" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1584" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1585" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1586" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1587" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1588" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1589" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1590" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1591" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1592" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1593" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1594" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1595" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1596" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1597" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1598" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1599" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1600" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1601" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1602" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1603" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1604" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1605" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1606" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1607" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1608" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1609" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1610" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1611" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1612" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1613" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1614" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1615" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1616" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1617" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1618" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1619" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1620" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1621" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1622" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1623" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1624" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1625" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1626" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1627" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1628" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1629" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1630" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1631" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1632" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1633" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1634" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1635" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1636" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1637" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1638" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1639" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1640" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1641" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1642" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1643" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1644" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1645" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1646" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1647" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1648" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1649" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1650" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1651" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1652" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1653" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1654" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1655" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1656" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1657" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1658" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1659" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1660" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1661" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1662" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1663" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1664" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1665" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1666" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1667" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1668" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1669" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1670" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1671" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1672" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1673" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1674" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1675" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1676" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1677" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1678" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1679" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1680" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1681" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1682" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1683" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1684" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1685" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1686" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1687" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1688" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1689" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1690" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1691" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1692" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1693" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1694" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1695" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1696" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1697" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1698" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1699" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1700" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1701" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1702" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1703" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1704" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1705" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1706" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1707" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1708" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1709" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1710" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1711" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1712" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1713" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1714" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1715" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1716" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1717" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1718" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1719" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1720" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1721" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1722" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1723" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1724" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1725" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1726" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1727" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1728" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1729" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1730" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1731" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1732" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1733" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1734" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1735" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1736" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1737" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1738" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1739" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1740" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1741" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1742" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1743" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1744" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1745" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1746" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1747" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1748" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1749" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1750" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1751" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1752" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1753" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1754" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1755" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1756" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1757" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1758" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1759" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1760" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1761" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1762" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1763" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1764" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1765" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1766" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1767" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1768" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1769" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1770" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1771" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1772" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1773" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1774" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1775" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1776" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1777" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1778" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1779" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1780" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1781" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1782" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1783" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1784" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1785" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1786" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1787" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1788" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1789" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1790" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1791" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1792" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1793" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1794" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1795" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1796" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1797" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1798" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1799" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1800" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1801" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1802" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1803" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1804" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1805" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1806" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1807" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1808" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1809" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1810" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1811" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1812" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1813" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1814" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1815" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1816" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1817" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1818" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1819" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1820" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1821" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1822" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1823" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1824" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1825" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1826" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1827" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1828" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1829" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1830" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1831" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1832" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1833" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1834" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1835" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1836" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1837" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1838" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1839" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1840" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1841" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1842" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1843" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1844" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1845" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1846" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1847" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1848" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1849" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1850" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1851" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1852" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1853" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1854" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1855" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1856" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1857" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1858" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1859" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1860" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1861" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1862" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1863" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1864" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1865" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1866" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1867" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1868" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1869" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1870" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1871" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1872" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1873" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1874" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1875" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1876" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1877" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1878" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1879" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1880" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1881" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1882" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1883" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1884" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1885" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1886" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1887" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1888" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1889" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1890" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1891" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1892" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1893" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1894" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1895" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1896" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1897" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1898" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1899" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1900" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1901" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1902" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1903" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1904" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1905" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1906" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1907" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1908" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1909" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1910" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1911" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1912" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1913" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1914" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1915" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1916" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1917" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1918" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1919" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1920" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1921" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1922" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1923" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1924" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1925" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1926" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1927" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1928" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1929" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1930" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1931" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1932" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1933" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1934" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1935" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1936" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1937" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1938" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1939" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1940" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1941" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1942" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1943" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1944" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1945" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1946" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1947" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1948" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1949" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1950" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1951" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1952" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1953" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1954" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1955" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1956" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1957" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1958" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1959" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1960" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1961" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1962" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1963" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1964" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1965" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1966" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1967" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1968" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1969" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1970" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1971" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1972" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1973" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1974" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1975" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1976" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1977" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1978" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1979" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1980" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1981" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1982" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1983" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1984" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1985" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1986" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1987" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1988" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1989" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1990" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1991" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1992" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1993" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1994" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1995" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1996" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1997" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1998" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1999" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2000" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2001" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2002" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2003" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2004" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2005" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2006" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2007" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2008" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2009" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2010" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2011" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2012" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2013" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2014" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2015" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2016" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2017" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2018" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2019" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2020" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2021" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2022" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2023" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2024" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2025" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2026" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2027" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2028" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2029" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2030" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2031" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2032" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2033" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2034" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2035" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2036" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2037" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2038" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2039" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2040" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2041" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2042" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2043" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2044" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2045" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2046" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2047" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2048" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2049" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2050" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2051" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2052" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2053" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2054" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2055" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2056" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2057" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2058" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2059" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2060" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2061" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2062" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2063" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2064" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2065" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2066" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2067" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2068" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2069" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2070" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2071" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2072" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2073" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2074" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2075" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2076" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2077" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2078" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2079" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2080" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2081" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2082" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2083" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2084" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2085" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2086" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2087" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2088" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2089" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2090" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2091" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2092" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2093" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2094" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2095" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2096" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2097" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2098" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2099" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2101" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2102" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2103" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2104" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2105" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2106" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2107" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2108" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2109" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2110" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2111" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2112" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2113" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="205">
     <mergeCell ref="BG13:BG16"/>
@@ -7230,6 +7245,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="23" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="33" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turkplast-my.sharepoint.com/personal/bobin_depo_turkambalaj_com_tr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobın.ambar\Desktop\Yerleşim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57F245B4-35C4-4EAE-AAEF-7692DAC13377}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C723110-9298-4714-A940-B10B366E3C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="118">
   <si>
     <t>F BLOK</t>
   </si>
@@ -1639,10 +1639,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1937,7 +1933,7 @@
   <dimension ref="A1:BU2566"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="CD17" sqref="CD17"/>
+      <selection activeCell="BU31" sqref="A1:BU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1990,7 @@
         <v>116</v>
       </c>
       <c r="AL1" s="55">
-        <v>45878</v>
+        <v>45881</v>
       </c>
       <c r="AM1" s="55"/>
       <c r="AN1" s="55"/>
@@ -3416,8 +3412,12 @@
       <c r="N18" s="79"/>
       <c r="O18" s="79"/>
       <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
+      <c r="Q18" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" s="79" t="s">
+        <v>117</v>
+      </c>
       <c r="S18" s="79" t="s">
         <v>70</v>
       </c>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobın.ambar\Desktop\Yerleşim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turkplast-my.sharepoint.com/personal/bobin_depo_turkambalaj_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C723110-9298-4714-A940-B10B366E3C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86C083FA-4E95-4E56-8213-55B80E92FA37}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="118">
   <si>
     <t>F BLOK</t>
   </si>
@@ -1639,6 +1639,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1933,7 +1937,7 @@
   <dimension ref="A1:BU2566"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BU31" sqref="A1:BU31"/>
+      <selection activeCell="AN13" sqref="AN13:AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,7 +1994,7 @@
         <v>116</v>
       </c>
       <c r="AL1" s="55">
-        <v>45881</v>
+        <v>45882</v>
       </c>
       <c r="AM1" s="55"/>
       <c r="AN1" s="55"/>
@@ -2158,13 +2162,13 @@
         <v>101</v>
       </c>
       <c r="BC2" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD2" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="BD2" s="62" t="s">
+      <c r="BE2" s="62" t="s">
         <v>100</v>
-      </c>
-      <c r="BE2" s="62" t="s">
-        <v>99</v>
       </c>
       <c r="BF2" s="62" t="s">
         <v>99</v>
@@ -2178,9 +2182,7 @@
       <c r="BI2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="BJ2" s="62" t="s">
-        <v>97</v>
-      </c>
+      <c r="BJ2" s="62"/>
       <c r="BK2" s="62" t="s">
         <v>97</v>
       </c>
@@ -3135,9 +3137,7 @@
       <c r="AZ13" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="BA13" s="62" t="s">
-        <v>57</v>
-      </c>
+      <c r="BA13" s="62"/>
       <c r="BB13" s="62" t="s">
         <v>57</v>
       </c>
@@ -3411,7 +3411,9 @@
       <c r="M18" s="79"/>
       <c r="N18" s="79"/>
       <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
+      <c r="P18" s="79" t="s">
+        <v>117</v>
+      </c>
       <c r="Q18" s="79" t="s">
         <v>117</v>
       </c>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turkplast-my.sharepoint.com/personal/bobin_depo_turkambalaj_com_tr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobın.ambar\Desktop\Yerleşim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{303630AC-75C2-0C4C-8417-3C0B090700B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E1A141-EECA-4C42-9C4F-573400D1C257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="118">
   <si>
     <t>F BLOK</t>
   </si>
@@ -1932,18 +1932,18 @@
   </sheetPr>
   <dimension ref="A1:BU2566"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BU31" sqref="A1:BU31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6484375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6484375" style="1"/>
-    <col min="2" max="5" width="7.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="5.6484375" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1"/>
+    <col min="2" max="5" width="7.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="5.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="38"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1990,7 +1990,7 @@
         <v>116</v>
       </c>
       <c r="AL1" s="145">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="AM1" s="145"/>
       <c r="AN1" s="145"/>
@@ -2028,7 +2028,7 @@
       <c r="BT1" s="33"/>
       <c r="BU1" s="33"/>
     </row>
-    <row r="2" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -2071,9 +2071,7 @@
       <c r="V2" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="118" t="s">
-        <v>61</v>
-      </c>
+      <c r="W2" s="118"/>
       <c r="X2" s="120"/>
       <c r="Y2" s="120"/>
       <c r="Z2" s="55"/>
@@ -2207,7 +2205,7 @@
       <c r="BT2" s="3"/>
       <c r="BU2" s="37"/>
     </row>
-    <row r="3" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="20"/>
       <c r="C3" s="51"/>
@@ -2275,7 +2273,7 @@
       <c r="BT3" s="4"/>
       <c r="BU3" s="37"/>
     </row>
-    <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39"/>
       <c r="B4" s="123" t="s">
         <v>8</v>
@@ -2345,7 +2343,7 @@
       <c r="BT4" s="4"/>
       <c r="BU4" s="37"/>
     </row>
-    <row r="5" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="20"/>
       <c r="C5" s="51"/>
@@ -2413,7 +2411,7 @@
       <c r="BT5" s="4"/>
       <c r="BU5" s="37"/>
     </row>
-    <row r="6" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="20"/>
       <c r="C6" s="51"/>
@@ -2599,7 +2597,7 @@
       <c r="BT6" s="4"/>
       <c r="BU6" s="37"/>
     </row>
-    <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39"/>
       <c r="B7" s="104" t="s">
         <v>53</v>
@@ -2667,7 +2665,7 @@
       <c r="BT7" s="4"/>
       <c r="BU7" s="37"/>
     </row>
-    <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
       <c r="B8" s="107" t="s">
         <v>53</v>
@@ -2684,7 +2682,7 @@
       <c r="BT8" s="4"/>
       <c r="BU8" s="37"/>
     </row>
-    <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="107" t="s">
         <v>54</v>
@@ -2768,7 +2766,7 @@
       <c r="BT9" s="10"/>
       <c r="BU9" s="37"/>
     </row>
-    <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="107" t="s">
         <v>55</v>
@@ -2846,7 +2844,7 @@
       <c r="BT10" s="8"/>
       <c r="BU10" s="37"/>
     </row>
-    <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="39"/>
       <c r="B11" s="107" t="s">
         <v>56</v>
@@ -2914,7 +2912,7 @@
       <c r="BT11" s="4"/>
       <c r="BU11" s="37"/>
     </row>
-    <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="107" t="s">
         <v>56</v>
@@ -3064,7 +3062,7 @@
       <c r="BT12" s="4"/>
       <c r="BU12" s="37"/>
     </row>
-    <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="107" t="s">
         <v>57</v>
@@ -3183,7 +3181,7 @@
       <c r="BT13" s="4"/>
       <c r="BU13" s="37"/>
     </row>
-    <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="107"/>
       <c r="C14" s="108"/>
@@ -3246,7 +3244,7 @@
       <c r="BT14" s="4"/>
       <c r="BU14" s="37"/>
     </row>
-    <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="107" t="s">
         <v>58</v>
@@ -3309,7 +3307,7 @@
       <c r="BT15" s="4"/>
       <c r="BU15" s="37"/>
     </row>
-    <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="107" t="s">
         <v>59</v>
@@ -3372,7 +3370,7 @@
       <c r="BT16" s="4"/>
       <c r="BU16" s="37"/>
     </row>
-    <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="107" t="s">
         <v>54</v>
@@ -3390,7 +3388,7 @@
       <c r="BT17" s="4"/>
       <c r="BU17" s="37"/>
     </row>
-    <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="107" t="s">
         <v>60</v>
@@ -3559,7 +3557,7 @@
       <c r="BT18" s="4"/>
       <c r="BU18" s="37"/>
     </row>
-    <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="110"/>
       <c r="C19" s="111"/>
@@ -3630,7 +3628,7 @@
       <c r="BT19" s="4"/>
       <c r="BU19" s="37"/>
     </row>
-    <row r="20" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="12"/>
       <c r="H20" s="85"/>
@@ -3695,7 +3693,7 @@
       <c r="BT20" s="4"/>
       <c r="BU20" s="37"/>
     </row>
-    <row r="21" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="12"/>
       <c r="H21" s="85"/>
@@ -3760,7 +3758,7 @@
       <c r="BT21" s="4"/>
       <c r="BU21" s="37"/>
     </row>
-    <row r="22" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="12"/>
       <c r="H22" s="85"/>
@@ -3825,7 +3823,7 @@
       <c r="BT22" s="4"/>
       <c r="BU22" s="37"/>
     </row>
-    <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="12"/>
       <c r="H23" s="85"/>
@@ -3944,7 +3942,7 @@
       <c r="BT23" s="4"/>
       <c r="BU23" s="37"/>
     </row>
-    <row r="24" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="39"/>
       <c r="B24" s="12"/>
       <c r="H24" s="85"/>
@@ -4011,7 +4009,7 @@
       <c r="BT24" s="4"/>
       <c r="BU24" s="37"/>
     </row>
-    <row r="25" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="12"/>
       <c r="H25" s="85"/>
@@ -4056,7 +4054,7 @@
       <c r="BT25" s="4"/>
       <c r="BU25" s="37"/>
     </row>
-    <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="12"/>
       <c r="H26" s="85"/>
@@ -4157,7 +4155,7 @@
       <c r="BT26" s="4"/>
       <c r="BU26" s="37"/>
     </row>
-    <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="39"/>
       <c r="B27" s="12"/>
       <c r="H27" s="85"/>
@@ -4201,7 +4199,7 @@
       <c r="BT27" s="4"/>
       <c r="BU27" s="37"/>
     </row>
-    <row r="28" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="12"/>
       <c r="H28" s="85"/>
@@ -4219,7 +4217,7 @@
       <c r="BT28" s="4"/>
       <c r="BU28" s="37"/>
     </row>
-    <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="12"/>
       <c r="H29" s="66"/>
@@ -4293,7 +4291,7 @@
       <c r="BT29" s="10"/>
       <c r="BU29" s="37"/>
     </row>
-    <row r="30" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -4370,7 +4368,7 @@
       <c r="BT30" s="8"/>
       <c r="BU30" s="37"/>
     </row>
-    <row r="31" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -4445,2598 +4443,2598 @@
       <c r="BT31" s="35"/>
       <c r="BU31" s="36"/>
     </row>
-    <row r="32" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH79" s="11"/>
       <c r="BI79" s="11"/>
       <c r="BJ79" s="11"/>
     </row>
-    <row r="80" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH80" s="11"/>
       <c r="BI80" s="11"/>
       <c r="BJ80" s="11"/>
     </row>
-    <row r="81" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH81" s="11"/>
       <c r="BI81" s="11"/>
       <c r="BJ81" s="11"/>
     </row>
-    <row r="82" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH82" s="11"/>
       <c r="BI82" s="11"/>
       <c r="BJ82" s="11"/>
     </row>
-    <row r="83" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH83" s="11"/>
       <c r="BI83" s="11"/>
       <c r="BJ83" s="11"/>
     </row>
-    <row r="84" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BG85" s="15"/>
       <c r="BH85" s="15"/>
       <c r="BI85" s="15"/>
       <c r="BJ85" s="15"/>
     </row>
-    <row r="86" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BG86" s="15"/>
       <c r="BH86" s="15"/>
       <c r="BI86" s="15"/>
       <c r="BJ86" s="15"/>
     </row>
-    <row r="87" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BG87" s="15"/>
       <c r="BH87" s="15"/>
       <c r="BI87" s="15"/>
       <c r="BJ87" s="15"/>
     </row>
-    <row r="88" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BG88" s="15"/>
       <c r="BH88" s="15"/>
       <c r="BI88" s="15"/>
       <c r="BJ88" s="15"/>
     </row>
-    <row r="89" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BG89" s="15"/>
       <c r="BH89" s="15"/>
       <c r="BI89" s="15"/>
       <c r="BJ89" s="15"/>
     </row>
-    <row r="90" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="BH106" s="16"/>
       <c r="BI106" s="16"/>
       <c r="BJ106" s="16"/>
     </row>
-    <row r="107" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH108" s="15"/>
       <c r="BI108" s="15"/>
       <c r="BJ108" s="15"/>
     </row>
-    <row r="109" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH109" s="15"/>
       <c r="BI109" s="15"/>
       <c r="BJ109" s="15"/>
     </row>
-    <row r="110" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1015" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1016" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1017" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1018" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1019" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1020" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1021" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1022" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1023" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1024" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1025" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1026" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1027" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1028" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1029" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1030" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1031" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1032" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1033" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1034" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1035" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1036" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1037" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1038" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1039" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1040" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1041" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1042" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1043" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1044" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1045" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1046" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1047" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1049" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1050" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1051" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1052" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1053" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1054" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1055" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1056" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1057" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1058" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1059" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1060" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1061" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1062" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1063" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1064" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1065" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1066" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1067" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1068" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1069" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1070" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1071" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1072" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1073" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1074" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1075" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1076" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1077" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1078" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1079" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1080" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1081" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1082" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1083" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1084" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1085" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1086" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1087" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1088" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1089" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1090" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1091" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1092" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1093" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1094" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1095" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1096" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1097" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1098" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1099" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1101" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1102" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1103" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1104" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1105" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1106" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1107" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1108" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1109" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1110" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1111" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1112" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1113" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1567" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1568" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1569" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1570" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1571" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1572" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1573" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1574" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1575" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1576" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1577" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1578" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1579" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1580" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1581" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1582" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1583" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1584" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1585" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1586" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1587" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1588" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1589" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1590" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1591" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1592" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1593" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1594" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1595" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1596" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1597" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1598" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1599" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1600" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1601" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1602" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1603" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1604" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1605" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1606" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1607" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1608" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1609" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1610" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1611" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1612" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1613" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1614" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1615" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1616" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1617" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1618" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1619" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1620" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1621" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1622" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1623" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1624" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1625" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1626" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1627" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1628" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1629" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1630" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1631" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1632" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1633" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1634" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1635" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1636" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1637" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1638" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1639" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1640" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1641" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1642" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1643" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1644" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1645" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1646" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1647" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1648" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1649" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1650" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1651" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1652" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1653" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1654" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1655" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1656" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1657" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1658" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1659" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1660" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1661" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1662" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1663" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1664" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1665" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1666" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1667" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1668" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1669" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1670" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1671" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1672" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1673" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1674" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1675" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1676" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1677" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1678" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1679" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1680" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1681" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1682" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1683" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1684" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1685" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1686" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1687" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1688" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1689" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1690" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1691" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1692" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1693" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1694" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1695" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1696" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1697" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1698" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1699" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1700" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1701" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1702" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1703" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1704" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1705" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1706" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1707" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1708" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1709" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1710" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1711" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1712" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1713" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1714" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1715" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1716" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1717" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1718" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1719" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1720" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1721" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1722" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1723" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1724" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1725" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1726" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1727" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1728" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1729" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1730" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1731" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1732" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1733" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1734" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1735" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1736" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1737" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1738" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1739" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1740" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1741" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1742" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1743" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1744" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1745" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1746" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1747" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1748" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1749" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1750" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1751" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1752" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1753" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1754" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1755" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1756" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1757" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1758" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1759" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1760" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1761" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1762" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1763" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1764" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1765" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1766" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1767" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1768" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1769" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1770" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1771" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1772" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1773" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1774" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1775" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1776" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1777" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1778" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1779" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1780" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1781" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1782" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1783" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1784" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1785" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1786" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1787" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1788" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1789" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1790" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1791" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1792" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1793" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1794" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1795" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1796" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1797" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1798" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1799" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1800" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1801" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1802" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1803" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1804" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1805" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1806" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1807" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1808" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1809" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1810" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1811" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1812" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1813" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1814" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1815" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1816" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1817" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1818" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1819" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1820" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1821" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1822" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1823" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1824" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1825" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1826" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1827" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1828" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1829" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1830" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1831" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1832" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1833" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1834" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1835" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1836" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1837" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1838" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1839" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1840" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1841" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1842" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1843" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1844" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1845" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1846" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1847" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1848" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1849" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1850" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1851" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1852" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1853" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1854" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1855" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1856" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1857" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1858" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1859" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1860" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1861" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1862" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1863" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1864" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1865" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1866" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1867" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1868" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1869" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1870" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1871" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1872" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1873" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1874" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1875" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1876" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1877" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1878" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1879" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1880" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1881" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1882" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1883" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1884" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1885" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1886" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1887" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1888" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1889" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1890" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1891" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1892" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1893" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1894" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1895" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1896" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1897" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1898" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1899" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1900" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1901" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1902" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1903" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1904" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1905" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1906" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1907" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1908" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1909" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1910" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1911" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1912" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1913" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1914" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1915" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1916" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1917" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1918" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1919" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1920" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1921" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1922" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1923" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1924" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1925" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1926" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1927" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1928" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1929" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1930" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1931" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1932" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1933" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1934" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1935" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1936" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1937" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1938" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1939" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1940" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1941" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1942" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1943" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1944" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1945" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1946" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1947" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1948" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1949" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1950" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1951" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1952" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1953" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1954" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1955" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1956" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1957" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1958" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1959" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1960" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1961" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1962" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1963" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1964" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1965" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1966" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1967" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1968" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1969" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1970" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1971" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1972" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1973" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1974" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1975" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1976" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1977" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1978" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1979" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1980" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1981" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1982" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1983" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1984" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1985" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1986" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1987" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1988" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1989" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1990" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1991" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1992" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1993" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1994" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1995" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1996" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1997" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1998" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1999" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2000" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2001" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2002" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2003" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2004" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2005" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2006" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2007" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2008" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2009" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2010" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2011" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2012" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2013" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2014" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2015" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2016" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2017" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2018" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2019" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2020" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2021" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2022" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2023" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2024" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2025" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2026" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2027" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2028" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2029" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2030" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2031" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2032" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2033" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2034" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2035" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2036" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2037" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2038" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2039" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2040" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2041" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2042" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2043" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2044" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2045" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2046" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2047" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2048" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2049" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2050" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2051" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2052" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2053" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2054" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2055" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2056" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2057" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2058" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2059" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2060" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2061" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2062" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2063" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2064" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2065" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2066" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2067" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2068" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2069" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2070" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2071" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2072" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2073" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2074" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2075" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2076" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2077" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2078" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2079" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2080" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2081" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2082" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2083" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2084" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2085" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2086" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2087" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2088" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2089" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2090" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2091" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2092" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2093" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2094" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2095" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2096" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2097" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2098" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2099" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2101" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2102" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2103" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2104" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2105" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2106" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2107" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2108" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2109" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2110" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2111" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2112" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2113" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1017" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1018" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1019" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1020" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1021" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1022" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1023" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1024" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1025" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1026" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1027" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1028" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1029" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1030" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1031" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1032" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1033" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1034" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1035" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1036" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1037" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1038" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1039" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1040" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1041" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1042" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1043" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1044" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1045" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1046" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1047" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1048" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1049" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1050" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1051" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1052" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1053" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1054" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1055" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1056" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1057" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1058" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1059" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1060" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1061" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1062" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1063" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1064" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1065" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1066" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1067" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1068" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1069" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1070" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1071" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1072" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1073" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1074" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1075" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1076" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1077" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1078" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1079" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1080" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1081" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1082" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1083" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1084" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1085" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1086" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1087" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1088" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1089" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1090" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1091" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1092" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1093" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1094" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1095" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1096" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1097" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1098" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1099" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1101" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1102" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1103" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1104" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1105" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1106" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1107" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1108" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1109" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1110" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1111" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1112" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1113" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1567" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1568" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1569" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1570" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1571" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1572" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1573" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1574" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1575" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1576" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1577" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1578" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1579" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1580" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1581" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1582" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1583" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1584" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1585" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1586" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1587" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1588" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1589" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1590" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1591" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1592" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1593" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1594" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1595" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1596" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1597" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1598" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1599" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1600" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1601" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1602" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1603" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1604" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1605" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1606" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1607" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1608" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1609" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1610" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1611" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1612" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1613" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1614" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1615" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1616" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1617" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1618" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1619" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1620" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1621" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1622" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1623" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1624" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1625" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1626" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1627" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1628" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1629" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1630" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1631" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1632" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1633" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1634" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1635" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1636" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1637" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1638" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1639" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1640" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1641" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1642" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1643" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1644" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1645" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1646" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1647" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1648" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1649" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1650" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1651" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1652" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1653" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1654" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1655" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1656" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1657" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1658" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1659" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1660" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1661" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1662" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1663" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1664" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1665" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1666" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1667" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1668" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1669" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1670" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1671" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1672" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1673" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1674" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1675" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1676" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1677" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1678" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1679" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1680" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1681" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1682" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1683" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1684" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1685" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1686" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1687" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1688" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1689" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1690" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1691" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1692" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1693" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1694" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1695" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1696" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1697" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1698" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1699" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1700" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1701" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1702" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1703" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1704" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1705" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1706" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1707" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1708" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1709" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1710" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1711" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1712" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1713" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1714" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1715" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1716" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1717" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1718" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1719" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1720" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1721" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1722" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1723" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1724" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1725" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1726" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1727" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1728" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1729" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1730" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1731" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1732" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1733" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1734" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1735" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1736" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1737" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1738" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1739" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1740" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1741" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1742" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1743" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1744" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1745" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1746" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1747" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1748" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1749" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1750" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1751" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1752" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1753" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1754" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1755" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1756" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1757" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1758" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1759" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1760" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1761" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1762" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1763" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1764" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1765" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1766" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1767" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1768" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1769" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1770" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1771" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1772" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1773" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1774" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1775" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1776" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1777" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1778" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1779" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1780" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1781" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1782" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1783" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1784" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1785" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1786" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1787" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1788" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1789" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1790" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1791" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1792" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1793" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1794" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1795" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1796" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1797" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1798" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1799" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1800" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1801" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1802" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1803" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1804" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1805" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1806" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1807" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1808" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1809" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1810" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1811" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1812" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1813" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1814" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1815" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1816" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1817" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1818" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1819" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1820" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1821" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1822" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1823" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1824" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1825" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1826" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1827" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1828" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1829" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1830" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1831" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1832" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1833" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1834" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1835" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1836" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1837" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1838" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1839" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1840" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1841" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1842" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1843" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1844" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1845" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1846" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1847" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1848" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1849" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1850" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1851" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1852" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1853" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1854" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1855" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1856" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1857" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1858" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1859" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1860" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1861" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1862" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1863" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1864" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1865" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1866" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1867" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1868" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1869" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1870" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1871" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1872" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1873" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1874" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1875" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1876" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1877" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1878" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1879" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1880" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1881" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1882" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1883" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1884" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1885" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1886" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1887" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1888" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1889" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1890" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1891" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1892" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1893" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1894" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1895" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1896" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1897" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1898" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1899" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1900" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1901" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1902" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1903" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1904" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1905" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1906" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1907" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1908" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1909" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1910" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1911" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1912" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1913" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1914" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1915" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1916" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1917" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1918" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1919" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1920" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1921" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1922" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1923" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1924" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1925" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1926" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1927" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1928" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1929" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1930" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1931" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1932" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1933" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1934" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1935" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1936" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1937" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1938" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1939" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1940" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1941" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1942" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1943" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1944" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1945" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1946" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1947" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1948" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1949" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1950" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1951" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1952" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1953" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1954" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1955" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1956" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1957" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1958" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1959" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1960" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1961" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1962" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1963" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1964" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1965" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1966" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1967" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1968" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1969" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1970" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1971" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1972" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1973" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1974" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1975" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1976" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1977" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1978" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1979" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1980" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1981" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1982" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1983" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1984" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1985" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1986" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1987" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1988" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1989" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1990" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1991" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1992" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1993" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1994" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1995" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1996" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1997" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1998" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1999" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2000" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2001" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2002" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2003" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2004" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2005" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2006" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2007" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2008" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2009" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2010" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2011" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2012" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2013" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2014" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2015" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2016" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2017" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2018" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2019" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2020" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2021" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2022" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2023" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2024" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2025" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2026" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2027" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2028" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2029" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2030" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2031" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2032" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2033" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2034" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2035" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2036" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2037" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2038" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2039" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2040" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2041" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2042" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2043" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2044" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2045" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2046" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2047" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2048" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2049" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2050" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2051" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2052" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2053" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2054" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2055" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2056" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2057" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2058" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2059" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2060" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2061" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2062" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2063" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2064" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2065" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2066" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2067" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2068" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2069" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2070" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2071" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2072" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2073" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2074" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2075" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2076" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2077" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2078" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2079" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2080" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2081" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2082" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2083" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2084" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2085" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2086" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2087" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2088" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2089" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2090" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2091" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2092" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2093" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2094" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2095" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2096" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2097" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2098" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2099" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2101" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2102" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2103" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2104" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2105" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2106" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2107" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2108" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2109" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2110" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2111" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2112" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2113" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="205">
     <mergeCell ref="AL1:AP1"/>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobın.ambar\Desktop\Yerleşim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E1A141-EECA-4C42-9C4F-573400D1C257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F2AD8-4627-4E86-86FC-0AB570FEBFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="120">
   <si>
     <t>F BLOK</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>FLT 135/2250</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>O14</t>
   </si>
 </sst>
 </file>
@@ -586,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1025,19 +1031,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1236,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1302,25 +1295,22 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,6 +1326,27 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1345,69 +1356,249 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1417,212 +1608,20 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1933,7 +1932,7 @@
   <dimension ref="A1:BU2566"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BU31" sqref="A1:BU31"/>
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,20 +1948,20 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
-      <c r="M1" s="126" t="s">
+      <c r="M1" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="127"/>
-      <c r="O1" s="128"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="91"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
@@ -1977,28 +1976,28 @@
       <c r="AA1" s="32"/>
       <c r="AB1" s="32"/>
       <c r="AC1" s="32"/>
-      <c r="AD1" s="146" t="s">
+      <c r="AD1" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="54" t="s">
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="AL1" s="145">
-        <v>45884</v>
-      </c>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
+      <c r="AL1" s="54">
+        <v>45882</v>
+      </c>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
       <c r="AQ1" s="32"/>
       <c r="AR1" s="32"/>
-      <c r="AS1" s="50"/>
+      <c r="AS1" s="49"/>
       <c r="AT1" s="32"/>
       <c r="AU1" s="32"/>
       <c r="AV1" s="32"/>
@@ -2039,166 +2038,164 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="129" t="s">
+      <c r="K2" s="103"/>
+      <c r="L2" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="114" t="s">
+      <c r="N2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="114" t="s">
+      <c r="O2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="114" t="s">
+      <c r="P2" s="100"/>
+      <c r="Q2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="114" t="s">
+      <c r="R2" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="114" t="s">
+      <c r="S2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="114" t="s">
+      <c r="T2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="114" t="s">
+      <c r="U2" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="114" t="s">
+      <c r="V2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="118"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55" t="s">
+      <c r="W2" s="109"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="76" t="s">
+      <c r="AB2" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="147" t="s">
+      <c r="AC2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55" t="s">
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="55" t="s">
+      <c r="AG2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="55" t="s">
+      <c r="AH2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="55" t="s">
+      <c r="AI2" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="55" t="s">
+      <c r="AJ2" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="55" t="s">
+      <c r="AK2" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="55" t="s">
+      <c r="AL2" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" s="55" t="s">
+      <c r="AM2" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="55" t="s">
+      <c r="AN2" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="AO2" s="55" t="s">
+      <c r="AO2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="55" t="s">
+      <c r="AP2" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="AQ2" s="55" t="s">
+      <c r="AQ2" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AR2" s="55" t="s">
+      <c r="AR2" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="AS2" s="55" t="s">
+      <c r="AS2" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="AT2" s="55" t="s">
+      <c r="AT2" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="AU2" s="55" t="s">
+      <c r="AU2" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="AV2" s="55" t="s">
+      <c r="AV2" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="AW2" s="55" t="s">
+      <c r="AW2" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="AX2" s="55" t="s">
+      <c r="AX2" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="AY2" s="55" t="s">
+      <c r="AY2" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="AZ2" s="76" t="s">
+      <c r="AZ2" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="138" t="s">
+      <c r="BA2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="99" t="s">
+      <c r="BB2" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="BC2" s="55" t="s">
+      <c r="BC2" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="BD2" s="55" t="s">
+      <c r="BD2" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="BE2" s="55" t="s">
+      <c r="BE2" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="BF2" s="55" t="s">
+      <c r="BF2" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="BG2" s="55" t="s">
+      <c r="BG2" s="61"/>
+      <c r="BH2" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="BH2" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI2" s="55" t="s">
+      <c r="BI2" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="55" t="s">
+      <c r="BJ2" s="61"/>
+      <c r="BK2" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="BL2" s="55" t="s">
+      <c r="BL2" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="BM2" s="55" t="s">
+      <c r="BM2" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="BN2" s="55" t="s">
+      <c r="BN2" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="BO2" s="55" t="s">
+      <c r="BO2" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="BP2" s="55" t="s">
+      <c r="BP2" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="BQ2" s="55" t="s">
+      <c r="BQ2" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="BR2" s="76" t="s">
+      <c r="BR2" s="75" t="s">
         <v>92</v>
       </c>
       <c r="BS2" s="2"/>
@@ -2208,390 +2205,390 @@
     <row r="3" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="51"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="21"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="56"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="56"/>
-      <c r="BR3" s="77"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="59"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="76"/>
       <c r="BT3" s="4"/>
       <c r="BU3" s="37"/>
     </row>
     <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="148"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="139"/>
-      <c r="BB4" s="100"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="56"/>
-      <c r="BH4" s="56"/>
-      <c r="BI4" s="56"/>
-      <c r="BJ4" s="56"/>
-      <c r="BK4" s="56"/>
-      <c r="BL4" s="56"/>
-      <c r="BM4" s="56"/>
-      <c r="BN4" s="56"/>
-      <c r="BO4" s="56"/>
-      <c r="BP4" s="56"/>
-      <c r="BQ4" s="56"/>
-      <c r="BR4" s="77"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="62"/>
+      <c r="BD4" s="62"/>
+      <c r="BE4" s="62"/>
+      <c r="BF4" s="62"/>
+      <c r="BG4" s="62"/>
+      <c r="BH4" s="62"/>
+      <c r="BI4" s="62"/>
+      <c r="BJ4" s="62"/>
+      <c r="BK4" s="62"/>
+      <c r="BL4" s="62"/>
+      <c r="BM4" s="62"/>
+      <c r="BN4" s="62"/>
+      <c r="BO4" s="62"/>
+      <c r="BP4" s="62"/>
+      <c r="BQ4" s="62"/>
+      <c r="BR4" s="76"/>
       <c r="BT4" s="4"/>
       <c r="BU4" s="37"/>
     </row>
     <row r="5" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="20"/>
-      <c r="C5" s="51"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="21"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
-      <c r="AZ5" s="77"/>
-      <c r="BA5" s="139"/>
-      <c r="BB5" s="100"/>
-      <c r="BC5" s="56"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="56"/>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="56"/>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="56"/>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="56"/>
-      <c r="BN5" s="56"/>
-      <c r="BO5" s="56"/>
-      <c r="BP5" s="56"/>
-      <c r="BQ5" s="56"/>
-      <c r="BR5" s="77"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="62"/>
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="72"/>
+      <c r="BB5" s="59"/>
+      <c r="BC5" s="62"/>
+      <c r="BD5" s="62"/>
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="62"/>
+      <c r="BJ5" s="62"/>
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="62"/>
+      <c r="BM5" s="62"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="62"/>
+      <c r="BP5" s="62"/>
+      <c r="BQ5" s="62"/>
+      <c r="BR5" s="76"/>
       <c r="BT5" s="4"/>
       <c r="BU5" s="37"/>
     </row>
     <row r="6" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="51"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="21"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="O6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="Q6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="41" t="s">
+      <c r="S6" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="41" t="s">
+      <c r="T6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="41" t="s">
+      <c r="U6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="41" t="s">
+      <c r="V6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="42">
+      <c r="W6" s="41">
         <v>1</v>
       </c>
-      <c r="X6" s="42">
+      <c r="X6" s="41">
         <v>2</v>
       </c>
-      <c r="Y6" s="42">
+      <c r="Y6" s="41">
         <v>3</v>
       </c>
-      <c r="Z6" s="42">
+      <c r="Z6" s="41">
         <v>4</v>
       </c>
-      <c r="AA6" s="42">
+      <c r="AA6" s="41">
         <v>5</v>
       </c>
-      <c r="AB6" s="43">
+      <c r="AB6" s="42">
         <v>6</v>
       </c>
-      <c r="AC6" s="149"/>
-      <c r="AD6" s="47">
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="46">
         <v>1</v>
       </c>
-      <c r="AE6" s="42">
+      <c r="AE6" s="41">
         <v>2</v>
       </c>
-      <c r="AF6" s="42">
+      <c r="AF6" s="41">
         <v>3</v>
       </c>
-      <c r="AG6" s="42">
+      <c r="AG6" s="41">
         <v>4</v>
       </c>
-      <c r="AH6" s="42">
+      <c r="AH6" s="41">
         <v>5</v>
       </c>
-      <c r="AI6" s="42">
+      <c r="AI6" s="41">
         <v>6</v>
       </c>
-      <c r="AJ6" s="42">
+      <c r="AJ6" s="41">
         <v>7</v>
       </c>
-      <c r="AK6" s="42">
+      <c r="AK6" s="41">
         <v>8</v>
       </c>
-      <c r="AL6" s="42">
+      <c r="AL6" s="41">
         <v>9</v>
       </c>
-      <c r="AM6" s="42">
+      <c r="AM6" s="41">
         <v>10</v>
       </c>
-      <c r="AN6" s="42">
+      <c r="AN6" s="41">
         <v>11</v>
       </c>
-      <c r="AO6" s="42">
+      <c r="AO6" s="41">
         <v>12</v>
       </c>
-      <c r="AP6" s="42">
+      <c r="AP6" s="41">
         <v>13</v>
       </c>
-      <c r="AQ6" s="42">
+      <c r="AQ6" s="41">
         <v>14</v>
       </c>
-      <c r="AR6" s="42">
+      <c r="AR6" s="41">
         <v>15</v>
       </c>
-      <c r="AS6" s="42">
+      <c r="AS6" s="41">
         <v>16</v>
       </c>
-      <c r="AT6" s="42">
+      <c r="AT6" s="41">
         <v>17</v>
       </c>
-      <c r="AU6" s="42">
+      <c r="AU6" s="41">
         <v>18</v>
       </c>
-      <c r="AV6" s="42">
+      <c r="AV6" s="41">
         <v>19</v>
       </c>
-      <c r="AW6" s="42">
+      <c r="AW6" s="41">
         <v>20</v>
       </c>
-      <c r="AX6" s="42">
+      <c r="AX6" s="41">
         <v>21</v>
       </c>
-      <c r="AY6" s="42">
+      <c r="AY6" s="41">
         <v>22</v>
       </c>
-      <c r="AZ6" s="43">
+      <c r="AZ6" s="42">
         <v>23</v>
       </c>
-      <c r="BA6" s="140"/>
-      <c r="BB6" s="47">
+      <c r="BA6" s="73"/>
+      <c r="BB6" s="46">
         <v>1</v>
       </c>
-      <c r="BC6" s="42">
+      <c r="BC6" s="41">
         <v>2</v>
       </c>
-      <c r="BD6" s="42">
+      <c r="BD6" s="41">
         <v>3</v>
       </c>
-      <c r="BE6" s="42">
+      <c r="BE6" s="41">
         <v>4</v>
       </c>
-      <c r="BF6" s="42">
+      <c r="BF6" s="41">
         <v>5</v>
       </c>
-      <c r="BG6" s="42">
+      <c r="BG6" s="41">
         <v>6</v>
       </c>
-      <c r="BH6" s="42">
+      <c r="BH6" s="41">
         <v>7</v>
       </c>
-      <c r="BI6" s="42">
+      <c r="BI6" s="41">
         <v>8</v>
       </c>
-      <c r="BJ6" s="42">
+      <c r="BJ6" s="41">
         <v>9</v>
       </c>
-      <c r="BK6" s="42">
+      <c r="BK6" s="41">
         <v>10</v>
       </c>
-      <c r="BL6" s="42">
+      <c r="BL6" s="41">
         <v>11</v>
       </c>
-      <c r="BM6" s="42">
+      <c r="BM6" s="41">
         <v>12</v>
       </c>
-      <c r="BN6" s="42">
+      <c r="BN6" s="41">
         <v>13</v>
       </c>
-      <c r="BO6" s="42">
+      <c r="BO6" s="41">
         <v>14</v>
       </c>
-      <c r="BP6" s="42">
+      <c r="BP6" s="41">
         <v>15</v>
       </c>
-      <c r="BQ6" s="42">
+      <c r="BQ6" s="41">
         <v>16</v>
       </c>
-      <c r="BR6" s="43">
+      <c r="BR6" s="42">
         <v>17</v>
       </c>
       <c r="BT6" s="4"/>
@@ -2599,135 +2596,135 @@
     </row>
     <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="44" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="W7" s="117" t="s">
+      <c r="H7" s="134"/>
+      <c r="I7" s="135"/>
+      <c r="W7" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="117"/>
-      <c r="AD7" s="72" t="s">
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AD7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="72"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="72"/>
-      <c r="BB7" s="72" t="s">
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BB7" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="72"/>
-      <c r="BJ7" s="72"/>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="72"/>
-      <c r="BM7" s="72"/>
-      <c r="BN7" s="72"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="72"/>
-      <c r="BQ7" s="72"/>
-      <c r="BR7" s="72"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="83"/>
+      <c r="BG7" s="83"/>
+      <c r="BH7" s="83"/>
+      <c r="BI7" s="83"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="83"/>
+      <c r="BL7" s="83"/>
+      <c r="BM7" s="83"/>
+      <c r="BN7" s="83"/>
+      <c r="BO7" s="83"/>
+      <c r="BP7" s="83"/>
+      <c r="BQ7" s="83"/>
+      <c r="BR7" s="83"/>
       <c r="BT7" s="4"/>
       <c r="BU7" s="37"/>
     </row>
     <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="45" t="s">
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="84"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
       <c r="V8" s="14"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="37"/>
     </row>
     <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="45" t="s">
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88" t="s">
+      <c r="I9" s="136"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="88"/>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="88"/>
-      <c r="AK9" s="88"/>
-      <c r="AL9" s="88"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -2748,18 +2745,18 @@
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
-      <c r="BG9" s="141" t="s">
+      <c r="BG9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="BH9" s="141"/>
-      <c r="BI9" s="141"/>
-      <c r="BJ9" s="141"/>
-      <c r="BK9" s="141"/>
-      <c r="BL9" s="141"/>
-      <c r="BM9" s="141"/>
-      <c r="BN9" s="141"/>
-      <c r="BO9" s="141"/>
-      <c r="BP9" s="141"/>
+      <c r="BH9" s="81"/>
+      <c r="BI9" s="81"/>
+      <c r="BJ9" s="81"/>
+      <c r="BK9" s="81"/>
+      <c r="BL9" s="81"/>
+      <c r="BM9" s="81"/>
+      <c r="BN9" s="81"/>
+      <c r="BO9" s="81"/>
+      <c r="BP9" s="81"/>
       <c r="BQ9" s="9"/>
       <c r="BR9" s="9"/>
       <c r="BS9" s="9"/>
@@ -2768,46 +2765,46 @@
     </row>
     <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="45" t="s">
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="57"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
@@ -2818,8 +2815,8 @@
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
       <c r="AV10" s="7"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
+      <c r="AW10" s="51"/>
+      <c r="AX10" s="51"/>
       <c r="AY10" s="7"/>
       <c r="AZ10" s="7"/>
       <c r="BA10" s="7"/>
@@ -2828,16 +2825,16 @@
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
-      <c r="BG10" s="142"/>
-      <c r="BH10" s="142"/>
-      <c r="BI10" s="142"/>
-      <c r="BJ10" s="142"/>
-      <c r="BK10" s="142"/>
-      <c r="BL10" s="142"/>
-      <c r="BM10" s="142"/>
-      <c r="BN10" s="142"/>
-      <c r="BO10" s="142"/>
-      <c r="BP10" s="142"/>
+      <c r="BG10" s="82"/>
+      <c r="BH10" s="82"/>
+      <c r="BI10" s="82"/>
+      <c r="BJ10" s="82"/>
+      <c r="BK10" s="82"/>
+      <c r="BL10" s="82"/>
+      <c r="BM10" s="82"/>
+      <c r="BN10" s="82"/>
+      <c r="BO10" s="82"/>
+      <c r="BP10" s="82"/>
       <c r="BQ10" s="7"/>
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
@@ -2846,85 +2843,85 @@
     </row>
     <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="39"/>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="45" t="s">
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="87"/>
-      <c r="X11" s="122" t="s">
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="X11" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="122"/>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="122"/>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="122"/>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="122"/>
-      <c r="AL11" s="122"/>
-      <c r="AM11" s="122"/>
-      <c r="AN11" s="122"/>
-      <c r="AO11" s="122"/>
-      <c r="AP11" s="122"/>
-      <c r="AQ11" s="122"/>
-      <c r="AR11" s="122"/>
-      <c r="AS11" s="122"/>
-      <c r="AT11" s="122"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="67"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="67"/>
+      <c r="AP11" s="67"/>
+      <c r="AQ11" s="67"/>
+      <c r="AR11" s="67"/>
+      <c r="AS11" s="67"/>
+      <c r="AT11" s="67"/>
       <c r="AU11" s="16"/>
       <c r="AV11" s="16"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="84"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="107"/>
       <c r="AY11" s="16"/>
-      <c r="AZ11" s="122" t="s">
+      <c r="AZ11" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="BA11" s="122"/>
-      <c r="BB11" s="122"/>
-      <c r="BC11" s="122"/>
-      <c r="BD11" s="122"/>
-      <c r="BE11" s="122"/>
-      <c r="BF11" s="122"/>
-      <c r="BG11" s="122"/>
-      <c r="BH11" s="122"/>
-      <c r="BI11" s="122"/>
-      <c r="BJ11" s="122"/>
-      <c r="BK11" s="122"/>
-      <c r="BL11" s="122"/>
-      <c r="BM11" s="122"/>
-      <c r="BN11" s="122"/>
-      <c r="BO11" s="122"/>
-      <c r="BP11" s="122"/>
-      <c r="BQ11" s="122"/>
-      <c r="BR11" s="122"/>
-      <c r="BS11" s="122"/>
+      <c r="BA11" s="67"/>
+      <c r="BB11" s="67"/>
+      <c r="BC11" s="67"/>
+      <c r="BD11" s="67"/>
+      <c r="BE11" s="67"/>
+      <c r="BF11" s="67"/>
+      <c r="BG11" s="67"/>
+      <c r="BH11" s="67"/>
+      <c r="BI11" s="67"/>
+      <c r="BJ11" s="67"/>
+      <c r="BK11" s="67"/>
+      <c r="BL11" s="67"/>
+      <c r="BM11" s="67"/>
+      <c r="BN11" s="67"/>
+      <c r="BO11" s="67"/>
+      <c r="BP11" s="67"/>
+      <c r="BQ11" s="67"/>
+      <c r="BR11" s="67"/>
+      <c r="BS11" s="67"/>
       <c r="BT11" s="4"/>
       <c r="BU11" s="37"/>
     </row>
     <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="45" t="s">
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="87"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
       <c r="W12" s="24">
         <v>23</v>
       </c>
@@ -2958,7 +2955,7 @@
       <c r="AG12" s="26">
         <v>13</v>
       </c>
-      <c r="AH12" s="79" t="s">
+      <c r="AH12" s="145" t="s">
         <v>11</v>
       </c>
       <c r="AI12" s="26">
@@ -2994,36 +2991,36 @@
       <c r="AS12" s="28">
         <v>2</v>
       </c>
-      <c r="AT12" s="138" t="s">
+      <c r="AT12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="84"/>
-      <c r="AZ12" s="47">
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="107"/>
+      <c r="AZ12" s="46">
         <v>1</v>
       </c>
-      <c r="BA12" s="42">
+      <c r="BA12" s="41">
         <v>2</v>
       </c>
-      <c r="BB12" s="42">
+      <c r="BB12" s="41">
         <v>3</v>
       </c>
-      <c r="BC12" s="42">
+      <c r="BC12" s="41">
         <v>4</v>
       </c>
-      <c r="BD12" s="42">
+      <c r="BD12" s="41">
         <v>5</v>
       </c>
-      <c r="BE12" s="42">
+      <c r="BE12" s="41">
         <v>6</v>
       </c>
-      <c r="BF12" s="42">
+      <c r="BF12" s="41">
         <v>7</v>
       </c>
-      <c r="BG12" s="42">
+      <c r="BG12" s="41">
         <v>8</v>
       </c>
-      <c r="BH12" s="138" t="s">
+      <c r="BH12" s="71" t="s">
         <v>11</v>
       </c>
       <c r="BI12" s="26">
@@ -3064,118 +3061,114 @@
     </row>
     <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="45" t="s">
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="87"/>
-      <c r="W13" s="99" t="s">
+      <c r="H13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="W13" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="X13" s="55" t="s">
+      <c r="X13" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="Y13" s="55" t="s">
+      <c r="Y13" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="Z13" s="55" t="s">
+      <c r="Z13" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55" t="s">
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="AC13" s="55" t="s">
+      <c r="AC13" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="80"/>
-      <c r="AI13" s="55"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55" t="s">
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="146"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="AN13" s="55" t="s">
+      <c r="AN13" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="AO13" s="55" t="s">
+      <c r="AO13" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="AP13" s="55" t="s">
+      <c r="AP13" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="AQ13" s="55" t="s">
+      <c r="AQ13" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="AR13" s="55" t="s">
+      <c r="AR13" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AS13" s="76" t="s">
+      <c r="AS13" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="AT13" s="139"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="150"/>
-      <c r="AZ13" s="99" t="s">
+      <c r="AT13" s="72"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="107"/>
+      <c r="AY13" s="74"/>
+      <c r="AZ13" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="BA13" s="55"/>
-      <c r="BB13" s="55" t="s">
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="BC13" s="55" t="s">
+      <c r="BC13" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="BD13" s="55" t="s">
+      <c r="BD13" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="BE13" s="55" t="s">
+      <c r="BE13" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="BF13" s="55" t="s">
+      <c r="BF13" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="BG13" s="55" t="s">
+      <c r="BG13" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="BH13" s="143"/>
-      <c r="BI13" s="58" t="s">
+      <c r="BH13" s="84"/>
+      <c r="BI13" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="BJ13" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK13" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL13" s="61"/>
-      <c r="BM13" s="61"/>
-      <c r="BN13" s="61"/>
-      <c r="BO13" s="61" t="s">
+      <c r="BJ13" s="78"/>
+      <c r="BK13" s="78"/>
+      <c r="BL13" s="78"/>
+      <c r="BM13" s="78"/>
+      <c r="BN13" s="78"/>
+      <c r="BO13" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="BP13" s="61" t="s">
+      <c r="BP13" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="BQ13" s="61" t="s">
+      <c r="BQ13" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="BR13" s="61" t="s">
+      <c r="BR13" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="BS13" s="73" t="s">
+      <c r="BS13" s="142" t="s">
         <v>61</v>
       </c>
       <c r="BT13" s="4"/>
@@ -3183,375 +3176,379 @@
     </row>
     <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="45" t="s">
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="87"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="80"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="56"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="56"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="139"/>
-      <c r="AW14" s="85" t="s">
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="146"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="72"/>
+      <c r="AW14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AX14" s="87"/>
-      <c r="AY14" s="150"/>
-      <c r="AZ14" s="100"/>
-      <c r="BA14" s="56"/>
-      <c r="BB14" s="56"/>
-      <c r="BC14" s="56"/>
-      <c r="BD14" s="56"/>
-      <c r="BE14" s="56"/>
-      <c r="BF14" s="56"/>
-      <c r="BG14" s="56"/>
-      <c r="BH14" s="143"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="62"/>
-      <c r="BL14" s="62"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="62"/>
-      <c r="BP14" s="62"/>
-      <c r="BQ14" s="62"/>
-      <c r="BR14" s="62"/>
-      <c r="BS14" s="74"/>
+      <c r="AX14" s="70"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="59"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="84"/>
+      <c r="BI14" s="130"/>
+      <c r="BJ14" s="79"/>
+      <c r="BK14" s="79"/>
+      <c r="BL14" s="79"/>
+      <c r="BM14" s="79"/>
+      <c r="BN14" s="79"/>
+      <c r="BO14" s="79"/>
+      <c r="BP14" s="79"/>
+      <c r="BQ14" s="79"/>
+      <c r="BR14" s="79"/>
+      <c r="BS14" s="143"/>
       <c r="BT14" s="4"/>
       <c r="BU14" s="37"/>
     </row>
     <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="45" t="s">
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="87"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="139"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="150"/>
-      <c r="AZ15" s="100"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="56"/>
-      <c r="BC15" s="56"/>
-      <c r="BD15" s="56"/>
-      <c r="BE15" s="56"/>
-      <c r="BF15" s="56"/>
-      <c r="BG15" s="56"/>
-      <c r="BH15" s="143"/>
-      <c r="BI15" s="59"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="62"/>
-      <c r="BL15" s="62"/>
-      <c r="BM15" s="62"/>
-      <c r="BN15" s="62"/>
-      <c r="BO15" s="62"/>
-      <c r="BP15" s="62"/>
-      <c r="BQ15" s="62"/>
-      <c r="BR15" s="62"/>
-      <c r="BS15" s="74"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="146"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="72"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="59"/>
+      <c r="BA15" s="62"/>
+      <c r="BB15" s="62"/>
+      <c r="BC15" s="62"/>
+      <c r="BD15" s="62"/>
+      <c r="BE15" s="62"/>
+      <c r="BF15" s="62"/>
+      <c r="BG15" s="62"/>
+      <c r="BH15" s="84"/>
+      <c r="BI15" s="130"/>
+      <c r="BJ15" s="79"/>
+      <c r="BK15" s="79"/>
+      <c r="BL15" s="79"/>
+      <c r="BM15" s="79"/>
+      <c r="BN15" s="79"/>
+      <c r="BO15" s="79"/>
+      <c r="BP15" s="79"/>
+      <c r="BQ15" s="79"/>
+      <c r="BR15" s="79"/>
+      <c r="BS15" s="143"/>
       <c r="BT15" s="4"/>
       <c r="BU15" s="37"/>
     </row>
     <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="45" t="s">
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="87"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="81"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="140"/>
-      <c r="AW16" s="85"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="150"/>
-      <c r="AZ16" s="113"/>
-      <c r="BA16" s="57"/>
-      <c r="BB16" s="57"/>
-      <c r="BC16" s="57"/>
-      <c r="BD16" s="57"/>
-      <c r="BE16" s="57"/>
-      <c r="BF16" s="57"/>
-      <c r="BG16" s="57"/>
-      <c r="BH16" s="144"/>
-      <c r="BI16" s="60"/>
-      <c r="BJ16" s="63"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="63"/>
-      <c r="BM16" s="63"/>
-      <c r="BN16" s="63"/>
-      <c r="BO16" s="63"/>
-      <c r="BP16" s="63"/>
-      <c r="BQ16" s="63"/>
-      <c r="BR16" s="63"/>
-      <c r="BS16" s="75"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
+      <c r="W16" s="60"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="147"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="77"/>
+      <c r="AT16" s="73"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="74"/>
+      <c r="AZ16" s="60"/>
+      <c r="BA16" s="63"/>
+      <c r="BB16" s="63"/>
+      <c r="BC16" s="63"/>
+      <c r="BD16" s="63"/>
+      <c r="BE16" s="63"/>
+      <c r="BF16" s="63"/>
+      <c r="BG16" s="63"/>
+      <c r="BH16" s="85"/>
+      <c r="BI16" s="137"/>
+      <c r="BJ16" s="80"/>
+      <c r="BK16" s="80"/>
+      <c r="BL16" s="80"/>
+      <c r="BM16" s="80"/>
+      <c r="BN16" s="80"/>
+      <c r="BO16" s="80"/>
+      <c r="BP16" s="80"/>
+      <c r="BQ16" s="80"/>
+      <c r="BR16" s="80"/>
+      <c r="BS16" s="144"/>
       <c r="BT16" s="4"/>
       <c r="BU16" s="37"/>
     </row>
     <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="111" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="45" t="s">
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="85"/>
-      <c r="I17" s="87"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="87"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="70"/>
       <c r="BT17" s="4"/>
       <c r="BU17" s="37"/>
     </row>
     <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="45" t="s">
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="87"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="O18" s="61" t="s">
+      <c r="N18" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="61" t="s">
+      <c r="P18" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="Q18" s="61" t="s">
+      <c r="Q18" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="R18" s="61" t="s">
+      <c r="R18" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="S18" s="61" t="s">
+      <c r="S18" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="T18" s="61" t="s">
+      <c r="T18" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="U18" s="61" t="s">
+      <c r="U18" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="V18" s="61" t="s">
+      <c r="V18" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="W18" s="61" t="s">
+      <c r="W18" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="X18" s="55" t="s">
+      <c r="X18" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="Y18" s="55" t="s">
+      <c r="Y18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="Z18" s="55" t="s">
+      <c r="Z18" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="AA18" s="55" t="s">
+      <c r="AA18" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="AB18" s="55" t="s">
+      <c r="AB18" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="AC18" s="55" t="s">
+      <c r="AC18" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="AD18" s="55" t="s">
+      <c r="AD18" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="AE18" s="55" t="s">
+      <c r="AE18" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" s="55" t="s">
+      <c r="AF18" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="AG18" s="55" t="s">
+      <c r="AG18" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="AH18" s="55" t="s">
+      <c r="AH18" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AI18" s="55" t="s">
+      <c r="AI18" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AJ18" s="55" t="s">
+      <c r="AJ18" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AK18" s="55" t="s">
+      <c r="AK18" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AL18" s="55" t="s">
+      <c r="AL18" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="AM18" s="76" t="s">
+      <c r="AM18" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="AN18" s="99" t="s">
+      <c r="AN18" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="AO18" s="55" t="s">
+      <c r="AO18" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="55" t="s">
+      <c r="AP18" s="61"/>
+      <c r="AQ18" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="AR18" s="55" t="s">
+      <c r="AR18" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="AS18" s="55" t="s">
+      <c r="AS18" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AT18" s="76" t="s">
+      <c r="AT18" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="AW18" s="85"/>
-      <c r="AX18" s="87"/>
-      <c r="AZ18" s="99" t="s">
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="70"/>
+      <c r="AZ18" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="BA18" s="55" t="s">
+      <c r="BA18" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="BB18" s="55"/>
-      <c r="BC18" s="55" t="s">
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="BD18" s="55" t="s">
+      <c r="BD18" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="BE18" s="55" t="s">
+      <c r="BE18" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="BF18" s="55" t="s">
+      <c r="BF18" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="BG18" s="55"/>
-      <c r="BH18" s="55"/>
-      <c r="BI18" s="55" t="s">
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="BJ18" s="55" t="s">
+      <c r="BJ18" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="BK18" s="55" t="s">
+      <c r="BK18" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="BL18" s="55" t="s">
+      <c r="BL18" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="BM18" s="55" t="s">
+      <c r="BM18" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="BN18" s="55" t="s">
+      <c r="BN18" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="BO18" s="55" t="s">
+      <c r="BO18" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="BP18" s="55" t="s">
+      <c r="BP18" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="BQ18" s="55" t="s">
+      <c r="BQ18" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="BR18" s="55"/>
-      <c r="BS18" s="76" t="s">
+      <c r="BR18" s="61"/>
+      <c r="BS18" s="75" t="s">
         <v>87</v>
       </c>
       <c r="BT18" s="4"/>
@@ -3559,303 +3556,313 @@
     </row>
     <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="46" t="s">
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="87"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="100"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="77"/>
-      <c r="AW19" s="85"/>
-      <c r="AX19" s="87"/>
-      <c r="AZ19" s="100"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="56"/>
-      <c r="BP19" s="56"/>
-      <c r="BQ19" s="56"/>
-      <c r="BR19" s="56"/>
-      <c r="BS19" s="77"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="59"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="76"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="70"/>
+      <c r="AZ19" s="59"/>
+      <c r="BA19" s="62"/>
+      <c r="BB19" s="62"/>
+      <c r="BC19" s="62"/>
+      <c r="BD19" s="62"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="62"/>
+      <c r="BI19" s="62"/>
+      <c r="BJ19" s="62"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="62"/>
+      <c r="BN19" s="62"/>
+      <c r="BO19" s="62"/>
+      <c r="BP19" s="62"/>
+      <c r="BQ19" s="62"/>
+      <c r="BR19" s="62"/>
+      <c r="BS19" s="76"/>
       <c r="BT19" s="4"/>
       <c r="BU19" s="37"/>
     </row>
     <row r="20" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="12"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="87"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="100"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="56"/>
-      <c r="AT20" s="77"/>
-      <c r="AW20" s="85"/>
-      <c r="AX20" s="87"/>
-      <c r="AZ20" s="100"/>
-      <c r="BA20" s="56"/>
-      <c r="BB20" s="56"/>
-      <c r="BC20" s="56"/>
-      <c r="BD20" s="56"/>
-      <c r="BE20" s="56"/>
-      <c r="BF20" s="56"/>
-      <c r="BG20" s="56"/>
-      <c r="BH20" s="56"/>
-      <c r="BI20" s="56"/>
-      <c r="BJ20" s="56"/>
-      <c r="BK20" s="56"/>
-      <c r="BL20" s="56"/>
-      <c r="BM20" s="56"/>
-      <c r="BN20" s="56"/>
-      <c r="BO20" s="56"/>
-      <c r="BP20" s="56"/>
-      <c r="BQ20" s="56"/>
-      <c r="BR20" s="56"/>
-      <c r="BS20" s="77"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="76"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="70"/>
+      <c r="AZ20" s="59"/>
+      <c r="BA20" s="62"/>
+      <c r="BB20" s="62"/>
+      <c r="BC20" s="62"/>
+      <c r="BD20" s="62"/>
+      <c r="BE20" s="62"/>
+      <c r="BF20" s="62"/>
+      <c r="BG20" s="62"/>
+      <c r="BH20" s="62"/>
+      <c r="BI20" s="62"/>
+      <c r="BJ20" s="62"/>
+      <c r="BK20" s="62"/>
+      <c r="BL20" s="62"/>
+      <c r="BM20" s="62"/>
+      <c r="BN20" s="62"/>
+      <c r="BO20" s="62"/>
+      <c r="BP20" s="62"/>
+      <c r="BQ20" s="62"/>
+      <c r="BR20" s="62"/>
+      <c r="BS20" s="76"/>
       <c r="BT20" s="4"/>
       <c r="BU20" s="37"/>
     </row>
     <row r="21" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="12"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="87"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="100"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="56"/>
-      <c r="AR21" s="56"/>
-      <c r="AS21" s="56"/>
-      <c r="AT21" s="77"/>
-      <c r="AW21" s="85"/>
-      <c r="AX21" s="87"/>
-      <c r="AZ21" s="100"/>
-      <c r="BA21" s="56"/>
-      <c r="BB21" s="56"/>
-      <c r="BC21" s="56"/>
-      <c r="BD21" s="56"/>
-      <c r="BE21" s="56"/>
-      <c r="BF21" s="56"/>
-      <c r="BG21" s="56"/>
-      <c r="BH21" s="56"/>
-      <c r="BI21" s="56"/>
-      <c r="BJ21" s="56"/>
-      <c r="BK21" s="56"/>
-      <c r="BL21" s="56"/>
-      <c r="BM21" s="56"/>
-      <c r="BN21" s="56"/>
-      <c r="BO21" s="56"/>
-      <c r="BP21" s="56"/>
-      <c r="BQ21" s="56"/>
-      <c r="BR21" s="56"/>
-      <c r="BS21" s="77"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="76"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="70"/>
+      <c r="AZ21" s="59"/>
+      <c r="BA21" s="62"/>
+      <c r="BB21" s="62"/>
+      <c r="BC21" s="62"/>
+      <c r="BD21" s="62"/>
+      <c r="BE21" s="62"/>
+      <c r="BF21" s="62"/>
+      <c r="BG21" s="62"/>
+      <c r="BH21" s="62"/>
+      <c r="BI21" s="62"/>
+      <c r="BJ21" s="62"/>
+      <c r="BK21" s="62"/>
+      <c r="BL21" s="62"/>
+      <c r="BM21" s="62"/>
+      <c r="BN21" s="62"/>
+      <c r="BO21" s="62"/>
+      <c r="BP21" s="62"/>
+      <c r="BQ21" s="62"/>
+      <c r="BR21" s="62"/>
+      <c r="BS21" s="76"/>
       <c r="BT21" s="4"/>
       <c r="BU21" s="37"/>
     </row>
     <row r="22" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="12"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="87"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="101"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="102"/>
-      <c r="AQ22" s="102"/>
-      <c r="AR22" s="102"/>
-      <c r="AS22" s="102"/>
-      <c r="AT22" s="98"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="87"/>
-      <c r="AZ22" s="113"/>
-      <c r="BA22" s="57"/>
-      <c r="BB22" s="57"/>
-      <c r="BC22" s="57"/>
-      <c r="BD22" s="57"/>
-      <c r="BE22" s="57"/>
-      <c r="BF22" s="57"/>
-      <c r="BG22" s="57"/>
-      <c r="BH22" s="57"/>
-      <c r="BI22" s="57"/>
-      <c r="BJ22" s="57"/>
-      <c r="BK22" s="57"/>
-      <c r="BL22" s="57"/>
-      <c r="BM22" s="57"/>
-      <c r="BN22" s="57"/>
-      <c r="BO22" s="57"/>
-      <c r="BP22" s="57"/>
-      <c r="BQ22" s="57"/>
-      <c r="BR22" s="57"/>
-      <c r="BS22" s="78"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="132"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="68"/>
+      <c r="AS22" s="68"/>
+      <c r="AT22" s="131"/>
+      <c r="AW22" s="69"/>
+      <c r="AX22" s="70"/>
+      <c r="AZ22" s="60"/>
+      <c r="BA22" s="63"/>
+      <c r="BB22" s="63"/>
+      <c r="BC22" s="63"/>
+      <c r="BD22" s="63"/>
+      <c r="BE22" s="63"/>
+      <c r="BF22" s="63"/>
+      <c r="BG22" s="63"/>
+      <c r="BH22" s="63"/>
+      <c r="BI22" s="63"/>
+      <c r="BJ22" s="63"/>
+      <c r="BK22" s="63"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63"/>
+      <c r="BN22" s="63"/>
+      <c r="BO22" s="63"/>
+      <c r="BP22" s="63"/>
+      <c r="BQ22" s="63"/>
+      <c r="BR22" s="63"/>
+      <c r="BS22" s="77"/>
       <c r="BT22" s="4"/>
       <c r="BU22" s="37"/>
     </row>
     <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="12"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="87"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="77"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="76"/>
       <c r="AN23" s="29">
         <v>17</v>
       </c>
@@ -3877,66 +3884,66 @@
       <c r="AT23" s="23">
         <v>23</v>
       </c>
-      <c r="AW23" s="85"/>
-      <c r="AX23" s="87"/>
-      <c r="AZ23" s="47">
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="70"/>
+      <c r="AZ23" s="46">
         <v>1</v>
       </c>
-      <c r="BA23" s="42">
+      <c r="BA23" s="41">
         <v>2</v>
       </c>
-      <c r="BB23" s="42">
+      <c r="BB23" s="41">
         <v>3</v>
       </c>
-      <c r="BC23" s="42">
+      <c r="BC23" s="41">
         <v>4</v>
       </c>
-      <c r="BD23" s="42">
+      <c r="BD23" s="41">
         <v>5</v>
       </c>
-      <c r="BE23" s="42">
+      <c r="BE23" s="41">
         <v>6</v>
       </c>
-      <c r="BF23" s="42">
+      <c r="BF23" s="41">
         <v>7</v>
       </c>
-      <c r="BG23" s="42">
+      <c r="BG23" s="41">
         <v>8</v>
       </c>
-      <c r="BH23" s="42">
+      <c r="BH23" s="41">
         <v>9</v>
       </c>
-      <c r="BI23" s="42">
+      <c r="BI23" s="41">
         <v>10</v>
       </c>
-      <c r="BJ23" s="42">
+      <c r="BJ23" s="41">
         <v>11</v>
       </c>
-      <c r="BK23" s="42">
+      <c r="BK23" s="41">
         <v>12</v>
       </c>
-      <c r="BL23" s="42">
+      <c r="BL23" s="41">
         <v>13</v>
       </c>
-      <c r="BM23" s="42">
+      <c r="BM23" s="41">
         <v>14</v>
       </c>
-      <c r="BN23" s="42">
+      <c r="BN23" s="41">
         <v>15</v>
       </c>
-      <c r="BO23" s="42">
+      <c r="BO23" s="41">
         <v>16</v>
       </c>
-      <c r="BP23" s="42">
+      <c r="BP23" s="41">
         <v>17</v>
       </c>
-      <c r="BQ23" s="42">
+      <c r="BQ23" s="41">
         <v>18</v>
       </c>
-      <c r="BR23" s="42">
+      <c r="BR23" s="41">
         <v>19</v>
       </c>
-      <c r="BS23" s="43">
+      <c r="BS23" s="42">
         <v>20</v>
       </c>
       <c r="BT23" s="4"/>
@@ -3945,110 +3952,114 @@
     <row r="24" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="39"/>
       <c r="B24" s="12"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="87"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="56"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="53"/>
-      <c r="AO24" s="53"/>
-      <c r="AP24" s="53"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="53"/>
-      <c r="AT24" s="53"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="62"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="52"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="52"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="52"/>
+      <c r="AT24" s="52"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="5"/>
-      <c r="AZ24" s="72" t="s">
+      <c r="AZ24" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="BA24" s="72"/>
-      <c r="BB24" s="72"/>
-      <c r="BC24" s="72"/>
-      <c r="BD24" s="72"/>
-      <c r="BE24" s="72"/>
-      <c r="BF24" s="72"/>
-      <c r="BG24" s="72"/>
-      <c r="BH24" s="72"/>
-      <c r="BI24" s="72"/>
-      <c r="BJ24" s="72"/>
-      <c r="BK24" s="72"/>
-      <c r="BL24" s="72"/>
-      <c r="BM24" s="72"/>
-      <c r="BN24" s="72"/>
-      <c r="BO24" s="72"/>
-      <c r="BP24" s="72"/>
-      <c r="BQ24" s="72"/>
-      <c r="BR24" s="72"/>
-      <c r="BS24" s="72"/>
+      <c r="BA24" s="83"/>
+      <c r="BB24" s="83"/>
+      <c r="BC24" s="83"/>
+      <c r="BD24" s="83"/>
+      <c r="BE24" s="83"/>
+      <c r="BF24" s="83"/>
+      <c r="BG24" s="83"/>
+      <c r="BH24" s="83"/>
+      <c r="BI24" s="83"/>
+      <c r="BJ24" s="83"/>
+      <c r="BK24" s="83"/>
+      <c r="BL24" s="83"/>
+      <c r="BM24" s="83"/>
+      <c r="BN24" s="83"/>
+      <c r="BO24" s="83"/>
+      <c r="BP24" s="83"/>
+      <c r="BQ24" s="83"/>
+      <c r="BR24" s="83"/>
+      <c r="BS24" s="83"/>
       <c r="BT24" s="4"/>
       <c r="BU24" s="37"/>
     </row>
     <row r="25" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="12"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="87"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="78"/>
-      <c r="AN25" s="53"/>
-      <c r="AO25" s="53"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="52"/>
+      <c r="AO25" s="52"/>
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="52"/>
+      <c r="AR25" s="52"/>
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="52"/>
       <c r="AW25" s="6"/>
       <c r="AX25" s="5"/>
       <c r="BT25" s="4"/>
@@ -4057,99 +4068,105 @@
     <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="12"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="87"/>
-      <c r="L26" s="40" t="s">
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="41" t="s">
+      <c r="K26" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="41" t="s">
+      <c r="L26" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="M26" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="41" t="s">
+      <c r="N26" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="41" t="s">
+      <c r="O26" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="R26" s="41" t="s">
+      <c r="P26" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="41" t="s">
+      <c r="Q26" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="T26" s="41" t="s">
+      <c r="R26" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="U26" s="41" t="s">
+      <c r="S26" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="V26" s="41" t="s">
+      <c r="T26" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="W26" s="41" t="s">
+      <c r="U26" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="X26" s="42">
+      <c r="V26" s="148" t="s">
+        <v>118</v>
+      </c>
+      <c r="W26" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="X26" s="149">
         <v>1</v>
       </c>
-      <c r="Y26" s="42">
+      <c r="Y26" s="149">
         <v>2</v>
       </c>
-      <c r="Z26" s="42">
+      <c r="Z26" s="149">
         <v>3</v>
       </c>
-      <c r="AA26" s="42">
+      <c r="AA26" s="149">
         <v>4</v>
       </c>
-      <c r="AB26" s="42">
+      <c r="AB26" s="149">
         <v>5</v>
       </c>
-      <c r="AC26" s="42">
+      <c r="AC26" s="149">
         <v>6</v>
       </c>
-      <c r="AD26" s="42">
+      <c r="AD26" s="149">
         <v>7</v>
       </c>
-      <c r="AE26" s="42">
+      <c r="AE26" s="149">
         <v>8</v>
       </c>
-      <c r="AF26" s="42">
+      <c r="AF26" s="149">
         <v>9</v>
       </c>
-      <c r="AG26" s="42">
+      <c r="AG26" s="149">
         <v>10</v>
       </c>
-      <c r="AH26" s="42">
+      <c r="AH26" s="149">
         <v>11</v>
       </c>
-      <c r="AI26" s="42">
+      <c r="AI26" s="149">
         <v>12</v>
       </c>
-      <c r="AJ26" s="42">
+      <c r="AJ26" s="149">
         <v>13</v>
       </c>
-      <c r="AK26" s="42">
+      <c r="AK26" s="149">
         <v>14</v>
       </c>
-      <c r="AL26" s="42">
+      <c r="AL26" s="149">
         <v>15</v>
       </c>
-      <c r="AM26" s="43">
+      <c r="AM26" s="150">
         <v>16</v>
       </c>
-      <c r="AN26" s="53"/>
-      <c r="AO26" s="53"/>
-      <c r="AP26" s="53"/>
-      <c r="AQ26" s="53"/>
-      <c r="AR26" s="53"/>
-      <c r="AS26" s="53"/>
-      <c r="AT26" s="53"/>
+      <c r="AN26" s="52"/>
+      <c r="AO26" s="52"/>
+      <c r="AP26" s="52"/>
+      <c r="AQ26" s="52"/>
+      <c r="AR26" s="52"/>
+      <c r="AS26" s="52"/>
+      <c r="AT26" s="52"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="5"/>
       <c r="BT26" s="4"/>
@@ -4158,101 +4175,101 @@
     <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="39"/>
       <c r="B27" s="12"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="87"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
       <c r="W27" s="16"/>
-      <c r="X27" s="103" t="s">
+      <c r="X27" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="103"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="103"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="103"/>
-      <c r="AO27" s="103"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="103"/>
+      <c r="Y27" s="133"/>
+      <c r="Z27" s="133"/>
+      <c r="AA27" s="133"/>
+      <c r="AB27" s="133"/>
+      <c r="AC27" s="133"/>
+      <c r="AD27" s="133"/>
+      <c r="AE27" s="133"/>
+      <c r="AF27" s="133"/>
+      <c r="AG27" s="133"/>
+      <c r="AH27" s="133"/>
+      <c r="AI27" s="133"/>
+      <c r="AJ27" s="133"/>
+      <c r="AK27" s="133"/>
+      <c r="AL27" s="133"/>
+      <c r="AM27" s="133"/>
+      <c r="AN27" s="133"/>
+      <c r="AO27" s="133"/>
+      <c r="AP27" s="133"/>
+      <c r="AQ27" s="133"/>
+      <c r="AR27" s="133"/>
+      <c r="AS27" s="133"/>
+      <c r="AT27" s="133"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="5"/>
-      <c r="AZ27" s="69"/>
-      <c r="BB27" s="69"/>
-      <c r="BF27" s="69"/>
-      <c r="BH27" s="69"/>
-      <c r="BL27" s="69"/>
-      <c r="BN27" s="69"/>
-      <c r="BQ27" s="69"/>
-      <c r="BS27" s="69"/>
+      <c r="AZ27" s="120"/>
+      <c r="BB27" s="120"/>
+      <c r="BF27" s="120"/>
+      <c r="BH27" s="120"/>
+      <c r="BL27" s="120"/>
+      <c r="BN27" s="120"/>
+      <c r="BQ27" s="120"/>
+      <c r="BS27" s="120"/>
       <c r="BT27" s="4"/>
       <c r="BU27" s="37"/>
     </row>
     <row r="28" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="12"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="87"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="5"/>
-      <c r="AZ28" s="70"/>
-      <c r="BB28" s="70"/>
-      <c r="BF28" s="70"/>
-      <c r="BH28" s="70"/>
-      <c r="BL28" s="70"/>
-      <c r="BN28" s="70"/>
-      <c r="BQ28" s="70"/>
-      <c r="BS28" s="70"/>
+      <c r="AZ28" s="121"/>
+      <c r="BB28" s="121"/>
+      <c r="BF28" s="121"/>
+      <c r="BH28" s="121"/>
+      <c r="BL28" s="121"/>
+      <c r="BN28" s="121"/>
+      <c r="BQ28" s="121"/>
+      <c r="BS28" s="121"/>
       <c r="BT28" s="4"/>
       <c r="BU28" s="37"/>
     </row>
     <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="12"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="88" t="s">
+      <c r="H29" s="106"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="138"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="138"/>
+      <c r="W29" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="151"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
@@ -4263,31 +4280,31 @@
       <c r="AT29" s="9"/>
       <c r="AU29" s="9"/>
       <c r="AV29" s="9"/>
-      <c r="AW29" s="52"/>
-      <c r="AX29" s="52"/>
+      <c r="AW29" s="51"/>
+      <c r="AX29" s="51"/>
       <c r="AY29" s="9"/>
-      <c r="AZ29" s="70"/>
+      <c r="AZ29" s="121"/>
       <c r="BA29" s="9"/>
-      <c r="BB29" s="70"/>
+      <c r="BB29" s="121"/>
       <c r="BC29" s="9"/>
       <c r="BD29" s="9"/>
       <c r="BE29" s="9"/>
-      <c r="BF29" s="70"/>
+      <c r="BF29" s="121"/>
       <c r="BG29" s="9"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="90" t="s">
+      <c r="BH29" s="121"/>
+      <c r="BI29" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="BJ29" s="91"/>
-      <c r="BK29" s="92"/>
-      <c r="BL29" s="70"/>
+      <c r="BJ29" s="124"/>
+      <c r="BK29" s="125"/>
+      <c r="BL29" s="121"/>
       <c r="BM29" s="30"/>
-      <c r="BN29" s="70"/>
+      <c r="BN29" s="121"/>
       <c r="BO29" s="30"/>
       <c r="BP29" s="9"/>
-      <c r="BQ29" s="70"/>
+      <c r="BQ29" s="121"/>
       <c r="BR29" s="9"/>
-      <c r="BS29" s="70"/>
+      <c r="BS29" s="121"/>
       <c r="BT29" s="10"/>
       <c r="BU29" s="37"/>
     </row>
@@ -4299,37 +4316,37 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
-      <c r="AE30" s="89"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="89"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="89"/>
-      <c r="AJ30" s="89"/>
-      <c r="AK30" s="89"/>
-      <c r="AL30" s="89"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="139"/>
+      <c r="R30" s="139"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="139"/>
+      <c r="U30" s="139"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="57"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="152"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
@@ -4343,28 +4360,28 @@
       <c r="AW30" s="7"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
-      <c r="AZ30" s="71"/>
+      <c r="AZ30" s="122"/>
       <c r="BA30" s="7"/>
-      <c r="BB30" s="71"/>
+      <c r="BB30" s="122"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
       <c r="BE30" s="7"/>
-      <c r="BF30" s="71"/>
+      <c r="BF30" s="122"/>
       <c r="BG30" s="7"/>
-      <c r="BH30" s="71"/>
-      <c r="BI30" s="93" t="s">
+      <c r="BH30" s="122"/>
+      <c r="BI30" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="BJ30" s="94"/>
-      <c r="BK30" s="95"/>
-      <c r="BL30" s="71"/>
+      <c r="BJ30" s="127"/>
+      <c r="BK30" s="128"/>
+      <c r="BL30" s="122"/>
       <c r="BM30" s="31"/>
-      <c r="BN30" s="71"/>
+      <c r="BN30" s="122"/>
       <c r="BO30" s="31"/>
       <c r="BP30" s="7"/>
-      <c r="BQ30" s="71"/>
+      <c r="BQ30" s="122"/>
       <c r="BR30" s="7"/>
-      <c r="BS30" s="71"/>
+      <c r="BS30" s="122"/>
       <c r="BT30" s="8"/>
       <c r="BU30" s="37"/>
     </row>
@@ -4394,30 +4411,30 @@
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="49"/>
-      <c r="AD31" s="49"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="48"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="48"/>
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="48"/>
+      <c r="AO31" s="48"/>
+      <c r="AP31" s="48"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="48"/>
+      <c r="AS31" s="48"/>
+      <c r="AT31" s="48"/>
+      <c r="AU31" s="48"/>
+      <c r="AV31" s="48"/>
+      <c r="AW31" s="48"/>
       <c r="AX31" s="35"/>
       <c r="AY31" s="35"/>
       <c r="AZ31" s="35"/>
@@ -7036,7 +7053,190 @@
     <row r="2565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="205">
+  <mergeCells count="207">
+    <mergeCell ref="W29:AK30"/>
+    <mergeCell ref="BG13:BG16"/>
+    <mergeCell ref="BI13:BI16"/>
+    <mergeCell ref="BJ13:BJ16"/>
+    <mergeCell ref="J29:V30"/>
+    <mergeCell ref="H29:I30"/>
+    <mergeCell ref="BH27:BH30"/>
+    <mergeCell ref="BD18:BD22"/>
+    <mergeCell ref="BC18:BC22"/>
+    <mergeCell ref="AZ24:BS24"/>
+    <mergeCell ref="BS13:BS16"/>
+    <mergeCell ref="BE13:BE16"/>
+    <mergeCell ref="BS18:BS22"/>
+    <mergeCell ref="BR18:BR22"/>
+    <mergeCell ref="BQ18:BQ22"/>
+    <mergeCell ref="BP18:BP22"/>
+    <mergeCell ref="BO18:BO22"/>
+    <mergeCell ref="BN18:BN22"/>
+    <mergeCell ref="BM18:BM22"/>
+    <mergeCell ref="BL18:BL22"/>
+    <mergeCell ref="BK18:BK22"/>
+    <mergeCell ref="AH12:AH16"/>
+    <mergeCell ref="BL27:BL30"/>
+    <mergeCell ref="BN27:BN30"/>
+    <mergeCell ref="BS27:BS30"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I28"/>
+    <mergeCell ref="J9:V10"/>
+    <mergeCell ref="AZ27:AZ30"/>
+    <mergeCell ref="BB27:BB30"/>
+    <mergeCell ref="BF27:BF30"/>
+    <mergeCell ref="AP13:AP16"/>
+    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="Z13:Z16"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="AK18:AK25"/>
+    <mergeCell ref="AL18:AL25"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AC18:AC25"/>
+    <mergeCell ref="AF13:AF16"/>
+    <mergeCell ref="BF13:BF16"/>
+    <mergeCell ref="BC13:BC16"/>
+    <mergeCell ref="AJ13:AJ16"/>
+    <mergeCell ref="AE13:AE16"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="AO13:AO16"/>
+    <mergeCell ref="J18:J25"/>
+    <mergeCell ref="K18:K25"/>
+    <mergeCell ref="BQ27:BQ30"/>
+    <mergeCell ref="BI29:BK29"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="M18:M25"/>
+    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="AE18:AE25"/>
+    <mergeCell ref="AF18:AF25"/>
+    <mergeCell ref="AG18:AG25"/>
+    <mergeCell ref="AT18:AT22"/>
+    <mergeCell ref="AN18:AN22"/>
+    <mergeCell ref="AH18:AH25"/>
+    <mergeCell ref="AI18:AI25"/>
+    <mergeCell ref="AJ18:AJ25"/>
+    <mergeCell ref="AO18:AO22"/>
+    <mergeCell ref="AP18:AP22"/>
+    <mergeCell ref="AQ18:AQ22"/>
+    <mergeCell ref="AR18:AR22"/>
+    <mergeCell ref="X18:X25"/>
+    <mergeCell ref="Y18:Y25"/>
+    <mergeCell ref="Z18:Z25"/>
+    <mergeCell ref="BE18:BE22"/>
+    <mergeCell ref="X27:AT27"/>
+    <mergeCell ref="BB18:BB22"/>
+    <mergeCell ref="BA18:BA22"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="W18:W25"/>
+    <mergeCell ref="V18:V25"/>
+    <mergeCell ref="U18:U25"/>
+    <mergeCell ref="T18:T25"/>
+    <mergeCell ref="S18:S25"/>
+    <mergeCell ref="R18:R25"/>
+    <mergeCell ref="Q18:Q25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="W13:W16"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AC13:AC16"/>
+    <mergeCell ref="AB13:AB16"/>
+    <mergeCell ref="AA13:AA16"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="AM2:AM5"/>
+    <mergeCell ref="AM13:AM16"/>
+    <mergeCell ref="AL13:AL16"/>
+    <mergeCell ref="AK13:AK16"/>
+    <mergeCell ref="AN13:AN16"/>
+    <mergeCell ref="AD13:AD16"/>
+    <mergeCell ref="AD7:AZ7"/>
+    <mergeCell ref="AU2:AU5"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="AX2:AX5"/>
+    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="AI2:AI5"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="AL2:AL5"/>
+    <mergeCell ref="AK2:AK5"/>
+    <mergeCell ref="AW11:AX13"/>
+    <mergeCell ref="AQ13:AQ16"/>
+    <mergeCell ref="AG13:AG16"/>
+    <mergeCell ref="AZ11:BS11"/>
+    <mergeCell ref="AI13:AI16"/>
+    <mergeCell ref="AR13:AR16"/>
+    <mergeCell ref="AS13:AS16"/>
+    <mergeCell ref="BD2:BD5"/>
+    <mergeCell ref="BC2:BC5"/>
+    <mergeCell ref="BB2:BB5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="BA2:BA6"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="AS2:AS5"/>
+    <mergeCell ref="AR2:AR5"/>
+    <mergeCell ref="AQ2:AQ5"/>
+    <mergeCell ref="AP2:AP5"/>
+    <mergeCell ref="AN2:AN5"/>
+    <mergeCell ref="AO2:AO5"/>
+    <mergeCell ref="AD2:AD5"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="BR2:BR5"/>
+    <mergeCell ref="BQ2:BQ5"/>
+    <mergeCell ref="BP2:BP5"/>
+    <mergeCell ref="BO2:BO5"/>
+    <mergeCell ref="BN2:BN5"/>
+    <mergeCell ref="BM2:BM5"/>
+    <mergeCell ref="BR13:BR16"/>
+    <mergeCell ref="BQ13:BQ16"/>
+    <mergeCell ref="BP13:BP16"/>
+    <mergeCell ref="BM13:BM16"/>
+    <mergeCell ref="BN13:BN16"/>
+    <mergeCell ref="BO13:BO16"/>
+    <mergeCell ref="BG9:BP10"/>
+    <mergeCell ref="BB7:BR7"/>
+    <mergeCell ref="BH12:BH16"/>
+    <mergeCell ref="BK13:BK16"/>
+    <mergeCell ref="BL13:BL16"/>
+    <mergeCell ref="BL2:BL5"/>
+    <mergeCell ref="BK2:BK5"/>
+    <mergeCell ref="BJ2:BJ5"/>
+    <mergeCell ref="BI2:BI5"/>
+    <mergeCell ref="BH2:BH5"/>
+    <mergeCell ref="BG2:BG5"/>
+    <mergeCell ref="BF2:BF5"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AD1:AJ1"/>
     <mergeCell ref="W9:AL10"/>
@@ -7061,187 +7261,6 @@
     <mergeCell ref="BG18:BG22"/>
     <mergeCell ref="BF18:BF22"/>
     <mergeCell ref="BE2:BE5"/>
-    <mergeCell ref="BR2:BR5"/>
-    <mergeCell ref="BQ2:BQ5"/>
-    <mergeCell ref="BP2:BP5"/>
-    <mergeCell ref="BO2:BO5"/>
-    <mergeCell ref="BN2:BN5"/>
-    <mergeCell ref="BM2:BM5"/>
-    <mergeCell ref="BR13:BR16"/>
-    <mergeCell ref="BQ13:BQ16"/>
-    <mergeCell ref="BP13:BP16"/>
-    <mergeCell ref="BM13:BM16"/>
-    <mergeCell ref="BN13:BN16"/>
-    <mergeCell ref="BO13:BO16"/>
-    <mergeCell ref="BG9:BP10"/>
-    <mergeCell ref="BB7:BR7"/>
-    <mergeCell ref="BH12:BH16"/>
-    <mergeCell ref="BK13:BK16"/>
-    <mergeCell ref="BL13:BL16"/>
-    <mergeCell ref="BL2:BL5"/>
-    <mergeCell ref="BK2:BK5"/>
-    <mergeCell ref="BJ2:BJ5"/>
-    <mergeCell ref="BI2:BI5"/>
-    <mergeCell ref="BH2:BH5"/>
-    <mergeCell ref="BG2:BG5"/>
-    <mergeCell ref="BF2:BF5"/>
-    <mergeCell ref="BD2:BD5"/>
-    <mergeCell ref="BC2:BC5"/>
-    <mergeCell ref="BB2:BB5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="BA2:BA6"/>
-    <mergeCell ref="AJ2:AJ5"/>
-    <mergeCell ref="AS2:AS5"/>
-    <mergeCell ref="AR2:AR5"/>
-    <mergeCell ref="AQ2:AQ5"/>
-    <mergeCell ref="AP2:AP5"/>
-    <mergeCell ref="AN2:AN5"/>
-    <mergeCell ref="AO2:AO5"/>
-    <mergeCell ref="AD2:AD5"/>
-    <mergeCell ref="AE2:AE5"/>
-    <mergeCell ref="AF2:AF5"/>
-    <mergeCell ref="AM2:AM5"/>
-    <mergeCell ref="AM13:AM16"/>
-    <mergeCell ref="AL13:AL16"/>
-    <mergeCell ref="AK13:AK16"/>
-    <mergeCell ref="AN13:AN16"/>
-    <mergeCell ref="AD13:AD16"/>
-    <mergeCell ref="AD7:AZ7"/>
-    <mergeCell ref="AU2:AU5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="AX2:AX5"/>
-    <mergeCell ref="AW2:AW5"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="AI2:AI5"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="AL2:AL5"/>
-    <mergeCell ref="AK2:AK5"/>
-    <mergeCell ref="AW11:AX13"/>
-    <mergeCell ref="AQ13:AQ16"/>
-    <mergeCell ref="AG13:AG16"/>
-    <mergeCell ref="AZ11:BS11"/>
-    <mergeCell ref="AI13:AI16"/>
-    <mergeCell ref="AR13:AR16"/>
-    <mergeCell ref="AS13:AS16"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="AC13:AC16"/>
-    <mergeCell ref="AB13:AB16"/>
-    <mergeCell ref="AA13:AA16"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W7:AB7"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="W18:W25"/>
-    <mergeCell ref="V18:V25"/>
-    <mergeCell ref="U18:U25"/>
-    <mergeCell ref="T18:T25"/>
-    <mergeCell ref="S18:S25"/>
-    <mergeCell ref="R18:R25"/>
-    <mergeCell ref="Q18:Q25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="W13:W16"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="BQ27:BQ30"/>
-    <mergeCell ref="BI29:BK29"/>
-    <mergeCell ref="BI30:BK30"/>
-    <mergeCell ref="M18:M25"/>
-    <mergeCell ref="L18:L25"/>
-    <mergeCell ref="AE18:AE25"/>
-    <mergeCell ref="AF18:AF25"/>
-    <mergeCell ref="AG18:AG25"/>
-    <mergeCell ref="AT18:AT22"/>
-    <mergeCell ref="AN18:AN22"/>
-    <mergeCell ref="AH18:AH25"/>
-    <mergeCell ref="AI18:AI25"/>
-    <mergeCell ref="AJ18:AJ25"/>
-    <mergeCell ref="AO18:AO22"/>
-    <mergeCell ref="AP18:AP22"/>
-    <mergeCell ref="AQ18:AQ22"/>
-    <mergeCell ref="AR18:AR22"/>
-    <mergeCell ref="X18:X25"/>
-    <mergeCell ref="Y18:Y25"/>
-    <mergeCell ref="Z18:Z25"/>
-    <mergeCell ref="BE18:BE22"/>
-    <mergeCell ref="X27:AT27"/>
-    <mergeCell ref="BB18:BB22"/>
-    <mergeCell ref="BA18:BA22"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I28"/>
-    <mergeCell ref="J9:V10"/>
-    <mergeCell ref="AZ27:AZ30"/>
-    <mergeCell ref="BB27:BB30"/>
-    <mergeCell ref="BF27:BF30"/>
-    <mergeCell ref="AP13:AP16"/>
-    <mergeCell ref="AA18:AA25"/>
-    <mergeCell ref="Z13:Z16"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="AK18:AK25"/>
-    <mergeCell ref="AL18:AL25"/>
-    <mergeCell ref="AB18:AB25"/>
-    <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AF13:AF16"/>
-    <mergeCell ref="AC29:AL30"/>
-    <mergeCell ref="BF13:BF16"/>
-    <mergeCell ref="BC13:BC16"/>
-    <mergeCell ref="AJ13:AJ16"/>
-    <mergeCell ref="AE13:AE16"/>
-    <mergeCell ref="X13:X16"/>
-    <mergeCell ref="AO13:AO16"/>
-    <mergeCell ref="BG13:BG16"/>
-    <mergeCell ref="BI13:BI16"/>
-    <mergeCell ref="BJ13:BJ16"/>
-    <mergeCell ref="J29:V30"/>
-    <mergeCell ref="H29:I30"/>
-    <mergeCell ref="BH27:BH30"/>
-    <mergeCell ref="BD18:BD22"/>
-    <mergeCell ref="BC18:BC22"/>
-    <mergeCell ref="AZ24:BS24"/>
-    <mergeCell ref="BS13:BS16"/>
-    <mergeCell ref="BE13:BE16"/>
-    <mergeCell ref="BS18:BS22"/>
-    <mergeCell ref="BR18:BR22"/>
-    <mergeCell ref="BQ18:BQ22"/>
-    <mergeCell ref="BP18:BP22"/>
-    <mergeCell ref="BO18:BO22"/>
-    <mergeCell ref="BN18:BN22"/>
-    <mergeCell ref="BM18:BM22"/>
-    <mergeCell ref="BL18:BL22"/>
-    <mergeCell ref="BK18:BK22"/>
-    <mergeCell ref="AH12:AH16"/>
-    <mergeCell ref="BL27:BL30"/>
-    <mergeCell ref="BN27:BN30"/>
-    <mergeCell ref="BS27:BS30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobın.ambar\Desktop\Yerleşim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4F2AD8-4627-4E86-86FC-0AB570FEBFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1D2BDC-9B38-4DCC-880F-D6F7398DED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1326,36 +1326,291 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1365,263 +1620,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1932,7 +1932,7 @@
   <dimension ref="A1:BU2566"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+      <selection activeCell="BZ30" sqref="BZ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,20 +1948,20 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="130"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="130"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
@@ -1976,25 +1976,25 @@
       <c r="AA1" s="32"/>
       <c r="AB1" s="32"/>
       <c r="AC1" s="32"/>
-      <c r="AD1" s="55" t="s">
+      <c r="AD1" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
+      <c r="AE1" s="148"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="148"/>
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
       <c r="AK1" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="AL1" s="54">
+      <c r="AL1" s="147">
         <v>45882</v>
       </c>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
       <c r="AQ1" s="32"/>
       <c r="AR1" s="32"/>
       <c r="AS1" s="49"/>
@@ -2038,52 +2038,52 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="92" t="s">
+      <c r="K2" s="137"/>
+      <c r="L2" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="95" t="s">
+      <c r="M2" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="95" t="s">
+      <c r="O2" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="95" t="s">
+      <c r="P2" s="134"/>
+      <c r="Q2" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="95" t="s">
+      <c r="R2" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="95" t="s">
+      <c r="S2" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="95" t="s">
+      <c r="T2" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="95" t="s">
+      <c r="U2" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="95" t="s">
+      <c r="V2" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="109"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
       <c r="Z2" s="61"/>
       <c r="AA2" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="75" t="s">
+      <c r="AB2" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="AC2" s="64" t="s">
+      <c r="AC2" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="58"/>
+      <c r="AD2" s="101"/>
       <c r="AE2" s="61"/>
       <c r="AF2" s="61" t="s">
         <v>59</v>
@@ -2145,13 +2145,13 @@
       <c r="AY2" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="AZ2" s="75" t="s">
+      <c r="AZ2" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="71" t="s">
+      <c r="BA2" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="58" t="s">
+      <c r="BB2" s="101" t="s">
         <v>101</v>
       </c>
       <c r="BC2" s="61" t="s">
@@ -2195,7 +2195,7 @@
       <c r="BQ2" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="BR2" s="75" t="s">
+      <c r="BR2" s="82" t="s">
         <v>92</v>
       </c>
       <c r="BS2" s="2"/>
@@ -2207,26 +2207,26 @@
       <c r="B3" s="20"/>
       <c r="C3" s="50"/>
       <c r="D3" s="21"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="121"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
       <c r="Z3" s="62"/>
       <c r="AA3" s="62"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="59"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="102"/>
       <c r="AE3" s="62"/>
       <c r="AF3" s="62"/>
       <c r="AG3" s="62"/>
@@ -2248,9 +2248,9 @@
       <c r="AW3" s="62"/>
       <c r="AX3" s="62"/>
       <c r="AY3" s="62"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="59"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="141"/>
+      <c r="BB3" s="102"/>
       <c r="BC3" s="62"/>
       <c r="BD3" s="62"/>
       <c r="BE3" s="62"/>
@@ -2266,37 +2266,37 @@
       <c r="BO3" s="62"/>
       <c r="BP3" s="62"/>
       <c r="BQ3" s="62"/>
-      <c r="BR3" s="76"/>
+      <c r="BR3" s="83"/>
       <c r="BT3" s="4"/>
       <c r="BU3" s="37"/>
     </row>
     <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39"/>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
       <c r="Z4" s="62"/>
       <c r="AA4" s="62"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="59"/>
+      <c r="AB4" s="83"/>
+      <c r="AC4" s="150"/>
+      <c r="AD4" s="102"/>
       <c r="AE4" s="62"/>
       <c r="AF4" s="62"/>
       <c r="AG4" s="62"/>
@@ -2318,9 +2318,9 @@
       <c r="AW4" s="62"/>
       <c r="AX4" s="62"/>
       <c r="AY4" s="62"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="59"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="141"/>
+      <c r="BB4" s="102"/>
       <c r="BC4" s="62"/>
       <c r="BD4" s="62"/>
       <c r="BE4" s="62"/>
@@ -2336,7 +2336,7 @@
       <c r="BO4" s="62"/>
       <c r="BP4" s="62"/>
       <c r="BQ4" s="62"/>
-      <c r="BR4" s="76"/>
+      <c r="BR4" s="83"/>
       <c r="BT4" s="4"/>
       <c r="BU4" s="37"/>
     </row>
@@ -2345,26 +2345,26 @@
       <c r="B5" s="20"/>
       <c r="C5" s="50"/>
       <c r="D5" s="21"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
       <c r="Z5" s="62"/>
       <c r="AA5" s="62"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="59"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="150"/>
+      <c r="AD5" s="102"/>
       <c r="AE5" s="62"/>
       <c r="AF5" s="62"/>
       <c r="AG5" s="62"/>
@@ -2386,9 +2386,9 @@
       <c r="AW5" s="62"/>
       <c r="AX5" s="62"/>
       <c r="AY5" s="62"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="72"/>
-      <c r="BB5" s="59"/>
+      <c r="AZ5" s="83"/>
+      <c r="BA5" s="141"/>
+      <c r="BB5" s="102"/>
       <c r="BC5" s="62"/>
       <c r="BD5" s="62"/>
       <c r="BE5" s="62"/>
@@ -2404,7 +2404,7 @@
       <c r="BO5" s="62"/>
       <c r="BP5" s="62"/>
       <c r="BQ5" s="62"/>
-      <c r="BR5" s="76"/>
+      <c r="BR5" s="83"/>
       <c r="BT5" s="4"/>
       <c r="BU5" s="37"/>
     </row>
@@ -2469,7 +2469,7 @@
       <c r="AB6" s="42">
         <v>6</v>
       </c>
-      <c r="AC6" s="66"/>
+      <c r="AC6" s="151"/>
       <c r="AD6" s="46">
         <v>1</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="AZ6" s="42">
         <v>23</v>
       </c>
-      <c r="BA6" s="73"/>
+      <c r="BA6" s="142"/>
       <c r="BB6" s="46">
         <v>1</v>
       </c>
@@ -2596,135 +2596,135 @@
     </row>
     <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39"/>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="135"/>
-      <c r="W7" s="108" t="s">
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
+      <c r="W7" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="108"/>
-      <c r="AD7" s="83" t="s">
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AD7" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="83"/>
-      <c r="AM7" s="83"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="83"/>
-      <c r="AQ7" s="83"/>
-      <c r="AR7" s="83"/>
-      <c r="AS7" s="83"/>
-      <c r="AT7" s="83"/>
-      <c r="AU7" s="83"/>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="83"/>
-      <c r="BB7" s="83" t="s">
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="78"/>
+      <c r="BB7" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="BC7" s="83"/>
-      <c r="BD7" s="83"/>
-      <c r="BE7" s="83"/>
-      <c r="BF7" s="83"/>
-      <c r="BG7" s="83"/>
-      <c r="BH7" s="83"/>
-      <c r="BI7" s="83"/>
-      <c r="BJ7" s="83"/>
-      <c r="BK7" s="83"/>
-      <c r="BL7" s="83"/>
-      <c r="BM7" s="83"/>
-      <c r="BN7" s="83"/>
-      <c r="BO7" s="83"/>
-      <c r="BP7" s="83"/>
-      <c r="BQ7" s="83"/>
-      <c r="BR7" s="83"/>
+      <c r="BC7" s="78"/>
+      <c r="BD7" s="78"/>
+      <c r="BE7" s="78"/>
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="78"/>
+      <c r="BK7" s="78"/>
+      <c r="BL7" s="78"/>
+      <c r="BM7" s="78"/>
+      <c r="BN7" s="78"/>
+      <c r="BO7" s="78"/>
+      <c r="BP7" s="78"/>
+      <c r="BQ7" s="78"/>
+      <c r="BR7" s="78"/>
       <c r="BT7" s="4"/>
       <c r="BU7" s="37"/>
     </row>
     <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="113"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="90"/>
       <c r="V8" s="14"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="37"/>
     </row>
     <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="136"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56" t="s">
+      <c r="I9" s="92"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="59"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -2745,18 +2745,18 @@
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
-      <c r="BG9" s="81" t="s">
+      <c r="BG9" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BH9" s="81"/>
-      <c r="BI9" s="81"/>
-      <c r="BJ9" s="81"/>
-      <c r="BK9" s="81"/>
-      <c r="BL9" s="81"/>
-      <c r="BM9" s="81"/>
-      <c r="BN9" s="81"/>
-      <c r="BO9" s="81"/>
-      <c r="BP9" s="81"/>
+      <c r="BH9" s="143"/>
+      <c r="BI9" s="143"/>
+      <c r="BJ9" s="143"/>
+      <c r="BK9" s="143"/>
+      <c r="BL9" s="143"/>
+      <c r="BM9" s="143"/>
+      <c r="BN9" s="143"/>
+      <c r="BO9" s="143"/>
+      <c r="BP9" s="143"/>
       <c r="BQ9" s="9"/>
       <c r="BR9" s="9"/>
       <c r="BS9" s="9"/>
@@ -2765,46 +2765,46 @@
     </row>
     <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="57"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
@@ -2825,16 +2825,16 @@
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
-      <c r="BG10" s="82"/>
-      <c r="BH10" s="82"/>
-      <c r="BI10" s="82"/>
-      <c r="BJ10" s="82"/>
-      <c r="BK10" s="82"/>
-      <c r="BL10" s="82"/>
-      <c r="BM10" s="82"/>
-      <c r="BN10" s="82"/>
-      <c r="BO10" s="82"/>
-      <c r="BP10" s="82"/>
+      <c r="BG10" s="144"/>
+      <c r="BH10" s="144"/>
+      <c r="BI10" s="144"/>
+      <c r="BJ10" s="144"/>
+      <c r="BK10" s="144"/>
+      <c r="BL10" s="144"/>
+      <c r="BM10" s="144"/>
+      <c r="BN10" s="144"/>
+      <c r="BO10" s="144"/>
+      <c r="BP10" s="144"/>
       <c r="BQ10" s="7"/>
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
@@ -2843,159 +2843,158 @@
     </row>
     <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="39"/>
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="112"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="X11" s="67" t="s">
+      <c r="H11" s="91"/>
+      <c r="I11" s="93"/>
+      <c r="Y11" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="67"/>
-      <c r="AM11" s="67"/>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="67"/>
-      <c r="AP11" s="67"/>
-      <c r="AQ11" s="67"/>
-      <c r="AR11" s="67"/>
-      <c r="AS11" s="67"/>
-      <c r="AT11" s="67"/>
-      <c r="AU11" s="16"/>
+      <c r="Z11" s="124"/>
+      <c r="AA11" s="124"/>
+      <c r="AB11" s="124"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="124"/>
+      <c r="AE11" s="124"/>
+      <c r="AF11" s="124"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="124"/>
+      <c r="AI11" s="124"/>
+      <c r="AJ11" s="124"/>
+      <c r="AK11" s="124"/>
+      <c r="AL11" s="124"/>
+      <c r="AM11" s="124"/>
+      <c r="AN11" s="124"/>
+      <c r="AO11" s="124"/>
+      <c r="AP11" s="124"/>
+      <c r="AQ11" s="124"/>
+      <c r="AR11" s="124"/>
+      <c r="AS11" s="124"/>
+      <c r="AT11" s="124"/>
+      <c r="AU11" s="124"/>
       <c r="AV11" s="16"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="107"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="90"/>
       <c r="AY11" s="16"/>
-      <c r="AZ11" s="67" t="s">
+      <c r="AZ11" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="BA11" s="67"/>
-      <c r="BB11" s="67"/>
-      <c r="BC11" s="67"/>
-      <c r="BD11" s="67"/>
-      <c r="BE11" s="67"/>
-      <c r="BF11" s="67"/>
-      <c r="BG11" s="67"/>
-      <c r="BH11" s="67"/>
-      <c r="BI11" s="67"/>
-      <c r="BJ11" s="67"/>
-      <c r="BK11" s="67"/>
-      <c r="BL11" s="67"/>
-      <c r="BM11" s="67"/>
-      <c r="BN11" s="67"/>
-      <c r="BO11" s="67"/>
-      <c r="BP11" s="67"/>
-      <c r="BQ11" s="67"/>
-      <c r="BR11" s="67"/>
-      <c r="BS11" s="67"/>
+      <c r="BA11" s="124"/>
+      <c r="BB11" s="124"/>
+      <c r="BC11" s="124"/>
+      <c r="BD11" s="124"/>
+      <c r="BE11" s="124"/>
+      <c r="BF11" s="124"/>
+      <c r="BG11" s="124"/>
+      <c r="BH11" s="124"/>
+      <c r="BI11" s="124"/>
+      <c r="BJ11" s="124"/>
+      <c r="BK11" s="124"/>
+      <c r="BL11" s="124"/>
+      <c r="BM11" s="124"/>
+      <c r="BN11" s="124"/>
+      <c r="BO11" s="124"/>
+      <c r="BP11" s="124"/>
+      <c r="BQ11" s="124"/>
+      <c r="BR11" s="124"/>
+      <c r="BS11" s="124"/>
       <c r="BT11" s="4"/>
       <c r="BU11" s="37"/>
     </row>
     <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="113"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="70"/>
-      <c r="W12" s="24">
+      <c r="H12" s="91"/>
+      <c r="I12" s="93"/>
+      <c r="X12" s="24">
         <v>23</v>
       </c>
-      <c r="X12" s="25">
+      <c r="Y12" s="25">
         <v>22</v>
       </c>
-      <c r="Y12" s="26">
+      <c r="Z12" s="26">
         <v>21</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="AA12" s="26">
         <v>20</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="AB12" s="26">
         <v>19</v>
       </c>
-      <c r="AB12" s="26">
+      <c r="AC12" s="26">
         <v>18</v>
       </c>
-      <c r="AC12" s="26">
+      <c r="AD12" s="26">
         <v>17</v>
       </c>
-      <c r="AD12" s="26">
+      <c r="AE12" s="26">
         <v>16</v>
       </c>
-      <c r="AE12" s="26">
+      <c r="AF12" s="26">
         <v>15</v>
       </c>
-      <c r="AF12" s="26">
+      <c r="AG12" s="26">
         <v>14</v>
       </c>
-      <c r="AG12" s="26">
+      <c r="AH12" s="26">
         <v>13</v>
       </c>
-      <c r="AH12" s="145" t="s">
+      <c r="AI12" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="AI12" s="26">
+      <c r="AJ12" s="26">
         <v>12</v>
       </c>
-      <c r="AJ12" s="26">
+      <c r="AK12" s="26">
         <v>11</v>
       </c>
-      <c r="AK12" s="26">
+      <c r="AL12" s="26">
         <v>10</v>
       </c>
-      <c r="AL12" s="26">
+      <c r="AM12" s="26">
         <v>9</v>
       </c>
-      <c r="AM12" s="26">
+      <c r="AN12" s="26">
         <v>8</v>
       </c>
-      <c r="AN12" s="27">
+      <c r="AO12" s="27">
         <v>7</v>
       </c>
-      <c r="AO12" s="26">
+      <c r="AP12" s="26">
         <v>6</v>
       </c>
-      <c r="AP12" s="26">
+      <c r="AQ12" s="26">
         <v>5</v>
       </c>
-      <c r="AQ12" s="26">
+      <c r="AR12" s="26">
         <v>4</v>
       </c>
-      <c r="AR12" s="26">
+      <c r="AS12" s="26">
         <v>3</v>
       </c>
-      <c r="AS12" s="28">
+      <c r="AT12" s="28">
         <v>2</v>
       </c>
-      <c r="AT12" s="71" t="s">
+      <c r="AU12" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="107"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="90"/>
       <c r="AZ12" s="46">
         <v>1</v>
       </c>
@@ -3020,7 +3019,7 @@
       <c r="BG12" s="41">
         <v>8</v>
       </c>
-      <c r="BH12" s="71" t="s">
+      <c r="BH12" s="140" t="s">
         <v>11</v>
       </c>
       <c r="BI12" s="26">
@@ -3061,48 +3060,45 @@
     </row>
     <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
-      <c r="W13" s="58" t="s">
+      <c r="H13" s="91"/>
+      <c r="I13" s="93"/>
+      <c r="X13" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="X13" s="61" t="s">
+      <c r="Y13" s="61" t="s">
         <v>96</v>
-      </c>
-      <c r="Y13" s="61" t="s">
-        <v>85</v>
       </c>
       <c r="Z13" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61" t="s">
+      <c r="AA13" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="AC13" s="61" t="s">
+      <c r="AD13" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="AD13" s="61"/>
       <c r="AE13" s="61"/>
       <c r="AF13" s="61"/>
       <c r="AG13" s="61"/>
-      <c r="AH13" s="146"/>
-      <c r="AI13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="86"/>
       <c r="AJ13" s="61"/>
       <c r="AK13" s="61"/>
       <c r="AL13" s="61"/>
-      <c r="AM13" s="61" t="s">
-        <v>113</v>
-      </c>
+      <c r="AM13" s="61"/>
       <c r="AN13" s="61" t="s">
         <v>113</v>
       </c>
@@ -3110,22 +3106,25 @@
         <v>113</v>
       </c>
       <c r="AP13" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ13" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="AQ13" s="61" t="s">
+      <c r="AR13" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="AR13" s="61" t="s">
+      <c r="AS13" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="AS13" s="75" t="s">
+      <c r="AT13" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AT13" s="72"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="107"/>
-      <c r="AY13" s="74"/>
-      <c r="AZ13" s="58" t="s">
+      <c r="AU13" s="141"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="152"/>
+      <c r="AZ13" s="101" t="s">
         <v>91</v>
       </c>
       <c r="BA13" s="61"/>
@@ -3147,28 +3146,28 @@
       <c r="BG13" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="BH13" s="84"/>
-      <c r="BI13" s="129" t="s">
+      <c r="BH13" s="145"/>
+      <c r="BI13" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="BJ13" s="78"/>
-      <c r="BK13" s="78"/>
-      <c r="BL13" s="78"/>
-      <c r="BM13" s="78"/>
-      <c r="BN13" s="78"/>
-      <c r="BO13" s="78" t="s">
+      <c r="BJ13" s="67"/>
+      <c r="BK13" s="67"/>
+      <c r="BL13" s="67"/>
+      <c r="BM13" s="67"/>
+      <c r="BN13" s="67"/>
+      <c r="BO13" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="BP13" s="78" t="s">
+      <c r="BP13" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="BQ13" s="78" t="s">
+      <c r="BQ13" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="BR13" s="78" t="s">
+      <c r="BR13" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="BS13" s="142" t="s">
+      <c r="BS13" s="79" t="s">
         <v>61</v>
       </c>
       <c r="BT13" s="4"/>
@@ -3176,17 +3175,16 @@
     </row>
     <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="113"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="62"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="93"/>
+      <c r="X14" s="102"/>
       <c r="Y14" s="62"/>
       <c r="Z14" s="62"/>
       <c r="AA14" s="62"/>
@@ -3196,8 +3194,8 @@
       <c r="AE14" s="62"/>
       <c r="AF14" s="62"/>
       <c r="AG14" s="62"/>
-      <c r="AH14" s="146"/>
-      <c r="AI14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="86"/>
       <c r="AJ14" s="62"/>
       <c r="AK14" s="62"/>
       <c r="AL14" s="62"/>
@@ -3207,14 +3205,15 @@
       <c r="AP14" s="62"/>
       <c r="AQ14" s="62"/>
       <c r="AR14" s="62"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="72"/>
-      <c r="AW14" s="69" t="s">
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="83"/>
+      <c r="AU14" s="141"/>
+      <c r="AW14" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="AX14" s="70"/>
-      <c r="AY14" s="74"/>
-      <c r="AZ14" s="59"/>
+      <c r="AX14" s="93"/>
+      <c r="AY14" s="152"/>
+      <c r="AZ14" s="102"/>
       <c r="BA14" s="62"/>
       <c r="BB14" s="62"/>
       <c r="BC14" s="62"/>
@@ -3222,36 +3221,35 @@
       <c r="BE14" s="62"/>
       <c r="BF14" s="62"/>
       <c r="BG14" s="62"/>
-      <c r="BH14" s="84"/>
-      <c r="BI14" s="130"/>
-      <c r="BJ14" s="79"/>
-      <c r="BK14" s="79"/>
-      <c r="BL14" s="79"/>
-      <c r="BM14" s="79"/>
-      <c r="BN14" s="79"/>
-      <c r="BO14" s="79"/>
-      <c r="BP14" s="79"/>
-      <c r="BQ14" s="79"/>
-      <c r="BR14" s="79"/>
-      <c r="BS14" s="143"/>
+      <c r="BH14" s="145"/>
+      <c r="BI14" s="65"/>
+      <c r="BJ14" s="68"/>
+      <c r="BK14" s="68"/>
+      <c r="BL14" s="68"/>
+      <c r="BM14" s="68"/>
+      <c r="BN14" s="68"/>
+      <c r="BO14" s="68"/>
+      <c r="BP14" s="68"/>
+      <c r="BQ14" s="68"/>
+      <c r="BR14" s="68"/>
+      <c r="BS14" s="80"/>
       <c r="BT14" s="4"/>
       <c r="BU14" s="37"/>
     </row>
     <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="62"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="93"/>
+      <c r="X15" s="102"/>
       <c r="Y15" s="62"/>
       <c r="Z15" s="62"/>
       <c r="AA15" s="62"/>
@@ -3261,8 +3259,8 @@
       <c r="AE15" s="62"/>
       <c r="AF15" s="62"/>
       <c r="AG15" s="62"/>
-      <c r="AH15" s="146"/>
-      <c r="AI15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="86"/>
       <c r="AJ15" s="62"/>
       <c r="AK15" s="62"/>
       <c r="AL15" s="62"/>
@@ -3272,12 +3270,13 @@
       <c r="AP15" s="62"/>
       <c r="AQ15" s="62"/>
       <c r="AR15" s="62"/>
-      <c r="AS15" s="76"/>
-      <c r="AT15" s="72"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="70"/>
-      <c r="AY15" s="74"/>
-      <c r="AZ15" s="59"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="83"/>
+      <c r="AU15" s="141"/>
+      <c r="AW15" s="91"/>
+      <c r="AX15" s="93"/>
+      <c r="AY15" s="152"/>
+      <c r="AZ15" s="102"/>
       <c r="BA15" s="62"/>
       <c r="BB15" s="62"/>
       <c r="BC15" s="62"/>
@@ -3285,36 +3284,35 @@
       <c r="BE15" s="62"/>
       <c r="BF15" s="62"/>
       <c r="BG15" s="62"/>
-      <c r="BH15" s="84"/>
-      <c r="BI15" s="130"/>
-      <c r="BJ15" s="79"/>
-      <c r="BK15" s="79"/>
-      <c r="BL15" s="79"/>
-      <c r="BM15" s="79"/>
-      <c r="BN15" s="79"/>
-      <c r="BO15" s="79"/>
-      <c r="BP15" s="79"/>
-      <c r="BQ15" s="79"/>
-      <c r="BR15" s="79"/>
-      <c r="BS15" s="143"/>
+      <c r="BH15" s="145"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="68"/>
+      <c r="BK15" s="68"/>
+      <c r="BL15" s="68"/>
+      <c r="BM15" s="68"/>
+      <c r="BN15" s="68"/>
+      <c r="BO15" s="68"/>
+      <c r="BP15" s="68"/>
+      <c r="BQ15" s="68"/>
+      <c r="BR15" s="68"/>
+      <c r="BS15" s="80"/>
       <c r="BT15" s="4"/>
       <c r="BU15" s="37"/>
     </row>
     <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="113"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="63"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="93"/>
+      <c r="X16" s="115"/>
       <c r="Y16" s="63"/>
       <c r="Z16" s="63"/>
       <c r="AA16" s="63"/>
@@ -3324,8 +3322,8 @@
       <c r="AE16" s="63"/>
       <c r="AF16" s="63"/>
       <c r="AG16" s="63"/>
-      <c r="AH16" s="147"/>
-      <c r="AI16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="87"/>
       <c r="AJ16" s="63"/>
       <c r="AK16" s="63"/>
       <c r="AL16" s="63"/>
@@ -3335,12 +3333,13 @@
       <c r="AP16" s="63"/>
       <c r="AQ16" s="63"/>
       <c r="AR16" s="63"/>
-      <c r="AS16" s="77"/>
-      <c r="AT16" s="73"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="70"/>
-      <c r="AY16" s="74"/>
-      <c r="AZ16" s="60"/>
+      <c r="AS16" s="63"/>
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="142"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="152"/>
+      <c r="AZ16" s="115"/>
       <c r="BA16" s="63"/>
       <c r="BB16" s="63"/>
       <c r="BC16" s="63"/>
@@ -3348,158 +3347,158 @@
       <c r="BE16" s="63"/>
       <c r="BF16" s="63"/>
       <c r="BG16" s="63"/>
-      <c r="BH16" s="85"/>
-      <c r="BI16" s="137"/>
-      <c r="BJ16" s="80"/>
-      <c r="BK16" s="80"/>
-      <c r="BL16" s="80"/>
-      <c r="BM16" s="80"/>
-      <c r="BN16" s="80"/>
-      <c r="BO16" s="80"/>
-      <c r="BP16" s="80"/>
-      <c r="BQ16" s="80"/>
-      <c r="BR16" s="80"/>
-      <c r="BS16" s="144"/>
+      <c r="BH16" s="146"/>
+      <c r="BI16" s="66"/>
+      <c r="BJ16" s="69"/>
+      <c r="BK16" s="69"/>
+      <c r="BL16" s="69"/>
+      <c r="BM16" s="69"/>
+      <c r="BN16" s="69"/>
+      <c r="BO16" s="69"/>
+      <c r="BP16" s="69"/>
+      <c r="BQ16" s="69"/>
+      <c r="BR16" s="69"/>
+      <c r="BS16" s="81"/>
       <c r="BT16" s="4"/>
       <c r="BU16" s="37"/>
     </row>
     <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
-      <c r="B17" s="111" t="s">
+      <c r="B17" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="113"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="70"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="93"/>
+      <c r="AW17" s="91"/>
+      <c r="AX17" s="93"/>
       <c r="BT17" s="4"/>
       <c r="BU17" s="37"/>
     </row>
     <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78" t="s">
+      <c r="H18" s="91"/>
+      <c r="I18" s="93"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="78" t="s">
+      <c r="O18" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="O18" s="78" t="s">
+      <c r="P18" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="P18" s="78" t="s">
+      <c r="Q18" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="Q18" s="78" t="s">
+      <c r="R18" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="R18" s="78" t="s">
+      <c r="S18" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="S18" s="78" t="s">
+      <c r="T18" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="T18" s="78" t="s">
+      <c r="U18" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="U18" s="78" t="s">
+      <c r="V18" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="V18" s="78" t="s">
+      <c r="W18" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="W18" s="78" t="s">
+      <c r="X18" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="X18" s="61" t="s">
+      <c r="Y18" s="61" t="s">
         <v>66</v>
-      </c>
-      <c r="Y18" s="61" t="s">
-        <v>71</v>
       </c>
       <c r="Z18" s="61" t="s">
         <v>71</v>
       </c>
       <c r="AA18" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB18" s="61" t="s">
         <v>72</v>
       </c>
       <c r="AC18" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD18" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="AD18" s="61" t="s">
+      <c r="AE18" s="61" t="s">
         <v>74</v>
-      </c>
-      <c r="AE18" s="61" t="s">
-        <v>75</v>
       </c>
       <c r="AF18" s="61" t="s">
         <v>75</v>
       </c>
       <c r="AG18" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="AH18" s="61" t="s">
+      <c r="AI18" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="AI18" s="61" t="s">
+      <c r="AJ18" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="AJ18" s="61" t="s">
+      <c r="AK18" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="AK18" s="61" t="s">
+      <c r="AL18" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AL18" s="61" t="s">
+      <c r="AM18" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="AM18" s="75" t="s">
+      <c r="AN18" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="AN18" s="58" t="s">
+      <c r="AO18" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="AO18" s="61" t="s">
+      <c r="AP18" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61" t="s">
-        <v>117</v>
-      </c>
+      <c r="AQ18" s="61"/>
       <c r="AR18" s="61" t="s">
         <v>117</v>
       </c>
       <c r="AS18" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT18" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="AT18" s="75" t="s">
+      <c r="AU18" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="70"/>
-      <c r="AZ18" s="58" t="s">
+      <c r="AW18" s="91"/>
+      <c r="AX18" s="93"/>
+      <c r="AZ18" s="101" t="s">
         <v>80</v>
       </c>
       <c r="BA18" s="61" t="s">
@@ -3548,7 +3547,7 @@
         <v>86</v>
       </c>
       <c r="BR18" s="61"/>
-      <c r="BS18" s="75" t="s">
+      <c r="BS18" s="82" t="s">
         <v>87</v>
       </c>
       <c r="BT18" s="4"/>
@@ -3556,30 +3555,29 @@
     </row>
     <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="62"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="93"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
       <c r="Y19" s="62"/>
       <c r="Z19" s="62"/>
       <c r="AA19" s="62"/>
@@ -3594,17 +3592,18 @@
       <c r="AJ19" s="62"/>
       <c r="AK19" s="62"/>
       <c r="AL19" s="62"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="83"/>
+      <c r="AO19" s="102"/>
       <c r="AP19" s="62"/>
       <c r="AQ19" s="62"/>
       <c r="AR19" s="62"/>
       <c r="AS19" s="62"/>
-      <c r="AT19" s="76"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="70"/>
-      <c r="AZ19" s="59"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="83"/>
+      <c r="AW19" s="91"/>
+      <c r="AX19" s="93"/>
+      <c r="AZ19" s="102"/>
       <c r="BA19" s="62"/>
       <c r="BB19" s="62"/>
       <c r="BC19" s="62"/>
@@ -3623,30 +3622,29 @@
       <c r="BP19" s="62"/>
       <c r="BQ19" s="62"/>
       <c r="BR19" s="62"/>
-      <c r="BS19" s="76"/>
+      <c r="BS19" s="83"/>
       <c r="BT19" s="4"/>
       <c r="BU19" s="37"/>
     </row>
     <row r="20" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="12"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="62"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="93"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
       <c r="Y20" s="62"/>
       <c r="Z20" s="62"/>
       <c r="AA20" s="62"/>
@@ -3661,17 +3659,18 @@
       <c r="AJ20" s="62"/>
       <c r="AK20" s="62"/>
       <c r="AL20" s="62"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="83"/>
+      <c r="AO20" s="102"/>
       <c r="AP20" s="62"/>
       <c r="AQ20" s="62"/>
       <c r="AR20" s="62"/>
       <c r="AS20" s="62"/>
-      <c r="AT20" s="76"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="70"/>
-      <c r="AZ20" s="59"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="83"/>
+      <c r="AW20" s="91"/>
+      <c r="AX20" s="93"/>
+      <c r="AZ20" s="102"/>
       <c r="BA20" s="62"/>
       <c r="BB20" s="62"/>
       <c r="BC20" s="62"/>
@@ -3690,30 +3689,29 @@
       <c r="BP20" s="62"/>
       <c r="BQ20" s="62"/>
       <c r="BR20" s="62"/>
-      <c r="BS20" s="76"/>
+      <c r="BS20" s="83"/>
       <c r="BT20" s="4"/>
       <c r="BU20" s="37"/>
     </row>
     <row r="21" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="12"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="62"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="93"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
       <c r="Y21" s="62"/>
       <c r="Z21" s="62"/>
       <c r="AA21" s="62"/>
@@ -3728,17 +3726,18 @@
       <c r="AJ21" s="62"/>
       <c r="AK21" s="62"/>
       <c r="AL21" s="62"/>
-      <c r="AM21" s="76"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="62"/>
+      <c r="AM21" s="62"/>
+      <c r="AN21" s="83"/>
+      <c r="AO21" s="102"/>
       <c r="AP21" s="62"/>
       <c r="AQ21" s="62"/>
       <c r="AR21" s="62"/>
       <c r="AS21" s="62"/>
-      <c r="AT21" s="76"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="70"/>
-      <c r="AZ21" s="59"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="83"/>
+      <c r="AW21" s="91"/>
+      <c r="AX21" s="93"/>
+      <c r="AZ21" s="102"/>
       <c r="BA21" s="62"/>
       <c r="BB21" s="62"/>
       <c r="BC21" s="62"/>
@@ -3757,30 +3756,29 @@
       <c r="BP21" s="62"/>
       <c r="BQ21" s="62"/>
       <c r="BR21" s="62"/>
-      <c r="BS21" s="76"/>
+      <c r="BS21" s="83"/>
       <c r="BT21" s="4"/>
       <c r="BU21" s="37"/>
     </row>
     <row r="22" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="12"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="62"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="93"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
       <c r="Y22" s="62"/>
       <c r="Z22" s="62"/>
       <c r="AA22" s="62"/>
@@ -3795,17 +3793,18 @@
       <c r="AJ22" s="62"/>
       <c r="AK22" s="62"/>
       <c r="AL22" s="62"/>
-      <c r="AM22" s="76"/>
-      <c r="AN22" s="132"/>
-      <c r="AO22" s="68"/>
-      <c r="AP22" s="68"/>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="68"/>
-      <c r="AS22" s="68"/>
-      <c r="AT22" s="131"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="70"/>
-      <c r="AZ22" s="60"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="83"/>
+      <c r="AO22" s="103"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="104"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="100"/>
+      <c r="AW22" s="91"/>
+      <c r="AX22" s="93"/>
+      <c r="AZ22" s="115"/>
       <c r="BA22" s="63"/>
       <c r="BB22" s="63"/>
       <c r="BC22" s="63"/>
@@ -3824,30 +3823,29 @@
       <c r="BP22" s="63"/>
       <c r="BQ22" s="63"/>
       <c r="BR22" s="63"/>
-      <c r="BS22" s="77"/>
+      <c r="BS22" s="84"/>
       <c r="BT22" s="4"/>
       <c r="BU22" s="37"/>
     </row>
     <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="12"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="62"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="93"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
       <c r="Y23" s="62"/>
       <c r="Z23" s="62"/>
       <c r="AA23" s="62"/>
@@ -3862,30 +3860,31 @@
       <c r="AJ23" s="62"/>
       <c r="AK23" s="62"/>
       <c r="AL23" s="62"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="29">
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="83"/>
+      <c r="AO23" s="29">
         <v>17</v>
       </c>
-      <c r="AO23" s="22">
+      <c r="AP23" s="22">
         <v>18</v>
       </c>
-      <c r="AP23" s="22">
+      <c r="AQ23" s="22">
         <v>19</v>
       </c>
-      <c r="AQ23" s="22">
+      <c r="AR23" s="22">
         <v>20</v>
       </c>
-      <c r="AR23" s="22">
+      <c r="AS23" s="22">
         <v>21</v>
       </c>
-      <c r="AS23" s="22">
+      <c r="AT23" s="22">
         <v>22</v>
       </c>
-      <c r="AT23" s="23">
+      <c r="AU23" s="23">
         <v>23</v>
       </c>
-      <c r="AW23" s="69"/>
-      <c r="AX23" s="70"/>
+      <c r="AW23" s="91"/>
+      <c r="AX23" s="93"/>
       <c r="AZ23" s="46">
         <v>1</v>
       </c>
@@ -3952,23 +3951,22 @@
     <row r="24" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="39"/>
       <c r="B24" s="12"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="62"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="93"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
       <c r="Y24" s="62"/>
       <c r="Z24" s="62"/>
       <c r="AA24" s="62"/>
@@ -3983,61 +3981,61 @@
       <c r="AJ24" s="62"/>
       <c r="AK24" s="62"/>
       <c r="AL24" s="62"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="52"/>
+      <c r="AM24" s="62"/>
+      <c r="AN24" s="83"/>
       <c r="AO24" s="52"/>
       <c r="AP24" s="52"/>
       <c r="AQ24" s="52"/>
       <c r="AR24" s="52"/>
       <c r="AS24" s="52"/>
       <c r="AT24" s="52"/>
+      <c r="AU24" s="52"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="5"/>
-      <c r="AZ24" s="83" t="s">
+      <c r="AZ24" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="BA24" s="83"/>
-      <c r="BB24" s="83"/>
-      <c r="BC24" s="83"/>
-      <c r="BD24" s="83"/>
-      <c r="BE24" s="83"/>
-      <c r="BF24" s="83"/>
-      <c r="BG24" s="83"/>
-      <c r="BH24" s="83"/>
-      <c r="BI24" s="83"/>
-      <c r="BJ24" s="83"/>
-      <c r="BK24" s="83"/>
-      <c r="BL24" s="83"/>
-      <c r="BM24" s="83"/>
-      <c r="BN24" s="83"/>
-      <c r="BO24" s="83"/>
-      <c r="BP24" s="83"/>
-      <c r="BQ24" s="83"/>
-      <c r="BR24" s="83"/>
-      <c r="BS24" s="83"/>
+      <c r="BA24" s="78"/>
+      <c r="BB24" s="78"/>
+      <c r="BC24" s="78"/>
+      <c r="BD24" s="78"/>
+      <c r="BE24" s="78"/>
+      <c r="BF24" s="78"/>
+      <c r="BG24" s="78"/>
+      <c r="BH24" s="78"/>
+      <c r="BI24" s="78"/>
+      <c r="BJ24" s="78"/>
+      <c r="BK24" s="78"/>
+      <c r="BL24" s="78"/>
+      <c r="BM24" s="78"/>
+      <c r="BN24" s="78"/>
+      <c r="BO24" s="78"/>
+      <c r="BP24" s="78"/>
+      <c r="BQ24" s="78"/>
+      <c r="BR24" s="78"/>
+      <c r="BS24" s="78"/>
       <c r="BT24" s="4"/>
       <c r="BU24" s="37"/>
     </row>
     <row r="25" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="12"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="63"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="93"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
       <c r="Y25" s="63"/>
       <c r="Z25" s="63"/>
       <c r="AA25" s="63"/>
@@ -4052,14 +4050,15 @@
       <c r="AJ25" s="63"/>
       <c r="AK25" s="63"/>
       <c r="AL25" s="63"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="52"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="84"/>
       <c r="AO25" s="52"/>
       <c r="AP25" s="52"/>
       <c r="AQ25" s="52"/>
       <c r="AR25" s="52"/>
       <c r="AS25" s="52"/>
       <c r="AT25" s="52"/>
+      <c r="AU25" s="52"/>
       <c r="AW25" s="6"/>
       <c r="AX25" s="5"/>
       <c r="BT25" s="4"/>
@@ -4068,105 +4067,105 @@
     <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="12"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="47" t="s">
+      <c r="H26" s="91"/>
+      <c r="I26" s="93"/>
+      <c r="K26" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="148" t="s">
+      <c r="L26" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="148" t="s">
+      <c r="M26" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="148" t="s">
+      <c r="N26" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="148" t="s">
+      <c r="O26" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="148" t="s">
+      <c r="P26" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="P26" s="148" t="s">
+      <c r="Q26" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="Q26" s="148" t="s">
+      <c r="R26" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="148" t="s">
+      <c r="S26" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="148" t="s">
+      <c r="T26" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="T26" s="148" t="s">
+      <c r="U26" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="U26" s="148" t="s">
+      <c r="V26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="V26" s="148" t="s">
+      <c r="W26" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="W26" s="148" t="s">
+      <c r="X26" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="X26" s="149">
+      <c r="Y26" s="55">
         <v>1</v>
       </c>
-      <c r="Y26" s="149">
+      <c r="Z26" s="55">
         <v>2</v>
       </c>
-      <c r="Z26" s="149">
+      <c r="AA26" s="55">
         <v>3</v>
       </c>
-      <c r="AA26" s="149">
+      <c r="AB26" s="55">
         <v>4</v>
       </c>
-      <c r="AB26" s="149">
+      <c r="AC26" s="55">
         <v>5</v>
       </c>
-      <c r="AC26" s="149">
+      <c r="AD26" s="55">
         <v>6</v>
       </c>
-      <c r="AD26" s="149">
+      <c r="AE26" s="55">
         <v>7</v>
       </c>
-      <c r="AE26" s="149">
+      <c r="AF26" s="55">
         <v>8</v>
       </c>
-      <c r="AF26" s="149">
+      <c r="AG26" s="55">
         <v>9</v>
       </c>
-      <c r="AG26" s="149">
+      <c r="AH26" s="55">
         <v>10</v>
       </c>
-      <c r="AH26" s="149">
+      <c r="AI26" s="55">
         <v>11</v>
       </c>
-      <c r="AI26" s="149">
+      <c r="AJ26" s="55">
         <v>12</v>
       </c>
-      <c r="AJ26" s="149">
+      <c r="AK26" s="55">
         <v>13</v>
       </c>
-      <c r="AK26" s="149">
+      <c r="AL26" s="55">
         <v>14</v>
       </c>
-      <c r="AL26" s="149">
+      <c r="AM26" s="55">
         <v>15</v>
       </c>
-      <c r="AM26" s="150">
+      <c r="AN26" s="56">
         <v>16</v>
       </c>
-      <c r="AN26" s="52"/>
       <c r="AO26" s="52"/>
       <c r="AP26" s="52"/>
       <c r="AQ26" s="52"/>
       <c r="AR26" s="52"/>
       <c r="AS26" s="52"/>
       <c r="AT26" s="52"/>
+      <c r="AU26" s="52"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="5"/>
       <c r="BT26" s="4"/>
@@ -4175,101 +4174,101 @@
     <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="39"/>
       <c r="B27" s="12"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="70"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="133" t="s">
+      <c r="H27" s="91"/>
+      <c r="I27" s="93"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="Y27" s="133"/>
-      <c r="Z27" s="133"/>
-      <c r="AA27" s="133"/>
-      <c r="AB27" s="133"/>
-      <c r="AC27" s="133"/>
-      <c r="AD27" s="133"/>
-      <c r="AE27" s="133"/>
-      <c r="AF27" s="133"/>
-      <c r="AG27" s="133"/>
-      <c r="AH27" s="133"/>
-      <c r="AI27" s="133"/>
-      <c r="AJ27" s="133"/>
-      <c r="AK27" s="133"/>
-      <c r="AL27" s="133"/>
-      <c r="AM27" s="133"/>
-      <c r="AN27" s="133"/>
-      <c r="AO27" s="133"/>
-      <c r="AP27" s="133"/>
-      <c r="AQ27" s="133"/>
-      <c r="AR27" s="133"/>
-      <c r="AS27" s="133"/>
-      <c r="AT27" s="133"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="105"/>
+      <c r="AL27" s="105"/>
+      <c r="AM27" s="105"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="105"/>
+      <c r="AQ27" s="105"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="105"/>
+      <c r="AT27" s="105"/>
+      <c r="AU27" s="105"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="5"/>
-      <c r="AZ27" s="120"/>
-      <c r="BB27" s="120"/>
-      <c r="BF27" s="120"/>
-      <c r="BH27" s="120"/>
-      <c r="BL27" s="120"/>
-      <c r="BN27" s="120"/>
-      <c r="BQ27" s="120"/>
-      <c r="BS27" s="120"/>
+      <c r="AZ27" s="75"/>
+      <c r="BB27" s="75"/>
+      <c r="BF27" s="75"/>
+      <c r="BH27" s="75"/>
+      <c r="BL27" s="75"/>
+      <c r="BN27" s="75"/>
+      <c r="BQ27" s="75"/>
+      <c r="BS27" s="75"/>
       <c r="BT27" s="4"/>
       <c r="BU27" s="37"/>
     </row>
     <row r="28" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="12"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="70"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="93"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="5"/>
-      <c r="AZ28" s="121"/>
-      <c r="BB28" s="121"/>
-      <c r="BF28" s="121"/>
-      <c r="BH28" s="121"/>
-      <c r="BL28" s="121"/>
-      <c r="BN28" s="121"/>
-      <c r="BQ28" s="121"/>
-      <c r="BS28" s="121"/>
+      <c r="AZ28" s="76"/>
+      <c r="BB28" s="76"/>
+      <c r="BF28" s="76"/>
+      <c r="BH28" s="76"/>
+      <c r="BL28" s="76"/>
+      <c r="BN28" s="76"/>
+      <c r="BQ28" s="76"/>
+      <c r="BS28" s="76"/>
       <c r="BT28" s="4"/>
       <c r="BU28" s="37"/>
     </row>
     <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="12"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="138"/>
-      <c r="L29" s="138"/>
-      <c r="M29" s="138"/>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138"/>
-      <c r="P29" s="138"/>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="56" t="s">
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+      <c r="R29" s="70"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="151"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="59"/>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="57"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
@@ -4283,28 +4282,28 @@
       <c r="AW29" s="51"/>
       <c r="AX29" s="51"/>
       <c r="AY29" s="9"/>
-      <c r="AZ29" s="121"/>
+      <c r="AZ29" s="76"/>
       <c r="BA29" s="9"/>
-      <c r="BB29" s="121"/>
+      <c r="BB29" s="76"/>
       <c r="BC29" s="9"/>
       <c r="BD29" s="9"/>
       <c r="BE29" s="9"/>
-      <c r="BF29" s="121"/>
+      <c r="BF29" s="76"/>
       <c r="BG29" s="9"/>
-      <c r="BH29" s="121"/>
-      <c r="BI29" s="123" t="s">
+      <c r="BH29" s="76"/>
+      <c r="BI29" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="BJ29" s="124"/>
-      <c r="BK29" s="125"/>
-      <c r="BL29" s="121"/>
+      <c r="BJ29" s="95"/>
+      <c r="BK29" s="96"/>
+      <c r="BL29" s="76"/>
       <c r="BM29" s="30"/>
-      <c r="BN29" s="121"/>
+      <c r="BN29" s="76"/>
       <c r="BO29" s="30"/>
       <c r="BP29" s="9"/>
-      <c r="BQ29" s="121"/>
+      <c r="BQ29" s="76"/>
       <c r="BR29" s="9"/>
-      <c r="BS29" s="121"/>
+      <c r="BS29" s="76"/>
       <c r="BT29" s="10"/>
       <c r="BU29" s="37"/>
     </row>
@@ -4316,37 +4315,37 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="139"/>
-      <c r="Q30" s="139"/>
-      <c r="R30" s="139"/>
-      <c r="S30" s="139"/>
-      <c r="T30" s="139"/>
-      <c r="U30" s="139"/>
-      <c r="V30" s="139"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="57"/>
-      <c r="AC30" s="57"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="152"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="60"/>
+      <c r="AL30" s="58"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
@@ -4360,28 +4359,28 @@
       <c r="AW30" s="7"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
-      <c r="AZ30" s="122"/>
+      <c r="AZ30" s="77"/>
       <c r="BA30" s="7"/>
-      <c r="BB30" s="122"/>
+      <c r="BB30" s="77"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
       <c r="BE30" s="7"/>
-      <c r="BF30" s="122"/>
+      <c r="BF30" s="77"/>
       <c r="BG30" s="7"/>
-      <c r="BH30" s="122"/>
-      <c r="BI30" s="126" t="s">
+      <c r="BH30" s="77"/>
+      <c r="BI30" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="BJ30" s="127"/>
-      <c r="BK30" s="128"/>
-      <c r="BL30" s="122"/>
+      <c r="BJ30" s="98"/>
+      <c r="BK30" s="99"/>
+      <c r="BL30" s="77"/>
       <c r="BM30" s="31"/>
-      <c r="BN30" s="122"/>
+      <c r="BN30" s="77"/>
       <c r="BO30" s="31"/>
       <c r="BP30" s="7"/>
-      <c r="BQ30" s="122"/>
+      <c r="BQ30" s="77"/>
       <c r="BR30" s="7"/>
-      <c r="BS30" s="122"/>
+      <c r="BS30" s="77"/>
       <c r="BT30" s="8"/>
       <c r="BU30" s="37"/>
     </row>
@@ -7054,141 +7053,54 @@
     <row r="2566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="207">
-    <mergeCell ref="W29:AK30"/>
-    <mergeCell ref="BG13:BG16"/>
-    <mergeCell ref="BI13:BI16"/>
-    <mergeCell ref="BJ13:BJ16"/>
-    <mergeCell ref="J29:V30"/>
-    <mergeCell ref="H29:I30"/>
-    <mergeCell ref="BH27:BH30"/>
-    <mergeCell ref="BD18:BD22"/>
-    <mergeCell ref="BC18:BC22"/>
-    <mergeCell ref="AZ24:BS24"/>
-    <mergeCell ref="BS13:BS16"/>
-    <mergeCell ref="BE13:BE16"/>
-    <mergeCell ref="BS18:BS22"/>
-    <mergeCell ref="BR18:BR22"/>
-    <mergeCell ref="BQ18:BQ22"/>
-    <mergeCell ref="BP18:BP22"/>
-    <mergeCell ref="BO18:BO22"/>
-    <mergeCell ref="BN18:BN22"/>
-    <mergeCell ref="BM18:BM22"/>
-    <mergeCell ref="BL18:BL22"/>
-    <mergeCell ref="BK18:BK22"/>
-    <mergeCell ref="AH12:AH16"/>
-    <mergeCell ref="BL27:BL30"/>
-    <mergeCell ref="BN27:BN30"/>
-    <mergeCell ref="BS27:BS30"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I28"/>
-    <mergeCell ref="J9:V10"/>
-    <mergeCell ref="AZ27:AZ30"/>
-    <mergeCell ref="BB27:BB30"/>
-    <mergeCell ref="BF27:BF30"/>
-    <mergeCell ref="AP13:AP16"/>
-    <mergeCell ref="AA18:AA25"/>
-    <mergeCell ref="Z13:Z16"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="AK18:AK25"/>
-    <mergeCell ref="AL18:AL25"/>
-    <mergeCell ref="AB18:AB25"/>
-    <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AF13:AF16"/>
-    <mergeCell ref="BF13:BF16"/>
-    <mergeCell ref="BC13:BC16"/>
-    <mergeCell ref="AJ13:AJ16"/>
-    <mergeCell ref="AE13:AE16"/>
-    <mergeCell ref="X13:X16"/>
-    <mergeCell ref="AO13:AO16"/>
-    <mergeCell ref="J18:J25"/>
-    <mergeCell ref="K18:K25"/>
-    <mergeCell ref="BQ27:BQ30"/>
-    <mergeCell ref="BI29:BK29"/>
-    <mergeCell ref="BI30:BK30"/>
-    <mergeCell ref="M18:M25"/>
-    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AD1:AJ1"/>
+    <mergeCell ref="W9:AL10"/>
+    <mergeCell ref="AZ18:AZ22"/>
     <mergeCell ref="AE18:AE25"/>
-    <mergeCell ref="AF18:AF25"/>
-    <mergeCell ref="AG18:AG25"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="BJ18:BJ22"/>
+    <mergeCell ref="BI18:BI22"/>
+    <mergeCell ref="Y11:AU11"/>
     <mergeCell ref="AT18:AT22"/>
-    <mergeCell ref="AN18:AN22"/>
-    <mergeCell ref="AH18:AH25"/>
-    <mergeCell ref="AI18:AI25"/>
-    <mergeCell ref="AJ18:AJ25"/>
-    <mergeCell ref="AO18:AO22"/>
-    <mergeCell ref="AP18:AP22"/>
-    <mergeCell ref="AQ18:AQ22"/>
-    <mergeCell ref="AR18:AR22"/>
-    <mergeCell ref="X18:X25"/>
-    <mergeCell ref="Y18:Y25"/>
-    <mergeCell ref="Z18:Z25"/>
-    <mergeCell ref="BE18:BE22"/>
-    <mergeCell ref="X27:AT27"/>
-    <mergeCell ref="BB18:BB22"/>
-    <mergeCell ref="BA18:BA22"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="W18:W25"/>
-    <mergeCell ref="V18:V25"/>
-    <mergeCell ref="U18:U25"/>
-    <mergeCell ref="T18:T25"/>
-    <mergeCell ref="S18:S25"/>
-    <mergeCell ref="R18:R25"/>
-    <mergeCell ref="Q18:Q25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="W13:W16"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="AC13:AC16"/>
-    <mergeCell ref="AB13:AB16"/>
-    <mergeCell ref="AA13:AA16"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W7:AB7"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="AM2:AM5"/>
-    <mergeCell ref="AM13:AM16"/>
-    <mergeCell ref="AL13:AL16"/>
-    <mergeCell ref="AK13:AK16"/>
-    <mergeCell ref="AN13:AN16"/>
-    <mergeCell ref="AD13:AD16"/>
-    <mergeCell ref="AD7:AZ7"/>
-    <mergeCell ref="AU2:AU5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="AX2:AX5"/>
-    <mergeCell ref="AW2:AW5"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="AI2:AI5"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="AL2:AL5"/>
-    <mergeCell ref="AK2:AK5"/>
-    <mergeCell ref="AW11:AX13"/>
-    <mergeCell ref="AQ13:AQ16"/>
-    <mergeCell ref="AG13:AG16"/>
-    <mergeCell ref="AZ11:BS11"/>
-    <mergeCell ref="AI13:AI16"/>
-    <mergeCell ref="AR13:AR16"/>
-    <mergeCell ref="AS13:AS16"/>
+    <mergeCell ref="AW14:AX23"/>
+    <mergeCell ref="AU12:AU16"/>
+    <mergeCell ref="AY13:AY16"/>
+    <mergeCell ref="BA13:BA16"/>
+    <mergeCell ref="BB13:BB16"/>
+    <mergeCell ref="AZ13:AZ16"/>
+    <mergeCell ref="BD13:BD16"/>
+    <mergeCell ref="AZ2:AZ5"/>
+    <mergeCell ref="AY2:AY5"/>
+    <mergeCell ref="AN18:AN25"/>
+    <mergeCell ref="BH18:BH22"/>
+    <mergeCell ref="BG18:BG22"/>
+    <mergeCell ref="BF18:BF22"/>
+    <mergeCell ref="BE2:BE5"/>
+    <mergeCell ref="BR2:BR5"/>
+    <mergeCell ref="BQ2:BQ5"/>
+    <mergeCell ref="BP2:BP5"/>
+    <mergeCell ref="BO2:BO5"/>
+    <mergeCell ref="BN2:BN5"/>
+    <mergeCell ref="BM2:BM5"/>
+    <mergeCell ref="BR13:BR16"/>
+    <mergeCell ref="BQ13:BQ16"/>
+    <mergeCell ref="BP13:BP16"/>
+    <mergeCell ref="BM13:BM16"/>
+    <mergeCell ref="BN13:BN16"/>
+    <mergeCell ref="BO13:BO16"/>
+    <mergeCell ref="BG9:BP10"/>
+    <mergeCell ref="BB7:BR7"/>
+    <mergeCell ref="BH12:BH16"/>
+    <mergeCell ref="BK13:BK16"/>
+    <mergeCell ref="BL13:BL16"/>
+    <mergeCell ref="BL2:BL5"/>
+    <mergeCell ref="BK2:BK5"/>
+    <mergeCell ref="BJ2:BJ5"/>
+    <mergeCell ref="BI2:BI5"/>
+    <mergeCell ref="BH2:BH5"/>
+    <mergeCell ref="BG2:BG5"/>
+    <mergeCell ref="BF2:BF5"/>
     <mergeCell ref="BD2:BD5"/>
     <mergeCell ref="BC2:BC5"/>
     <mergeCell ref="BB2:BB5"/>
@@ -7213,54 +7125,141 @@
     <mergeCell ref="AD2:AD5"/>
     <mergeCell ref="AE2:AE5"/>
     <mergeCell ref="AF2:AF5"/>
-    <mergeCell ref="BR2:BR5"/>
-    <mergeCell ref="BQ2:BQ5"/>
-    <mergeCell ref="BP2:BP5"/>
-    <mergeCell ref="BO2:BO5"/>
-    <mergeCell ref="BN2:BN5"/>
-    <mergeCell ref="BM2:BM5"/>
-    <mergeCell ref="BR13:BR16"/>
-    <mergeCell ref="BQ13:BQ16"/>
-    <mergeCell ref="BP13:BP16"/>
-    <mergeCell ref="BM13:BM16"/>
-    <mergeCell ref="BN13:BN16"/>
-    <mergeCell ref="BO13:BO16"/>
-    <mergeCell ref="BG9:BP10"/>
-    <mergeCell ref="BB7:BR7"/>
-    <mergeCell ref="BH12:BH16"/>
-    <mergeCell ref="BK13:BK16"/>
-    <mergeCell ref="BL13:BL16"/>
-    <mergeCell ref="BL2:BL5"/>
-    <mergeCell ref="BK2:BK5"/>
-    <mergeCell ref="BJ2:BJ5"/>
-    <mergeCell ref="BI2:BI5"/>
-    <mergeCell ref="BH2:BH5"/>
-    <mergeCell ref="BG2:BG5"/>
-    <mergeCell ref="BF2:BF5"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AD1:AJ1"/>
-    <mergeCell ref="W9:AL10"/>
-    <mergeCell ref="AZ18:AZ22"/>
+    <mergeCell ref="AM2:AM5"/>
+    <mergeCell ref="AN13:AN16"/>
+    <mergeCell ref="AM13:AM16"/>
+    <mergeCell ref="AL13:AL16"/>
+    <mergeCell ref="AO13:AO16"/>
+    <mergeCell ref="AE13:AE16"/>
+    <mergeCell ref="AD7:AZ7"/>
+    <mergeCell ref="AU2:AU5"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="AX2:AX5"/>
+    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="AI2:AI5"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="AL2:AL5"/>
+    <mergeCell ref="AK2:AK5"/>
+    <mergeCell ref="AW11:AX13"/>
+    <mergeCell ref="AR13:AR16"/>
+    <mergeCell ref="AH13:AH16"/>
+    <mergeCell ref="AZ11:BS11"/>
+    <mergeCell ref="AJ13:AJ16"/>
+    <mergeCell ref="AS13:AS16"/>
+    <mergeCell ref="AT13:AT16"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AD13:AD16"/>
+    <mergeCell ref="AC13:AC16"/>
+    <mergeCell ref="AB13:AB16"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="X18:X25"/>
+    <mergeCell ref="W18:W25"/>
+    <mergeCell ref="V18:V25"/>
+    <mergeCell ref="U18:U25"/>
+    <mergeCell ref="T18:T25"/>
+    <mergeCell ref="S18:S25"/>
+    <mergeCell ref="R18:R25"/>
+    <mergeCell ref="Q18:Q25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="BQ27:BQ30"/>
+    <mergeCell ref="BI29:BK29"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="M18:M25"/>
+    <mergeCell ref="AF18:AF25"/>
+    <mergeCell ref="AG18:AG25"/>
+    <mergeCell ref="AH18:AH25"/>
+    <mergeCell ref="AU18:AU22"/>
+    <mergeCell ref="AO18:AO22"/>
+    <mergeCell ref="AI18:AI25"/>
+    <mergeCell ref="AJ18:AJ25"/>
+    <mergeCell ref="AK18:AK25"/>
+    <mergeCell ref="AP18:AP22"/>
+    <mergeCell ref="AQ18:AQ22"/>
+    <mergeCell ref="AR18:AR22"/>
+    <mergeCell ref="AS18:AS22"/>
+    <mergeCell ref="Y18:Y25"/>
+    <mergeCell ref="Z18:Z25"/>
+    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="BE18:BE22"/>
+    <mergeCell ref="Y27:AU27"/>
+    <mergeCell ref="BB18:BB22"/>
+    <mergeCell ref="BA18:BA22"/>
+    <mergeCell ref="BS27:BS30"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I28"/>
+    <mergeCell ref="J9:V10"/>
+    <mergeCell ref="AZ27:AZ30"/>
+    <mergeCell ref="BB27:BB30"/>
+    <mergeCell ref="BF27:BF30"/>
+    <mergeCell ref="AQ13:AQ16"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AA13:AA16"/>
+    <mergeCell ref="Z13:Z16"/>
+    <mergeCell ref="AL18:AL25"/>
+    <mergeCell ref="AM18:AM25"/>
+    <mergeCell ref="AC18:AC25"/>
     <mergeCell ref="AD18:AD25"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="BJ18:BJ22"/>
-    <mergeCell ref="BI18:BI22"/>
-    <mergeCell ref="X11:AT11"/>
-    <mergeCell ref="AS18:AS22"/>
-    <mergeCell ref="AW14:AX23"/>
-    <mergeCell ref="AT12:AT16"/>
-    <mergeCell ref="AY13:AY16"/>
-    <mergeCell ref="BA13:BA16"/>
-    <mergeCell ref="BB13:BB16"/>
-    <mergeCell ref="AZ13:AZ16"/>
-    <mergeCell ref="BD13:BD16"/>
-    <mergeCell ref="AZ2:AZ5"/>
-    <mergeCell ref="AY2:AY5"/>
-    <mergeCell ref="AM18:AM25"/>
-    <mergeCell ref="BH18:BH22"/>
-    <mergeCell ref="BG18:BG22"/>
-    <mergeCell ref="BF18:BF22"/>
-    <mergeCell ref="BE2:BE5"/>
+    <mergeCell ref="AG13:AG16"/>
+    <mergeCell ref="BF13:BF16"/>
+    <mergeCell ref="BC13:BC16"/>
+    <mergeCell ref="AK13:AK16"/>
+    <mergeCell ref="AF13:AF16"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="AP13:AP16"/>
+    <mergeCell ref="K18:K25"/>
+    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="W29:AK30"/>
+    <mergeCell ref="BG13:BG16"/>
+    <mergeCell ref="BI13:BI16"/>
+    <mergeCell ref="BJ13:BJ16"/>
+    <mergeCell ref="J29:V30"/>
+    <mergeCell ref="H29:I30"/>
+    <mergeCell ref="BH27:BH30"/>
+    <mergeCell ref="BD18:BD22"/>
+    <mergeCell ref="BC18:BC22"/>
+    <mergeCell ref="AZ24:BS24"/>
+    <mergeCell ref="BS13:BS16"/>
+    <mergeCell ref="BE13:BE16"/>
+    <mergeCell ref="BS18:BS22"/>
+    <mergeCell ref="BR18:BR22"/>
+    <mergeCell ref="BQ18:BQ22"/>
+    <mergeCell ref="BP18:BP22"/>
+    <mergeCell ref="BO18:BO22"/>
+    <mergeCell ref="BN18:BN22"/>
+    <mergeCell ref="BM18:BM22"/>
+    <mergeCell ref="BL18:BL22"/>
+    <mergeCell ref="BK18:BK22"/>
+    <mergeCell ref="AI12:AI16"/>
+    <mergeCell ref="BL27:BL30"/>
+    <mergeCell ref="BN27:BN30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobın.ambar\Desktop\Yerleşim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turkplast-my.sharepoint.com/personal/bobin_depo_turkambalaj_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93FAD80-FA5B-4786-9C46-A18397BFAACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E0C8CA8-B2D7-4C18-88DA-D58B9A0D34D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="120">
   <si>
     <t>F BLOK</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>FLT 135/2250</t>
+  </si>
+  <si>
+    <t>O13</t>
+  </si>
+  <si>
+    <t>O14</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1622,6 +1628,15 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -2855,10 +2870,9 @@
       </c>
       <c r="H11" s="85"/>
       <c r="I11" s="87"/>
-      <c r="X11" s="122" t="s">
+      <c r="Y11" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="Y11" s="122"/>
       <c r="Z11" s="122"/>
       <c r="AA11" s="122"/>
       <c r="AB11" s="122"/>
@@ -2880,7 +2894,7 @@
       <c r="AR11" s="122"/>
       <c r="AS11" s="122"/>
       <c r="AT11" s="122"/>
-      <c r="AU11" s="16"/>
+      <c r="AU11" s="122"/>
       <c r="AV11" s="16"/>
       <c r="AW11" s="66"/>
       <c r="AX11" s="84"/>
@@ -2923,76 +2937,76 @@
       </c>
       <c r="H12" s="85"/>
       <c r="I12" s="87"/>
-      <c r="W12" s="24">
+      <c r="X12" s="24">
         <v>23</v>
       </c>
-      <c r="X12" s="25">
+      <c r="Y12" s="25">
         <v>22</v>
       </c>
-      <c r="Y12" s="26">
+      <c r="Z12" s="26">
         <v>21</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="AA12" s="26">
         <v>20</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="AB12" s="26">
         <v>19</v>
       </c>
-      <c r="AB12" s="26">
+      <c r="AC12" s="26">
         <v>18</v>
       </c>
-      <c r="AC12" s="26">
+      <c r="AD12" s="26">
         <v>17</v>
       </c>
-      <c r="AD12" s="26">
+      <c r="AE12" s="26">
         <v>16</v>
       </c>
-      <c r="AE12" s="26">
+      <c r="AF12" s="26">
         <v>15</v>
       </c>
-      <c r="AF12" s="26">
+      <c r="AG12" s="26">
         <v>14</v>
       </c>
-      <c r="AG12" s="26">
+      <c r="AH12" s="26">
         <v>13</v>
       </c>
-      <c r="AH12" s="79" t="s">
+      <c r="AI12" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="AI12" s="26">
+      <c r="AJ12" s="26">
         <v>12</v>
       </c>
-      <c r="AJ12" s="26">
+      <c r="AK12" s="26">
         <v>11</v>
       </c>
-      <c r="AK12" s="26">
+      <c r="AL12" s="26">
         <v>10</v>
       </c>
-      <c r="AL12" s="26">
+      <c r="AM12" s="26">
         <v>9</v>
       </c>
-      <c r="AM12" s="26">
+      <c r="AN12" s="26">
         <v>8</v>
       </c>
-      <c r="AN12" s="27">
+      <c r="AO12" s="27">
         <v>7</v>
       </c>
-      <c r="AO12" s="26">
+      <c r="AP12" s="26">
         <v>6</v>
       </c>
-      <c r="AP12" s="26">
+      <c r="AQ12" s="26">
         <v>5</v>
       </c>
-      <c r="AQ12" s="26">
+      <c r="AR12" s="26">
         <v>4</v>
       </c>
-      <c r="AR12" s="26">
+      <c r="AS12" s="26">
         <v>3</v>
       </c>
-      <c r="AS12" s="28">
+      <c r="AT12" s="28">
         <v>2</v>
       </c>
-      <c r="AT12" s="138" t="s">
+      <c r="AU12" s="138" t="s">
         <v>11</v>
       </c>
       <c r="AW12" s="66"/>
@@ -3073,37 +3087,34 @@
       </c>
       <c r="H13" s="85"/>
       <c r="I13" s="87"/>
-      <c r="W13" s="99" t="s">
+      <c r="X13" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="X13" s="55" t="s">
+      <c r="Y13" s="55" t="s">
         <v>96</v>
-      </c>
-      <c r="Y13" s="55" t="s">
-        <v>85</v>
       </c>
       <c r="Z13" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55" t="s">
+      <c r="AA13" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="AC13" s="55" t="s">
+      <c r="AD13" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="AD13" s="55"/>
       <c r="AE13" s="55"/>
       <c r="AF13" s="55"/>
       <c r="AG13" s="55"/>
-      <c r="AH13" s="80"/>
-      <c r="AI13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="80"/>
       <c r="AJ13" s="55"/>
       <c r="AK13" s="55"/>
       <c r="AL13" s="55"/>
-      <c r="AM13" s="55" t="s">
-        <v>113</v>
-      </c>
+      <c r="AM13" s="55"/>
       <c r="AN13" s="55" t="s">
         <v>113</v>
       </c>
@@ -3111,18 +3122,21 @@
         <v>113</v>
       </c>
       <c r="AP13" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ13" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="AQ13" s="55" t="s">
+      <c r="AR13" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="AR13" s="55" t="s">
+      <c r="AS13" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="AS13" s="76" t="s">
+      <c r="AT13" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AT13" s="139"/>
+      <c r="AU13" s="139"/>
       <c r="AW13" s="66"/>
       <c r="AX13" s="84"/>
       <c r="AY13" s="150"/>
@@ -3186,8 +3200,7 @@
       </c>
       <c r="H14" s="85"/>
       <c r="I14" s="87"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="56"/>
+      <c r="X14" s="100"/>
       <c r="Y14" s="56"/>
       <c r="Z14" s="56"/>
       <c r="AA14" s="56"/>
@@ -3197,8 +3210,8 @@
       <c r="AE14" s="56"/>
       <c r="AF14" s="56"/>
       <c r="AG14" s="56"/>
-      <c r="AH14" s="80"/>
-      <c r="AI14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="80"/>
       <c r="AJ14" s="56"/>
       <c r="AK14" s="56"/>
       <c r="AL14" s="56"/>
@@ -3208,8 +3221,9 @@
       <c r="AP14" s="56"/>
       <c r="AQ14" s="56"/>
       <c r="AR14" s="56"/>
-      <c r="AS14" s="77"/>
-      <c r="AT14" s="139"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="139"/>
       <c r="AW14" s="85" t="s">
         <v>7</v>
       </c>
@@ -3251,8 +3265,7 @@
       </c>
       <c r="H15" s="85"/>
       <c r="I15" s="87"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="56"/>
+      <c r="X15" s="100"/>
       <c r="Y15" s="56"/>
       <c r="Z15" s="56"/>
       <c r="AA15" s="56"/>
@@ -3262,8 +3275,8 @@
       <c r="AE15" s="56"/>
       <c r="AF15" s="56"/>
       <c r="AG15" s="56"/>
-      <c r="AH15" s="80"/>
-      <c r="AI15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="80"/>
       <c r="AJ15" s="56"/>
       <c r="AK15" s="56"/>
       <c r="AL15" s="56"/>
@@ -3273,8 +3286,9 @@
       <c r="AP15" s="56"/>
       <c r="AQ15" s="56"/>
       <c r="AR15" s="56"/>
-      <c r="AS15" s="77"/>
-      <c r="AT15" s="139"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="77"/>
+      <c r="AU15" s="139"/>
       <c r="AW15" s="85"/>
       <c r="AX15" s="87"/>
       <c r="AY15" s="150"/>
@@ -3314,8 +3328,7 @@
       </c>
       <c r="H16" s="85"/>
       <c r="I16" s="87"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="57"/>
+      <c r="X16" s="113"/>
       <c r="Y16" s="57"/>
       <c r="Z16" s="57"/>
       <c r="AA16" s="57"/>
@@ -3325,8 +3338,8 @@
       <c r="AE16" s="57"/>
       <c r="AF16" s="57"/>
       <c r="AG16" s="57"/>
-      <c r="AH16" s="81"/>
-      <c r="AI16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="81"/>
       <c r="AJ16" s="57"/>
       <c r="AK16" s="57"/>
       <c r="AL16" s="57"/>
@@ -3336,8 +3349,9 @@
       <c r="AP16" s="57"/>
       <c r="AQ16" s="57"/>
       <c r="AR16" s="57"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="140"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="140"/>
       <c r="AW16" s="85"/>
       <c r="AX16" s="87"/>
       <c r="AY16" s="150"/>
@@ -3395,15 +3409,14 @@
       </c>
       <c r="H18" s="85"/>
       <c r="I18" s="87"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="61" t="s">
-        <v>77</v>
-      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="151"/>
       <c r="N18" s="61" t="s">
         <v>77</v>
       </c>
       <c r="O18" s="61" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="P18" s="61" t="s">
         <v>117</v>
@@ -3415,81 +3428,84 @@
         <v>117</v>
       </c>
       <c r="S18" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="T18" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="T18" s="61" t="s">
+      <c r="U18" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="U18" s="61" t="s">
+      <c r="V18" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="V18" s="61" t="s">
+      <c r="W18" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="W18" s="61" t="s">
+      <c r="X18" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="X18" s="55" t="s">
+      <c r="Y18" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55" t="s">
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55" t="s">
         <v>71</v>
-      </c>
-      <c r="AA18" s="55" t="s">
-        <v>72</v>
       </c>
       <c r="AB18" s="55" t="s">
         <v>72</v>
       </c>
       <c r="AC18" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD18" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AD18" s="55" t="s">
+      <c r="AE18" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="AE18" s="55" t="s">
-        <v>75</v>
       </c>
       <c r="AF18" s="55" t="s">
         <v>75</v>
       </c>
       <c r="AG18" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH18" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="AH18" s="55" t="s">
+      <c r="AI18" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AI18" s="55" t="s">
+      <c r="AJ18" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="AJ18" s="55" t="s">
+      <c r="AK18" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="AK18" s="55" t="s">
+      <c r="AL18" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AL18" s="55" t="s">
+      <c r="AM18" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AM18" s="76" t="s">
+      <c r="AN18" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="AN18" s="99" t="s">
+      <c r="AO18" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="AO18" s="55" t="s">
+      <c r="AP18" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="55" t="s">
-        <v>117</v>
-      </c>
+      <c r="AQ18" s="55"/>
       <c r="AR18" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="AS18" s="55"/>
-      <c r="AT18" s="76"/>
+      <c r="AS18" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT18" s="55"/>
+      <c r="AU18" s="76"/>
       <c r="AW18" s="85"/>
       <c r="AX18" s="87"/>
       <c r="AZ18" s="99" t="s">
@@ -3558,8 +3574,9 @@
       </c>
       <c r="H19" s="85"/>
       <c r="I19" s="87"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="62"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="152"/>
       <c r="N19" s="62"/>
       <c r="O19" s="62"/>
       <c r="P19" s="62"/>
@@ -3570,7 +3587,7 @@
       <c r="U19" s="62"/>
       <c r="V19" s="62"/>
       <c r="W19" s="62"/>
-      <c r="X19" s="56"/>
+      <c r="X19" s="62"/>
       <c r="Y19" s="56"/>
       <c r="Z19" s="56"/>
       <c r="AA19" s="56"/>
@@ -3585,14 +3602,15 @@
       <c r="AJ19" s="56"/>
       <c r="AK19" s="56"/>
       <c r="AL19" s="56"/>
-      <c r="AM19" s="77"/>
-      <c r="AN19" s="100"/>
-      <c r="AO19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="77"/>
+      <c r="AO19" s="100"/>
       <c r="AP19" s="56"/>
       <c r="AQ19" s="56"/>
       <c r="AR19" s="56"/>
       <c r="AS19" s="56"/>
-      <c r="AT19" s="77"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="77"/>
       <c r="AW19" s="85"/>
       <c r="AX19" s="87"/>
       <c r="AZ19" s="100"/>
@@ -3623,8 +3641,9 @@
       <c r="B20" s="12"/>
       <c r="H20" s="85"/>
       <c r="I20" s="87"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="62"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="152"/>
       <c r="N20" s="62"/>
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
@@ -3635,7 +3654,7 @@
       <c r="U20" s="62"/>
       <c r="V20" s="62"/>
       <c r="W20" s="62"/>
-      <c r="X20" s="56"/>
+      <c r="X20" s="62"/>
       <c r="Y20" s="56"/>
       <c r="Z20" s="56"/>
       <c r="AA20" s="56"/>
@@ -3650,14 +3669,15 @@
       <c r="AJ20" s="56"/>
       <c r="AK20" s="56"/>
       <c r="AL20" s="56"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="100"/>
-      <c r="AO20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="100"/>
       <c r="AP20" s="56"/>
       <c r="AQ20" s="56"/>
       <c r="AR20" s="56"/>
       <c r="AS20" s="56"/>
-      <c r="AT20" s="77"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="77"/>
       <c r="AW20" s="85"/>
       <c r="AX20" s="87"/>
       <c r="AZ20" s="100"/>
@@ -3688,8 +3708,9 @@
       <c r="B21" s="12"/>
       <c r="H21" s="85"/>
       <c r="I21" s="87"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="62"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="152"/>
       <c r="N21" s="62"/>
       <c r="O21" s="62"/>
       <c r="P21" s="62"/>
@@ -3700,7 +3721,7 @@
       <c r="U21" s="62"/>
       <c r="V21" s="62"/>
       <c r="W21" s="62"/>
-      <c r="X21" s="56"/>
+      <c r="X21" s="62"/>
       <c r="Y21" s="56"/>
       <c r="Z21" s="56"/>
       <c r="AA21" s="56"/>
@@ -3715,14 +3736,15 @@
       <c r="AJ21" s="56"/>
       <c r="AK21" s="56"/>
       <c r="AL21" s="56"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="100"/>
-      <c r="AO21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="100"/>
       <c r="AP21" s="56"/>
       <c r="AQ21" s="56"/>
       <c r="AR21" s="56"/>
       <c r="AS21" s="56"/>
-      <c r="AT21" s="77"/>
+      <c r="AT21" s="56"/>
+      <c r="AU21" s="77"/>
       <c r="AW21" s="85"/>
       <c r="AX21" s="87"/>
       <c r="AZ21" s="100"/>
@@ -3753,8 +3775,9 @@
       <c r="B22" s="12"/>
       <c r="H22" s="85"/>
       <c r="I22" s="87"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="62"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="152"/>
       <c r="N22" s="62"/>
       <c r="O22" s="62"/>
       <c r="P22" s="62"/>
@@ -3765,7 +3788,7 @@
       <c r="U22" s="62"/>
       <c r="V22" s="62"/>
       <c r="W22" s="62"/>
-      <c r="X22" s="56"/>
+      <c r="X22" s="62"/>
       <c r="Y22" s="56"/>
       <c r="Z22" s="56"/>
       <c r="AA22" s="56"/>
@@ -3780,14 +3803,15 @@
       <c r="AJ22" s="56"/>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="101"/>
-      <c r="AO22" s="102"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="101"/>
       <c r="AP22" s="102"/>
       <c r="AQ22" s="102"/>
       <c r="AR22" s="102"/>
       <c r="AS22" s="102"/>
-      <c r="AT22" s="98"/>
+      <c r="AT22" s="102"/>
+      <c r="AU22" s="98"/>
       <c r="AW22" s="85"/>
       <c r="AX22" s="87"/>
       <c r="AZ22" s="113"/>
@@ -3818,8 +3842,9 @@
       <c r="B23" s="12"/>
       <c r="H23" s="85"/>
       <c r="I23" s="87"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="62"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="152"/>
       <c r="N23" s="62"/>
       <c r="O23" s="62"/>
       <c r="P23" s="62"/>
@@ -3830,7 +3855,7 @@
       <c r="U23" s="62"/>
       <c r="V23" s="62"/>
       <c r="W23" s="62"/>
-      <c r="X23" s="56"/>
+      <c r="X23" s="62"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="56"/>
       <c r="AA23" s="56"/>
@@ -3845,26 +3870,27 @@
       <c r="AJ23" s="56"/>
       <c r="AK23" s="56"/>
       <c r="AL23" s="56"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="29">
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="29">
         <v>17</v>
       </c>
-      <c r="AO23" s="22">
+      <c r="AP23" s="22">
         <v>18</v>
       </c>
-      <c r="AP23" s="22">
+      <c r="AQ23" s="22">
         <v>19</v>
       </c>
-      <c r="AQ23" s="22">
+      <c r="AR23" s="22">
         <v>20</v>
       </c>
-      <c r="AR23" s="22">
+      <c r="AS23" s="22">
         <v>21</v>
       </c>
-      <c r="AS23" s="22">
+      <c r="AT23" s="22">
         <v>22</v>
       </c>
-      <c r="AT23" s="23">
+      <c r="AU23" s="23">
         <v>23</v>
       </c>
       <c r="AW23" s="85"/>
@@ -3937,8 +3963,9 @@
       <c r="B24" s="12"/>
       <c r="H24" s="85"/>
       <c r="I24" s="87"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="62"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="152"/>
       <c r="N24" s="62"/>
       <c r="O24" s="62"/>
       <c r="P24" s="62"/>
@@ -3949,7 +3976,7 @@
       <c r="U24" s="62"/>
       <c r="V24" s="62"/>
       <c r="W24" s="62"/>
-      <c r="X24" s="56"/>
+      <c r="X24" s="62"/>
       <c r="Y24" s="56"/>
       <c r="Z24" s="56"/>
       <c r="AA24" s="56"/>
@@ -3964,14 +3991,15 @@
       <c r="AJ24" s="56"/>
       <c r="AK24" s="56"/>
       <c r="AL24" s="56"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="53"/>
+      <c r="AM24" s="56"/>
+      <c r="AN24" s="77"/>
       <c r="AO24" s="53"/>
       <c r="AP24" s="53"/>
       <c r="AQ24" s="53"/>
       <c r="AR24" s="53"/>
       <c r="AS24" s="53"/>
       <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="5"/>
       <c r="AZ24" s="72" t="s">
@@ -4004,8 +4032,9 @@
       <c r="B25" s="12"/>
       <c r="H25" s="85"/>
       <c r="I25" s="87"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="96"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="153"/>
       <c r="N25" s="96"/>
       <c r="O25" s="96"/>
       <c r="P25" s="96"/>
@@ -4016,29 +4045,30 @@
       <c r="U25" s="96"/>
       <c r="V25" s="96"/>
       <c r="W25" s="96"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="78"/>
-      <c r="AN25" s="53"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="77"/>
       <c r="AO25" s="53"/>
       <c r="AP25" s="53"/>
       <c r="AQ25" s="53"/>
       <c r="AR25" s="53"/>
       <c r="AS25" s="53"/>
       <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
       <c r="AW25" s="6"/>
       <c r="AX25" s="5"/>
       <c r="BT25" s="4"/>
@@ -4049,97 +4079,103 @@
       <c r="B26" s="12"/>
       <c r="H26" s="85"/>
       <c r="I26" s="87"/>
-      <c r="L26" s="40" t="s">
+      <c r="K26" s="40" t="s">
         <v>12</v>
       </c>
+      <c r="L26" s="41" t="s">
+        <v>13</v>
+      </c>
       <c r="M26" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="V26" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="W26" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="X26" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y26" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="42">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="42">
+        <v>3</v>
+      </c>
+      <c r="AB26" s="42">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="42">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="42">
+        <v>6</v>
+      </c>
+      <c r="AE26" s="42">
+        <v>7</v>
+      </c>
+      <c r="AF26" s="42">
+        <v>8</v>
+      </c>
+      <c r="AG26" s="42">
+        <v>9</v>
+      </c>
+      <c r="AH26" s="42">
+        <v>10</v>
+      </c>
+      <c r="AI26" s="42">
+        <v>11</v>
+      </c>
+      <c r="AJ26" s="42">
+        <v>12</v>
+      </c>
+      <c r="AK26" s="42">
         <v>13</v>
       </c>
-      <c r="N26" s="41" t="s">
+      <c r="AL26" s="42">
         <v>14</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="AM26" s="42">
         <v>15</v>
       </c>
-      <c r="P26" s="41" t="s">
+      <c r="AN26" s="43">
         <v>16</v>
       </c>
-      <c r="Q26" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="T26" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="U26" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="V26" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="W26" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="X26" s="42">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="42">
-        <v>2</v>
-      </c>
-      <c r="Z26" s="42">
-        <v>3</v>
-      </c>
-      <c r="AA26" s="42">
-        <v>4</v>
-      </c>
-      <c r="AB26" s="42">
-        <v>5</v>
-      </c>
-      <c r="AC26" s="42">
-        <v>6</v>
-      </c>
-      <c r="AD26" s="42">
-        <v>7</v>
-      </c>
-      <c r="AE26" s="42">
-        <v>8</v>
-      </c>
-      <c r="AF26" s="42">
-        <v>9</v>
-      </c>
-      <c r="AG26" s="42">
-        <v>10</v>
-      </c>
-      <c r="AH26" s="42">
-        <v>11</v>
-      </c>
-      <c r="AI26" s="42">
-        <v>12</v>
-      </c>
-      <c r="AJ26" s="42">
-        <v>13</v>
-      </c>
-      <c r="AK26" s="42">
-        <v>14</v>
-      </c>
-      <c r="AL26" s="42">
-        <v>15</v>
-      </c>
-      <c r="AM26" s="43">
-        <v>16</v>
-      </c>
-      <c r="AN26" s="53"/>
       <c r="AO26" s="53"/>
       <c r="AP26" s="53"/>
       <c r="AQ26" s="53"/>
       <c r="AR26" s="53"/>
       <c r="AS26" s="53"/>
       <c r="AT26" s="53"/>
+      <c r="AU26" s="53"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="5"/>
       <c r="BT26" s="4"/>
@@ -4150,11 +4186,10 @@
       <c r="B27" s="12"/>
       <c r="H27" s="85"/>
       <c r="I27" s="87"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="103" t="s">
+      <c r="X27" s="16"/>
+      <c r="Y27" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="Y27" s="103"/>
       <c r="Z27" s="103"/>
       <c r="AA27" s="103"/>
       <c r="AB27" s="103"/>
@@ -4176,6 +4211,7 @@
       <c r="AR27" s="103"/>
       <c r="AS27" s="103"/>
       <c r="AT27" s="103"/>
+      <c r="AU27" s="103"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="5"/>
       <c r="AZ27" s="69"/>
@@ -7026,19 +7062,19 @@
     <row r="2565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="205">
+  <mergeCells count="207">
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AD1:AJ1"/>
     <mergeCell ref="W9:AL10"/>
     <mergeCell ref="AZ18:AZ22"/>
-    <mergeCell ref="AD18:AD25"/>
+    <mergeCell ref="AE18:AE25"/>
     <mergeCell ref="AC2:AC6"/>
     <mergeCell ref="BJ18:BJ22"/>
     <mergeCell ref="BI18:BI22"/>
-    <mergeCell ref="X11:AT11"/>
-    <mergeCell ref="AS18:AS22"/>
+    <mergeCell ref="Y11:AU11"/>
+    <mergeCell ref="AT18:AT22"/>
     <mergeCell ref="AW14:AX23"/>
-    <mergeCell ref="AT12:AT16"/>
+    <mergeCell ref="AU12:AU16"/>
     <mergeCell ref="AY13:AY16"/>
     <mergeCell ref="BA13:BA16"/>
     <mergeCell ref="BB13:BB16"/>
@@ -7046,7 +7082,7 @@
     <mergeCell ref="BD13:BD16"/>
     <mergeCell ref="AZ2:AZ5"/>
     <mergeCell ref="AY2:AY5"/>
-    <mergeCell ref="AM18:AM25"/>
+    <mergeCell ref="AN18:AN25"/>
     <mergeCell ref="BH18:BH22"/>
     <mergeCell ref="BG18:BG22"/>
     <mergeCell ref="BF18:BF22"/>
@@ -7100,11 +7136,11 @@
     <mergeCell ref="AE2:AE5"/>
     <mergeCell ref="AF2:AF5"/>
     <mergeCell ref="AM2:AM5"/>
+    <mergeCell ref="AN13:AN16"/>
     <mergeCell ref="AM13:AM16"/>
     <mergeCell ref="AL13:AL16"/>
-    <mergeCell ref="AK13:AK16"/>
-    <mergeCell ref="AN13:AN16"/>
-    <mergeCell ref="AD13:AD16"/>
+    <mergeCell ref="AO13:AO16"/>
+    <mergeCell ref="AE13:AE16"/>
     <mergeCell ref="AD7:AZ7"/>
     <mergeCell ref="AU2:AU5"/>
     <mergeCell ref="AT2:AT5"/>
@@ -7117,16 +7153,16 @@
     <mergeCell ref="AL2:AL5"/>
     <mergeCell ref="AK2:AK5"/>
     <mergeCell ref="AW11:AX13"/>
-    <mergeCell ref="AQ13:AQ16"/>
-    <mergeCell ref="AG13:AG16"/>
+    <mergeCell ref="AR13:AR16"/>
+    <mergeCell ref="AH13:AH16"/>
     <mergeCell ref="AZ11:BS11"/>
-    <mergeCell ref="AI13:AI16"/>
-    <mergeCell ref="AR13:AR16"/>
+    <mergeCell ref="AJ13:AJ16"/>
     <mergeCell ref="AS13:AS16"/>
+    <mergeCell ref="AT13:AT16"/>
     <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AD13:AD16"/>
     <mergeCell ref="AC13:AC16"/>
     <mergeCell ref="AB13:AB16"/>
-    <mergeCell ref="AA13:AA16"/>
     <mergeCell ref="Q2:Q5"/>
     <mergeCell ref="R2:R5"/>
     <mergeCell ref="S2:S5"/>
@@ -7142,6 +7178,7 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
+    <mergeCell ref="X18:X25"/>
     <mergeCell ref="W18:W25"/>
     <mergeCell ref="V18:V25"/>
     <mergeCell ref="U18:U25"/>
@@ -7151,8 +7188,9 @@
     <mergeCell ref="Q18:Q25"/>
     <mergeCell ref="P18:P25"/>
     <mergeCell ref="O18:O25"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="W13:W16"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="K18:K25"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
@@ -7165,25 +7203,25 @@
     <mergeCell ref="BQ27:BQ30"/>
     <mergeCell ref="BI29:BK29"/>
     <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="N18:N25"/>
     <mergeCell ref="M18:M25"/>
-    <mergeCell ref="L18:L25"/>
-    <mergeCell ref="AE18:AE25"/>
     <mergeCell ref="AF18:AF25"/>
     <mergeCell ref="AG18:AG25"/>
-    <mergeCell ref="AT18:AT22"/>
-    <mergeCell ref="AN18:AN22"/>
     <mergeCell ref="AH18:AH25"/>
+    <mergeCell ref="AU18:AU22"/>
+    <mergeCell ref="AO18:AO22"/>
     <mergeCell ref="AI18:AI25"/>
     <mergeCell ref="AJ18:AJ25"/>
-    <mergeCell ref="AO18:AO22"/>
+    <mergeCell ref="AK18:AK25"/>
     <mergeCell ref="AP18:AP22"/>
     <mergeCell ref="AQ18:AQ22"/>
     <mergeCell ref="AR18:AR22"/>
-    <mergeCell ref="X18:X25"/>
+    <mergeCell ref="AS18:AS22"/>
     <mergeCell ref="Y18:Y25"/>
     <mergeCell ref="Z18:Z25"/>
+    <mergeCell ref="AA18:AA25"/>
     <mergeCell ref="BE18:BE22"/>
-    <mergeCell ref="X27:AT27"/>
+    <mergeCell ref="Y27:AU27"/>
     <mergeCell ref="BB18:BB22"/>
     <mergeCell ref="BA18:BA22"/>
     <mergeCell ref="H7:I8"/>
@@ -7192,22 +7230,22 @@
     <mergeCell ref="AZ27:AZ30"/>
     <mergeCell ref="BB27:BB30"/>
     <mergeCell ref="BF27:BF30"/>
-    <mergeCell ref="AP13:AP16"/>
-    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="AQ13:AQ16"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AA13:AA16"/>
     <mergeCell ref="Z13:Z16"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="AK18:AK25"/>
     <mergeCell ref="AL18:AL25"/>
-    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AM18:AM25"/>
     <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AF13:AF16"/>
+    <mergeCell ref="AD18:AD25"/>
+    <mergeCell ref="AG13:AG16"/>
     <mergeCell ref="AC29:AL30"/>
     <mergeCell ref="BF13:BF16"/>
     <mergeCell ref="BC13:BC16"/>
-    <mergeCell ref="AJ13:AJ16"/>
-    <mergeCell ref="AE13:AE16"/>
-    <mergeCell ref="X13:X16"/>
-    <mergeCell ref="AO13:AO16"/>
+    <mergeCell ref="AK13:AK16"/>
+    <mergeCell ref="AF13:AF16"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="AP13:AP16"/>
     <mergeCell ref="BG13:BG16"/>
     <mergeCell ref="BI13:BI16"/>
     <mergeCell ref="BJ13:BJ16"/>
@@ -7228,7 +7266,7 @@
     <mergeCell ref="BM18:BM22"/>
     <mergeCell ref="BL18:BL22"/>
     <mergeCell ref="BK18:BK22"/>
-    <mergeCell ref="AH12:AH16"/>
+    <mergeCell ref="AI12:AI16"/>
     <mergeCell ref="BL27:BL30"/>
     <mergeCell ref="BN27:BN30"/>
     <mergeCell ref="BS27:BS30"/>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turkplast-my.sharepoint.com/personal/bobin_depo_turkambalaj_com_tr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobın.ambar\Desktop\Yerleşim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E0C8CA8-B2D7-4C18-88DA-D58B9A0D34D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CDB7A5-B27C-4C4F-99C2-99ECD6C7BBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
   <si>
     <t>F BLOK</t>
   </si>
@@ -251,9 +251,6 @@
     <t>FLT 110/2250</t>
   </si>
   <si>
-    <t>BTL 120/2250</t>
-  </si>
-  <si>
     <t>BTL 120/2450</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
   </si>
   <si>
     <t>PFLT 150/2050</t>
-  </si>
-  <si>
-    <t>FLT 135/2500</t>
   </si>
   <si>
     <t>FLT 80/2500</t>
@@ -402,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +529,12 @@
       <family val="3"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -592,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1238,11 +1238,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1342,15 +1353,285 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1360,42 +1641,18 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1405,15 +1662,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1422,222 +1670,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1948,7 +1980,7 @@
   <dimension ref="A1:BU2566"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL5"/>
+      <selection activeCell="BV14" sqref="BV14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,20 +1996,20 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
-      <c r="M1" s="126" t="s">
+      <c r="M1" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="127"/>
-      <c r="O1" s="128"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="91"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
@@ -1992,25 +2024,25 @@
       <c r="AA1" s="32"/>
       <c r="AB1" s="32"/>
       <c r="AC1" s="32"/>
-      <c r="AD1" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="146"/>
-      <c r="AG1" s="146"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="146"/>
+      <c r="AD1" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
       <c r="AK1" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL1" s="145">
-        <v>45885</v>
-      </c>
-      <c r="AM1" s="145"/>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="145"/>
+        <v>114</v>
+      </c>
+      <c r="AL1" s="55">
+        <v>45887</v>
+      </c>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
       <c r="AQ1" s="32"/>
       <c r="AR1" s="32"/>
       <c r="AS1" s="50"/>
@@ -2054,165 +2086,165 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="129" t="s">
+      <c r="K2" s="103"/>
+      <c r="L2" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="114" t="s">
+      <c r="M2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="114" t="s">
+      <c r="N2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="114" t="s">
+      <c r="O2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="114" t="s">
+      <c r="P2" s="100"/>
+      <c r="Q2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="114" t="s">
+      <c r="R2" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="114" t="s">
+      <c r="S2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="114" t="s">
+      <c r="T2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="114" t="s">
+      <c r="U2" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="114" t="s">
+      <c r="V2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="118"/>
-      <c r="X2" s="120"/>
-      <c r="Y2" s="120"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55" t="s">
+      <c r="W2" s="110"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC2" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ2" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK2" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC2" s="147" t="s">
+      <c r="AM2" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO2" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP2" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ2" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR2" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS2" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT2" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU2" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV2" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW2" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX2" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY2" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ2" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH2" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" s="55" t="s">
+      <c r="BB2" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC2" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD2" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="BE2" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF2" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI2" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK2" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" s="55" t="s">
+      <c r="BJ2" s="62"/>
+      <c r="BK2" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" s="55" t="s">
+      <c r="BM2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO2" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP2" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ2" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR2" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS2" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT2" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="AU2" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV2" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW2" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX2" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY2" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ2" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA2" s="138" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB2" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC2" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD2" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="BE2" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF2" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="BI2" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL2" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="BM2" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="BN2" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO2" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP2" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="BQ2" s="55" t="s">
+      <c r="BN2" s="62" t="s">
         <v>93</v>
       </c>
+      <c r="BO2" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP2" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ2" s="62" t="s">
+        <v>91</v>
+      </c>
       <c r="BR2" s="76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BS2" s="2"/>
       <c r="BT2" s="3"/>
@@ -2223,135 +2255,135 @@
       <c r="B3" s="20"/>
       <c r="C3" s="51"/>
       <c r="D3" s="21"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
       <c r="AB3" s="77"/>
-      <c r="AC3" s="148"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
       <c r="AZ3" s="77"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="100"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="56"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="56"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
       <c r="BR3" s="77"/>
       <c r="BT3" s="4"/>
       <c r="BU3" s="37"/>
     </row>
     <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39"/>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
       <c r="AB4" s="77"/>
-      <c r="AC4" s="148"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
       <c r="AZ4" s="77"/>
-      <c r="BA4" s="139"/>
-      <c r="BB4" s="100"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="56"/>
-      <c r="BH4" s="56"/>
-      <c r="BI4" s="56"/>
-      <c r="BJ4" s="56"/>
-      <c r="BK4" s="56"/>
-      <c r="BL4" s="56"/>
-      <c r="BM4" s="56"/>
-      <c r="BN4" s="56"/>
-      <c r="BO4" s="56"/>
-      <c r="BP4" s="56"/>
-      <c r="BQ4" s="56"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="63"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="63"/>
+      <c r="BI4" s="63"/>
+      <c r="BJ4" s="63"/>
+      <c r="BK4" s="63"/>
+      <c r="BL4" s="63"/>
+      <c r="BM4" s="63"/>
+      <c r="BN4" s="63"/>
+      <c r="BO4" s="63"/>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="63"/>
       <c r="BR4" s="77"/>
       <c r="BT4" s="4"/>
       <c r="BU4" s="37"/>
@@ -2361,65 +2393,65 @@
       <c r="B5" s="20"/>
       <c r="C5" s="51"/>
       <c r="D5" s="21"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
       <c r="AB5" s="77"/>
-      <c r="AC5" s="148"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63"/>
       <c r="AZ5" s="77"/>
-      <c r="BA5" s="139"/>
-      <c r="BB5" s="100"/>
-      <c r="BC5" s="56"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="56"/>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="56"/>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="56"/>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="56"/>
-      <c r="BN5" s="56"/>
-      <c r="BO5" s="56"/>
-      <c r="BP5" s="56"/>
-      <c r="BQ5" s="56"/>
+      <c r="BA5" s="73"/>
+      <c r="BB5" s="60"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="63"/>
+      <c r="BE5" s="63"/>
+      <c r="BF5" s="63"/>
+      <c r="BG5" s="63"/>
+      <c r="BH5" s="63"/>
+      <c r="BI5" s="63"/>
+      <c r="BJ5" s="63"/>
+      <c r="BK5" s="63"/>
+      <c r="BL5" s="63"/>
+      <c r="BM5" s="63"/>
+      <c r="BN5" s="63"/>
+      <c r="BO5" s="63"/>
+      <c r="BP5" s="63"/>
+      <c r="BQ5" s="63"/>
       <c r="BR5" s="77"/>
       <c r="BT5" s="4"/>
       <c r="BU5" s="37"/>
@@ -2485,7 +2517,7 @@
       <c r="AB6" s="43">
         <v>6</v>
       </c>
-      <c r="AC6" s="149"/>
+      <c r="AC6" s="66"/>
       <c r="AD6" s="47">
         <v>1</v>
       </c>
@@ -2555,7 +2587,7 @@
       <c r="AZ6" s="43">
         <v>23</v>
       </c>
-      <c r="BA6" s="140"/>
+      <c r="BA6" s="74"/>
       <c r="BB6" s="47">
         <v>1</v>
       </c>
@@ -2612,135 +2644,135 @@
     </row>
     <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39"/>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="W7" s="117" t="s">
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+      <c r="W7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="117"/>
-      <c r="Y7" s="117"/>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="117"/>
-      <c r="AB7" s="117"/>
-      <c r="AD7" s="72" t="s">
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AD7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="72"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="72"/>
-      <c r="BB7" s="72" t="s">
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BB7" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="72"/>
-      <c r="BJ7" s="72"/>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="72"/>
-      <c r="BM7" s="72"/>
-      <c r="BN7" s="72"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="72"/>
-      <c r="BQ7" s="72"/>
-      <c r="BR7" s="72"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="83"/>
+      <c r="BG7" s="83"/>
+      <c r="BH7" s="83"/>
+      <c r="BI7" s="83"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="83"/>
+      <c r="BL7" s="83"/>
+      <c r="BM7" s="83"/>
+      <c r="BN7" s="83"/>
+      <c r="BO7" s="83"/>
+      <c r="BP7" s="83"/>
+      <c r="BQ7" s="83"/>
+      <c r="BR7" s="83"/>
       <c r="BT7" s="4"/>
       <c r="BU7" s="37"/>
     </row>
     <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="84"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
       <c r="V8" s="14"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="37"/>
     </row>
     <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88" t="s">
+      <c r="I9" s="147"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="88"/>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="88"/>
-      <c r="AK9" s="88"/>
-      <c r="AL9" s="88"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -2761,18 +2793,18 @@
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
-      <c r="BG9" s="141" t="s">
+      <c r="BG9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="BH9" s="141"/>
-      <c r="BI9" s="141"/>
-      <c r="BJ9" s="141"/>
-      <c r="BK9" s="141"/>
-      <c r="BL9" s="141"/>
-      <c r="BM9" s="141"/>
-      <c r="BN9" s="141"/>
-      <c r="BO9" s="141"/>
-      <c r="BP9" s="141"/>
+      <c r="BH9" s="81"/>
+      <c r="BI9" s="81"/>
+      <c r="BJ9" s="81"/>
+      <c r="BK9" s="81"/>
+      <c r="BL9" s="81"/>
+      <c r="BM9" s="81"/>
+      <c r="BN9" s="81"/>
+      <c r="BO9" s="81"/>
+      <c r="BP9" s="81"/>
       <c r="BQ9" s="9"/>
       <c r="BR9" s="9"/>
       <c r="BS9" s="9"/>
@@ -2781,46 +2813,46 @@
     </row>
     <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
@@ -2841,16 +2873,16 @@
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
-      <c r="BG10" s="142"/>
-      <c r="BH10" s="142"/>
-      <c r="BI10" s="142"/>
-      <c r="BJ10" s="142"/>
-      <c r="BK10" s="142"/>
-      <c r="BL10" s="142"/>
-      <c r="BM10" s="142"/>
-      <c r="BN10" s="142"/>
-      <c r="BO10" s="142"/>
-      <c r="BP10" s="142"/>
+      <c r="BG10" s="82"/>
+      <c r="BH10" s="82"/>
+      <c r="BI10" s="82"/>
+      <c r="BJ10" s="82"/>
+      <c r="BK10" s="82"/>
+      <c r="BL10" s="82"/>
+      <c r="BM10" s="82"/>
+      <c r="BN10" s="82"/>
+      <c r="BO10" s="82"/>
+      <c r="BP10" s="82"/>
       <c r="BQ10" s="7"/>
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
@@ -2859,84 +2891,84 @@
     </row>
     <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="39"/>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="109"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="87"/>
-      <c r="Y11" s="122" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="Y11" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="122"/>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="122"/>
-      <c r="AH11" s="122"/>
-      <c r="AI11" s="122"/>
-      <c r="AJ11" s="122"/>
-      <c r="AK11" s="122"/>
-      <c r="AL11" s="122"/>
-      <c r="AM11" s="122"/>
-      <c r="AN11" s="122"/>
-      <c r="AO11" s="122"/>
-      <c r="AP11" s="122"/>
-      <c r="AQ11" s="122"/>
-      <c r="AR11" s="122"/>
-      <c r="AS11" s="122"/>
-      <c r="AT11" s="122"/>
-      <c r="AU11" s="122"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="68"/>
+      <c r="AU11" s="68"/>
       <c r="AV11" s="16"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="84"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="107"/>
       <c r="AY11" s="16"/>
-      <c r="AZ11" s="122" t="s">
+      <c r="AZ11" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="BA11" s="122"/>
-      <c r="BB11" s="122"/>
-      <c r="BC11" s="122"/>
-      <c r="BD11" s="122"/>
-      <c r="BE11" s="122"/>
-      <c r="BF11" s="122"/>
-      <c r="BG11" s="122"/>
-      <c r="BH11" s="122"/>
-      <c r="BI11" s="122"/>
-      <c r="BJ11" s="122"/>
-      <c r="BK11" s="122"/>
-      <c r="BL11" s="122"/>
-      <c r="BM11" s="122"/>
-      <c r="BN11" s="122"/>
-      <c r="BO11" s="122"/>
-      <c r="BP11" s="122"/>
-      <c r="BQ11" s="122"/>
-      <c r="BR11" s="122"/>
-      <c r="BS11" s="122"/>
+      <c r="BA11" s="68"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="68"/>
+      <c r="BD11" s="68"/>
+      <c r="BE11" s="68"/>
+      <c r="BF11" s="68"/>
+      <c r="BG11" s="68"/>
+      <c r="BH11" s="68"/>
+      <c r="BI11" s="68"/>
+      <c r="BJ11" s="68"/>
+      <c r="BK11" s="68"/>
+      <c r="BL11" s="68"/>
+      <c r="BM11" s="68"/>
+      <c r="BN11" s="68"/>
+      <c r="BO11" s="68"/>
+      <c r="BP11" s="68"/>
+      <c r="BQ11" s="68"/>
+      <c r="BR11" s="68"/>
+      <c r="BS11" s="68"/>
       <c r="BT11" s="4"/>
       <c r="BU11" s="37"/>
     </row>
     <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="109"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="87"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
       <c r="X12" s="24">
         <v>23</v>
       </c>
@@ -2970,7 +3002,7 @@
       <c r="AH12" s="26">
         <v>13</v>
       </c>
-      <c r="AI12" s="79" t="s">
+      <c r="AI12" s="158" t="s">
         <v>11</v>
       </c>
       <c r="AJ12" s="26">
@@ -3006,11 +3038,11 @@
       <c r="AT12" s="28">
         <v>2</v>
       </c>
-      <c r="AU12" s="138" t="s">
+      <c r="AU12" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="84"/>
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="107"/>
       <c r="AZ12" s="47">
         <v>1</v>
       </c>
@@ -3035,7 +3067,7 @@
       <c r="BG12" s="42">
         <v>8</v>
       </c>
-      <c r="BH12" s="138" t="s">
+      <c r="BH12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="BI12" s="26">
@@ -3076,114 +3108,112 @@
     </row>
     <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="109"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="87"/>
-      <c r="X13" s="99" t="s">
+      <c r="H13" s="70"/>
+      <c r="I13" s="71"/>
+      <c r="X13" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="Y13" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z13" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA13" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55" t="s">
+      <c r="Y13" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z13" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA13" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD13" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="159"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="62"/>
+      <c r="AN13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="AD13" s="55" t="s">
+      <c r="AO13" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP13" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ13" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR13" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="80"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO13" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP13" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ13" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR13" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS13" s="55" t="s">
+      <c r="AS13" s="62" t="s">
         <v>52</v>
       </c>
       <c r="AT13" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AU13" s="139"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="150"/>
-      <c r="AZ13" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA13" s="55"/>
-      <c r="BB13" s="55" t="s">
+      <c r="AU13" s="73"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="107"/>
+      <c r="AY13" s="75"/>
+      <c r="AZ13" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA13" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="BC13" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD13" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="BE13" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF13" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG13" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH13" s="143"/>
-      <c r="BI13" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="BJ13" s="61"/>
-      <c r="BK13" s="61"/>
-      <c r="BL13" s="61"/>
-      <c r="BM13" s="61"/>
-      <c r="BN13" s="61"/>
-      <c r="BO13" s="61" t="s">
+      <c r="BB13" s="62"/>
+      <c r="BC13" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="BP13" s="61" t="s">
+      <c r="BD13" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="BQ13" s="61" t="s">
+      <c r="BE13" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF13" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG13" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH13" s="84"/>
+      <c r="BI13" s="148"/>
+      <c r="BJ13" s="78"/>
+      <c r="BK13" s="78"/>
+      <c r="BL13" s="78"/>
+      <c r="BM13" s="78"/>
+      <c r="BN13" s="78"/>
+      <c r="BO13" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP13" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ13" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="BR13" s="61" t="s">
+      <c r="BR13" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="BS13" s="73" t="s">
+      <c r="BS13" s="155" t="s">
         <v>61</v>
       </c>
       <c r="BT13" s="4"/>
@@ -3191,447 +3221,439 @@
     </row>
     <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="87"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="80"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="56"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="56"/>
-      <c r="AS14" s="56"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="159"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="63"/>
       <c r="AT14" s="77"/>
-      <c r="AU14" s="139"/>
-      <c r="AW14" s="85" t="s">
+      <c r="AU14" s="73"/>
+      <c r="AW14" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AX14" s="87"/>
-      <c r="AY14" s="150"/>
-      <c r="AZ14" s="100"/>
-      <c r="BA14" s="56"/>
-      <c r="BB14" s="56"/>
-      <c r="BC14" s="56"/>
-      <c r="BD14" s="56"/>
-      <c r="BE14" s="56"/>
-      <c r="BF14" s="56"/>
-      <c r="BG14" s="56"/>
-      <c r="BH14" s="143"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="62"/>
-      <c r="BL14" s="62"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="62"/>
-      <c r="BP14" s="62"/>
-      <c r="BQ14" s="62"/>
-      <c r="BR14" s="62"/>
-      <c r="BS14" s="74"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
+      <c r="BC14" s="63"/>
+      <c r="BD14" s="63"/>
+      <c r="BE14" s="63"/>
+      <c r="BF14" s="63"/>
+      <c r="BG14" s="63"/>
+      <c r="BH14" s="84"/>
+      <c r="BI14" s="149"/>
+      <c r="BJ14" s="79"/>
+      <c r="BK14" s="79"/>
+      <c r="BL14" s="79"/>
+      <c r="BM14" s="79"/>
+      <c r="BN14" s="79"/>
+      <c r="BO14" s="79"/>
+      <c r="BP14" s="79"/>
+      <c r="BQ14" s="79"/>
+      <c r="BR14" s="79"/>
+      <c r="BS14" s="156"/>
       <c r="BT14" s="4"/>
       <c r="BU14" s="37"/>
     </row>
     <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="109"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="87"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="80"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="56"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="159"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="63"/>
       <c r="AT15" s="77"/>
-      <c r="AU15" s="139"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="150"/>
-      <c r="AZ15" s="100"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="56"/>
-      <c r="BC15" s="56"/>
-      <c r="BD15" s="56"/>
-      <c r="BE15" s="56"/>
-      <c r="BF15" s="56"/>
-      <c r="BG15" s="56"/>
-      <c r="BH15" s="143"/>
-      <c r="BI15" s="59"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="62"/>
-      <c r="BL15" s="62"/>
-      <c r="BM15" s="62"/>
-      <c r="BN15" s="62"/>
-      <c r="BO15" s="62"/>
-      <c r="BP15" s="62"/>
-      <c r="BQ15" s="62"/>
-      <c r="BR15" s="62"/>
-      <c r="BS15" s="74"/>
+      <c r="AU15" s="73"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="71"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+      <c r="BC15" s="63"/>
+      <c r="BD15" s="63"/>
+      <c r="BE15" s="63"/>
+      <c r="BF15" s="63"/>
+      <c r="BG15" s="63"/>
+      <c r="BH15" s="84"/>
+      <c r="BI15" s="149"/>
+      <c r="BJ15" s="79"/>
+      <c r="BK15" s="79"/>
+      <c r="BL15" s="79"/>
+      <c r="BM15" s="79"/>
+      <c r="BN15" s="79"/>
+      <c r="BO15" s="79"/>
+      <c r="BP15" s="79"/>
+      <c r="BQ15" s="79"/>
+      <c r="BR15" s="79"/>
+      <c r="BS15" s="156"/>
       <c r="BT15" s="4"/>
       <c r="BU15" s="37"/>
     </row>
     <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="87"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="140"/>
-      <c r="AW16" s="85"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="150"/>
-      <c r="AZ16" s="113"/>
-      <c r="BA16" s="57"/>
-      <c r="BB16" s="57"/>
-      <c r="BC16" s="57"/>
-      <c r="BD16" s="57"/>
-      <c r="BE16" s="57"/>
-      <c r="BF16" s="57"/>
-      <c r="BG16" s="57"/>
-      <c r="BH16" s="144"/>
-      <c r="BI16" s="60"/>
-      <c r="BJ16" s="63"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="63"/>
-      <c r="BM16" s="63"/>
-      <c r="BN16" s="63"/>
-      <c r="BO16" s="63"/>
-      <c r="BP16" s="63"/>
-      <c r="BQ16" s="63"/>
-      <c r="BR16" s="63"/>
-      <c r="BS16" s="75"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="160"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="67"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="67"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="108"/>
+      <c r="AU16" s="74"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="67"/>
+      <c r="BB16" s="67"/>
+      <c r="BC16" s="67"/>
+      <c r="BD16" s="67"/>
+      <c r="BE16" s="67"/>
+      <c r="BF16" s="67"/>
+      <c r="BG16" s="67"/>
+      <c r="BH16" s="85"/>
+      <c r="BI16" s="150"/>
+      <c r="BJ16" s="80"/>
+      <c r="BK16" s="80"/>
+      <c r="BL16" s="80"/>
+      <c r="BM16" s="80"/>
+      <c r="BN16" s="80"/>
+      <c r="BO16" s="80"/>
+      <c r="BP16" s="80"/>
+      <c r="BQ16" s="80"/>
+      <c r="BR16" s="80"/>
+      <c r="BS16" s="157"/>
       <c r="BT16" s="4"/>
       <c r="BU16" s="37"/>
     </row>
     <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="85"/>
-      <c r="I17" s="87"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="87"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="71"/>
       <c r="BT17" s="4"/>
       <c r="BU17" s="37"/>
     </row>
     <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="87"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="61" t="s">
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="S18" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="T18" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="U18" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="V18" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="W18" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="X18" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y18" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC18" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD18" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE18" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG18" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH18" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI18" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ18" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK18" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="O18" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="R18" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="S18" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="T18" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="U18" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="V18" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="W18" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="X18" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y18" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB18" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC18" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD18" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE18" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF18" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG18" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH18" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI18" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ18" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK18" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL18" s="55" t="s">
+      <c r="AL18" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AM18" s="55" t="s">
+      <c r="AM18" s="62" t="s">
         <v>59</v>
       </c>
       <c r="AN18" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="AO18" s="99" t="s">
+      <c r="AO18" s="141"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS18" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="76"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="71"/>
+      <c r="AZ18" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA18" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB18" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC18" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AP18" s="55" t="s">
+      <c r="BD18" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="AQ18" s="55"/>
-      <c r="AR18" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS18" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT18" s="55"/>
-      <c r="AU18" s="76"/>
-      <c r="AW18" s="85"/>
-      <c r="AX18" s="87"/>
-      <c r="AZ18" s="99" t="s">
+      <c r="BE18" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="BA18" s="55" t="s">
+      <c r="BF18" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="BB18" s="55"/>
-      <c r="BC18" s="55" t="s">
+      <c r="BG18" s="62"/>
+      <c r="BH18" s="62"/>
+      <c r="BI18" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="BD18" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE18" s="55" t="s">
+      <c r="BJ18" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="BF18" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG18" s="55"/>
-      <c r="BH18" s="55"/>
-      <c r="BI18" s="55" t="s">
+      <c r="BK18" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="BL18" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="BJ18" s="55" t="s">
+      <c r="BM18" s="62"/>
+      <c r="BN18" s="62"/>
+      <c r="BO18" s="62"/>
+      <c r="BP18" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ18" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="BK18" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="BL18" s="55" t="s">
+      <c r="BR18" s="62"/>
+      <c r="BS18" s="76" t="s">
         <v>85</v>
-      </c>
-      <c r="BM18" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN18" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO18" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP18" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ18" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="BR18" s="55"/>
-      <c r="BS18" s="76" t="s">
-        <v>87</v>
       </c>
       <c r="BT18" s="4"/>
       <c r="BU18" s="37"/>
     </row>
     <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="87"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="71"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
       <c r="AN19" s="77"/>
-      <c r="AO19" s="100"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="56"/>
+      <c r="AO19" s="142"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="63"/>
       <c r="AU19" s="77"/>
-      <c r="AW19" s="85"/>
-      <c r="AX19" s="87"/>
-      <c r="AZ19" s="100"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="56"/>
-      <c r="BP19" s="56"/>
-      <c r="BQ19" s="56"/>
-      <c r="BR19" s="56"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="71"/>
+      <c r="AZ19" s="60"/>
+      <c r="BA19" s="63"/>
+      <c r="BB19" s="63"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="63"/>
+      <c r="BG19" s="63"/>
+      <c r="BH19" s="63"/>
+      <c r="BI19" s="63"/>
+      <c r="BJ19" s="63"/>
+      <c r="BK19" s="63"/>
+      <c r="BL19" s="63"/>
+      <c r="BM19" s="63"/>
+      <c r="BN19" s="63"/>
+      <c r="BO19" s="63"/>
+      <c r="BP19" s="63"/>
+      <c r="BQ19" s="63"/>
+      <c r="BR19" s="63"/>
       <c r="BS19" s="77"/>
       <c r="BT19" s="4"/>
       <c r="BU19" s="37"/>
@@ -3639,66 +3661,66 @@
     <row r="20" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="12"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="87"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
       <c r="AN20" s="77"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="56"/>
-      <c r="AT20" s="56"/>
+      <c r="AO20" s="142"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
       <c r="AU20" s="77"/>
-      <c r="AW20" s="85"/>
-      <c r="AX20" s="87"/>
-      <c r="AZ20" s="100"/>
-      <c r="BA20" s="56"/>
-      <c r="BB20" s="56"/>
-      <c r="BC20" s="56"/>
-      <c r="BD20" s="56"/>
-      <c r="BE20" s="56"/>
-      <c r="BF20" s="56"/>
-      <c r="BG20" s="56"/>
-      <c r="BH20" s="56"/>
-      <c r="BI20" s="56"/>
-      <c r="BJ20" s="56"/>
-      <c r="BK20" s="56"/>
-      <c r="BL20" s="56"/>
-      <c r="BM20" s="56"/>
-      <c r="BN20" s="56"/>
-      <c r="BO20" s="56"/>
-      <c r="BP20" s="56"/>
-      <c r="BQ20" s="56"/>
-      <c r="BR20" s="56"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="71"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="63"/>
+      <c r="BB20" s="63"/>
+      <c r="BC20" s="63"/>
+      <c r="BD20" s="63"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="63"/>
+      <c r="BG20" s="63"/>
+      <c r="BH20" s="63"/>
+      <c r="BI20" s="63"/>
+      <c r="BJ20" s="63"/>
+      <c r="BK20" s="63"/>
+      <c r="BL20" s="63"/>
+      <c r="BM20" s="63"/>
+      <c r="BN20" s="63"/>
+      <c r="BO20" s="63"/>
+      <c r="BP20" s="63"/>
+      <c r="BQ20" s="63"/>
+      <c r="BR20" s="63"/>
       <c r="BS20" s="77"/>
       <c r="BT20" s="4"/>
       <c r="BU20" s="37"/>
@@ -3706,66 +3728,66 @@
     <row r="21" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="12"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="87"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="63"/>
       <c r="AN21" s="77"/>
-      <c r="AO21" s="100"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="56"/>
-      <c r="AR21" s="56"/>
-      <c r="AS21" s="56"/>
-      <c r="AT21" s="56"/>
+      <c r="AO21" s="142"/>
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="63"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="63"/>
       <c r="AU21" s="77"/>
-      <c r="AW21" s="85"/>
-      <c r="AX21" s="87"/>
-      <c r="AZ21" s="100"/>
-      <c r="BA21" s="56"/>
-      <c r="BB21" s="56"/>
-      <c r="BC21" s="56"/>
-      <c r="BD21" s="56"/>
-      <c r="BE21" s="56"/>
-      <c r="BF21" s="56"/>
-      <c r="BG21" s="56"/>
-      <c r="BH21" s="56"/>
-      <c r="BI21" s="56"/>
-      <c r="BJ21" s="56"/>
-      <c r="BK21" s="56"/>
-      <c r="BL21" s="56"/>
-      <c r="BM21" s="56"/>
-      <c r="BN21" s="56"/>
-      <c r="BO21" s="56"/>
-      <c r="BP21" s="56"/>
-      <c r="BQ21" s="56"/>
-      <c r="BR21" s="56"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="71"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="63"/>
+      <c r="BB21" s="63"/>
+      <c r="BC21" s="63"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
+      <c r="BF21" s="63"/>
+      <c r="BG21" s="63"/>
+      <c r="BH21" s="63"/>
+      <c r="BI21" s="63"/>
+      <c r="BJ21" s="63"/>
+      <c r="BK21" s="63"/>
+      <c r="BL21" s="63"/>
+      <c r="BM21" s="63"/>
+      <c r="BN21" s="63"/>
+      <c r="BO21" s="63"/>
+      <c r="BP21" s="63"/>
+      <c r="BQ21" s="63"/>
+      <c r="BR21" s="63"/>
       <c r="BS21" s="77"/>
       <c r="BT21" s="4"/>
       <c r="BU21" s="37"/>
@@ -3773,104 +3795,104 @@
     <row r="22" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="12"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="87"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="63"/>
       <c r="AN22" s="77"/>
-      <c r="AO22" s="101"/>
-      <c r="AP22" s="102"/>
-      <c r="AQ22" s="102"/>
-      <c r="AR22" s="102"/>
-      <c r="AS22" s="102"/>
-      <c r="AT22" s="102"/>
-      <c r="AU22" s="98"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="87"/>
-      <c r="AZ22" s="113"/>
-      <c r="BA22" s="57"/>
-      <c r="BB22" s="57"/>
-      <c r="BC22" s="57"/>
-      <c r="BD22" s="57"/>
-      <c r="BE22" s="57"/>
-      <c r="BF22" s="57"/>
-      <c r="BG22" s="57"/>
-      <c r="BH22" s="57"/>
-      <c r="BI22" s="57"/>
-      <c r="BJ22" s="57"/>
-      <c r="BK22" s="57"/>
-      <c r="BL22" s="57"/>
-      <c r="BM22" s="57"/>
-      <c r="BN22" s="57"/>
-      <c r="BO22" s="57"/>
-      <c r="BP22" s="57"/>
-      <c r="BQ22" s="57"/>
-      <c r="BR22" s="57"/>
-      <c r="BS22" s="78"/>
+      <c r="AO22" s="143"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="69"/>
+      <c r="AS22" s="69"/>
+      <c r="AT22" s="69"/>
+      <c r="AU22" s="140"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="71"/>
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="67"/>
+      <c r="BB22" s="67"/>
+      <c r="BC22" s="67"/>
+      <c r="BD22" s="67"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="67"/>
+      <c r="BG22" s="67"/>
+      <c r="BH22" s="67"/>
+      <c r="BI22" s="67"/>
+      <c r="BJ22" s="67"/>
+      <c r="BK22" s="67"/>
+      <c r="BL22" s="67"/>
+      <c r="BM22" s="67"/>
+      <c r="BN22" s="67"/>
+      <c r="BO22" s="67"/>
+      <c r="BP22" s="67"/>
+      <c r="BQ22" s="67"/>
+      <c r="BR22" s="67"/>
+      <c r="BS22" s="108"/>
       <c r="BT22" s="4"/>
       <c r="BU22" s="37"/>
     </row>
     <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="12"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="87"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="63"/>
       <c r="AN23" s="77"/>
       <c r="AO23" s="29">
         <v>17</v>
@@ -3893,8 +3915,8 @@
       <c r="AU23" s="23">
         <v>23</v>
       </c>
-      <c r="AW23" s="85"/>
-      <c r="AX23" s="87"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="71"/>
       <c r="AZ23" s="47">
         <v>1</v>
       </c>
@@ -3961,37 +3983,37 @@
     <row r="24" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="39"/>
       <c r="B24" s="12"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="87"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="56"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="56"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="63"/>
       <c r="AN24" s="77"/>
       <c r="AO24" s="53"/>
       <c r="AP24" s="53"/>
@@ -4002,65 +4024,65 @@
       <c r="AU24" s="53"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="5"/>
-      <c r="AZ24" s="72" t="s">
+      <c r="AZ24" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="BA24" s="72"/>
-      <c r="BB24" s="72"/>
-      <c r="BC24" s="72"/>
-      <c r="BD24" s="72"/>
-      <c r="BE24" s="72"/>
-      <c r="BF24" s="72"/>
-      <c r="BG24" s="72"/>
-      <c r="BH24" s="72"/>
-      <c r="BI24" s="72"/>
-      <c r="BJ24" s="72"/>
-      <c r="BK24" s="72"/>
-      <c r="BL24" s="72"/>
-      <c r="BM24" s="72"/>
-      <c r="BN24" s="72"/>
-      <c r="BO24" s="72"/>
-      <c r="BP24" s="72"/>
-      <c r="BQ24" s="72"/>
-      <c r="BR24" s="72"/>
-      <c r="BS24" s="72"/>
+      <c r="BA24" s="83"/>
+      <c r="BB24" s="83"/>
+      <c r="BC24" s="83"/>
+      <c r="BD24" s="83"/>
+      <c r="BE24" s="83"/>
+      <c r="BF24" s="83"/>
+      <c r="BG24" s="83"/>
+      <c r="BH24" s="83"/>
+      <c r="BI24" s="83"/>
+      <c r="BJ24" s="83"/>
+      <c r="BK24" s="83"/>
+      <c r="BL24" s="83"/>
+      <c r="BM24" s="83"/>
+      <c r="BN24" s="83"/>
+      <c r="BO24" s="83"/>
+      <c r="BP24" s="83"/>
+      <c r="BQ24" s="83"/>
+      <c r="BR24" s="83"/>
+      <c r="BS24" s="83"/>
       <c r="BT24" s="4"/>
       <c r="BU24" s="37"/>
     </row>
     <row r="25" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="12"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="87"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
       <c r="AN25" s="77"/>
       <c r="AO25" s="53"/>
       <c r="AP25" s="53"/>
@@ -4077,8 +4099,8 @@
     <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="12"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="87"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
       <c r="K26" s="40" t="s">
         <v>12</v>
       </c>
@@ -4116,10 +4138,10 @@
         <v>21</v>
       </c>
       <c r="W26" s="41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X26" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Y26" s="42">
         <v>1</v>
@@ -4184,101 +4206,101 @@
     <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="39"/>
       <c r="B27" s="12"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="87"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
       <c r="X27" s="16"/>
-      <c r="Y27" s="103" t="s">
+      <c r="Y27" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="103"/>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="103"/>
-      <c r="AJ27" s="103"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="103"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="103"/>
-      <c r="AO27" s="103"/>
-      <c r="AP27" s="103"/>
-      <c r="AQ27" s="103"/>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="103"/>
-      <c r="AT27" s="103"/>
-      <c r="AU27" s="103"/>
+      <c r="Z27" s="144"/>
+      <c r="AA27" s="144"/>
+      <c r="AB27" s="144"/>
+      <c r="AC27" s="144"/>
+      <c r="AD27" s="144"/>
+      <c r="AE27" s="144"/>
+      <c r="AF27" s="144"/>
+      <c r="AG27" s="144"/>
+      <c r="AH27" s="144"/>
+      <c r="AI27" s="144"/>
+      <c r="AJ27" s="144"/>
+      <c r="AK27" s="144"/>
+      <c r="AL27" s="144"/>
+      <c r="AM27" s="144"/>
+      <c r="AN27" s="144"/>
+      <c r="AO27" s="144"/>
+      <c r="AP27" s="144"/>
+      <c r="AQ27" s="144"/>
+      <c r="AR27" s="144"/>
+      <c r="AS27" s="144"/>
+      <c r="AT27" s="144"/>
+      <c r="AU27" s="144"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="5"/>
-      <c r="AZ27" s="69"/>
-      <c r="BB27" s="69"/>
-      <c r="BF27" s="69"/>
-      <c r="BH27" s="69"/>
-      <c r="BL27" s="69"/>
-      <c r="BN27" s="69"/>
-      <c r="BQ27" s="69"/>
-      <c r="BS27" s="69"/>
+      <c r="AZ27" s="128"/>
+      <c r="BB27" s="128"/>
+      <c r="BF27" s="128"/>
+      <c r="BH27" s="128"/>
+      <c r="BL27" s="128"/>
+      <c r="BN27" s="128"/>
+      <c r="BQ27" s="128"/>
+      <c r="BS27" s="128"/>
       <c r="BT27" s="4"/>
       <c r="BU27" s="37"/>
     </row>
     <row r="28" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="12"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="87"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="5"/>
-      <c r="AZ28" s="70"/>
-      <c r="BB28" s="70"/>
-      <c r="BF28" s="70"/>
-      <c r="BH28" s="70"/>
-      <c r="BL28" s="70"/>
-      <c r="BN28" s="70"/>
-      <c r="BQ28" s="70"/>
-      <c r="BS28" s="70"/>
+      <c r="AZ28" s="129"/>
+      <c r="BB28" s="129"/>
+      <c r="BF28" s="129"/>
+      <c r="BH28" s="129"/>
+      <c r="BL28" s="129"/>
+      <c r="BN28" s="129"/>
+      <c r="BQ28" s="129"/>
+      <c r="BS28" s="129"/>
       <c r="BT28" s="4"/>
       <c r="BU28" s="37"/>
     </row>
     <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="12"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="151"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="151"/>
+      <c r="V29" s="151"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="88" t="s">
+      <c r="AC29" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
@@ -4292,28 +4314,28 @@
       <c r="AW29" s="52"/>
       <c r="AX29" s="52"/>
       <c r="AY29" s="9"/>
-      <c r="AZ29" s="70"/>
+      <c r="AZ29" s="129"/>
       <c r="BA29" s="9"/>
-      <c r="BB29" s="70"/>
+      <c r="BB29" s="129"/>
       <c r="BC29" s="9"/>
       <c r="BD29" s="9"/>
       <c r="BE29" s="9"/>
-      <c r="BF29" s="70"/>
+      <c r="BF29" s="129"/>
       <c r="BG29" s="9"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="90" t="s">
+      <c r="BH29" s="129"/>
+      <c r="BI29" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="BJ29" s="91"/>
-      <c r="BK29" s="92"/>
-      <c r="BL29" s="70"/>
+      <c r="BJ29" s="132"/>
+      <c r="BK29" s="133"/>
+      <c r="BL29" s="129"/>
       <c r="BM29" s="30"/>
-      <c r="BN29" s="70"/>
+      <c r="BN29" s="129"/>
       <c r="BO29" s="30"/>
       <c r="BP29" s="9"/>
-      <c r="BQ29" s="70"/>
+      <c r="BQ29" s="129"/>
       <c r="BR29" s="9"/>
-      <c r="BS29" s="70"/>
+      <c r="BS29" s="129"/>
       <c r="BT29" s="10"/>
       <c r="BU29" s="37"/>
     </row>
@@ -4325,37 +4347,37 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="152"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
-      <c r="AE30" s="89"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="89"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="89"/>
-      <c r="AJ30" s="89"/>
-      <c r="AK30" s="89"/>
-      <c r="AL30" s="89"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="58"/>
+      <c r="AK30" s="58"/>
+      <c r="AL30" s="58"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
@@ -4369,28 +4391,28 @@
       <c r="AW30" s="7"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
-      <c r="AZ30" s="71"/>
+      <c r="AZ30" s="130"/>
       <c r="BA30" s="7"/>
-      <c r="BB30" s="71"/>
+      <c r="BB30" s="130"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
       <c r="BE30" s="7"/>
-      <c r="BF30" s="71"/>
+      <c r="BF30" s="130"/>
       <c r="BG30" s="7"/>
-      <c r="BH30" s="71"/>
-      <c r="BI30" s="93" t="s">
+      <c r="BH30" s="130"/>
+      <c r="BI30" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="BJ30" s="94"/>
-      <c r="BK30" s="95"/>
-      <c r="BL30" s="71"/>
+      <c r="BJ30" s="135"/>
+      <c r="BK30" s="136"/>
+      <c r="BL30" s="130"/>
       <c r="BM30" s="31"/>
-      <c r="BN30" s="71"/>
+      <c r="BN30" s="130"/>
       <c r="BO30" s="31"/>
       <c r="BP30" s="7"/>
-      <c r="BQ30" s="71"/>
+      <c r="BQ30" s="130"/>
       <c r="BR30" s="7"/>
-      <c r="BS30" s="71"/>
+      <c r="BS30" s="130"/>
       <c r="BT30" s="8"/>
       <c r="BU30" s="37"/>
     </row>
@@ -7063,6 +7085,189 @@
     <row r="2566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="207">
+    <mergeCell ref="BG13:BG16"/>
+    <mergeCell ref="BI13:BI16"/>
+    <mergeCell ref="BJ13:BJ16"/>
+    <mergeCell ref="J29:V30"/>
+    <mergeCell ref="H29:I30"/>
+    <mergeCell ref="BH27:BH30"/>
+    <mergeCell ref="BD18:BD22"/>
+    <mergeCell ref="BC18:BC22"/>
+    <mergeCell ref="AZ24:BS24"/>
+    <mergeCell ref="BS13:BS16"/>
+    <mergeCell ref="BE13:BE16"/>
+    <mergeCell ref="BS18:BS22"/>
+    <mergeCell ref="BR18:BR22"/>
+    <mergeCell ref="BQ18:BQ22"/>
+    <mergeCell ref="BP18:BP22"/>
+    <mergeCell ref="BO18:BO22"/>
+    <mergeCell ref="BN18:BN22"/>
+    <mergeCell ref="BM18:BM22"/>
+    <mergeCell ref="BL18:BL22"/>
+    <mergeCell ref="BK18:BK22"/>
+    <mergeCell ref="AI12:AI16"/>
+    <mergeCell ref="BL27:BL30"/>
+    <mergeCell ref="BN27:BN30"/>
+    <mergeCell ref="BS27:BS30"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I28"/>
+    <mergeCell ref="J9:V10"/>
+    <mergeCell ref="AZ27:AZ30"/>
+    <mergeCell ref="BB27:BB30"/>
+    <mergeCell ref="BF27:BF30"/>
+    <mergeCell ref="AQ13:AQ16"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AA13:AA16"/>
+    <mergeCell ref="Z13:Z16"/>
+    <mergeCell ref="AL18:AL25"/>
+    <mergeCell ref="AM18:AM25"/>
+    <mergeCell ref="AC18:AC25"/>
+    <mergeCell ref="AD18:AD25"/>
+    <mergeCell ref="AG13:AG16"/>
+    <mergeCell ref="AC29:AL30"/>
+    <mergeCell ref="BF13:BF16"/>
+    <mergeCell ref="BC13:BC16"/>
+    <mergeCell ref="AK13:AK16"/>
+    <mergeCell ref="AF13:AF16"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="AP13:AP16"/>
+    <mergeCell ref="BQ27:BQ30"/>
+    <mergeCell ref="BI29:BK29"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="M18:M25"/>
+    <mergeCell ref="AF18:AF25"/>
+    <mergeCell ref="AG18:AG25"/>
+    <mergeCell ref="AH18:AH25"/>
+    <mergeCell ref="AU18:AU22"/>
+    <mergeCell ref="AO18:AO22"/>
+    <mergeCell ref="AI18:AI25"/>
+    <mergeCell ref="AJ18:AJ25"/>
+    <mergeCell ref="AK18:AK25"/>
+    <mergeCell ref="AP18:AP22"/>
+    <mergeCell ref="AQ18:AQ22"/>
+    <mergeCell ref="AR18:AR22"/>
+    <mergeCell ref="AS18:AS22"/>
+    <mergeCell ref="Y18:Y25"/>
+    <mergeCell ref="Z18:Z25"/>
+    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="BE18:BE22"/>
+    <mergeCell ref="Y27:AU27"/>
+    <mergeCell ref="BB18:BB22"/>
+    <mergeCell ref="BA18:BA22"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="X18:X25"/>
+    <mergeCell ref="W18:W25"/>
+    <mergeCell ref="V18:V25"/>
+    <mergeCell ref="U18:U25"/>
+    <mergeCell ref="T18:T25"/>
+    <mergeCell ref="S18:S25"/>
+    <mergeCell ref="R18:R25"/>
+    <mergeCell ref="Q18:Q25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="K18:K25"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AD13:AD16"/>
+    <mergeCell ref="AC13:AC16"/>
+    <mergeCell ref="AB13:AB16"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="AM2:AM5"/>
+    <mergeCell ref="AN13:AN16"/>
+    <mergeCell ref="AM13:AM16"/>
+    <mergeCell ref="AL13:AL16"/>
+    <mergeCell ref="AO13:AO16"/>
+    <mergeCell ref="AE13:AE16"/>
+    <mergeCell ref="AD7:AZ7"/>
+    <mergeCell ref="AU2:AU5"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="AX2:AX5"/>
+    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="AI2:AI5"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="AL2:AL5"/>
+    <mergeCell ref="AK2:AK5"/>
+    <mergeCell ref="AW11:AX13"/>
+    <mergeCell ref="AR13:AR16"/>
+    <mergeCell ref="AH13:AH16"/>
+    <mergeCell ref="AZ11:BS11"/>
+    <mergeCell ref="AJ13:AJ16"/>
+    <mergeCell ref="AS13:AS16"/>
+    <mergeCell ref="AT13:AT16"/>
+    <mergeCell ref="BD2:BD5"/>
+    <mergeCell ref="BC2:BC5"/>
+    <mergeCell ref="BB2:BB5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="BA2:BA6"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="AS2:AS5"/>
+    <mergeCell ref="AR2:AR5"/>
+    <mergeCell ref="AQ2:AQ5"/>
+    <mergeCell ref="AP2:AP5"/>
+    <mergeCell ref="AN2:AN5"/>
+    <mergeCell ref="AO2:AO5"/>
+    <mergeCell ref="AD2:AD5"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="BR2:BR5"/>
+    <mergeCell ref="BQ2:BQ5"/>
+    <mergeCell ref="BP2:BP5"/>
+    <mergeCell ref="BO2:BO5"/>
+    <mergeCell ref="BN2:BN5"/>
+    <mergeCell ref="BM2:BM5"/>
+    <mergeCell ref="BR13:BR16"/>
+    <mergeCell ref="BQ13:BQ16"/>
+    <mergeCell ref="BP13:BP16"/>
+    <mergeCell ref="BM13:BM16"/>
+    <mergeCell ref="BN13:BN16"/>
+    <mergeCell ref="BO13:BO16"/>
+    <mergeCell ref="BG9:BP10"/>
+    <mergeCell ref="BB7:BR7"/>
+    <mergeCell ref="BH12:BH16"/>
+    <mergeCell ref="BK13:BK16"/>
+    <mergeCell ref="BL13:BL16"/>
+    <mergeCell ref="BL2:BL5"/>
+    <mergeCell ref="BK2:BK5"/>
+    <mergeCell ref="BJ2:BJ5"/>
+    <mergeCell ref="BI2:BI5"/>
+    <mergeCell ref="BH2:BH5"/>
+    <mergeCell ref="BG2:BG5"/>
+    <mergeCell ref="BF2:BF5"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AD1:AJ1"/>
     <mergeCell ref="W9:AL10"/>
@@ -7087,189 +7292,6 @@
     <mergeCell ref="BG18:BG22"/>
     <mergeCell ref="BF18:BF22"/>
     <mergeCell ref="BE2:BE5"/>
-    <mergeCell ref="BR2:BR5"/>
-    <mergeCell ref="BQ2:BQ5"/>
-    <mergeCell ref="BP2:BP5"/>
-    <mergeCell ref="BO2:BO5"/>
-    <mergeCell ref="BN2:BN5"/>
-    <mergeCell ref="BM2:BM5"/>
-    <mergeCell ref="BR13:BR16"/>
-    <mergeCell ref="BQ13:BQ16"/>
-    <mergeCell ref="BP13:BP16"/>
-    <mergeCell ref="BM13:BM16"/>
-    <mergeCell ref="BN13:BN16"/>
-    <mergeCell ref="BO13:BO16"/>
-    <mergeCell ref="BG9:BP10"/>
-    <mergeCell ref="BB7:BR7"/>
-    <mergeCell ref="BH12:BH16"/>
-    <mergeCell ref="BK13:BK16"/>
-    <mergeCell ref="BL13:BL16"/>
-    <mergeCell ref="BL2:BL5"/>
-    <mergeCell ref="BK2:BK5"/>
-    <mergeCell ref="BJ2:BJ5"/>
-    <mergeCell ref="BI2:BI5"/>
-    <mergeCell ref="BH2:BH5"/>
-    <mergeCell ref="BG2:BG5"/>
-    <mergeCell ref="BF2:BF5"/>
-    <mergeCell ref="BD2:BD5"/>
-    <mergeCell ref="BC2:BC5"/>
-    <mergeCell ref="BB2:BB5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="BA2:BA6"/>
-    <mergeCell ref="AJ2:AJ5"/>
-    <mergeCell ref="AS2:AS5"/>
-    <mergeCell ref="AR2:AR5"/>
-    <mergeCell ref="AQ2:AQ5"/>
-    <mergeCell ref="AP2:AP5"/>
-    <mergeCell ref="AN2:AN5"/>
-    <mergeCell ref="AO2:AO5"/>
-    <mergeCell ref="AD2:AD5"/>
-    <mergeCell ref="AE2:AE5"/>
-    <mergeCell ref="AF2:AF5"/>
-    <mergeCell ref="AM2:AM5"/>
-    <mergeCell ref="AN13:AN16"/>
-    <mergeCell ref="AM13:AM16"/>
-    <mergeCell ref="AL13:AL16"/>
-    <mergeCell ref="AO13:AO16"/>
-    <mergeCell ref="AE13:AE16"/>
-    <mergeCell ref="AD7:AZ7"/>
-    <mergeCell ref="AU2:AU5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="AX2:AX5"/>
-    <mergeCell ref="AW2:AW5"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="AI2:AI5"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="AL2:AL5"/>
-    <mergeCell ref="AK2:AK5"/>
-    <mergeCell ref="AW11:AX13"/>
-    <mergeCell ref="AR13:AR16"/>
-    <mergeCell ref="AH13:AH16"/>
-    <mergeCell ref="AZ11:BS11"/>
-    <mergeCell ref="AJ13:AJ16"/>
-    <mergeCell ref="AS13:AS16"/>
-    <mergeCell ref="AT13:AT16"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="AD13:AD16"/>
-    <mergeCell ref="AC13:AC16"/>
-    <mergeCell ref="AB13:AB16"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W7:AB7"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="X18:X25"/>
-    <mergeCell ref="W18:W25"/>
-    <mergeCell ref="V18:V25"/>
-    <mergeCell ref="U18:U25"/>
-    <mergeCell ref="T18:T25"/>
-    <mergeCell ref="S18:S25"/>
-    <mergeCell ref="R18:R25"/>
-    <mergeCell ref="Q18:Q25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="X13:X16"/>
-    <mergeCell ref="L18:L25"/>
-    <mergeCell ref="K18:K25"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="BQ27:BQ30"/>
-    <mergeCell ref="BI29:BK29"/>
-    <mergeCell ref="BI30:BK30"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="M18:M25"/>
-    <mergeCell ref="AF18:AF25"/>
-    <mergeCell ref="AG18:AG25"/>
-    <mergeCell ref="AH18:AH25"/>
-    <mergeCell ref="AU18:AU22"/>
-    <mergeCell ref="AO18:AO22"/>
-    <mergeCell ref="AI18:AI25"/>
-    <mergeCell ref="AJ18:AJ25"/>
-    <mergeCell ref="AK18:AK25"/>
-    <mergeCell ref="AP18:AP22"/>
-    <mergeCell ref="AQ18:AQ22"/>
-    <mergeCell ref="AR18:AR22"/>
-    <mergeCell ref="AS18:AS22"/>
-    <mergeCell ref="Y18:Y25"/>
-    <mergeCell ref="Z18:Z25"/>
-    <mergeCell ref="AA18:AA25"/>
-    <mergeCell ref="BE18:BE22"/>
-    <mergeCell ref="Y27:AU27"/>
-    <mergeCell ref="BB18:BB22"/>
-    <mergeCell ref="BA18:BA22"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I28"/>
-    <mergeCell ref="J9:V10"/>
-    <mergeCell ref="AZ27:AZ30"/>
-    <mergeCell ref="BB27:BB30"/>
-    <mergeCell ref="BF27:BF30"/>
-    <mergeCell ref="AQ13:AQ16"/>
-    <mergeCell ref="AB18:AB25"/>
-    <mergeCell ref="AA13:AA16"/>
-    <mergeCell ref="Z13:Z16"/>
-    <mergeCell ref="AL18:AL25"/>
-    <mergeCell ref="AM18:AM25"/>
-    <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AD18:AD25"/>
-    <mergeCell ref="AG13:AG16"/>
-    <mergeCell ref="AC29:AL30"/>
-    <mergeCell ref="BF13:BF16"/>
-    <mergeCell ref="BC13:BC16"/>
-    <mergeCell ref="AK13:AK16"/>
-    <mergeCell ref="AF13:AF16"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="AP13:AP16"/>
-    <mergeCell ref="BG13:BG16"/>
-    <mergeCell ref="BI13:BI16"/>
-    <mergeCell ref="BJ13:BJ16"/>
-    <mergeCell ref="J29:V30"/>
-    <mergeCell ref="H29:I30"/>
-    <mergeCell ref="BH27:BH30"/>
-    <mergeCell ref="BD18:BD22"/>
-    <mergeCell ref="BC18:BC22"/>
-    <mergeCell ref="AZ24:BS24"/>
-    <mergeCell ref="BS13:BS16"/>
-    <mergeCell ref="BE13:BE16"/>
-    <mergeCell ref="BS18:BS22"/>
-    <mergeCell ref="BR18:BR22"/>
-    <mergeCell ref="BQ18:BQ22"/>
-    <mergeCell ref="BP18:BP22"/>
-    <mergeCell ref="BO18:BO22"/>
-    <mergeCell ref="BN18:BN22"/>
-    <mergeCell ref="BM18:BM22"/>
-    <mergeCell ref="BL18:BL22"/>
-    <mergeCell ref="BK18:BK22"/>
-    <mergeCell ref="AI12:AI16"/>
-    <mergeCell ref="BL27:BL30"/>
-    <mergeCell ref="BN27:BN30"/>
-    <mergeCell ref="BS27:BS30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobın.ambar\Desktop\Yerleşim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turkplast-my.sharepoint.com/personal/bobin_depo_turkambalaj_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CDB7A5-B27C-4C4F-99C2-99ECD6C7BBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E1C5BE-939D-634B-AD4D-4DF3FFEB19F0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
   <si>
     <t>F BLOK</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>O14</t>
+  </si>
+  <si>
+    <t>TLN 80/2500</t>
   </si>
 </sst>
 </file>
@@ -1353,33 +1356,312 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1389,287 +1671,8 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1979,8 +1982,8 @@
   </sheetPr>
   <dimension ref="A1:BU2566"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BV14" sqref="BV14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BE13" sqref="BE13:BE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,20 +1999,20 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="91"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="138"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="90"/>
-      <c r="O1" s="91"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="138"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
@@ -2024,25 +2027,25 @@
       <c r="AA1" s="32"/>
       <c r="AB1" s="32"/>
       <c r="AC1" s="32"/>
-      <c r="AD1" s="56" t="s">
+      <c r="AD1" s="156" t="s">
         <v>113</v>
       </c>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="156"/>
+      <c r="AJ1" s="156"/>
       <c r="AK1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="AL1" s="55">
-        <v>45887</v>
-      </c>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
+      <c r="AL1" s="155">
+        <v>45885</v>
+      </c>
+      <c r="AM1" s="155"/>
+      <c r="AN1" s="155"/>
+      <c r="AO1" s="155"/>
+      <c r="AP1" s="155"/>
       <c r="AQ1" s="32"/>
       <c r="AR1" s="32"/>
       <c r="AS1" s="50"/>
@@ -2086,161 +2089,161 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="92" t="s">
+      <c r="K2" s="145"/>
+      <c r="L2" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="95" t="s">
+      <c r="M2" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="95" t="s">
+      <c r="N2" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="95" t="s">
+      <c r="O2" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="95" t="s">
+      <c r="P2" s="142"/>
+      <c r="Q2" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="95" t="s">
+      <c r="R2" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="95" t="s">
+      <c r="S2" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="95" t="s">
+      <c r="T2" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="95" t="s">
+      <c r="U2" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="95" t="s">
+      <c r="V2" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="110"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62" t="s">
+      <c r="W2" s="128"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55" t="s">
         <v>90</v>
       </c>
       <c r="AB2" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="64" t="s">
+      <c r="AC2" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62" t="s">
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="62" t="s">
+      <c r="AG2" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="62" t="s">
+      <c r="AH2" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" s="62" t="s">
+      <c r="AI2" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="AJ2" s="62" t="s">
+      <c r="AJ2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="62" t="s">
+      <c r="AK2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="62" t="s">
+      <c r="AL2" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="AM2" s="62" t="s">
+      <c r="AM2" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="AN2" s="62" t="s">
+      <c r="AN2" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="AO2" s="62" t="s">
+      <c r="AO2" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="AP2" s="62" t="s">
+      <c r="AP2" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="AQ2" s="62" t="s">
+      <c r="AQ2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AR2" s="62" t="s">
+      <c r="AR2" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="AS2" s="62" t="s">
+      <c r="AS2" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="AT2" s="62" t="s">
+      <c r="AT2" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="AU2" s="62" t="s">
+      <c r="AU2" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="AV2" s="62" t="s">
+      <c r="AV2" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="AW2" s="62" t="s">
+      <c r="AW2" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="AX2" s="62" t="s">
+      <c r="AX2" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="AY2" s="62" t="s">
+      <c r="AY2" s="55" t="s">
         <v>101</v>
       </c>
       <c r="AZ2" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="BA2" s="72" t="s">
+      <c r="BA2" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="59" t="s">
+      <c r="BB2" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="BC2" s="62" t="s">
+      <c r="BC2" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="BD2" s="62" t="s">
+      <c r="BD2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="BE2" s="62" t="s">
+      <c r="BE2" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="BF2" s="62" t="s">
+      <c r="BF2" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="BG2" s="62"/>
-      <c r="BH2" s="62" t="s">
+      <c r="BG2" s="55"/>
+      <c r="BH2" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="BI2" s="62" t="s">
+      <c r="BI2" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="62"/>
-      <c r="BK2" s="62" t="s">
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="BL2" s="62" t="s">
+      <c r="BL2" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="BM2" s="62" t="s">
+      <c r="BM2" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="BN2" s="62" t="s">
+      <c r="BN2" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="BO2" s="62" t="s">
+      <c r="BO2" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="BP2" s="62" t="s">
+      <c r="BP2" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="BQ2" s="62" t="s">
+      <c r="BQ2" s="55" t="s">
         <v>91</v>
       </c>
       <c r="BR2" s="76" t="s">
@@ -2255,135 +2258,135 @@
       <c r="B3" s="20"/>
       <c r="C3" s="51"/>
       <c r="D3" s="21"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
+      <c r="K3" s="146"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
       <c r="AB3" s="77"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
+      <c r="AC3" s="158"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
       <c r="AZ3" s="77"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="63"/>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
+      <c r="BA3" s="149"/>
+      <c r="BB3" s="116"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="56"/>
+      <c r="BG3" s="56"/>
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="56"/>
+      <c r="BN3" s="56"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="56"/>
       <c r="BR3" s="77"/>
       <c r="BT3" s="4"/>
       <c r="BU3" s="37"/>
     </row>
     <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39"/>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="111"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="131"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
       <c r="AB4" s="77"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
       <c r="AZ4" s="77"/>
-      <c r="BA4" s="73"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="63"/>
-      <c r="BF4" s="63"/>
-      <c r="BG4" s="63"/>
-      <c r="BH4" s="63"/>
-      <c r="BI4" s="63"/>
-      <c r="BJ4" s="63"/>
-      <c r="BK4" s="63"/>
-      <c r="BL4" s="63"/>
-      <c r="BM4" s="63"/>
-      <c r="BN4" s="63"/>
-      <c r="BO4" s="63"/>
-      <c r="BP4" s="63"/>
-      <c r="BQ4" s="63"/>
+      <c r="BA4" s="149"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
       <c r="BR4" s="77"/>
       <c r="BT4" s="4"/>
       <c r="BU4" s="37"/>
@@ -2393,65 +2396,65 @@
       <c r="B5" s="20"/>
       <c r="C5" s="51"/>
       <c r="D5" s="21"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
       <c r="AB5" s="77"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="63"/>
-      <c r="AM5" s="63"/>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="63"/>
-      <c r="AQ5" s="63"/>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="63"/>
-      <c r="AU5" s="63"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="63"/>
-      <c r="AY5" s="63"/>
+      <c r="AC5" s="158"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="56"/>
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
       <c r="AZ5" s="77"/>
-      <c r="BA5" s="73"/>
-      <c r="BB5" s="60"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="63"/>
-      <c r="BE5" s="63"/>
-      <c r="BF5" s="63"/>
-      <c r="BG5" s="63"/>
-      <c r="BH5" s="63"/>
-      <c r="BI5" s="63"/>
-      <c r="BJ5" s="63"/>
-      <c r="BK5" s="63"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="63"/>
-      <c r="BN5" s="63"/>
-      <c r="BO5" s="63"/>
-      <c r="BP5" s="63"/>
-      <c r="BQ5" s="63"/>
+      <c r="BA5" s="149"/>
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="56"/>
+      <c r="BL5" s="56"/>
+      <c r="BM5" s="56"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="56"/>
+      <c r="BP5" s="56"/>
+      <c r="BQ5" s="56"/>
       <c r="BR5" s="77"/>
       <c r="BT5" s="4"/>
       <c r="BU5" s="37"/>
@@ -2517,7 +2520,7 @@
       <c r="AB6" s="43">
         <v>6</v>
       </c>
-      <c r="AC6" s="66"/>
+      <c r="AC6" s="159"/>
       <c r="AD6" s="47">
         <v>1</v>
       </c>
@@ -2587,7 +2590,7 @@
       <c r="AZ6" s="43">
         <v>23</v>
       </c>
-      <c r="BA6" s="74"/>
+      <c r="BA6" s="150"/>
       <c r="BB6" s="47">
         <v>1</v>
       </c>
@@ -2644,135 +2647,135 @@
     </row>
     <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-      <c r="W7" s="109" t="s">
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+      <c r="W7" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AD7" s="83" t="s">
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AD7" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="83"/>
-      <c r="AM7" s="83"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="83"/>
-      <c r="AQ7" s="83"/>
-      <c r="AR7" s="83"/>
-      <c r="AS7" s="83"/>
-      <c r="AT7" s="83"/>
-      <c r="AU7" s="83"/>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="83"/>
-      <c r="BB7" s="83" t="s">
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="72"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="72"/>
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="72"/>
+      <c r="BB7" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="BC7" s="83"/>
-      <c r="BD7" s="83"/>
-      <c r="BE7" s="83"/>
-      <c r="BF7" s="83"/>
-      <c r="BG7" s="83"/>
-      <c r="BH7" s="83"/>
-      <c r="BI7" s="83"/>
-      <c r="BJ7" s="83"/>
-      <c r="BK7" s="83"/>
-      <c r="BL7" s="83"/>
-      <c r="BM7" s="83"/>
-      <c r="BN7" s="83"/>
-      <c r="BO7" s="83"/>
-      <c r="BP7" s="83"/>
-      <c r="BQ7" s="83"/>
-      <c r="BR7" s="83"/>
+      <c r="BC7" s="72"/>
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="72"/>
+      <c r="BF7" s="72"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="72"/>
+      <c r="BI7" s="72"/>
+      <c r="BJ7" s="72"/>
+      <c r="BK7" s="72"/>
+      <c r="BL7" s="72"/>
+      <c r="BM7" s="72"/>
+      <c r="BN7" s="72"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="72"/>
+      <c r="BQ7" s="72"/>
+      <c r="BR7" s="72"/>
       <c r="BT7" s="4"/>
       <c r="BU7" s="37"/>
     </row>
     <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="84"/>
       <c r="V8" s="14"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="37"/>
     </row>
     <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="114"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="147"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57" t="s">
+      <c r="I9" s="86"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="88"/>
+      <c r="AL9" s="88"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -2793,18 +2796,18 @@
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
-      <c r="BG9" s="81" t="s">
+      <c r="BG9" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="BH9" s="81"/>
-      <c r="BI9" s="81"/>
-      <c r="BJ9" s="81"/>
-      <c r="BK9" s="81"/>
-      <c r="BL9" s="81"/>
-      <c r="BM9" s="81"/>
-      <c r="BN9" s="81"/>
-      <c r="BO9" s="81"/>
-      <c r="BP9" s="81"/>
+      <c r="BH9" s="151"/>
+      <c r="BI9" s="151"/>
+      <c r="BJ9" s="151"/>
+      <c r="BK9" s="151"/>
+      <c r="BL9" s="151"/>
+      <c r="BM9" s="151"/>
+      <c r="BN9" s="151"/>
+      <c r="BO9" s="151"/>
+      <c r="BP9" s="151"/>
       <c r="BQ9" s="9"/>
       <c r="BR9" s="9"/>
       <c r="BS9" s="9"/>
@@ -2813,46 +2816,46 @@
     </row>
     <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="58"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89"/>
+      <c r="AK10" s="89"/>
+      <c r="AL10" s="89"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
@@ -2873,16 +2876,16 @@
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
-      <c r="BG10" s="82"/>
-      <c r="BH10" s="82"/>
-      <c r="BI10" s="82"/>
-      <c r="BJ10" s="82"/>
-      <c r="BK10" s="82"/>
-      <c r="BL10" s="82"/>
-      <c r="BM10" s="82"/>
-      <c r="BN10" s="82"/>
-      <c r="BO10" s="82"/>
-      <c r="BP10" s="82"/>
+      <c r="BG10" s="152"/>
+      <c r="BH10" s="152"/>
+      <c r="BI10" s="152"/>
+      <c r="BJ10" s="152"/>
+      <c r="BK10" s="152"/>
+      <c r="BL10" s="152"/>
+      <c r="BM10" s="152"/>
+      <c r="BN10" s="152"/>
+      <c r="BO10" s="152"/>
+      <c r="BP10" s="152"/>
       <c r="BQ10" s="7"/>
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
@@ -2891,84 +2894,84 @@
     </row>
     <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="39"/>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="114"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
-      <c r="Y11" s="68" t="s">
+      <c r="H11" s="85"/>
+      <c r="I11" s="87"/>
+      <c r="Y11" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="68"/>
-      <c r="AF11" s="68"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="68"/>
-      <c r="AI11" s="68"/>
-      <c r="AJ11" s="68"/>
-      <c r="AK11" s="68"/>
-      <c r="AL11" s="68"/>
-      <c r="AM11" s="68"/>
-      <c r="AN11" s="68"/>
-      <c r="AO11" s="68"/>
-      <c r="AP11" s="68"/>
-      <c r="AQ11" s="68"/>
-      <c r="AR11" s="68"/>
-      <c r="AS11" s="68"/>
-      <c r="AT11" s="68"/>
-      <c r="AU11" s="68"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+      <c r="AB11" s="132"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="132"/>
+      <c r="AE11" s="132"/>
+      <c r="AF11" s="132"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="132"/>
+      <c r="AJ11" s="132"/>
+      <c r="AK11" s="132"/>
+      <c r="AL11" s="132"/>
+      <c r="AM11" s="132"/>
+      <c r="AN11" s="132"/>
+      <c r="AO11" s="132"/>
+      <c r="AP11" s="132"/>
+      <c r="AQ11" s="132"/>
+      <c r="AR11" s="132"/>
+      <c r="AS11" s="132"/>
+      <c r="AT11" s="132"/>
+      <c r="AU11" s="132"/>
       <c r="AV11" s="16"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="107"/>
+      <c r="AW11" s="66"/>
+      <c r="AX11" s="84"/>
       <c r="AY11" s="16"/>
-      <c r="AZ11" s="68" t="s">
+      <c r="AZ11" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="BA11" s="68"/>
-      <c r="BB11" s="68"/>
-      <c r="BC11" s="68"/>
-      <c r="BD11" s="68"/>
-      <c r="BE11" s="68"/>
-      <c r="BF11" s="68"/>
-      <c r="BG11" s="68"/>
-      <c r="BH11" s="68"/>
-      <c r="BI11" s="68"/>
-      <c r="BJ11" s="68"/>
-      <c r="BK11" s="68"/>
-      <c r="BL11" s="68"/>
-      <c r="BM11" s="68"/>
-      <c r="BN11" s="68"/>
-      <c r="BO11" s="68"/>
-      <c r="BP11" s="68"/>
-      <c r="BQ11" s="68"/>
-      <c r="BR11" s="68"/>
-      <c r="BS11" s="68"/>
+      <c r="BA11" s="132"/>
+      <c r="BB11" s="132"/>
+      <c r="BC11" s="132"/>
+      <c r="BD11" s="132"/>
+      <c r="BE11" s="132"/>
+      <c r="BF11" s="132"/>
+      <c r="BG11" s="132"/>
+      <c r="BH11" s="132"/>
+      <c r="BI11" s="132"/>
+      <c r="BJ11" s="132"/>
+      <c r="BK11" s="132"/>
+      <c r="BL11" s="132"/>
+      <c r="BM11" s="132"/>
+      <c r="BN11" s="132"/>
+      <c r="BO11" s="132"/>
+      <c r="BP11" s="132"/>
+      <c r="BQ11" s="132"/>
+      <c r="BR11" s="132"/>
+      <c r="BS11" s="132"/>
       <c r="BT11" s="4"/>
       <c r="BU11" s="37"/>
     </row>
     <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
       <c r="F12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="87"/>
       <c r="X12" s="24">
         <v>23</v>
       </c>
@@ -3002,7 +3005,7 @@
       <c r="AH12" s="26">
         <v>13</v>
       </c>
-      <c r="AI12" s="158" t="s">
+      <c r="AI12" s="79" t="s">
         <v>11</v>
       </c>
       <c r="AJ12" s="26">
@@ -3038,11 +3041,11 @@
       <c r="AT12" s="28">
         <v>2</v>
       </c>
-      <c r="AU12" s="72" t="s">
+      <c r="AU12" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="107"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="84"/>
       <c r="AZ12" s="47">
         <v>1</v>
       </c>
@@ -3067,7 +3070,7 @@
       <c r="BG12" s="42">
         <v>8</v>
       </c>
-      <c r="BH12" s="72" t="s">
+      <c r="BH12" s="148" t="s">
         <v>11</v>
       </c>
       <c r="BI12" s="26">
@@ -3108,112 +3111,112 @@
     </row>
     <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
       <c r="F13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="71"/>
-      <c r="X13" s="59" t="s">
+      <c r="H13" s="85"/>
+      <c r="I13" s="87"/>
+      <c r="X13" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="Y13" s="62" t="s">
+      <c r="Y13" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="Z13" s="62" t="s">
+      <c r="Z13" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="AA13" s="62" t="s">
+      <c r="AA13" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62" t="s">
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="AD13" s="62" t="s">
+      <c r="AD13" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="159"/>
-      <c r="AJ13" s="62"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="62"/>
-      <c r="AM13" s="62"/>
-      <c r="AN13" s="62" t="s">
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="80"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="AO13" s="62" t="s">
+      <c r="AO13" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="AP13" s="62" t="s">
+      <c r="AP13" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="AQ13" s="62" t="s">
+      <c r="AQ13" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="AR13" s="62" t="s">
+      <c r="AR13" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="AS13" s="62" t="s">
+      <c r="AS13" s="55" t="s">
         <v>52</v>
       </c>
       <c r="AT13" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AU13" s="73"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="107"/>
-      <c r="AY13" s="75"/>
-      <c r="AZ13" s="59" t="s">
+      <c r="AU13" s="149"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="84"/>
+      <c r="AY13" s="160"/>
+      <c r="AZ13" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="BA13" s="62" t="s">
+      <c r="BA13" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="BB13" s="62"/>
-      <c r="BC13" s="62" t="s">
+      <c r="BB13" s="55"/>
+      <c r="BC13" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="BD13" s="62" t="s">
+      <c r="BD13" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="BE13" s="62" t="s">
+      <c r="BE13" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF13" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="BF13" s="62" t="s">
+      <c r="BG13" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="BG13" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH13" s="84"/>
-      <c r="BI13" s="148"/>
-      <c r="BJ13" s="78"/>
-      <c r="BK13" s="78"/>
-      <c r="BL13" s="78"/>
-      <c r="BM13" s="78"/>
-      <c r="BN13" s="78"/>
-      <c r="BO13" s="78" t="s">
+      <c r="BH13" s="153"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="61"/>
+      <c r="BK13" s="61"/>
+      <c r="BL13" s="61"/>
+      <c r="BM13" s="61"/>
+      <c r="BN13" s="61"/>
+      <c r="BO13" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="BP13" s="78" t="s">
+      <c r="BP13" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="BQ13" s="78" t="s">
+      <c r="BQ13" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="BR13" s="78" t="s">
+      <c r="BR13" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="BS13" s="155" t="s">
+      <c r="BS13" s="73" t="s">
         <v>61</v>
       </c>
       <c r="BT13" s="4"/>
@@ -3221,364 +3224,364 @@
     </row>
     <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="114"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
       <c r="F14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="70"/>
-      <c r="I14" s="71"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="63"/>
-      <c r="Z14" s="63"/>
-      <c r="AA14" s="63"/>
-      <c r="AB14" s="63"/>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="63"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="63"/>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="63"/>
-      <c r="AI14" s="159"/>
-      <c r="AJ14" s="63"/>
-      <c r="AK14" s="63"/>
-      <c r="AL14" s="63"/>
-      <c r="AM14" s="63"/>
-      <c r="AN14" s="63"/>
-      <c r="AO14" s="63"/>
-      <c r="AP14" s="63"/>
-      <c r="AQ14" s="63"/>
-      <c r="AR14" s="63"/>
-      <c r="AS14" s="63"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="87"/>
+      <c r="X14" s="116"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
       <c r="AT14" s="77"/>
-      <c r="AU14" s="73"/>
-      <c r="AW14" s="70" t="s">
+      <c r="AU14" s="149"/>
+      <c r="AW14" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="AX14" s="71"/>
-      <c r="AY14" s="75"/>
-      <c r="AZ14" s="60"/>
-      <c r="BA14" s="63"/>
-      <c r="BB14" s="63"/>
-      <c r="BC14" s="63"/>
-      <c r="BD14" s="63"/>
-      <c r="BE14" s="63"/>
-      <c r="BF14" s="63"/>
-      <c r="BG14" s="63"/>
-      <c r="BH14" s="84"/>
-      <c r="BI14" s="149"/>
-      <c r="BJ14" s="79"/>
-      <c r="BK14" s="79"/>
-      <c r="BL14" s="79"/>
-      <c r="BM14" s="79"/>
-      <c r="BN14" s="79"/>
-      <c r="BO14" s="79"/>
-      <c r="BP14" s="79"/>
-      <c r="BQ14" s="79"/>
-      <c r="BR14" s="79"/>
-      <c r="BS14" s="156"/>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="160"/>
+      <c r="AZ14" s="116"/>
+      <c r="BA14" s="56"/>
+      <c r="BB14" s="56"/>
+      <c r="BC14" s="56"/>
+      <c r="BD14" s="56"/>
+      <c r="BE14" s="56"/>
+      <c r="BF14" s="56"/>
+      <c r="BG14" s="56"/>
+      <c r="BH14" s="153"/>
+      <c r="BI14" s="59"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="62"/>
+      <c r="BO14" s="62"/>
+      <c r="BP14" s="62"/>
+      <c r="BQ14" s="62"/>
+      <c r="BR14" s="62"/>
+      <c r="BS14" s="74"/>
       <c r="BT14" s="4"/>
       <c r="BU14" s="37"/>
     </row>
     <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="114"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="159"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="63"/>
-      <c r="AN15" s="63"/>
-      <c r="AO15" s="63"/>
-      <c r="AP15" s="63"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="63"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="87"/>
+      <c r="X15" s="116"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="80"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
       <c r="AT15" s="77"/>
-      <c r="AU15" s="73"/>
-      <c r="AW15" s="70"/>
-      <c r="AX15" s="71"/>
-      <c r="AY15" s="75"/>
-      <c r="AZ15" s="60"/>
-      <c r="BA15" s="63"/>
-      <c r="BB15" s="63"/>
-      <c r="BC15" s="63"/>
-      <c r="BD15" s="63"/>
-      <c r="BE15" s="63"/>
-      <c r="BF15" s="63"/>
-      <c r="BG15" s="63"/>
-      <c r="BH15" s="84"/>
-      <c r="BI15" s="149"/>
-      <c r="BJ15" s="79"/>
-      <c r="BK15" s="79"/>
-      <c r="BL15" s="79"/>
-      <c r="BM15" s="79"/>
-      <c r="BN15" s="79"/>
-      <c r="BO15" s="79"/>
-      <c r="BP15" s="79"/>
-      <c r="BQ15" s="79"/>
-      <c r="BR15" s="79"/>
-      <c r="BS15" s="156"/>
+      <c r="AU15" s="149"/>
+      <c r="AW15" s="85"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="160"/>
+      <c r="AZ15" s="116"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="153"/>
+      <c r="BI15" s="59"/>
+      <c r="BJ15" s="62"/>
+      <c r="BK15" s="62"/>
+      <c r="BL15" s="62"/>
+      <c r="BM15" s="62"/>
+      <c r="BN15" s="62"/>
+      <c r="BO15" s="62"/>
+      <c r="BP15" s="62"/>
+      <c r="BQ15" s="62"/>
+      <c r="BR15" s="62"/>
+      <c r="BS15" s="74"/>
       <c r="BT15" s="4"/>
       <c r="BU15" s="37"/>
     </row>
     <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="114"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
       <c r="F16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="160"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="67"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="67"/>
-      <c r="AQ16" s="67"/>
-      <c r="AR16" s="67"/>
-      <c r="AS16" s="67"/>
-      <c r="AT16" s="108"/>
-      <c r="AU16" s="74"/>
-      <c r="AW16" s="70"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="75"/>
-      <c r="AZ16" s="61"/>
-      <c r="BA16" s="67"/>
-      <c r="BB16" s="67"/>
-      <c r="BC16" s="67"/>
-      <c r="BD16" s="67"/>
-      <c r="BE16" s="67"/>
-      <c r="BF16" s="67"/>
-      <c r="BG16" s="67"/>
-      <c r="BH16" s="85"/>
-      <c r="BI16" s="150"/>
-      <c r="BJ16" s="80"/>
-      <c r="BK16" s="80"/>
-      <c r="BL16" s="80"/>
-      <c r="BM16" s="80"/>
-      <c r="BN16" s="80"/>
-      <c r="BO16" s="80"/>
-      <c r="BP16" s="80"/>
-      <c r="BQ16" s="80"/>
-      <c r="BR16" s="80"/>
-      <c r="BS16" s="157"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="87"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="81"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="150"/>
+      <c r="AW16" s="85"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="160"/>
+      <c r="AZ16" s="117"/>
+      <c r="BA16" s="57"/>
+      <c r="BB16" s="57"/>
+      <c r="BC16" s="57"/>
+      <c r="BD16" s="57"/>
+      <c r="BE16" s="57"/>
+      <c r="BF16" s="57"/>
+      <c r="BG16" s="57"/>
+      <c r="BH16" s="154"/>
+      <c r="BI16" s="60"/>
+      <c r="BJ16" s="63"/>
+      <c r="BK16" s="63"/>
+      <c r="BL16" s="63"/>
+      <c r="BM16" s="63"/>
+      <c r="BN16" s="63"/>
+      <c r="BO16" s="63"/>
+      <c r="BP16" s="63"/>
+      <c r="BQ16" s="63"/>
+      <c r="BR16" s="63"/>
+      <c r="BS16" s="75"/>
       <c r="BT16" s="4"/>
       <c r="BU16" s="37"/>
     </row>
     <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="71"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="87"/>
+      <c r="AW17" s="85"/>
+      <c r="AX17" s="87"/>
       <c r="BT17" s="4"/>
       <c r="BU17" s="37"/>
     </row>
     <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
       <c r="F18" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="137" t="s">
+      <c r="H18" s="85"/>
+      <c r="I18" s="87"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="N18" s="78" t="s">
+      <c r="N18" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="O18" s="78" t="s">
+      <c r="O18" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="78" t="s">
+      <c r="P18" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="Q18" s="78" t="s">
+      <c r="Q18" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="R18" s="78" t="s">
+      <c r="R18" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="78" t="s">
+      <c r="S18" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="T18" s="78" t="s">
+      <c r="T18" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="U18" s="78" t="s">
+      <c r="U18" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="78" t="s">
+      <c r="V18" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="W18" s="78" t="s">
+      <c r="W18" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="X18" s="78" t="s">
+      <c r="X18" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="Y18" s="62" t="s">
+      <c r="Y18" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62" t="s">
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AC18" s="62" t="s">
+      <c r="AC18" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AD18" s="62" t="s">
+      <c r="AD18" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" s="62" t="s">
+      <c r="AE18" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" s="62" t="s">
+      <c r="AF18" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AG18" s="62" t="s">
+      <c r="AG18" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="AH18" s="62" t="s">
+      <c r="AH18" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="AI18" s="62" t="s">
+      <c r="AI18" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="AJ18" s="62" t="s">
+      <c r="AJ18" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="AK18" s="62" t="s">
+      <c r="AK18" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="AL18" s="62" t="s">
+      <c r="AL18" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AM18" s="62" t="s">
+      <c r="AM18" s="55" t="s">
         <v>59</v>
       </c>
       <c r="AN18" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="AO18" s="141"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62" t="s">
+      <c r="AO18" s="101"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="55"/>
+      <c r="AR18" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="AS18" s="62" t="s">
+      <c r="AS18" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="AT18" s="62"/>
+      <c r="AT18" s="55"/>
       <c r="AU18" s="76"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="71"/>
-      <c r="AZ18" s="59" t="s">
+      <c r="AW18" s="85"/>
+      <c r="AX18" s="87"/>
+      <c r="AZ18" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="BA18" s="62" t="s">
+      <c r="BA18" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="BB18" s="62" t="s">
+      <c r="BB18" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="BC18" s="62" t="s">
+      <c r="BC18" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="BD18" s="62" t="s">
+      <c r="BD18" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="BE18" s="62" t="s">
+      <c r="BE18" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="BF18" s="62" t="s">
+      <c r="BF18" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="BG18" s="62"/>
-      <c r="BH18" s="62"/>
-      <c r="BI18" s="62" t="s">
+      <c r="BG18" s="55"/>
+      <c r="BH18" s="55"/>
+      <c r="BI18" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="BJ18" s="62" t="s">
+      <c r="BJ18" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="BK18" s="62" t="s">
+      <c r="BK18" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="BL18" s="62" t="s">
+      <c r="BL18" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="BM18" s="62"/>
-      <c r="BN18" s="62"/>
-      <c r="BO18" s="62"/>
-      <c r="BP18" s="62" t="s">
+      <c r="BM18" s="55"/>
+      <c r="BN18" s="55"/>
+      <c r="BO18" s="55"/>
+      <c r="BP18" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="BQ18" s="62" t="s">
+      <c r="BQ18" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="BR18" s="62"/>
+      <c r="BR18" s="55"/>
       <c r="BS18" s="76" t="s">
         <v>85</v>
       </c>
@@ -3587,73 +3590,73 @@
     </row>
     <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
       <c r="F19" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="63"/>
-      <c r="Z19" s="63"/>
-      <c r="AA19" s="63"/>
-      <c r="AB19" s="63"/>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="63"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="63"/>
-      <c r="AG19" s="63"/>
-      <c r="AH19" s="63"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="63"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="87"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
       <c r="AN19" s="77"/>
-      <c r="AO19" s="142"/>
-      <c r="AP19" s="63"/>
-      <c r="AQ19" s="63"/>
-      <c r="AR19" s="63"/>
-      <c r="AS19" s="63"/>
-      <c r="AT19" s="63"/>
+      <c r="AO19" s="102"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
       <c r="AU19" s="77"/>
-      <c r="AW19" s="70"/>
-      <c r="AX19" s="71"/>
-      <c r="AZ19" s="60"/>
-      <c r="BA19" s="63"/>
-      <c r="BB19" s="63"/>
-      <c r="BC19" s="63"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="63"/>
-      <c r="BH19" s="63"/>
-      <c r="BI19" s="63"/>
-      <c r="BJ19" s="63"/>
-      <c r="BK19" s="63"/>
-      <c r="BL19" s="63"/>
-      <c r="BM19" s="63"/>
-      <c r="BN19" s="63"/>
-      <c r="BO19" s="63"/>
-      <c r="BP19" s="63"/>
-      <c r="BQ19" s="63"/>
-      <c r="BR19" s="63"/>
+      <c r="AW19" s="85"/>
+      <c r="AX19" s="87"/>
+      <c r="AZ19" s="116"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="56"/>
+      <c r="BK19" s="56"/>
+      <c r="BL19" s="56"/>
+      <c r="BM19" s="56"/>
+      <c r="BN19" s="56"/>
+      <c r="BO19" s="56"/>
+      <c r="BP19" s="56"/>
+      <c r="BQ19" s="56"/>
+      <c r="BR19" s="56"/>
       <c r="BS19" s="77"/>
       <c r="BT19" s="4"/>
       <c r="BU19" s="37"/>
@@ -3661,66 +3664,66 @@
     <row r="20" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="12"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="71"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="63"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="63"/>
-      <c r="AB20" s="63"/>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="63"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="63"/>
-      <c r="AG20" s="63"/>
-      <c r="AH20" s="63"/>
-      <c r="AI20" s="63"/>
-      <c r="AJ20" s="63"/>
-      <c r="AK20" s="63"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="63"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="87"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
       <c r="AN20" s="77"/>
-      <c r="AO20" s="142"/>
-      <c r="AP20" s="63"/>
-      <c r="AQ20" s="63"/>
-      <c r="AR20" s="63"/>
-      <c r="AS20" s="63"/>
-      <c r="AT20" s="63"/>
+      <c r="AO20" s="102"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
       <c r="AU20" s="77"/>
-      <c r="AW20" s="70"/>
-      <c r="AX20" s="71"/>
-      <c r="AZ20" s="60"/>
-      <c r="BA20" s="63"/>
-      <c r="BB20" s="63"/>
-      <c r="BC20" s="63"/>
-      <c r="BD20" s="63"/>
-      <c r="BE20" s="63"/>
-      <c r="BF20" s="63"/>
-      <c r="BG20" s="63"/>
-      <c r="BH20" s="63"/>
-      <c r="BI20" s="63"/>
-      <c r="BJ20" s="63"/>
-      <c r="BK20" s="63"/>
-      <c r="BL20" s="63"/>
-      <c r="BM20" s="63"/>
-      <c r="BN20" s="63"/>
-      <c r="BO20" s="63"/>
-      <c r="BP20" s="63"/>
-      <c r="BQ20" s="63"/>
-      <c r="BR20" s="63"/>
+      <c r="AW20" s="85"/>
+      <c r="AX20" s="87"/>
+      <c r="AZ20" s="116"/>
+      <c r="BA20" s="56"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="56"/>
+      <c r="BK20" s="56"/>
+      <c r="BL20" s="56"/>
+      <c r="BM20" s="56"/>
+      <c r="BN20" s="56"/>
+      <c r="BO20" s="56"/>
+      <c r="BP20" s="56"/>
+      <c r="BQ20" s="56"/>
+      <c r="BR20" s="56"/>
       <c r="BS20" s="77"/>
       <c r="BT20" s="4"/>
       <c r="BU20" s="37"/>
@@ -3728,66 +3731,66 @@
     <row r="21" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="12"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="63"/>
-      <c r="AB21" s="63"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="63"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="63"/>
-      <c r="AH21" s="63"/>
-      <c r="AI21" s="63"/>
-      <c r="AJ21" s="63"/>
-      <c r="AK21" s="63"/>
-      <c r="AL21" s="63"/>
-      <c r="AM21" s="63"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="87"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
       <c r="AN21" s="77"/>
-      <c r="AO21" s="142"/>
-      <c r="AP21" s="63"/>
-      <c r="AQ21" s="63"/>
-      <c r="AR21" s="63"/>
-      <c r="AS21" s="63"/>
-      <c r="AT21" s="63"/>
+      <c r="AO21" s="102"/>
+      <c r="AP21" s="56"/>
+      <c r="AQ21" s="56"/>
+      <c r="AR21" s="56"/>
+      <c r="AS21" s="56"/>
+      <c r="AT21" s="56"/>
       <c r="AU21" s="77"/>
-      <c r="AW21" s="70"/>
-      <c r="AX21" s="71"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="63"/>
-      <c r="BB21" s="63"/>
-      <c r="BC21" s="63"/>
-      <c r="BD21" s="63"/>
-      <c r="BE21" s="63"/>
-      <c r="BF21" s="63"/>
-      <c r="BG21" s="63"/>
-      <c r="BH21" s="63"/>
-      <c r="BI21" s="63"/>
-      <c r="BJ21" s="63"/>
-      <c r="BK21" s="63"/>
-      <c r="BL21" s="63"/>
-      <c r="BM21" s="63"/>
-      <c r="BN21" s="63"/>
-      <c r="BO21" s="63"/>
-      <c r="BP21" s="63"/>
-      <c r="BQ21" s="63"/>
-      <c r="BR21" s="63"/>
+      <c r="AW21" s="85"/>
+      <c r="AX21" s="87"/>
+      <c r="AZ21" s="116"/>
+      <c r="BA21" s="56"/>
+      <c r="BB21" s="56"/>
+      <c r="BC21" s="56"/>
+      <c r="BD21" s="56"/>
+      <c r="BE21" s="56"/>
+      <c r="BF21" s="56"/>
+      <c r="BG21" s="56"/>
+      <c r="BH21" s="56"/>
+      <c r="BI21" s="56"/>
+      <c r="BJ21" s="56"/>
+      <c r="BK21" s="56"/>
+      <c r="BL21" s="56"/>
+      <c r="BM21" s="56"/>
+      <c r="BN21" s="56"/>
+      <c r="BO21" s="56"/>
+      <c r="BP21" s="56"/>
+      <c r="BQ21" s="56"/>
+      <c r="BR21" s="56"/>
       <c r="BS21" s="77"/>
       <c r="BT21" s="4"/>
       <c r="BU21" s="37"/>
@@ -3795,104 +3798,104 @@
     <row r="22" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="12"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="63"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="63"/>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="63"/>
-      <c r="AL22" s="63"/>
-      <c r="AM22" s="63"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="87"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="56"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
       <c r="AN22" s="77"/>
-      <c r="AO22" s="143"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="69"/>
-      <c r="AS22" s="69"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="140"/>
-      <c r="AW22" s="70"/>
-      <c r="AX22" s="71"/>
-      <c r="AZ22" s="61"/>
-      <c r="BA22" s="67"/>
-      <c r="BB22" s="67"/>
-      <c r="BC22" s="67"/>
-      <c r="BD22" s="67"/>
-      <c r="BE22" s="67"/>
-      <c r="BF22" s="67"/>
-      <c r="BG22" s="67"/>
-      <c r="BH22" s="67"/>
-      <c r="BI22" s="67"/>
-      <c r="BJ22" s="67"/>
-      <c r="BK22" s="67"/>
-      <c r="BL22" s="67"/>
-      <c r="BM22" s="67"/>
-      <c r="BN22" s="67"/>
-      <c r="BO22" s="67"/>
-      <c r="BP22" s="67"/>
-      <c r="BQ22" s="67"/>
-      <c r="BR22" s="67"/>
-      <c r="BS22" s="108"/>
+      <c r="AO22" s="103"/>
+      <c r="AP22" s="104"/>
+      <c r="AQ22" s="104"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="104"/>
+      <c r="AU22" s="100"/>
+      <c r="AW22" s="85"/>
+      <c r="AX22" s="87"/>
+      <c r="AZ22" s="117"/>
+      <c r="BA22" s="57"/>
+      <c r="BB22" s="57"/>
+      <c r="BC22" s="57"/>
+      <c r="BD22" s="57"/>
+      <c r="BE22" s="57"/>
+      <c r="BF22" s="57"/>
+      <c r="BG22" s="57"/>
+      <c r="BH22" s="57"/>
+      <c r="BI22" s="57"/>
+      <c r="BJ22" s="57"/>
+      <c r="BK22" s="57"/>
+      <c r="BL22" s="57"/>
+      <c r="BM22" s="57"/>
+      <c r="BN22" s="57"/>
+      <c r="BO22" s="57"/>
+      <c r="BP22" s="57"/>
+      <c r="BQ22" s="57"/>
+      <c r="BR22" s="57"/>
+      <c r="BS22" s="78"/>
       <c r="BT22" s="4"/>
       <c r="BU22" s="37"/>
     </row>
     <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="12"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="63"/>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="63"/>
-      <c r="AH23" s="63"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="63"/>
-      <c r="AK23" s="63"/>
-      <c r="AL23" s="63"/>
-      <c r="AM23" s="63"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="87"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
       <c r="AN23" s="77"/>
       <c r="AO23" s="29">
         <v>17</v>
@@ -3915,8 +3918,8 @@
       <c r="AU23" s="23">
         <v>23</v>
       </c>
-      <c r="AW23" s="70"/>
-      <c r="AX23" s="71"/>
+      <c r="AW23" s="85"/>
+      <c r="AX23" s="87"/>
       <c r="AZ23" s="47">
         <v>1</v>
       </c>
@@ -3983,37 +3986,37 @@
     <row r="24" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="39"/>
       <c r="B24" s="12"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="79"/>
-      <c r="Y24" s="63"/>
-      <c r="Z24" s="63"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="63"/>
-      <c r="AC24" s="63"/>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="63"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="63"/>
-      <c r="AK24" s="63"/>
-      <c r="AL24" s="63"/>
-      <c r="AM24" s="63"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="87"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="56"/>
+      <c r="AK24" s="56"/>
+      <c r="AL24" s="56"/>
+      <c r="AM24" s="56"/>
       <c r="AN24" s="77"/>
       <c r="AO24" s="53"/>
       <c r="AP24" s="53"/>
@@ -4024,65 +4027,65 @@
       <c r="AU24" s="53"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="5"/>
-      <c r="AZ24" s="83" t="s">
+      <c r="AZ24" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="BA24" s="83"/>
-      <c r="BB24" s="83"/>
-      <c r="BC24" s="83"/>
-      <c r="BD24" s="83"/>
-      <c r="BE24" s="83"/>
-      <c r="BF24" s="83"/>
-      <c r="BG24" s="83"/>
-      <c r="BH24" s="83"/>
-      <c r="BI24" s="83"/>
-      <c r="BJ24" s="83"/>
-      <c r="BK24" s="83"/>
-      <c r="BL24" s="83"/>
-      <c r="BM24" s="83"/>
-      <c r="BN24" s="83"/>
-      <c r="BO24" s="83"/>
-      <c r="BP24" s="83"/>
-      <c r="BQ24" s="83"/>
-      <c r="BR24" s="83"/>
-      <c r="BS24" s="83"/>
+      <c r="BA24" s="72"/>
+      <c r="BB24" s="72"/>
+      <c r="BC24" s="72"/>
+      <c r="BD24" s="72"/>
+      <c r="BE24" s="72"/>
+      <c r="BF24" s="72"/>
+      <c r="BG24" s="72"/>
+      <c r="BH24" s="72"/>
+      <c r="BI24" s="72"/>
+      <c r="BJ24" s="72"/>
+      <c r="BK24" s="72"/>
+      <c r="BL24" s="72"/>
+      <c r="BM24" s="72"/>
+      <c r="BN24" s="72"/>
+      <c r="BO24" s="72"/>
+      <c r="BP24" s="72"/>
+      <c r="BQ24" s="72"/>
+      <c r="BR24" s="72"/>
+      <c r="BS24" s="72"/>
       <c r="BT24" s="4"/>
       <c r="BU24" s="37"/>
     </row>
     <row r="25" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="12"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="63"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="63"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="63"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="63"/>
-      <c r="AH25" s="63"/>
-      <c r="AI25" s="63"/>
-      <c r="AJ25" s="63"/>
-      <c r="AK25" s="63"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="63"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="87"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
       <c r="AN25" s="77"/>
       <c r="AO25" s="53"/>
       <c r="AP25" s="53"/>
@@ -4099,8 +4102,8 @@
     <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="12"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="87"/>
       <c r="K26" s="40" t="s">
         <v>12</v>
       </c>
@@ -4206,101 +4209,101 @@
     <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="39"/>
       <c r="B27" s="12"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="87"/>
       <c r="X27" s="16"/>
-      <c r="Y27" s="144" t="s">
+      <c r="Y27" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="Z27" s="144"/>
-      <c r="AA27" s="144"/>
-      <c r="AB27" s="144"/>
-      <c r="AC27" s="144"/>
-      <c r="AD27" s="144"/>
-      <c r="AE27" s="144"/>
-      <c r="AF27" s="144"/>
-      <c r="AG27" s="144"/>
-      <c r="AH27" s="144"/>
-      <c r="AI27" s="144"/>
-      <c r="AJ27" s="144"/>
-      <c r="AK27" s="144"/>
-      <c r="AL27" s="144"/>
-      <c r="AM27" s="144"/>
-      <c r="AN27" s="144"/>
-      <c r="AO27" s="144"/>
-      <c r="AP27" s="144"/>
-      <c r="AQ27" s="144"/>
-      <c r="AR27" s="144"/>
-      <c r="AS27" s="144"/>
-      <c r="AT27" s="144"/>
-      <c r="AU27" s="144"/>
+      <c r="Z27" s="105"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="105"/>
+      <c r="AC27" s="105"/>
+      <c r="AD27" s="105"/>
+      <c r="AE27" s="105"/>
+      <c r="AF27" s="105"/>
+      <c r="AG27" s="105"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="105"/>
+      <c r="AJ27" s="105"/>
+      <c r="AK27" s="105"/>
+      <c r="AL27" s="105"/>
+      <c r="AM27" s="105"/>
+      <c r="AN27" s="105"/>
+      <c r="AO27" s="105"/>
+      <c r="AP27" s="105"/>
+      <c r="AQ27" s="105"/>
+      <c r="AR27" s="105"/>
+      <c r="AS27" s="105"/>
+      <c r="AT27" s="105"/>
+      <c r="AU27" s="105"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="5"/>
-      <c r="AZ27" s="128"/>
-      <c r="BB27" s="128"/>
-      <c r="BF27" s="128"/>
-      <c r="BH27" s="128"/>
-      <c r="BL27" s="128"/>
-      <c r="BN27" s="128"/>
-      <c r="BQ27" s="128"/>
-      <c r="BS27" s="128"/>
+      <c r="AZ27" s="69"/>
+      <c r="BB27" s="69"/>
+      <c r="BF27" s="69"/>
+      <c r="BH27" s="69"/>
+      <c r="BL27" s="69"/>
+      <c r="BN27" s="69"/>
+      <c r="BQ27" s="69"/>
+      <c r="BS27" s="69"/>
       <c r="BT27" s="4"/>
       <c r="BU27" s="37"/>
     </row>
     <row r="28" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="12"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="71"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="87"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="5"/>
-      <c r="AZ28" s="129"/>
-      <c r="BB28" s="129"/>
-      <c r="BF28" s="129"/>
-      <c r="BH28" s="129"/>
-      <c r="BL28" s="129"/>
-      <c r="BN28" s="129"/>
-      <c r="BQ28" s="129"/>
-      <c r="BS28" s="129"/>
+      <c r="AZ28" s="70"/>
+      <c r="BB28" s="70"/>
+      <c r="BF28" s="70"/>
+      <c r="BH28" s="70"/>
+      <c r="BL28" s="70"/>
+      <c r="BN28" s="70"/>
+      <c r="BQ28" s="70"/>
+      <c r="BS28" s="70"/>
       <c r="BT28" s="4"/>
       <c r="BU28" s="37"/>
     </row>
     <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="12"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="151"/>
-      <c r="O29" s="151"/>
-      <c r="P29" s="151"/>
-      <c r="Q29" s="151"/>
-      <c r="R29" s="151"/>
-      <c r="S29" s="151"/>
-      <c r="T29" s="151"/>
-      <c r="U29" s="151"/>
-      <c r="V29" s="151"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="57" t="s">
+      <c r="AC29" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="57"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="88"/>
+      <c r="AH29" s="88"/>
+      <c r="AI29" s="88"/>
+      <c r="AJ29" s="88"/>
+      <c r="AK29" s="88"/>
+      <c r="AL29" s="88"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
@@ -4314,28 +4317,28 @@
       <c r="AW29" s="52"/>
       <c r="AX29" s="52"/>
       <c r="AY29" s="9"/>
-      <c r="AZ29" s="129"/>
+      <c r="AZ29" s="70"/>
       <c r="BA29" s="9"/>
-      <c r="BB29" s="129"/>
+      <c r="BB29" s="70"/>
       <c r="BC29" s="9"/>
       <c r="BD29" s="9"/>
       <c r="BE29" s="9"/>
-      <c r="BF29" s="129"/>
+      <c r="BF29" s="70"/>
       <c r="BG29" s="9"/>
-      <c r="BH29" s="129"/>
-      <c r="BI29" s="131" t="s">
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="BJ29" s="132"/>
-      <c r="BK29" s="133"/>
-      <c r="BL29" s="129"/>
+      <c r="BJ29" s="91"/>
+      <c r="BK29" s="92"/>
+      <c r="BL29" s="70"/>
       <c r="BM29" s="30"/>
-      <c r="BN29" s="129"/>
+      <c r="BN29" s="70"/>
       <c r="BO29" s="30"/>
       <c r="BP29" s="9"/>
-      <c r="BQ29" s="129"/>
+      <c r="BQ29" s="70"/>
       <c r="BR29" s="9"/>
-      <c r="BS29" s="129"/>
+      <c r="BS29" s="70"/>
       <c r="BT29" s="10"/>
       <c r="BU29" s="37"/>
     </row>
@@ -4347,37 +4350,37 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152"/>
-      <c r="P30" s="152"/>
-      <c r="Q30" s="152"/>
-      <c r="R30" s="152"/>
-      <c r="S30" s="152"/>
-      <c r="T30" s="152"/>
-      <c r="U30" s="152"/>
-      <c r="V30" s="152"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="58"/>
-      <c r="AJ30" s="58"/>
-      <c r="AK30" s="58"/>
-      <c r="AL30" s="58"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="89"/>
+      <c r="AF30" s="89"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="89"/>
+      <c r="AJ30" s="89"/>
+      <c r="AK30" s="89"/>
+      <c r="AL30" s="89"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
@@ -4391,28 +4394,28 @@
       <c r="AW30" s="7"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
-      <c r="AZ30" s="130"/>
+      <c r="AZ30" s="71"/>
       <c r="BA30" s="7"/>
-      <c r="BB30" s="130"/>
+      <c r="BB30" s="71"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
       <c r="BE30" s="7"/>
-      <c r="BF30" s="130"/>
+      <c r="BF30" s="71"/>
       <c r="BG30" s="7"/>
-      <c r="BH30" s="130"/>
-      <c r="BI30" s="134" t="s">
+      <c r="BH30" s="71"/>
+      <c r="BI30" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="BJ30" s="135"/>
-      <c r="BK30" s="136"/>
-      <c r="BL30" s="130"/>
+      <c r="BJ30" s="94"/>
+      <c r="BK30" s="95"/>
+      <c r="BL30" s="71"/>
       <c r="BM30" s="31"/>
-      <c r="BN30" s="130"/>
+      <c r="BN30" s="71"/>
       <c r="BO30" s="31"/>
       <c r="BP30" s="7"/>
-      <c r="BQ30" s="130"/>
+      <c r="BQ30" s="71"/>
       <c r="BR30" s="7"/>
-      <c r="BS30" s="130"/>
+      <c r="BS30" s="71"/>
       <c r="BT30" s="8"/>
       <c r="BU30" s="37"/>
     </row>
@@ -7085,6 +7088,189 @@
     <row r="2566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="207">
+    <mergeCell ref="AL1:AP1"/>
+    <mergeCell ref="AD1:AJ1"/>
+    <mergeCell ref="W9:AL10"/>
+    <mergeCell ref="AZ18:AZ22"/>
+    <mergeCell ref="AE18:AE25"/>
+    <mergeCell ref="AC2:AC6"/>
+    <mergeCell ref="BJ18:BJ22"/>
+    <mergeCell ref="BI18:BI22"/>
+    <mergeCell ref="Y11:AU11"/>
+    <mergeCell ref="AT18:AT22"/>
+    <mergeCell ref="AW14:AX23"/>
+    <mergeCell ref="AU12:AU16"/>
+    <mergeCell ref="AY13:AY16"/>
+    <mergeCell ref="BA13:BA16"/>
+    <mergeCell ref="BB13:BB16"/>
+    <mergeCell ref="AZ13:AZ16"/>
+    <mergeCell ref="BD13:BD16"/>
+    <mergeCell ref="AZ2:AZ5"/>
+    <mergeCell ref="AY2:AY5"/>
+    <mergeCell ref="AN18:AN25"/>
+    <mergeCell ref="BH18:BH22"/>
+    <mergeCell ref="BG18:BG22"/>
+    <mergeCell ref="BF18:BF22"/>
+    <mergeCell ref="BE2:BE5"/>
+    <mergeCell ref="BR2:BR5"/>
+    <mergeCell ref="BQ2:BQ5"/>
+    <mergeCell ref="BP2:BP5"/>
+    <mergeCell ref="BO2:BO5"/>
+    <mergeCell ref="BN2:BN5"/>
+    <mergeCell ref="BM2:BM5"/>
+    <mergeCell ref="BR13:BR16"/>
+    <mergeCell ref="BQ13:BQ16"/>
+    <mergeCell ref="BP13:BP16"/>
+    <mergeCell ref="BM13:BM16"/>
+    <mergeCell ref="BN13:BN16"/>
+    <mergeCell ref="BO13:BO16"/>
+    <mergeCell ref="BG9:BP10"/>
+    <mergeCell ref="BB7:BR7"/>
+    <mergeCell ref="BH12:BH16"/>
+    <mergeCell ref="BK13:BK16"/>
+    <mergeCell ref="BL13:BL16"/>
+    <mergeCell ref="BL2:BL5"/>
+    <mergeCell ref="BK2:BK5"/>
+    <mergeCell ref="BJ2:BJ5"/>
+    <mergeCell ref="BI2:BI5"/>
+    <mergeCell ref="BH2:BH5"/>
+    <mergeCell ref="BG2:BG5"/>
+    <mergeCell ref="BF2:BF5"/>
+    <mergeCell ref="BD2:BD5"/>
+    <mergeCell ref="BC2:BC5"/>
+    <mergeCell ref="BB2:BB5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="BA2:BA6"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="AS2:AS5"/>
+    <mergeCell ref="AR2:AR5"/>
+    <mergeCell ref="AQ2:AQ5"/>
+    <mergeCell ref="AP2:AP5"/>
+    <mergeCell ref="AN2:AN5"/>
+    <mergeCell ref="AO2:AO5"/>
+    <mergeCell ref="AD2:AD5"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="AM2:AM5"/>
+    <mergeCell ref="AN13:AN16"/>
+    <mergeCell ref="AM13:AM16"/>
+    <mergeCell ref="AL13:AL16"/>
+    <mergeCell ref="AO13:AO16"/>
+    <mergeCell ref="AE13:AE16"/>
+    <mergeCell ref="AD7:AZ7"/>
+    <mergeCell ref="AU2:AU5"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="AX2:AX5"/>
+    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="AI2:AI5"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="AL2:AL5"/>
+    <mergeCell ref="AK2:AK5"/>
+    <mergeCell ref="AW11:AX13"/>
+    <mergeCell ref="AR13:AR16"/>
+    <mergeCell ref="AH13:AH16"/>
+    <mergeCell ref="AZ11:BS11"/>
+    <mergeCell ref="AJ13:AJ16"/>
+    <mergeCell ref="AS13:AS16"/>
+    <mergeCell ref="AT13:AT16"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AD13:AD16"/>
+    <mergeCell ref="AC13:AC16"/>
+    <mergeCell ref="AB13:AB16"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="X18:X25"/>
+    <mergeCell ref="W18:W25"/>
+    <mergeCell ref="V18:V25"/>
+    <mergeCell ref="U18:U25"/>
+    <mergeCell ref="T18:T25"/>
+    <mergeCell ref="S18:S25"/>
+    <mergeCell ref="R18:R25"/>
+    <mergeCell ref="Q18:Q25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="K18:K25"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="BQ27:BQ30"/>
+    <mergeCell ref="BI29:BK29"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="M18:M25"/>
+    <mergeCell ref="AF18:AF25"/>
+    <mergeCell ref="AG18:AG25"/>
+    <mergeCell ref="AH18:AH25"/>
+    <mergeCell ref="AU18:AU22"/>
+    <mergeCell ref="AO18:AO22"/>
+    <mergeCell ref="AI18:AI25"/>
+    <mergeCell ref="AJ18:AJ25"/>
+    <mergeCell ref="AK18:AK25"/>
+    <mergeCell ref="AP18:AP22"/>
+    <mergeCell ref="AQ18:AQ22"/>
+    <mergeCell ref="AR18:AR22"/>
+    <mergeCell ref="AS18:AS22"/>
+    <mergeCell ref="Y18:Y25"/>
+    <mergeCell ref="Z18:Z25"/>
+    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="BE18:BE22"/>
+    <mergeCell ref="Y27:AU27"/>
+    <mergeCell ref="BB18:BB22"/>
+    <mergeCell ref="BA18:BA22"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I28"/>
+    <mergeCell ref="J9:V10"/>
+    <mergeCell ref="AZ27:AZ30"/>
+    <mergeCell ref="BB27:BB30"/>
+    <mergeCell ref="BF27:BF30"/>
+    <mergeCell ref="AQ13:AQ16"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AA13:AA16"/>
+    <mergeCell ref="Z13:Z16"/>
+    <mergeCell ref="AL18:AL25"/>
+    <mergeCell ref="AM18:AM25"/>
+    <mergeCell ref="AC18:AC25"/>
+    <mergeCell ref="AD18:AD25"/>
+    <mergeCell ref="AG13:AG16"/>
+    <mergeCell ref="AC29:AL30"/>
+    <mergeCell ref="BF13:BF16"/>
+    <mergeCell ref="BC13:BC16"/>
+    <mergeCell ref="AK13:AK16"/>
+    <mergeCell ref="AF13:AF16"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="AP13:AP16"/>
     <mergeCell ref="BG13:BG16"/>
     <mergeCell ref="BI13:BI16"/>
     <mergeCell ref="BJ13:BJ16"/>
@@ -7109,189 +7295,6 @@
     <mergeCell ref="BL27:BL30"/>
     <mergeCell ref="BN27:BN30"/>
     <mergeCell ref="BS27:BS30"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I28"/>
-    <mergeCell ref="J9:V10"/>
-    <mergeCell ref="AZ27:AZ30"/>
-    <mergeCell ref="BB27:BB30"/>
-    <mergeCell ref="BF27:BF30"/>
-    <mergeCell ref="AQ13:AQ16"/>
-    <mergeCell ref="AB18:AB25"/>
-    <mergeCell ref="AA13:AA16"/>
-    <mergeCell ref="Z13:Z16"/>
-    <mergeCell ref="AL18:AL25"/>
-    <mergeCell ref="AM18:AM25"/>
-    <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AD18:AD25"/>
-    <mergeCell ref="AG13:AG16"/>
-    <mergeCell ref="AC29:AL30"/>
-    <mergeCell ref="BF13:BF16"/>
-    <mergeCell ref="BC13:BC16"/>
-    <mergeCell ref="AK13:AK16"/>
-    <mergeCell ref="AF13:AF16"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="AP13:AP16"/>
-    <mergeCell ref="BQ27:BQ30"/>
-    <mergeCell ref="BI29:BK29"/>
-    <mergeCell ref="BI30:BK30"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="M18:M25"/>
-    <mergeCell ref="AF18:AF25"/>
-    <mergeCell ref="AG18:AG25"/>
-    <mergeCell ref="AH18:AH25"/>
-    <mergeCell ref="AU18:AU22"/>
-    <mergeCell ref="AO18:AO22"/>
-    <mergeCell ref="AI18:AI25"/>
-    <mergeCell ref="AJ18:AJ25"/>
-    <mergeCell ref="AK18:AK25"/>
-    <mergeCell ref="AP18:AP22"/>
-    <mergeCell ref="AQ18:AQ22"/>
-    <mergeCell ref="AR18:AR22"/>
-    <mergeCell ref="AS18:AS22"/>
-    <mergeCell ref="Y18:Y25"/>
-    <mergeCell ref="Z18:Z25"/>
-    <mergeCell ref="AA18:AA25"/>
-    <mergeCell ref="BE18:BE22"/>
-    <mergeCell ref="Y27:AU27"/>
-    <mergeCell ref="BB18:BB22"/>
-    <mergeCell ref="BA18:BA22"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="X18:X25"/>
-    <mergeCell ref="W18:W25"/>
-    <mergeCell ref="V18:V25"/>
-    <mergeCell ref="U18:U25"/>
-    <mergeCell ref="T18:T25"/>
-    <mergeCell ref="S18:S25"/>
-    <mergeCell ref="R18:R25"/>
-    <mergeCell ref="Q18:Q25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="X13:X16"/>
-    <mergeCell ref="L18:L25"/>
-    <mergeCell ref="K18:K25"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="AD13:AD16"/>
-    <mergeCell ref="AC13:AC16"/>
-    <mergeCell ref="AB13:AB16"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W7:AB7"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="AM2:AM5"/>
-    <mergeCell ref="AN13:AN16"/>
-    <mergeCell ref="AM13:AM16"/>
-    <mergeCell ref="AL13:AL16"/>
-    <mergeCell ref="AO13:AO16"/>
-    <mergeCell ref="AE13:AE16"/>
-    <mergeCell ref="AD7:AZ7"/>
-    <mergeCell ref="AU2:AU5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="AX2:AX5"/>
-    <mergeCell ref="AW2:AW5"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="AI2:AI5"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="AL2:AL5"/>
-    <mergeCell ref="AK2:AK5"/>
-    <mergeCell ref="AW11:AX13"/>
-    <mergeCell ref="AR13:AR16"/>
-    <mergeCell ref="AH13:AH16"/>
-    <mergeCell ref="AZ11:BS11"/>
-    <mergeCell ref="AJ13:AJ16"/>
-    <mergeCell ref="AS13:AS16"/>
-    <mergeCell ref="AT13:AT16"/>
-    <mergeCell ref="BD2:BD5"/>
-    <mergeCell ref="BC2:BC5"/>
-    <mergeCell ref="BB2:BB5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="BA2:BA6"/>
-    <mergeCell ref="AJ2:AJ5"/>
-    <mergeCell ref="AS2:AS5"/>
-    <mergeCell ref="AR2:AR5"/>
-    <mergeCell ref="AQ2:AQ5"/>
-    <mergeCell ref="AP2:AP5"/>
-    <mergeCell ref="AN2:AN5"/>
-    <mergeCell ref="AO2:AO5"/>
-    <mergeCell ref="AD2:AD5"/>
-    <mergeCell ref="AE2:AE5"/>
-    <mergeCell ref="AF2:AF5"/>
-    <mergeCell ref="BR2:BR5"/>
-    <mergeCell ref="BQ2:BQ5"/>
-    <mergeCell ref="BP2:BP5"/>
-    <mergeCell ref="BO2:BO5"/>
-    <mergeCell ref="BN2:BN5"/>
-    <mergeCell ref="BM2:BM5"/>
-    <mergeCell ref="BR13:BR16"/>
-    <mergeCell ref="BQ13:BQ16"/>
-    <mergeCell ref="BP13:BP16"/>
-    <mergeCell ref="BM13:BM16"/>
-    <mergeCell ref="BN13:BN16"/>
-    <mergeCell ref="BO13:BO16"/>
-    <mergeCell ref="BG9:BP10"/>
-    <mergeCell ref="BB7:BR7"/>
-    <mergeCell ref="BH12:BH16"/>
-    <mergeCell ref="BK13:BK16"/>
-    <mergeCell ref="BL13:BL16"/>
-    <mergeCell ref="BL2:BL5"/>
-    <mergeCell ref="BK2:BK5"/>
-    <mergeCell ref="BJ2:BJ5"/>
-    <mergeCell ref="BI2:BI5"/>
-    <mergeCell ref="BH2:BH5"/>
-    <mergeCell ref="BG2:BG5"/>
-    <mergeCell ref="BF2:BF5"/>
-    <mergeCell ref="AL1:AP1"/>
-    <mergeCell ref="AD1:AJ1"/>
-    <mergeCell ref="W9:AL10"/>
-    <mergeCell ref="AZ18:AZ22"/>
-    <mergeCell ref="AE18:AE25"/>
-    <mergeCell ref="AC2:AC6"/>
-    <mergeCell ref="BJ18:BJ22"/>
-    <mergeCell ref="BI18:BI22"/>
-    <mergeCell ref="Y11:AU11"/>
-    <mergeCell ref="AT18:AT22"/>
-    <mergeCell ref="AW14:AX23"/>
-    <mergeCell ref="AU12:AU16"/>
-    <mergeCell ref="AY13:AY16"/>
-    <mergeCell ref="BA13:BA16"/>
-    <mergeCell ref="BB13:BB16"/>
-    <mergeCell ref="AZ13:AZ16"/>
-    <mergeCell ref="BD13:BD16"/>
-    <mergeCell ref="AZ2:AZ5"/>
-    <mergeCell ref="AY2:AY5"/>
-    <mergeCell ref="AN18:AN25"/>
-    <mergeCell ref="BH18:BH22"/>
-    <mergeCell ref="BG18:BG22"/>
-    <mergeCell ref="BF18:BF22"/>
-    <mergeCell ref="BE2:BE5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turkplast-my.sharepoint.com/personal/bobin_depo_turkambalaj_com_tr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobın.ambar\Desktop\Yerleşim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E1C5BE-939D-634B-AD4D-4DF3FFEB19F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED0A8CA-96B1-4A45-B3F3-E8051AE2B630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1356,15 +1356,285 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1374,42 +1644,18 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1419,15 +1665,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1436,243 +1673,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1982,8 +1982,8 @@
   </sheetPr>
   <dimension ref="A1:BU2566"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BE13" sqref="BE13:BE16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,20 +1999,20 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="138"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
-      <c r="M1" s="136" t="s">
+      <c r="M1" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="138"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="91"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
       <c r="R1" s="32"/>
@@ -2027,25 +2027,25 @@
       <c r="AA1" s="32"/>
       <c r="AB1" s="32"/>
       <c r="AC1" s="32"/>
-      <c r="AD1" s="156" t="s">
+      <c r="AD1" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="156"/>
-      <c r="AH1" s="156"/>
-      <c r="AI1" s="156"/>
-      <c r="AJ1" s="156"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
       <c r="AK1" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="AL1" s="155">
-        <v>45885</v>
-      </c>
-      <c r="AM1" s="155"/>
-      <c r="AN1" s="155"/>
-      <c r="AO1" s="155"/>
-      <c r="AP1" s="155"/>
+      <c r="AL1" s="55">
+        <v>45887</v>
+      </c>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
       <c r="AQ1" s="32"/>
       <c r="AR1" s="32"/>
       <c r="AS1" s="50"/>
@@ -2089,161 +2089,161 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="139" t="s">
+      <c r="K2" s="103"/>
+      <c r="L2" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="124" t="s">
+      <c r="M2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="124" t="s">
+      <c r="N2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="124" t="s">
+      <c r="O2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="124" t="s">
+      <c r="P2" s="100"/>
+      <c r="Q2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="124" t="s">
+      <c r="R2" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="124" t="s">
+      <c r="S2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="124" t="s">
+      <c r="T2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="124" t="s">
+      <c r="U2" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="124" t="s">
+      <c r="V2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="128"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55" t="s">
+      <c r="W2" s="110"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62" t="s">
         <v>90</v>
       </c>
       <c r="AB2" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="AC2" s="157" t="s">
+      <c r="AC2" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55" t="s">
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="AG2" s="55" t="s">
+      <c r="AG2" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="55" t="s">
+      <c r="AH2" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" s="55" t="s">
+      <c r="AI2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="AJ2" s="55" t="s">
+      <c r="AJ2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AK2" s="55" t="s">
+      <c r="AK2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="55" t="s">
+      <c r="AL2" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="AM2" s="55" t="s">
+      <c r="AM2" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="AN2" s="55" t="s">
+      <c r="AN2" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="AO2" s="55" t="s">
+      <c r="AO2" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="AP2" s="55" t="s">
+      <c r="AP2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="AQ2" s="55" t="s">
+      <c r="AQ2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AR2" s="55" t="s">
+      <c r="AR2" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="AS2" s="55" t="s">
+      <c r="AS2" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="AT2" s="55" t="s">
+      <c r="AT2" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="AU2" s="55" t="s">
+      <c r="AU2" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AV2" s="55" t="s">
+      <c r="AV2" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="AW2" s="55" t="s">
+      <c r="AW2" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="AX2" s="55" t="s">
+      <c r="AX2" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="AY2" s="55" t="s">
+      <c r="AY2" s="62" t="s">
         <v>101</v>
       </c>
       <c r="AZ2" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="BA2" s="148" t="s">
+      <c r="BA2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="115" t="s">
+      <c r="BB2" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="BC2" s="55" t="s">
+      <c r="BC2" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="BD2" s="55" t="s">
+      <c r="BD2" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="BE2" s="55" t="s">
+      <c r="BE2" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="BF2" s="55" t="s">
+      <c r="BF2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="BG2" s="55"/>
-      <c r="BH2" s="55" t="s">
+      <c r="BG2" s="62"/>
+      <c r="BH2" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="BI2" s="55" t="s">
+      <c r="BI2" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="55" t="s">
+      <c r="BJ2" s="62"/>
+      <c r="BK2" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="BL2" s="55" t="s">
+      <c r="BL2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="BM2" s="55" t="s">
+      <c r="BM2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="BN2" s="55" t="s">
+      <c r="BN2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="BO2" s="55" t="s">
+      <c r="BO2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="BP2" s="55" t="s">
+      <c r="BP2" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="BQ2" s="55" t="s">
+      <c r="BQ2" s="62" t="s">
         <v>91</v>
       </c>
       <c r="BR2" s="76" t="s">
@@ -2258,135 +2258,135 @@
       <c r="B3" s="20"/>
       <c r="C3" s="51"/>
       <c r="D3" s="21"/>
-      <c r="K3" s="146"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
       <c r="AB3" s="77"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
       <c r="AZ3" s="77"/>
-      <c r="BA3" s="149"/>
-      <c r="BB3" s="116"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="56"/>
-      <c r="BG3" s="56"/>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="56"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="56"/>
-      <c r="BN3" s="56"/>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="56"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
       <c r="BR3" s="77"/>
       <c r="BT3" s="4"/>
       <c r="BU3" s="37"/>
     </row>
     <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39"/>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="135"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="111"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="63"/>
       <c r="AB4" s="77"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
       <c r="AZ4" s="77"/>
-      <c r="BA4" s="149"/>
-      <c r="BB4" s="116"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="56"/>
-      <c r="BG4" s="56"/>
-      <c r="BH4" s="56"/>
-      <c r="BI4" s="56"/>
-      <c r="BJ4" s="56"/>
-      <c r="BK4" s="56"/>
-      <c r="BL4" s="56"/>
-      <c r="BM4" s="56"/>
-      <c r="BN4" s="56"/>
-      <c r="BO4" s="56"/>
-      <c r="BP4" s="56"/>
-      <c r="BQ4" s="56"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="63"/>
+      <c r="BF4" s="63"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="63"/>
+      <c r="BI4" s="63"/>
+      <c r="BJ4" s="63"/>
+      <c r="BK4" s="63"/>
+      <c r="BL4" s="63"/>
+      <c r="BM4" s="63"/>
+      <c r="BN4" s="63"/>
+      <c r="BO4" s="63"/>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="63"/>
       <c r="BR4" s="77"/>
       <c r="BT4" s="4"/>
       <c r="BU4" s="37"/>
@@ -2396,65 +2396,65 @@
       <c r="B5" s="20"/>
       <c r="C5" s="51"/>
       <c r="D5" s="21"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
       <c r="AB5" s="77"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="116"/>
-      <c r="AE5" s="56"/>
-      <c r="AF5" s="56"/>
-      <c r="AG5" s="56"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63"/>
       <c r="AZ5" s="77"/>
-      <c r="BA5" s="149"/>
-      <c r="BB5" s="116"/>
-      <c r="BC5" s="56"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="56"/>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="56"/>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="56"/>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="56"/>
-      <c r="BN5" s="56"/>
-      <c r="BO5" s="56"/>
-      <c r="BP5" s="56"/>
-      <c r="BQ5" s="56"/>
+      <c r="BA5" s="73"/>
+      <c r="BB5" s="60"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="63"/>
+      <c r="BE5" s="63"/>
+      <c r="BF5" s="63"/>
+      <c r="BG5" s="63"/>
+      <c r="BH5" s="63"/>
+      <c r="BI5" s="63"/>
+      <c r="BJ5" s="63"/>
+      <c r="BK5" s="63"/>
+      <c r="BL5" s="63"/>
+      <c r="BM5" s="63"/>
+      <c r="BN5" s="63"/>
+      <c r="BO5" s="63"/>
+      <c r="BP5" s="63"/>
+      <c r="BQ5" s="63"/>
       <c r="BR5" s="77"/>
       <c r="BT5" s="4"/>
       <c r="BU5" s="37"/>
@@ -2520,7 +2520,7 @@
       <c r="AB6" s="43">
         <v>6</v>
       </c>
-      <c r="AC6" s="159"/>
+      <c r="AC6" s="66"/>
       <c r="AD6" s="47">
         <v>1</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="AZ6" s="43">
         <v>23</v>
       </c>
-      <c r="BA6" s="150"/>
+      <c r="BA6" s="74"/>
       <c r="BB6" s="47">
         <v>1</v>
       </c>
@@ -2647,135 +2647,135 @@
     </row>
     <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="39"/>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="W7" s="127" t="s">
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+      <c r="W7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="X7" s="127"/>
-      <c r="Y7" s="127"/>
-      <c r="Z7" s="127"/>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="127"/>
-      <c r="AD7" s="72" t="s">
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AD7" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="72"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="72"/>
-      <c r="BB7" s="72" t="s">
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BB7" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="72"/>
-      <c r="BJ7" s="72"/>
-      <c r="BK7" s="72"/>
-      <c r="BL7" s="72"/>
-      <c r="BM7" s="72"/>
-      <c r="BN7" s="72"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="72"/>
-      <c r="BQ7" s="72"/>
-      <c r="BR7" s="72"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="83"/>
+      <c r="BG7" s="83"/>
+      <c r="BH7" s="83"/>
+      <c r="BI7" s="83"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="83"/>
+      <c r="BL7" s="83"/>
+      <c r="BM7" s="83"/>
+      <c r="BN7" s="83"/>
+      <c r="BO7" s="83"/>
+      <c r="BP7" s="83"/>
+      <c r="BQ7" s="83"/>
+      <c r="BR7" s="83"/>
       <c r="BT7" s="4"/>
       <c r="BU7" s="37"/>
     </row>
     <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="111"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
       <c r="F8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="84"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
       <c r="V8" s="14"/>
       <c r="BT8" s="4"/>
       <c r="BU8" s="37"/>
     </row>
     <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
-      <c r="B9" s="109" t="s">
+      <c r="B9" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="114"/>
       <c r="F9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88" t="s">
+      <c r="I9" s="147"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="88"/>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="88"/>
-      <c r="AK9" s="88"/>
-      <c r="AL9" s="88"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
@@ -2796,18 +2796,18 @@
       <c r="BD9" s="9"/>
       <c r="BE9" s="9"/>
       <c r="BF9" s="9"/>
-      <c r="BG9" s="151" t="s">
+      <c r="BG9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="BH9" s="151"/>
-      <c r="BI9" s="151"/>
-      <c r="BJ9" s="151"/>
-      <c r="BK9" s="151"/>
-      <c r="BL9" s="151"/>
-      <c r="BM9" s="151"/>
-      <c r="BN9" s="151"/>
-      <c r="BO9" s="151"/>
-      <c r="BP9" s="151"/>
+      <c r="BH9" s="81"/>
+      <c r="BI9" s="81"/>
+      <c r="BJ9" s="81"/>
+      <c r="BK9" s="81"/>
+      <c r="BL9" s="81"/>
+      <c r="BM9" s="81"/>
+      <c r="BN9" s="81"/>
+      <c r="BO9" s="81"/>
+      <c r="BP9" s="81"/>
       <c r="BQ9" s="9"/>
       <c r="BR9" s="9"/>
       <c r="BS9" s="9"/>
@@ -2816,46 +2816,46 @@
     </row>
     <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="89"/>
-      <c r="AH10" s="89"/>
-      <c r="AI10" s="89"/>
-      <c r="AJ10" s="89"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="89"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
@@ -2876,16 +2876,16 @@
       <c r="BD10" s="7"/>
       <c r="BE10" s="7"/>
       <c r="BF10" s="7"/>
-      <c r="BG10" s="152"/>
-      <c r="BH10" s="152"/>
-      <c r="BI10" s="152"/>
-      <c r="BJ10" s="152"/>
-      <c r="BK10" s="152"/>
-      <c r="BL10" s="152"/>
-      <c r="BM10" s="152"/>
-      <c r="BN10" s="152"/>
-      <c r="BO10" s="152"/>
-      <c r="BP10" s="152"/>
+      <c r="BG10" s="82"/>
+      <c r="BH10" s="82"/>
+      <c r="BI10" s="82"/>
+      <c r="BJ10" s="82"/>
+      <c r="BK10" s="82"/>
+      <c r="BL10" s="82"/>
+      <c r="BM10" s="82"/>
+      <c r="BN10" s="82"/>
+      <c r="BO10" s="82"/>
+      <c r="BP10" s="82"/>
       <c r="BQ10" s="7"/>
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
@@ -2894,84 +2894,84 @@
     </row>
     <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="39"/>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
       <c r="F11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="85"/>
-      <c r="I11" s="87"/>
-      <c r="Y11" s="132" t="s">
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="Y11" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="132"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="132"/>
-      <c r="AJ11" s="132"/>
-      <c r="AK11" s="132"/>
-      <c r="AL11" s="132"/>
-      <c r="AM11" s="132"/>
-      <c r="AN11" s="132"/>
-      <c r="AO11" s="132"/>
-      <c r="AP11" s="132"/>
-      <c r="AQ11" s="132"/>
-      <c r="AR11" s="132"/>
-      <c r="AS11" s="132"/>
-      <c r="AT11" s="132"/>
-      <c r="AU11" s="132"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="68"/>
+      <c r="AU11" s="68"/>
       <c r="AV11" s="16"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="84"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="107"/>
       <c r="AY11" s="16"/>
-      <c r="AZ11" s="132" t="s">
+      <c r="AZ11" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="BA11" s="132"/>
-      <c r="BB11" s="132"/>
-      <c r="BC11" s="132"/>
-      <c r="BD11" s="132"/>
-      <c r="BE11" s="132"/>
-      <c r="BF11" s="132"/>
-      <c r="BG11" s="132"/>
-      <c r="BH11" s="132"/>
-      <c r="BI11" s="132"/>
-      <c r="BJ11" s="132"/>
-      <c r="BK11" s="132"/>
-      <c r="BL11" s="132"/>
-      <c r="BM11" s="132"/>
-      <c r="BN11" s="132"/>
-      <c r="BO11" s="132"/>
-      <c r="BP11" s="132"/>
-      <c r="BQ11" s="132"/>
-      <c r="BR11" s="132"/>
-      <c r="BS11" s="132"/>
+      <c r="BA11" s="68"/>
+      <c r="BB11" s="68"/>
+      <c r="BC11" s="68"/>
+      <c r="BD11" s="68"/>
+      <c r="BE11" s="68"/>
+      <c r="BF11" s="68"/>
+      <c r="BG11" s="68"/>
+      <c r="BH11" s="68"/>
+      <c r="BI11" s="68"/>
+      <c r="BJ11" s="68"/>
+      <c r="BK11" s="68"/>
+      <c r="BL11" s="68"/>
+      <c r="BM11" s="68"/>
+      <c r="BN11" s="68"/>
+      <c r="BO11" s="68"/>
+      <c r="BP11" s="68"/>
+      <c r="BQ11" s="68"/>
+      <c r="BR11" s="68"/>
+      <c r="BS11" s="68"/>
       <c r="BT11" s="4"/>
       <c r="BU11" s="37"/>
     </row>
     <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="87"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
       <c r="X12" s="24">
         <v>23</v>
       </c>
@@ -3005,7 +3005,7 @@
       <c r="AH12" s="26">
         <v>13</v>
       </c>
-      <c r="AI12" s="79" t="s">
+      <c r="AI12" s="158" t="s">
         <v>11</v>
       </c>
       <c r="AJ12" s="26">
@@ -3041,11 +3041,11 @@
       <c r="AT12" s="28">
         <v>2</v>
       </c>
-      <c r="AU12" s="148" t="s">
+      <c r="AU12" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="84"/>
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="107"/>
       <c r="AZ12" s="47">
         <v>1</v>
       </c>
@@ -3070,7 +3070,7 @@
       <c r="BG12" s="42">
         <v>8</v>
       </c>
-      <c r="BH12" s="148" t="s">
+      <c r="BH12" s="72" t="s">
         <v>11</v>
       </c>
       <c r="BI12" s="26">
@@ -3111,112 +3111,112 @@
     </row>
     <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="111"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="87"/>
-      <c r="X13" s="115" t="s">
+      <c r="H13" s="70"/>
+      <c r="I13" s="71"/>
+      <c r="X13" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="Y13" s="55" t="s">
+      <c r="Y13" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="Z13" s="55" t="s">
+      <c r="Z13" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="AA13" s="55" t="s">
+      <c r="AA13" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55" t="s">
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="AD13" s="55" t="s">
+      <c r="AD13" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="80"/>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="55" t="s">
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="159"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="62"/>
+      <c r="AN13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="AO13" s="55" t="s">
+      <c r="AO13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="AP13" s="55" t="s">
+      <c r="AP13" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="AQ13" s="55" t="s">
+      <c r="AQ13" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AR13" s="55" t="s">
+      <c r="AR13" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="AS13" s="55" t="s">
+      <c r="AS13" s="62" t="s">
         <v>52</v>
       </c>
       <c r="AT13" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AU13" s="149"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="84"/>
-      <c r="AY13" s="160"/>
-      <c r="AZ13" s="115" t="s">
+      <c r="AU13" s="73"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="107"/>
+      <c r="AY13" s="75"/>
+      <c r="AZ13" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="BA13" s="55" t="s">
+      <c r="BA13" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="BB13" s="55"/>
-      <c r="BC13" s="55" t="s">
+      <c r="BB13" s="62"/>
+      <c r="BC13" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="BD13" s="55" t="s">
+      <c r="BD13" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="BE13" s="55" t="s">
+      <c r="BE13" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="BF13" s="55" t="s">
+      <c r="BF13" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="BG13" s="55" t="s">
+      <c r="BG13" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="BH13" s="153"/>
-      <c r="BI13" s="58"/>
-      <c r="BJ13" s="61"/>
-      <c r="BK13" s="61"/>
-      <c r="BL13" s="61"/>
-      <c r="BM13" s="61"/>
-      <c r="BN13" s="61"/>
-      <c r="BO13" s="61" t="s">
+      <c r="BH13" s="84"/>
+      <c r="BI13" s="148"/>
+      <c r="BJ13" s="78"/>
+      <c r="BK13" s="78"/>
+      <c r="BL13" s="78"/>
+      <c r="BM13" s="78"/>
+      <c r="BN13" s="78"/>
+      <c r="BO13" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="BP13" s="61" t="s">
+      <c r="BP13" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="BQ13" s="61" t="s">
+      <c r="BQ13" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="BR13" s="61" t="s">
+      <c r="BR13" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="BS13" s="73" t="s">
+      <c r="BS13" s="155" t="s">
         <v>61</v>
       </c>
       <c r="BT13" s="4"/>
@@ -3224,364 +3224,364 @@
     </row>
     <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
       <c r="F14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="87"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="80"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="56"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="56"/>
-      <c r="AS14" s="56"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="63"/>
+      <c r="AE14" s="63"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="63"/>
+      <c r="AH14" s="63"/>
+      <c r="AI14" s="159"/>
+      <c r="AJ14" s="63"/>
+      <c r="AK14" s="63"/>
+      <c r="AL14" s="63"/>
+      <c r="AM14" s="63"/>
+      <c r="AN14" s="63"/>
+      <c r="AO14" s="63"/>
+      <c r="AP14" s="63"/>
+      <c r="AQ14" s="63"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="63"/>
       <c r="AT14" s="77"/>
-      <c r="AU14" s="149"/>
-      <c r="AW14" s="85" t="s">
+      <c r="AU14" s="73"/>
+      <c r="AW14" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AX14" s="87"/>
-      <c r="AY14" s="160"/>
-      <c r="AZ14" s="116"/>
-      <c r="BA14" s="56"/>
-      <c r="BB14" s="56"/>
-      <c r="BC14" s="56"/>
-      <c r="BD14" s="56"/>
-      <c r="BE14" s="56"/>
-      <c r="BF14" s="56"/>
-      <c r="BG14" s="56"/>
-      <c r="BH14" s="153"/>
-      <c r="BI14" s="59"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="62"/>
-      <c r="BL14" s="62"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="62"/>
-      <c r="BP14" s="62"/>
-      <c r="BQ14" s="62"/>
-      <c r="BR14" s="62"/>
-      <c r="BS14" s="74"/>
+      <c r="AX14" s="71"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
+      <c r="BC14" s="63"/>
+      <c r="BD14" s="63"/>
+      <c r="BE14" s="63"/>
+      <c r="BF14" s="63"/>
+      <c r="BG14" s="63"/>
+      <c r="BH14" s="84"/>
+      <c r="BI14" s="149"/>
+      <c r="BJ14" s="79"/>
+      <c r="BK14" s="79"/>
+      <c r="BL14" s="79"/>
+      <c r="BM14" s="79"/>
+      <c r="BN14" s="79"/>
+      <c r="BO14" s="79"/>
+      <c r="BP14" s="79"/>
+      <c r="BQ14" s="79"/>
+      <c r="BR14" s="79"/>
+      <c r="BS14" s="156"/>
       <c r="BT14" s="4"/>
       <c r="BU14" s="37"/>
     </row>
     <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
       <c r="F15" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="87"/>
-      <c r="X15" s="116"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="80"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="56"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="159"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="63"/>
       <c r="AT15" s="77"/>
-      <c r="AU15" s="149"/>
-      <c r="AW15" s="85"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="160"/>
-      <c r="AZ15" s="116"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="56"/>
-      <c r="BC15" s="56"/>
-      <c r="BD15" s="56"/>
-      <c r="BE15" s="56"/>
-      <c r="BF15" s="56"/>
-      <c r="BG15" s="56"/>
-      <c r="BH15" s="153"/>
-      <c r="BI15" s="59"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="62"/>
-      <c r="BL15" s="62"/>
-      <c r="BM15" s="62"/>
-      <c r="BN15" s="62"/>
-      <c r="BO15" s="62"/>
-      <c r="BP15" s="62"/>
-      <c r="BQ15" s="62"/>
-      <c r="BR15" s="62"/>
-      <c r="BS15" s="74"/>
+      <c r="AU15" s="73"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="71"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="60"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+      <c r="BC15" s="63"/>
+      <c r="BD15" s="63"/>
+      <c r="BE15" s="63"/>
+      <c r="BF15" s="63"/>
+      <c r="BG15" s="63"/>
+      <c r="BH15" s="84"/>
+      <c r="BI15" s="149"/>
+      <c r="BJ15" s="79"/>
+      <c r="BK15" s="79"/>
+      <c r="BL15" s="79"/>
+      <c r="BM15" s="79"/>
+      <c r="BN15" s="79"/>
+      <c r="BO15" s="79"/>
+      <c r="BP15" s="79"/>
+      <c r="BQ15" s="79"/>
+      <c r="BR15" s="79"/>
+      <c r="BS15" s="156"/>
       <c r="BT15" s="4"/>
       <c r="BU15" s="37"/>
     </row>
     <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="87"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="150"/>
-      <c r="AW16" s="85"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="160"/>
-      <c r="AZ16" s="117"/>
-      <c r="BA16" s="57"/>
-      <c r="BB16" s="57"/>
-      <c r="BC16" s="57"/>
-      <c r="BD16" s="57"/>
-      <c r="BE16" s="57"/>
-      <c r="BF16" s="57"/>
-      <c r="BG16" s="57"/>
-      <c r="BH16" s="154"/>
-      <c r="BI16" s="60"/>
-      <c r="BJ16" s="63"/>
-      <c r="BK16" s="63"/>
-      <c r="BL16" s="63"/>
-      <c r="BM16" s="63"/>
-      <c r="BN16" s="63"/>
-      <c r="BO16" s="63"/>
-      <c r="BP16" s="63"/>
-      <c r="BQ16" s="63"/>
-      <c r="BR16" s="63"/>
-      <c r="BS16" s="75"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="67"/>
+      <c r="Z16" s="67"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="67"/>
+      <c r="AI16" s="160"/>
+      <c r="AJ16" s="67"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="67"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="67"/>
+      <c r="AP16" s="67"/>
+      <c r="AQ16" s="67"/>
+      <c r="AR16" s="67"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="108"/>
+      <c r="AU16" s="74"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="67"/>
+      <c r="BB16" s="67"/>
+      <c r="BC16" s="67"/>
+      <c r="BD16" s="67"/>
+      <c r="BE16" s="67"/>
+      <c r="BF16" s="67"/>
+      <c r="BG16" s="67"/>
+      <c r="BH16" s="85"/>
+      <c r="BI16" s="150"/>
+      <c r="BJ16" s="80"/>
+      <c r="BK16" s="80"/>
+      <c r="BL16" s="80"/>
+      <c r="BM16" s="80"/>
+      <c r="BN16" s="80"/>
+      <c r="BO16" s="80"/>
+      <c r="BP16" s="80"/>
+      <c r="BQ16" s="80"/>
+      <c r="BR16" s="80"/>
+      <c r="BS16" s="157"/>
       <c r="BT16" s="4"/>
       <c r="BU16" s="37"/>
     </row>
     <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="85"/>
-      <c r="I17" s="87"/>
-      <c r="AW17" s="85"/>
-      <c r="AX17" s="87"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="71"/>
       <c r="BT17" s="4"/>
       <c r="BU17" s="37"/>
     </row>
     <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="111"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="114"/>
       <c r="F18" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="87"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="97" t="s">
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="N18" s="61" t="s">
+      <c r="N18" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="O18" s="61" t="s">
+      <c r="O18" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="P18" s="61" t="s">
+      <c r="P18" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="Q18" s="61" t="s">
+      <c r="Q18" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="R18" s="61" t="s">
+      <c r="R18" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="S18" s="61" t="s">
+      <c r="S18" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="T18" s="61" t="s">
+      <c r="T18" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="U18" s="61" t="s">
+      <c r="U18" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="61" t="s">
+      <c r="V18" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="W18" s="61" t="s">
+      <c r="W18" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="X18" s="61" t="s">
+      <c r="X18" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="Y18" s="55" t="s">
+      <c r="Y18" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55" t="s">
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="AC18" s="55" t="s">
+      <c r="AC18" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="AD18" s="55" t="s">
+      <c r="AD18" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" s="55" t="s">
+      <c r="AE18" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" s="55" t="s">
+      <c r="AF18" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="AG18" s="55" t="s">
+      <c r="AG18" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="AH18" s="55" t="s">
+      <c r="AH18" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="AI18" s="55" t="s">
+      <c r="AI18" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AJ18" s="55" t="s">
+      <c r="AJ18" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="AK18" s="55" t="s">
+      <c r="AK18" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="AL18" s="55" t="s">
+      <c r="AL18" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="AM18" s="55" t="s">
+      <c r="AM18" s="62" t="s">
         <v>59</v>
       </c>
       <c r="AN18" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="AO18" s="101"/>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="55"/>
-      <c r="AR18" s="55" t="s">
+      <c r="AO18" s="141"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="AS18" s="55" t="s">
+      <c r="AS18" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="AT18" s="55"/>
+      <c r="AT18" s="62"/>
       <c r="AU18" s="76"/>
-      <c r="AW18" s="85"/>
-      <c r="AX18" s="87"/>
-      <c r="AZ18" s="115" t="s">
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="71"/>
+      <c r="AZ18" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="BA18" s="55" t="s">
+      <c r="BA18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="BB18" s="55" t="s">
+      <c r="BB18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="BC18" s="55" t="s">
+      <c r="BC18" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="BD18" s="55" t="s">
+      <c r="BD18" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="BE18" s="55" t="s">
+      <c r="BE18" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="BF18" s="55" t="s">
+      <c r="BF18" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="BG18" s="55"/>
-      <c r="BH18" s="55"/>
-      <c r="BI18" s="55" t="s">
+      <c r="BG18" s="62"/>
+      <c r="BH18" s="62"/>
+      <c r="BI18" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="BJ18" s="55" t="s">
+      <c r="BJ18" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="BK18" s="55" t="s">
+      <c r="BK18" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="BL18" s="55" t="s">
+      <c r="BL18" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="BM18" s="55"/>
-      <c r="BN18" s="55"/>
-      <c r="BO18" s="55"/>
-      <c r="BP18" s="55" t="s">
+      <c r="BM18" s="62"/>
+      <c r="BN18" s="62"/>
+      <c r="BO18" s="62"/>
+      <c r="BP18" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="BQ18" s="55" t="s">
+      <c r="BQ18" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="BR18" s="55"/>
+      <c r="BR18" s="62"/>
       <c r="BS18" s="76" t="s">
         <v>85</v>
       </c>
@@ -3590,73 +3590,73 @@
     </row>
     <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="87"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="71"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
       <c r="AN19" s="77"/>
-      <c r="AO19" s="102"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="56"/>
+      <c r="AO19" s="142"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="63"/>
       <c r="AU19" s="77"/>
-      <c r="AW19" s="85"/>
-      <c r="AX19" s="87"/>
-      <c r="AZ19" s="116"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="56"/>
-      <c r="BP19" s="56"/>
-      <c r="BQ19" s="56"/>
-      <c r="BR19" s="56"/>
+      <c r="AW19" s="70"/>
+      <c r="AX19" s="71"/>
+      <c r="AZ19" s="60"/>
+      <c r="BA19" s="63"/>
+      <c r="BB19" s="63"/>
+      <c r="BC19" s="63"/>
+      <c r="BD19" s="63"/>
+      <c r="BE19" s="63"/>
+      <c r="BF19" s="63"/>
+      <c r="BG19" s="63"/>
+      <c r="BH19" s="63"/>
+      <c r="BI19" s="63"/>
+      <c r="BJ19" s="63"/>
+      <c r="BK19" s="63"/>
+      <c r="BL19" s="63"/>
+      <c r="BM19" s="63"/>
+      <c r="BN19" s="63"/>
+      <c r="BO19" s="63"/>
+      <c r="BP19" s="63"/>
+      <c r="BQ19" s="63"/>
+      <c r="BR19" s="63"/>
       <c r="BS19" s="77"/>
       <c r="BT19" s="4"/>
       <c r="BU19" s="37"/>
@@ -3664,66 +3664,66 @@
     <row r="20" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
       <c r="B20" s="12"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="87"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
       <c r="AN20" s="77"/>
-      <c r="AO20" s="102"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="56"/>
-      <c r="AT20" s="56"/>
+      <c r="AO20" s="142"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
       <c r="AU20" s="77"/>
-      <c r="AW20" s="85"/>
-      <c r="AX20" s="87"/>
-      <c r="AZ20" s="116"/>
-      <c r="BA20" s="56"/>
-      <c r="BB20" s="56"/>
-      <c r="BC20" s="56"/>
-      <c r="BD20" s="56"/>
-      <c r="BE20" s="56"/>
-      <c r="BF20" s="56"/>
-      <c r="BG20" s="56"/>
-      <c r="BH20" s="56"/>
-      <c r="BI20" s="56"/>
-      <c r="BJ20" s="56"/>
-      <c r="BK20" s="56"/>
-      <c r="BL20" s="56"/>
-      <c r="BM20" s="56"/>
-      <c r="BN20" s="56"/>
-      <c r="BO20" s="56"/>
-      <c r="BP20" s="56"/>
-      <c r="BQ20" s="56"/>
-      <c r="BR20" s="56"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="71"/>
+      <c r="AZ20" s="60"/>
+      <c r="BA20" s="63"/>
+      <c r="BB20" s="63"/>
+      <c r="BC20" s="63"/>
+      <c r="BD20" s="63"/>
+      <c r="BE20" s="63"/>
+      <c r="BF20" s="63"/>
+      <c r="BG20" s="63"/>
+      <c r="BH20" s="63"/>
+      <c r="BI20" s="63"/>
+      <c r="BJ20" s="63"/>
+      <c r="BK20" s="63"/>
+      <c r="BL20" s="63"/>
+      <c r="BM20" s="63"/>
+      <c r="BN20" s="63"/>
+      <c r="BO20" s="63"/>
+      <c r="BP20" s="63"/>
+      <c r="BQ20" s="63"/>
+      <c r="BR20" s="63"/>
       <c r="BS20" s="77"/>
       <c r="BT20" s="4"/>
       <c r="BU20" s="37"/>
@@ -3731,66 +3731,66 @@
     <row r="21" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
       <c r="B21" s="12"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="87"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="63"/>
       <c r="AN21" s="77"/>
-      <c r="AO21" s="102"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="56"/>
-      <c r="AR21" s="56"/>
-      <c r="AS21" s="56"/>
-      <c r="AT21" s="56"/>
+      <c r="AO21" s="142"/>
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="63"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="63"/>
       <c r="AU21" s="77"/>
-      <c r="AW21" s="85"/>
-      <c r="AX21" s="87"/>
-      <c r="AZ21" s="116"/>
-      <c r="BA21" s="56"/>
-      <c r="BB21" s="56"/>
-      <c r="BC21" s="56"/>
-      <c r="BD21" s="56"/>
-      <c r="BE21" s="56"/>
-      <c r="BF21" s="56"/>
-      <c r="BG21" s="56"/>
-      <c r="BH21" s="56"/>
-      <c r="BI21" s="56"/>
-      <c r="BJ21" s="56"/>
-      <c r="BK21" s="56"/>
-      <c r="BL21" s="56"/>
-      <c r="BM21" s="56"/>
-      <c r="BN21" s="56"/>
-      <c r="BO21" s="56"/>
-      <c r="BP21" s="56"/>
-      <c r="BQ21" s="56"/>
-      <c r="BR21" s="56"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="71"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="63"/>
+      <c r="BB21" s="63"/>
+      <c r="BC21" s="63"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
+      <c r="BF21" s="63"/>
+      <c r="BG21" s="63"/>
+      <c r="BH21" s="63"/>
+      <c r="BI21" s="63"/>
+      <c r="BJ21" s="63"/>
+      <c r="BK21" s="63"/>
+      <c r="BL21" s="63"/>
+      <c r="BM21" s="63"/>
+      <c r="BN21" s="63"/>
+      <c r="BO21" s="63"/>
+      <c r="BP21" s="63"/>
+      <c r="BQ21" s="63"/>
+      <c r="BR21" s="63"/>
       <c r="BS21" s="77"/>
       <c r="BT21" s="4"/>
       <c r="BU21" s="37"/>
@@ -3798,104 +3798,104 @@
     <row r="22" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="12"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="87"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="56"/>
-      <c r="AH22" s="56"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="63"/>
       <c r="AN22" s="77"/>
-      <c r="AO22" s="103"/>
-      <c r="AP22" s="104"/>
-      <c r="AQ22" s="104"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="104"/>
-      <c r="AT22" s="104"/>
-      <c r="AU22" s="100"/>
-      <c r="AW22" s="85"/>
-      <c r="AX22" s="87"/>
-      <c r="AZ22" s="117"/>
-      <c r="BA22" s="57"/>
-      <c r="BB22" s="57"/>
-      <c r="BC22" s="57"/>
-      <c r="BD22" s="57"/>
-      <c r="BE22" s="57"/>
-      <c r="BF22" s="57"/>
-      <c r="BG22" s="57"/>
-      <c r="BH22" s="57"/>
-      <c r="BI22" s="57"/>
-      <c r="BJ22" s="57"/>
-      <c r="BK22" s="57"/>
-      <c r="BL22" s="57"/>
-      <c r="BM22" s="57"/>
-      <c r="BN22" s="57"/>
-      <c r="BO22" s="57"/>
-      <c r="BP22" s="57"/>
-      <c r="BQ22" s="57"/>
-      <c r="BR22" s="57"/>
-      <c r="BS22" s="78"/>
+      <c r="AO22" s="143"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="69"/>
+      <c r="AS22" s="69"/>
+      <c r="AT22" s="69"/>
+      <c r="AU22" s="140"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="71"/>
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="67"/>
+      <c r="BB22" s="67"/>
+      <c r="BC22" s="67"/>
+      <c r="BD22" s="67"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="67"/>
+      <c r="BG22" s="67"/>
+      <c r="BH22" s="67"/>
+      <c r="BI22" s="67"/>
+      <c r="BJ22" s="67"/>
+      <c r="BK22" s="67"/>
+      <c r="BL22" s="67"/>
+      <c r="BM22" s="67"/>
+      <c r="BN22" s="67"/>
+      <c r="BO22" s="67"/>
+      <c r="BP22" s="67"/>
+      <c r="BQ22" s="67"/>
+      <c r="BR22" s="67"/>
+      <c r="BS22" s="108"/>
       <c r="BT22" s="4"/>
       <c r="BU22" s="37"/>
     </row>
     <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="12"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="87"/>
-      <c r="K23" s="122"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="56"/>
-      <c r="AL23" s="56"/>
-      <c r="AM23" s="56"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="63"/>
       <c r="AN23" s="77"/>
       <c r="AO23" s="29">
         <v>17</v>
@@ -3918,8 +3918,8 @@
       <c r="AU23" s="23">
         <v>23</v>
       </c>
-      <c r="AW23" s="85"/>
-      <c r="AX23" s="87"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="71"/>
       <c r="AZ23" s="47">
         <v>1</v>
       </c>
@@ -3986,37 +3986,37 @@
     <row r="24" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="39"/>
       <c r="B24" s="12"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="87"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
-      <c r="AF24" s="56"/>
-      <c r="AG24" s="56"/>
-      <c r="AH24" s="56"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="56"/>
-      <c r="AL24" s="56"/>
-      <c r="AM24" s="56"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="63"/>
       <c r="AN24" s="77"/>
       <c r="AO24" s="53"/>
       <c r="AP24" s="53"/>
@@ -4027,65 +4027,65 @@
       <c r="AU24" s="53"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="5"/>
-      <c r="AZ24" s="72" t="s">
+      <c r="AZ24" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="BA24" s="72"/>
-      <c r="BB24" s="72"/>
-      <c r="BC24" s="72"/>
-      <c r="BD24" s="72"/>
-      <c r="BE24" s="72"/>
-      <c r="BF24" s="72"/>
-      <c r="BG24" s="72"/>
-      <c r="BH24" s="72"/>
-      <c r="BI24" s="72"/>
-      <c r="BJ24" s="72"/>
-      <c r="BK24" s="72"/>
-      <c r="BL24" s="72"/>
-      <c r="BM24" s="72"/>
-      <c r="BN24" s="72"/>
-      <c r="BO24" s="72"/>
-      <c r="BP24" s="72"/>
-      <c r="BQ24" s="72"/>
-      <c r="BR24" s="72"/>
-      <c r="BS24" s="72"/>
+      <c r="BA24" s="83"/>
+      <c r="BB24" s="83"/>
+      <c r="BC24" s="83"/>
+      <c r="BD24" s="83"/>
+      <c r="BE24" s="83"/>
+      <c r="BF24" s="83"/>
+      <c r="BG24" s="83"/>
+      <c r="BH24" s="83"/>
+      <c r="BI24" s="83"/>
+      <c r="BJ24" s="83"/>
+      <c r="BK24" s="83"/>
+      <c r="BL24" s="83"/>
+      <c r="BM24" s="83"/>
+      <c r="BN24" s="83"/>
+      <c r="BO24" s="83"/>
+      <c r="BP24" s="83"/>
+      <c r="BQ24" s="83"/>
+      <c r="BR24" s="83"/>
+      <c r="BS24" s="83"/>
       <c r="BT24" s="4"/>
       <c r="BU24" s="37"/>
     </row>
     <row r="25" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="12"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="87"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="120"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
       <c r="AN25" s="77"/>
       <c r="AO25" s="53"/>
       <c r="AP25" s="53"/>
@@ -4102,8 +4102,8 @@
     <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39"/>
       <c r="B26" s="12"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="87"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
       <c r="K26" s="40" t="s">
         <v>12</v>
       </c>
@@ -4209,101 +4209,101 @@
     <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="39"/>
       <c r="B27" s="12"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="87"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="71"/>
       <c r="X27" s="16"/>
-      <c r="Y27" s="105" t="s">
+      <c r="Y27" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="105"/>
-      <c r="AC27" s="105"/>
-      <c r="AD27" s="105"/>
-      <c r="AE27" s="105"/>
-      <c r="AF27" s="105"/>
-      <c r="AG27" s="105"/>
-      <c r="AH27" s="105"/>
-      <c r="AI27" s="105"/>
-      <c r="AJ27" s="105"/>
-      <c r="AK27" s="105"/>
-      <c r="AL27" s="105"/>
-      <c r="AM27" s="105"/>
-      <c r="AN27" s="105"/>
-      <c r="AO27" s="105"/>
-      <c r="AP27" s="105"/>
-      <c r="AQ27" s="105"/>
-      <c r="AR27" s="105"/>
-      <c r="AS27" s="105"/>
-      <c r="AT27" s="105"/>
-      <c r="AU27" s="105"/>
+      <c r="Z27" s="144"/>
+      <c r="AA27" s="144"/>
+      <c r="AB27" s="144"/>
+      <c r="AC27" s="144"/>
+      <c r="AD27" s="144"/>
+      <c r="AE27" s="144"/>
+      <c r="AF27" s="144"/>
+      <c r="AG27" s="144"/>
+      <c r="AH27" s="144"/>
+      <c r="AI27" s="144"/>
+      <c r="AJ27" s="144"/>
+      <c r="AK27" s="144"/>
+      <c r="AL27" s="144"/>
+      <c r="AM27" s="144"/>
+      <c r="AN27" s="144"/>
+      <c r="AO27" s="144"/>
+      <c r="AP27" s="144"/>
+      <c r="AQ27" s="144"/>
+      <c r="AR27" s="144"/>
+      <c r="AS27" s="144"/>
+      <c r="AT27" s="144"/>
+      <c r="AU27" s="144"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="5"/>
-      <c r="AZ27" s="69"/>
-      <c r="BB27" s="69"/>
-      <c r="BF27" s="69"/>
-      <c r="BH27" s="69"/>
-      <c r="BL27" s="69"/>
-      <c r="BN27" s="69"/>
-      <c r="BQ27" s="69"/>
-      <c r="BS27" s="69"/>
+      <c r="AZ27" s="128"/>
+      <c r="BB27" s="128"/>
+      <c r="BF27" s="128"/>
+      <c r="BH27" s="128"/>
+      <c r="BL27" s="128"/>
+      <c r="BN27" s="128"/>
+      <c r="BQ27" s="128"/>
+      <c r="BS27" s="128"/>
       <c r="BT27" s="4"/>
       <c r="BU27" s="37"/>
     </row>
     <row r="28" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="12"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="87"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="71"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="5"/>
-      <c r="AZ28" s="70"/>
-      <c r="BB28" s="70"/>
-      <c r="BF28" s="70"/>
-      <c r="BH28" s="70"/>
-      <c r="BL28" s="70"/>
-      <c r="BN28" s="70"/>
-      <c r="BQ28" s="70"/>
-      <c r="BS28" s="70"/>
+      <c r="AZ28" s="129"/>
+      <c r="BB28" s="129"/>
+      <c r="BF28" s="129"/>
+      <c r="BH28" s="129"/>
+      <c r="BL28" s="129"/>
+      <c r="BN28" s="129"/>
+      <c r="BQ28" s="129"/>
+      <c r="BS28" s="129"/>
       <c r="BT28" s="4"/>
       <c r="BU28" s="37"/>
     </row>
     <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="12"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="151"/>
+      <c r="N29" s="151"/>
+      <c r="O29" s="151"/>
+      <c r="P29" s="151"/>
+      <c r="Q29" s="151"/>
+      <c r="R29" s="151"/>
+      <c r="S29" s="151"/>
+      <c r="T29" s="151"/>
+      <c r="U29" s="151"/>
+      <c r="V29" s="151"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="88" t="s">
+      <c r="AC29" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="88"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9"/>
       <c r="AO29" s="9"/>
@@ -4317,28 +4317,28 @@
       <c r="AW29" s="52"/>
       <c r="AX29" s="52"/>
       <c r="AY29" s="9"/>
-      <c r="AZ29" s="70"/>
+      <c r="AZ29" s="129"/>
       <c r="BA29" s="9"/>
-      <c r="BB29" s="70"/>
+      <c r="BB29" s="129"/>
       <c r="BC29" s="9"/>
       <c r="BD29" s="9"/>
       <c r="BE29" s="9"/>
-      <c r="BF29" s="70"/>
+      <c r="BF29" s="129"/>
       <c r="BG29" s="9"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="90" t="s">
+      <c r="BH29" s="129"/>
+      <c r="BI29" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="BJ29" s="91"/>
-      <c r="BK29" s="92"/>
-      <c r="BL29" s="70"/>
+      <c r="BJ29" s="132"/>
+      <c r="BK29" s="133"/>
+      <c r="BL29" s="129"/>
       <c r="BM29" s="30"/>
-      <c r="BN29" s="70"/>
+      <c r="BN29" s="129"/>
       <c r="BO29" s="30"/>
       <c r="BP29" s="9"/>
-      <c r="BQ29" s="70"/>
+      <c r="BQ29" s="129"/>
       <c r="BR29" s="9"/>
-      <c r="BS29" s="70"/>
+      <c r="BS29" s="129"/>
       <c r="BT29" s="10"/>
       <c r="BU29" s="37"/>
     </row>
@@ -4350,37 +4350,37 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="152"/>
+      <c r="Q30" s="152"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="152"/>
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
-      <c r="AE30" s="89"/>
-      <c r="AF30" s="89"/>
-      <c r="AG30" s="89"/>
-      <c r="AH30" s="89"/>
-      <c r="AI30" s="89"/>
-      <c r="AJ30" s="89"/>
-      <c r="AK30" s="89"/>
-      <c r="AL30" s="89"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="58"/>
+      <c r="AJ30" s="58"/>
+      <c r="AK30" s="58"/>
+      <c r="AL30" s="58"/>
       <c r="AM30" s="7"/>
       <c r="AN30" s="7"/>
       <c r="AO30" s="7"/>
@@ -4394,28 +4394,28 @@
       <c r="AW30" s="7"/>
       <c r="AX30" s="7"/>
       <c r="AY30" s="7"/>
-      <c r="AZ30" s="71"/>
+      <c r="AZ30" s="130"/>
       <c r="BA30" s="7"/>
-      <c r="BB30" s="71"/>
+      <c r="BB30" s="130"/>
       <c r="BC30" s="7"/>
       <c r="BD30" s="7"/>
       <c r="BE30" s="7"/>
-      <c r="BF30" s="71"/>
+      <c r="BF30" s="130"/>
       <c r="BG30" s="7"/>
-      <c r="BH30" s="71"/>
-      <c r="BI30" s="93" t="s">
+      <c r="BH30" s="130"/>
+      <c r="BI30" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="BJ30" s="94"/>
-      <c r="BK30" s="95"/>
-      <c r="BL30" s="71"/>
+      <c r="BJ30" s="135"/>
+      <c r="BK30" s="136"/>
+      <c r="BL30" s="130"/>
       <c r="BM30" s="31"/>
-      <c r="BN30" s="71"/>
+      <c r="BN30" s="130"/>
       <c r="BO30" s="31"/>
       <c r="BP30" s="7"/>
-      <c r="BQ30" s="71"/>
+      <c r="BQ30" s="130"/>
       <c r="BR30" s="7"/>
-      <c r="BS30" s="71"/>
+      <c r="BS30" s="130"/>
       <c r="BT30" s="8"/>
       <c r="BU30" s="37"/>
     </row>
@@ -7088,6 +7088,189 @@
     <row r="2566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="207">
+    <mergeCell ref="BG13:BG16"/>
+    <mergeCell ref="BI13:BI16"/>
+    <mergeCell ref="BJ13:BJ16"/>
+    <mergeCell ref="J29:V30"/>
+    <mergeCell ref="H29:I30"/>
+    <mergeCell ref="BH27:BH30"/>
+    <mergeCell ref="BD18:BD22"/>
+    <mergeCell ref="BC18:BC22"/>
+    <mergeCell ref="AZ24:BS24"/>
+    <mergeCell ref="BS13:BS16"/>
+    <mergeCell ref="BE13:BE16"/>
+    <mergeCell ref="BS18:BS22"/>
+    <mergeCell ref="BR18:BR22"/>
+    <mergeCell ref="BQ18:BQ22"/>
+    <mergeCell ref="BP18:BP22"/>
+    <mergeCell ref="BO18:BO22"/>
+    <mergeCell ref="BN18:BN22"/>
+    <mergeCell ref="BM18:BM22"/>
+    <mergeCell ref="BL18:BL22"/>
+    <mergeCell ref="BK18:BK22"/>
+    <mergeCell ref="AI12:AI16"/>
+    <mergeCell ref="BL27:BL30"/>
+    <mergeCell ref="BN27:BN30"/>
+    <mergeCell ref="BS27:BS30"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I28"/>
+    <mergeCell ref="J9:V10"/>
+    <mergeCell ref="AZ27:AZ30"/>
+    <mergeCell ref="BB27:BB30"/>
+    <mergeCell ref="BF27:BF30"/>
+    <mergeCell ref="AQ13:AQ16"/>
+    <mergeCell ref="AB18:AB25"/>
+    <mergeCell ref="AA13:AA16"/>
+    <mergeCell ref="Z13:Z16"/>
+    <mergeCell ref="AL18:AL25"/>
+    <mergeCell ref="AM18:AM25"/>
+    <mergeCell ref="AC18:AC25"/>
+    <mergeCell ref="AD18:AD25"/>
+    <mergeCell ref="AG13:AG16"/>
+    <mergeCell ref="AC29:AL30"/>
+    <mergeCell ref="BF13:BF16"/>
+    <mergeCell ref="BC13:BC16"/>
+    <mergeCell ref="AK13:AK16"/>
+    <mergeCell ref="AF13:AF16"/>
+    <mergeCell ref="Y13:Y16"/>
+    <mergeCell ref="AP13:AP16"/>
+    <mergeCell ref="BQ27:BQ30"/>
+    <mergeCell ref="BI29:BK29"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="N18:N25"/>
+    <mergeCell ref="M18:M25"/>
+    <mergeCell ref="AF18:AF25"/>
+    <mergeCell ref="AG18:AG25"/>
+    <mergeCell ref="AH18:AH25"/>
+    <mergeCell ref="AU18:AU22"/>
+    <mergeCell ref="AO18:AO22"/>
+    <mergeCell ref="AI18:AI25"/>
+    <mergeCell ref="AJ18:AJ25"/>
+    <mergeCell ref="AK18:AK25"/>
+    <mergeCell ref="AP18:AP22"/>
+    <mergeCell ref="AQ18:AQ22"/>
+    <mergeCell ref="AR18:AR22"/>
+    <mergeCell ref="AS18:AS22"/>
+    <mergeCell ref="Y18:Y25"/>
+    <mergeCell ref="Z18:Z25"/>
+    <mergeCell ref="AA18:AA25"/>
+    <mergeCell ref="BE18:BE22"/>
+    <mergeCell ref="Y27:AU27"/>
+    <mergeCell ref="BB18:BB22"/>
+    <mergeCell ref="BA18:BA22"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="X18:X25"/>
+    <mergeCell ref="W18:W25"/>
+    <mergeCell ref="V18:V25"/>
+    <mergeCell ref="U18:U25"/>
+    <mergeCell ref="T18:T25"/>
+    <mergeCell ref="S18:S25"/>
+    <mergeCell ref="R18:R25"/>
+    <mergeCell ref="Q18:Q25"/>
+    <mergeCell ref="P18:P25"/>
+    <mergeCell ref="O18:O25"/>
+    <mergeCell ref="X13:X16"/>
+    <mergeCell ref="L18:L25"/>
+    <mergeCell ref="K18:K25"/>
+    <mergeCell ref="Z2:Z5"/>
+    <mergeCell ref="AD13:AD16"/>
+    <mergeCell ref="AC13:AC16"/>
+    <mergeCell ref="AB13:AB16"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="AB2:AB5"/>
+    <mergeCell ref="AA2:AA5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="AM2:AM5"/>
+    <mergeCell ref="AN13:AN16"/>
+    <mergeCell ref="AM13:AM16"/>
+    <mergeCell ref="AL13:AL16"/>
+    <mergeCell ref="AO13:AO16"/>
+    <mergeCell ref="AE13:AE16"/>
+    <mergeCell ref="AD7:AZ7"/>
+    <mergeCell ref="AU2:AU5"/>
+    <mergeCell ref="AT2:AT5"/>
+    <mergeCell ref="AX2:AX5"/>
+    <mergeCell ref="AW2:AW5"/>
+    <mergeCell ref="AV2:AV5"/>
+    <mergeCell ref="AI2:AI5"/>
+    <mergeCell ref="AH2:AH5"/>
+    <mergeCell ref="AG2:AG5"/>
+    <mergeCell ref="AL2:AL5"/>
+    <mergeCell ref="AK2:AK5"/>
+    <mergeCell ref="AW11:AX13"/>
+    <mergeCell ref="AR13:AR16"/>
+    <mergeCell ref="AH13:AH16"/>
+    <mergeCell ref="AZ11:BS11"/>
+    <mergeCell ref="AJ13:AJ16"/>
+    <mergeCell ref="AS13:AS16"/>
+    <mergeCell ref="AT13:AT16"/>
+    <mergeCell ref="BD2:BD5"/>
+    <mergeCell ref="BC2:BC5"/>
+    <mergeCell ref="BB2:BB5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="Y2:Y5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="BA2:BA6"/>
+    <mergeCell ref="AJ2:AJ5"/>
+    <mergeCell ref="AS2:AS5"/>
+    <mergeCell ref="AR2:AR5"/>
+    <mergeCell ref="AQ2:AQ5"/>
+    <mergeCell ref="AP2:AP5"/>
+    <mergeCell ref="AN2:AN5"/>
+    <mergeCell ref="AO2:AO5"/>
+    <mergeCell ref="AD2:AD5"/>
+    <mergeCell ref="AE2:AE5"/>
+    <mergeCell ref="AF2:AF5"/>
+    <mergeCell ref="BR2:BR5"/>
+    <mergeCell ref="BQ2:BQ5"/>
+    <mergeCell ref="BP2:BP5"/>
+    <mergeCell ref="BO2:BO5"/>
+    <mergeCell ref="BN2:BN5"/>
+    <mergeCell ref="BM2:BM5"/>
+    <mergeCell ref="BR13:BR16"/>
+    <mergeCell ref="BQ13:BQ16"/>
+    <mergeCell ref="BP13:BP16"/>
+    <mergeCell ref="BM13:BM16"/>
+    <mergeCell ref="BN13:BN16"/>
+    <mergeCell ref="BO13:BO16"/>
+    <mergeCell ref="BG9:BP10"/>
+    <mergeCell ref="BB7:BR7"/>
+    <mergeCell ref="BH12:BH16"/>
+    <mergeCell ref="BK13:BK16"/>
+    <mergeCell ref="BL13:BL16"/>
+    <mergeCell ref="BL2:BL5"/>
+    <mergeCell ref="BK2:BK5"/>
+    <mergeCell ref="BJ2:BJ5"/>
+    <mergeCell ref="BI2:BI5"/>
+    <mergeCell ref="BH2:BH5"/>
+    <mergeCell ref="BG2:BG5"/>
+    <mergeCell ref="BF2:BF5"/>
     <mergeCell ref="AL1:AP1"/>
     <mergeCell ref="AD1:AJ1"/>
     <mergeCell ref="W9:AL10"/>
@@ -7112,189 +7295,6 @@
     <mergeCell ref="BG18:BG22"/>
     <mergeCell ref="BF18:BF22"/>
     <mergeCell ref="BE2:BE5"/>
-    <mergeCell ref="BR2:BR5"/>
-    <mergeCell ref="BQ2:BQ5"/>
-    <mergeCell ref="BP2:BP5"/>
-    <mergeCell ref="BO2:BO5"/>
-    <mergeCell ref="BN2:BN5"/>
-    <mergeCell ref="BM2:BM5"/>
-    <mergeCell ref="BR13:BR16"/>
-    <mergeCell ref="BQ13:BQ16"/>
-    <mergeCell ref="BP13:BP16"/>
-    <mergeCell ref="BM13:BM16"/>
-    <mergeCell ref="BN13:BN16"/>
-    <mergeCell ref="BO13:BO16"/>
-    <mergeCell ref="BG9:BP10"/>
-    <mergeCell ref="BB7:BR7"/>
-    <mergeCell ref="BH12:BH16"/>
-    <mergeCell ref="BK13:BK16"/>
-    <mergeCell ref="BL13:BL16"/>
-    <mergeCell ref="BL2:BL5"/>
-    <mergeCell ref="BK2:BK5"/>
-    <mergeCell ref="BJ2:BJ5"/>
-    <mergeCell ref="BI2:BI5"/>
-    <mergeCell ref="BH2:BH5"/>
-    <mergeCell ref="BG2:BG5"/>
-    <mergeCell ref="BF2:BF5"/>
-    <mergeCell ref="BD2:BD5"/>
-    <mergeCell ref="BC2:BC5"/>
-    <mergeCell ref="BB2:BB5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="Y2:Y5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="BA2:BA6"/>
-    <mergeCell ref="AJ2:AJ5"/>
-    <mergeCell ref="AS2:AS5"/>
-    <mergeCell ref="AR2:AR5"/>
-    <mergeCell ref="AQ2:AQ5"/>
-    <mergeCell ref="AP2:AP5"/>
-    <mergeCell ref="AN2:AN5"/>
-    <mergeCell ref="AO2:AO5"/>
-    <mergeCell ref="AD2:AD5"/>
-    <mergeCell ref="AE2:AE5"/>
-    <mergeCell ref="AF2:AF5"/>
-    <mergeCell ref="AM2:AM5"/>
-    <mergeCell ref="AN13:AN16"/>
-    <mergeCell ref="AM13:AM16"/>
-    <mergeCell ref="AL13:AL16"/>
-    <mergeCell ref="AO13:AO16"/>
-    <mergeCell ref="AE13:AE16"/>
-    <mergeCell ref="AD7:AZ7"/>
-    <mergeCell ref="AU2:AU5"/>
-    <mergeCell ref="AT2:AT5"/>
-    <mergeCell ref="AX2:AX5"/>
-    <mergeCell ref="AW2:AW5"/>
-    <mergeCell ref="AV2:AV5"/>
-    <mergeCell ref="AI2:AI5"/>
-    <mergeCell ref="AH2:AH5"/>
-    <mergeCell ref="AG2:AG5"/>
-    <mergeCell ref="AL2:AL5"/>
-    <mergeCell ref="AK2:AK5"/>
-    <mergeCell ref="AW11:AX13"/>
-    <mergeCell ref="AR13:AR16"/>
-    <mergeCell ref="AH13:AH16"/>
-    <mergeCell ref="AZ11:BS11"/>
-    <mergeCell ref="AJ13:AJ16"/>
-    <mergeCell ref="AS13:AS16"/>
-    <mergeCell ref="AT13:AT16"/>
-    <mergeCell ref="Z2:Z5"/>
-    <mergeCell ref="AD13:AD16"/>
-    <mergeCell ref="AC13:AC16"/>
-    <mergeCell ref="AB13:AB16"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="W7:AB7"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="AB2:AB5"/>
-    <mergeCell ref="AA2:AA5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="X18:X25"/>
-    <mergeCell ref="W18:W25"/>
-    <mergeCell ref="V18:V25"/>
-    <mergeCell ref="U18:U25"/>
-    <mergeCell ref="T18:T25"/>
-    <mergeCell ref="S18:S25"/>
-    <mergeCell ref="R18:R25"/>
-    <mergeCell ref="Q18:Q25"/>
-    <mergeCell ref="P18:P25"/>
-    <mergeCell ref="O18:O25"/>
-    <mergeCell ref="X13:X16"/>
-    <mergeCell ref="L18:L25"/>
-    <mergeCell ref="K18:K25"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="BQ27:BQ30"/>
-    <mergeCell ref="BI29:BK29"/>
-    <mergeCell ref="BI30:BK30"/>
-    <mergeCell ref="N18:N25"/>
-    <mergeCell ref="M18:M25"/>
-    <mergeCell ref="AF18:AF25"/>
-    <mergeCell ref="AG18:AG25"/>
-    <mergeCell ref="AH18:AH25"/>
-    <mergeCell ref="AU18:AU22"/>
-    <mergeCell ref="AO18:AO22"/>
-    <mergeCell ref="AI18:AI25"/>
-    <mergeCell ref="AJ18:AJ25"/>
-    <mergeCell ref="AK18:AK25"/>
-    <mergeCell ref="AP18:AP22"/>
-    <mergeCell ref="AQ18:AQ22"/>
-    <mergeCell ref="AR18:AR22"/>
-    <mergeCell ref="AS18:AS22"/>
-    <mergeCell ref="Y18:Y25"/>
-    <mergeCell ref="Z18:Z25"/>
-    <mergeCell ref="AA18:AA25"/>
-    <mergeCell ref="BE18:BE22"/>
-    <mergeCell ref="Y27:AU27"/>
-    <mergeCell ref="BB18:BB22"/>
-    <mergeCell ref="BA18:BA22"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I28"/>
-    <mergeCell ref="J9:V10"/>
-    <mergeCell ref="AZ27:AZ30"/>
-    <mergeCell ref="BB27:BB30"/>
-    <mergeCell ref="BF27:BF30"/>
-    <mergeCell ref="AQ13:AQ16"/>
-    <mergeCell ref="AB18:AB25"/>
-    <mergeCell ref="AA13:AA16"/>
-    <mergeCell ref="Z13:Z16"/>
-    <mergeCell ref="AL18:AL25"/>
-    <mergeCell ref="AM18:AM25"/>
-    <mergeCell ref="AC18:AC25"/>
-    <mergeCell ref="AD18:AD25"/>
-    <mergeCell ref="AG13:AG16"/>
-    <mergeCell ref="AC29:AL30"/>
-    <mergeCell ref="BF13:BF16"/>
-    <mergeCell ref="BC13:BC16"/>
-    <mergeCell ref="AK13:AK16"/>
-    <mergeCell ref="AF13:AF16"/>
-    <mergeCell ref="Y13:Y16"/>
-    <mergeCell ref="AP13:AP16"/>
-    <mergeCell ref="BG13:BG16"/>
-    <mergeCell ref="BI13:BI16"/>
-    <mergeCell ref="BJ13:BJ16"/>
-    <mergeCell ref="J29:V30"/>
-    <mergeCell ref="H29:I30"/>
-    <mergeCell ref="BH27:BH30"/>
-    <mergeCell ref="BD18:BD22"/>
-    <mergeCell ref="BC18:BC22"/>
-    <mergeCell ref="AZ24:BS24"/>
-    <mergeCell ref="BS13:BS16"/>
-    <mergeCell ref="BE13:BE16"/>
-    <mergeCell ref="BS18:BS22"/>
-    <mergeCell ref="BR18:BR22"/>
-    <mergeCell ref="BQ18:BQ22"/>
-    <mergeCell ref="BP18:BP22"/>
-    <mergeCell ref="BO18:BO22"/>
-    <mergeCell ref="BN18:BN22"/>
-    <mergeCell ref="BM18:BM22"/>
-    <mergeCell ref="BL18:BL22"/>
-    <mergeCell ref="BK18:BK22"/>
-    <mergeCell ref="AI12:AI16"/>
-    <mergeCell ref="BL27:BL30"/>
-    <mergeCell ref="BN27:BN30"/>
-    <mergeCell ref="BS27:BS30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobın.ambar\Desktop\Yerleşim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turkplast-my.sharepoint.com/personal/bobin_depo_turkambalaj_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED0A8CA-96B1-4A45-B3F3-E8051AE2B630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A605EEBB-C932-AD4E-9571-FD0CB161725C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
   <si>
     <t>F BLOK</t>
   </si>
@@ -236,9 +236,6 @@
     <t>PFLT 175/2500</t>
   </si>
   <si>
-    <t>BTL 120/2050</t>
-  </si>
-  <si>
     <t>FLT 175/2050</t>
   </si>
   <si>
@@ -393,6 +390,15 @@
   </si>
   <si>
     <t>TLN 80/2500</t>
+  </si>
+  <si>
+    <t>TLN 100/2500</t>
+  </si>
+  <si>
+    <t>TLN 100/2250</t>
+  </si>
+  <si>
+    <t>TLN 100/2050</t>
   </si>
 </sst>
 </file>
@@ -1689,6 +1695,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1983,7 +1993,7 @@
   <dimension ref="A1:BU2566"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
+      <selection activeCell="BU31" sqref="A1:BU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2038,7 @@
       <c r="AB1" s="32"/>
       <c r="AC1" s="32"/>
       <c r="AD1" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE1" s="56"/>
       <c r="AF1" s="56"/>
@@ -2037,10 +2047,10 @@
       <c r="AI1" s="56"/>
       <c r="AJ1" s="56"/>
       <c r="AK1" s="54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL1" s="55">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="AM1" s="55"/>
       <c r="AN1" s="55"/>
@@ -2126,10 +2136,10 @@
       <c r="Y2" s="98"/>
       <c r="Z2" s="62"/>
       <c r="AA2" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AB2" s="76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC2" s="64" t="s">
         <v>11</v>
@@ -2140,13 +2150,13 @@
         <v>59</v>
       </c>
       <c r="AG2" s="62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH2" s="62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI2" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ2" s="62" t="s">
         <v>62</v>
@@ -2155,99 +2165,99 @@
         <v>62</v>
       </c>
       <c r="AL2" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM2" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN2" s="62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AO2" s="62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP2" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AQ2" s="62" t="s">
         <v>62</v>
       </c>
       <c r="AR2" s="62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AS2" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AT2" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AU2" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AV2" s="62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AW2" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AX2" s="62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY2" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AZ2" s="76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BA2" s="72" t="s">
         <v>11</v>
       </c>
       <c r="BB2" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BC2" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BD2" s="62" t="s">
         <v>63</v>
       </c>
       <c r="BE2" s="62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF2" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG2" s="62"/>
       <c r="BH2" s="62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BI2" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BJ2" s="62"/>
       <c r="BK2" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BL2" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BM2" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BN2" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO2" s="62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BP2" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BQ2" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BR2" s="76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BS2" s="2"/>
       <c r="BT2" s="3"/>
@@ -3126,20 +3136,20 @@
         <v>63</v>
       </c>
       <c r="Y13" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z13" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA13" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB13" s="62"/>
       <c r="AC13" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD13" s="62" t="s">
         <v>109</v>
-      </c>
-      <c r="AD13" s="62" t="s">
-        <v>110</v>
       </c>
       <c r="AE13" s="62"/>
       <c r="AF13" s="62"/>
@@ -3151,19 +3161,19 @@
       <c r="AL13" s="62"/>
       <c r="AM13" s="62"/>
       <c r="AN13" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AO13" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP13" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ13" s="62" t="s">
         <v>56</v>
       </c>
       <c r="AR13" s="62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AS13" s="62" t="s">
         <v>52</v>
@@ -3176,39 +3186,45 @@
       <c r="AX13" s="107"/>
       <c r="AY13" s="75"/>
       <c r="AZ13" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA13" s="62" t="s">
         <v>57</v>
       </c>
       <c r="BB13" s="62"/>
       <c r="BC13" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD13" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BE13" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF13" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG13" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH13" s="84"/>
+      <c r="BI13" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="BF13" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG13" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH13" s="84"/>
-      <c r="BI13" s="148"/>
-      <c r="BJ13" s="78"/>
-      <c r="BK13" s="78"/>
+      <c r="BJ13" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="BK13" s="78" t="s">
+        <v>120</v>
+      </c>
       <c r="BL13" s="78"/>
       <c r="BM13" s="78"/>
       <c r="BN13" s="78"/>
       <c r="BO13" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BP13" s="78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BQ13" s="78" t="s">
         <v>51</v>
@@ -3445,75 +3461,71 @@
       <c r="K18" s="122"/>
       <c r="L18" s="119"/>
       <c r="M18" s="137" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O18" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P18" s="78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R18" s="78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S18" s="78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T18" s="78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U18" s="78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V18" s="78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W18" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="X18" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="Y18" s="62" t="s">
-        <v>66</v>
-      </c>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="62"/>
       <c r="Z18" s="62"/>
       <c r="AA18" s="62"/>
       <c r="AB18" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC18" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD18" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="AC18" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD18" s="62" t="s">
+      <c r="AE18" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="AE18" s="62" t="s">
+      <c r="AF18" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AF18" s="62" t="s">
+      <c r="AG18" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH18" s="62" t="s">
         <v>74</v>
-      </c>
-      <c r="AG18" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH18" s="62" t="s">
-        <v>75</v>
       </c>
       <c r="AI18" s="62" t="s">
         <v>53</v>
       </c>
       <c r="AJ18" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK18" s="62" t="s">
         <v>76</v>
-      </c>
-      <c r="AK18" s="62" t="s">
-        <v>77</v>
       </c>
       <c r="AL18" s="62" t="s">
         <v>62</v>
@@ -3522,68 +3534,68 @@
         <v>59</v>
       </c>
       <c r="AN18" s="76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AO18" s="141"/>
       <c r="AP18" s="62"/>
       <c r="AQ18" s="62"/>
       <c r="AR18" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AS18" s="62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AT18" s="62"/>
       <c r="AU18" s="76"/>
       <c r="AW18" s="70"/>
       <c r="AX18" s="71"/>
       <c r="AZ18" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA18" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB18" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="BA18" s="62" t="s">
+      <c r="BD18" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="BB18" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC18" s="62" t="s">
+      <c r="BE18" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="BD18" s="62" t="s">
+      <c r="BF18" s="62" t="s">
         <v>79</v>
-      </c>
-      <c r="BE18" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF18" s="62" t="s">
-        <v>80</v>
       </c>
       <c r="BG18" s="62"/>
       <c r="BH18" s="62"/>
       <c r="BI18" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ18" s="62" t="s">
         <v>81</v>
-      </c>
-      <c r="BJ18" s="62" t="s">
-        <v>82</v>
       </c>
       <c r="BK18" s="62" t="s">
         <v>55</v>
       </c>
       <c r="BL18" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BM18" s="62"/>
       <c r="BN18" s="62"/>
       <c r="BO18" s="62"/>
       <c r="BP18" s="62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BQ18" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BR18" s="62"/>
       <c r="BS18" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BT18" s="4"/>
       <c r="BU18" s="37"/>
@@ -4141,10 +4153,10 @@
         <v>21</v>
       </c>
       <c r="W26" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="X26" s="41" t="s">
         <v>116</v>
-      </c>
-      <c r="X26" s="41" t="s">
-        <v>117</v>
       </c>
       <c r="Y26" s="42">
         <v>1</v>

--- a/depo/yerlesim.xlsx
+++ b/depo/yerlesim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://turkplast-my.sharepoint.com/personal/bobin_depo_turkambalaj_com_tr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A605EEBB-C932-AD4E-9571-FD0CB161725C}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{841A0485-ACF8-4676-BEFB-460BC316BCB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95074BAE-8F89-374C-B003-335C3F924E4E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
   <si>
     <t>F BLOK</t>
   </si>
@@ -1695,10 +1695,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1992,18 +1988,18 @@
   </sheetPr>
   <dimension ref="A1:BU2566"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BU31" sqref="A1:BU31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.6484375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1"/>
-    <col min="2" max="5" width="7.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="5.7109375" style="1"/>
+    <col min="1" max="1" width="5.6484375" style="1"/>
+    <col min="2" max="5" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="5.6484375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="38"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -2088,7 +2084,7 @@
       <c r="BT1" s="33"/>
       <c r="BU1" s="33"/>
     </row>
-    <row r="2" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -2131,8 +2127,12 @@
       <c r="V2" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="110"/>
-      <c r="X2" s="98"/>
+      <c r="W2" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="X2" s="98" t="s">
+        <v>119</v>
+      </c>
       <c r="Y2" s="98"/>
       <c r="Z2" s="62"/>
       <c r="AA2" s="62" t="s">
@@ -2263,7 +2263,7 @@
       <c r="BT2" s="3"/>
       <c r="BU2" s="37"/>
     </row>
-    <row r="3" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="20"/>
       <c r="C3" s="51"/>
@@ -2331,7 +2331,7 @@
       <c r="BT3" s="4"/>
       <c r="BU3" s="37"/>
     </row>
-    <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:73" ht="29.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="39"/>
       <c r="B4" s="86" t="s">
         <v>8</v>
@@ -2401,7 +2401,7 @@
       <c r="BT4" s="4"/>
       <c r="BU4" s="37"/>
     </row>
-    <row r="5" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="20"/>
       <c r="C5" s="51"/>
@@ -2469,7 +2469,7 @@
       <c r="BT5" s="4"/>
       <c r="BU5" s="37"/>
     </row>
-    <row r="6" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="20"/>
       <c r="C6" s="51"/>
@@ -2655,7 +2655,7 @@
       <c r="BT6" s="4"/>
       <c r="BU6" s="37"/>
     </row>
-    <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="39"/>
       <c r="B7" s="125" t="s">
         <v>53</v>
@@ -2723,7 +2723,7 @@
       <c r="BT7" s="4"/>
       <c r="BU7" s="37"/>
     </row>
-    <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="112" t="s">
         <v>53</v>
@@ -2740,7 +2740,7 @@
       <c r="BT8" s="4"/>
       <c r="BU8" s="37"/>
     </row>
-    <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="112" t="s">
         <v>54</v>
@@ -2824,7 +2824,7 @@
       <c r="BT9" s="10"/>
       <c r="BU9" s="37"/>
     </row>
-    <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="112" t="s">
         <v>55</v>
@@ -2902,7 +2902,7 @@
       <c r="BT10" s="8"/>
       <c r="BU10" s="37"/>
     </row>
-    <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="39"/>
       <c r="B11" s="112" t="s">
         <v>56</v>
@@ -2969,7 +2969,7 @@
       <c r="BT11" s="4"/>
       <c r="BU11" s="37"/>
     </row>
-    <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="112" t="s">
         <v>56</v>
@@ -3119,11 +3119,9 @@
       <c r="BT12" s="4"/>
       <c r="BU12" s="37"/>
     </row>
-    <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
-      <c r="B13" s="112" t="s">
-        <v>57</v>
-      </c>
+      <c r="B13" s="112"/>
       <c r="C13" s="113"/>
       <c r="D13" s="113"/>
       <c r="E13" s="114"/>
@@ -3191,7 +3189,9 @@
       <c r="BA13" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="BB13" s="62"/>
+      <c r="BB13" s="62" t="s">
+        <v>57</v>
+      </c>
       <c r="BC13" s="62" t="s">
         <v>87</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="BT13" s="4"/>
       <c r="BU13" s="37"/>
     </row>
-    <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="112"/>
       <c r="C14" s="113"/>
@@ -3301,7 +3301,7 @@
       <c r="BT14" s="4"/>
       <c r="BU14" s="37"/>
     </row>
-    <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="112" t="s">
         <v>58</v>
@@ -3364,7 +3364,7 @@
       <c r="BT15" s="4"/>
       <c r="BU15" s="37"/>
     </row>
-    <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="112" t="s">
         <v>59</v>
@@ -3427,7 +3427,7 @@
       <c r="BT16" s="4"/>
       <c r="BU16" s="37"/>
     </row>
-    <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="112" t="s">
         <v>54</v>
@@ -3445,7 +3445,7 @@
       <c r="BT17" s="4"/>
       <c r="BU17" s="37"/>
     </row>
-    <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="112" t="s">
         <v>60</v>
@@ -3600,7 +3600,7 @@
       <c r="BT18" s="4"/>
       <c r="BU18" s="37"/>
     </row>
-    <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="115"/>
       <c r="C19" s="116"/>
@@ -3673,7 +3673,7 @@
       <c r="BT19" s="4"/>
       <c r="BU19" s="37"/>
     </row>
-    <row r="20" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="39"/>
       <c r="B20" s="12"/>
       <c r="H20" s="70"/>
@@ -3740,7 +3740,7 @@
       <c r="BT20" s="4"/>
       <c r="BU20" s="37"/>
     </row>
-    <row r="21" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="12"/>
       <c r="H21" s="70"/>
@@ -3807,7 +3807,7 @@
       <c r="BT21" s="4"/>
       <c r="BU21" s="37"/>
     </row>
-    <row r="22" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="12"/>
       <c r="H22" s="70"/>
@@ -3874,7 +3874,7 @@
       <c r="BT22" s="4"/>
       <c r="BU22" s="37"/>
     </row>
-    <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39"/>
       <c r="B23" s="12"/>
       <c r="H23" s="70"/>
@@ -3995,7 +3995,7 @@
       <c r="BT23" s="4"/>
       <c r="BU23" s="37"/>
     </row>
-    <row r="24" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="39"/>
       <c r="B24" s="12"/>
       <c r="H24" s="70"/>
@@ -4064,7 +4064,7 @@
       <c r="BT24" s="4"/>
       <c r="BU24" s="37"/>
     </row>
-    <row r="25" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="12"/>
       <c r="H25" s="70"/>
@@ -4111,7 +4111,7 @@
       <c r="BT25" s="4"/>
       <c r="BU25" s="37"/>
     </row>
-    <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:73" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39"/>
       <c r="B26" s="12"/>
       <c r="H26" s="70"/>
@@ -4218,7 +4218,7 @@
       <c r="BT26" s="4"/>
       <c r="BU26" s="37"/>
     </row>
-    <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:73" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="39"/>
       <c r="B27" s="12"/>
       <c r="H27" s="70"/>
@@ -4262,7 +4262,7 @@
       <c r="BT27" s="4"/>
       <c r="BU27" s="37"/>
     </row>
-    <row r="28" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:73" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="12"/>
       <c r="H28" s="70"/>
@@ -4280,7 +4280,7 @@
       <c r="BT28" s="4"/>
       <c r="BU28" s="37"/>
     </row>
-    <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="12"/>
       <c r="H29" s="106"/>
@@ -4354,7 +4354,7 @@
       <c r="BT29" s="10"/>
       <c r="BU29" s="37"/>
     </row>
-    <row r="30" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:73" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="13"/>
       <c r="C30" s="14"/>
@@ -4431,7 +4431,7 @@
       <c r="BT30" s="8"/>
       <c r="BU30" s="37"/>
     </row>
-    <row r="31" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
@@ -4506,2598 +4506,2598 @@
       <c r="BT31" s="35"/>
       <c r="BU31" s="36"/>
     </row>
-    <row r="32" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BH79" s="11"/>
       <c r="BI79" s="11"/>
       <c r="BJ79" s="11"/>
     </row>
-    <row r="80" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="60:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BH80" s="11"/>
       <c r="BI80" s="11"/>
       <c r="BJ80" s="11"/>
     </row>
-    <row r="81" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BH81" s="11"/>
       <c r="BI81" s="11"/>
       <c r="BJ81" s="11"/>
     </row>
-    <row r="82" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BH82" s="11"/>
       <c r="BI82" s="11"/>
       <c r="BJ82" s="11"/>
     </row>
-    <row r="83" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BH83" s="11"/>
       <c r="BI83" s="11"/>
       <c r="BJ83" s="11"/>
     </row>
-    <row r="84" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BG85" s="15"/>
       <c r="BH85" s="15"/>
       <c r="BI85" s="15"/>
       <c r="BJ85" s="15"/>
     </row>
-    <row r="86" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BG86" s="15"/>
       <c r="BH86" s="15"/>
       <c r="BI86" s="15"/>
       <c r="BJ86" s="15"/>
     </row>
-    <row r="87" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BG87" s="15"/>
       <c r="BH87" s="15"/>
       <c r="BI87" s="15"/>
       <c r="BJ87" s="15"/>
     </row>
-    <row r="88" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BG88" s="15"/>
       <c r="BH88" s="15"/>
       <c r="BI88" s="15"/>
       <c r="BJ88" s="15"/>
     </row>
-    <row r="89" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BG89" s="15"/>
       <c r="BH89" s="15"/>
       <c r="BI89" s="15"/>
       <c r="BJ89" s="15"/>
     </row>
-    <row r="90" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="59:62" ht="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="59:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BH106" s="16"/>
       <c r="BI106" s="16"/>
       <c r="BJ106" s="16"/>
     </row>
-    <row r="107" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BH108" s="15"/>
       <c r="BI108" s="15"/>
       <c r="BJ108" s="15"/>
     </row>
-    <row r="109" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BH109" s="15"/>
       <c r="BI109" s="15"/>
       <c r="BJ109" s="15"/>
     </row>
-    <row r="110" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1016" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1017" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1018" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1019" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1020" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1021" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1022" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1023" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1024" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1025" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1026" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1027" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1028" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1029" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1030" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1031" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1032" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1033" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1034" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1035" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1036" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1037" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1038" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1039" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1040" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1041" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1042" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1043" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1044" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1045" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1046" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1047" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1048" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1049" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1050" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1051" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1052" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1053" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1054" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1055" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1056" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1057" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1058" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1059" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1060" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1061" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1062" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1063" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1064" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1065" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1066" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1067" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1068" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1069" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1070" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1071" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1072" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1073" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1074" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1075" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1076" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1077" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1078" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1079" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1080" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1081" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1082" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1083" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1084" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1085" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1086" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1087" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1088" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1089" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1090" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1091" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1092" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1093" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1094" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1095" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1096" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1097" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1098" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1099" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1101" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1102" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1103" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1104" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1105" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1106" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1107" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1108" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1109" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1110" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1111" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1112" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1113" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1567" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1568" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1569" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1570" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1571" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1572" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1573" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1574" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1575" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1576" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1577" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1578" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1579" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1580" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1581" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1582" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1583" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1584" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1585" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1586" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1587" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1588" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1589" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1590" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1591" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1592" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1593" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1594" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1595" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1596" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1597" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1598" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1599" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1600" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1601" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1602" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1603" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1604" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1605" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1606" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1607" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1608" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1609" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1610" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1611" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1612" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1613" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1614" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1615" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1616" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1617" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1618" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1619" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1620" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1621" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1622" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1623" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1624" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1625" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1626" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1627" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1628" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1629" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1630" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1631" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1632" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1633" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1634" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1635" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1636" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1637" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1638" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1639" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1640" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1641" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1642" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1643" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1644" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1645" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1646" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1647" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1648" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1649" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1650" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1651" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1652" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1653" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1654" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1655" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1656" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1657" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1658" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1659" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1660" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1661" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1662" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1663" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1664" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1665" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1666" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1667" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1668" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1669" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1670" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1671" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1672" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1673" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1674" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1675" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1676" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1677" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1678" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1679" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1680" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1681" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1682" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1683" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1684" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1685" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1686" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1687" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1688" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1689" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1690" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1691" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1692" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1693" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1694" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1695" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1696" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1697" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1698" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1699" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1700" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1701" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1702" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1703" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1704" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1705" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1706" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1707" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1708" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1709" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1710" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1711" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1712" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1713" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1714" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1715" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1716" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1717" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1718" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1719" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1720" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1721" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1722" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1723" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1724" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1725" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1726" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1727" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1728" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1729" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1730" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1731" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1732" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1733" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1734" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1735" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1736" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1737" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1738" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1739" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1740" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1741" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1742" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1743" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1744" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1745" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1746" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1747" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1748" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1749" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1750" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1751" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1752" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1753" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1754" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1755" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1756" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1757" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1758" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1759" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1760" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1761" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1762" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1763" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1764" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1765" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1766" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1767" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1768" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1769" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1770" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1771" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1772" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1773" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1774" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1775" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1776" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1777" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1778" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1779" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1780" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1781" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1782" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1783" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1784" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1785" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1786" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1787" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1788" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1789" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1790" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1791" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1792" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1793" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1794" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1795" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1796" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1797" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1798" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1799" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1800" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1801" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1802" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1803" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1804" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1805" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1806" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1807" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1808" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1809" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1810" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1811" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1812" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1813" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1814" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1815" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1816" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1817" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1818" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1819" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1820" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1821" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1822" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1823" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1824" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1825" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1826" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1827" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1828" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1829" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1830" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1831" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1832" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1833" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1834" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1835" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1836" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1837" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1838" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1839" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1840" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1841" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1842" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1843" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1844" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1845" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1846" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1847" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1848" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1849" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1850" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1851" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1852" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1853" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1854" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1855" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1856" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1857" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1858" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1859" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1860" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1861" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1862" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1863" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1864" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1865" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1866" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1867" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1868" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1869" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1870" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1871" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1872" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1873" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1874" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1875" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1876" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1877" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1878" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1879" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1880" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1881" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1882" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1883" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1884" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1885" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1886" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1887" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1888" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1889" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1890" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1891" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1892" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1893" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1894" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1895" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1896" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1897" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1898" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1899" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1900" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1901" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1902" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1903" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1904" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1905" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1906" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1907" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1908" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1909" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1910" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1911" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1912" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1913" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1914" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1915" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1916" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1917" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1918" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1919" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1920" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1921" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1922" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1923" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1924" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1925" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1926" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1927" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1928" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1929" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1930" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1931" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1932" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1933" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1934" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1935" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1936" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1937" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1938" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1939" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1940" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1941" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1942" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1943" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1944" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1945" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1946" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1947" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1948" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1949" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1950" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1951" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1952" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1953" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1954" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1955" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1956" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1957" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1958" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1959" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1960" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1961" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1962" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1963" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1964" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1965" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1966" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1967" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1968" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1969" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1970" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1971" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1972" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1973" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1974" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1975" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1976" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1977" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1978" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1979" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1980" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1981" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1982" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1983" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1984" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1985" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1986" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1987" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1988" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1989" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1990" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1991" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1992" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1993" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1994" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1995" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1996" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1997" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1998" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1999" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2000" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2001" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2002" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2003" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2004" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2005" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2006" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2007" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2008" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2009" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2010" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2011" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2012" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2013" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2014" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2015" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2016" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2017" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2018" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2019" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2020" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2021" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2022" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2023" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2024" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2025" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2026" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2027" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2028" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2029" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2030" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2031" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2032" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2033" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2034" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2035" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2036" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2037" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2038" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2039" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2040" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2041" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2042" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2043" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2044" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2045" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2046" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2047" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2048" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2049" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2050" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2051" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2052" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2053" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2054" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2055" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2056" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2057" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2058" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2059" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2060" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2061" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2062" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2063" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2064" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2065" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2066" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2067" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2068" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2069" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2070" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2071" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2072" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2073" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2074" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2075" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2076" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2077" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2078" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2079" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2080" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2081" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2082" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2083" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2084" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2085" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2086" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2087" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2088" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2089" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2090" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2091" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2092" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2093" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2094" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2095" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2096" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2097" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2098" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2099" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2100" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2101" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2102" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2103" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2104" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2105" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2106" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2107" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2108" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2109" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2110" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2111" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2112" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2113" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2186" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2187" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2188" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2189" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2190" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2191" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2192" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2193" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2194" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2195" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2196" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2197" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2198" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2199" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2200" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2201" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2202" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2203" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2204" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2205" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2206" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2207" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2208" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2209" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2210" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2211" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2212" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2213" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2214" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2215" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2216" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2217" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2218" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2219" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2220" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2221" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2222" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2223" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2224" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2225" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2226" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2227" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2228" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2229" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2230" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2231" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2232" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2233" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2234" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2235" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2236" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2237" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2238" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2239" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2240" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2241" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2242" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2243" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2244" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2245" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2246" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2247" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2248" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2249" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2250" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2251" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2252" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2253" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2254" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2255" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2256" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2257" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2258" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2259" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2260" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2261" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2262" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2263" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2264" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2265" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2266" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2267" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2268" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2269" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2270" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2271" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2272" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2273" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2274" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2275" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2276" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2277" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2278" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2279" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2280" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2281" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2282" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2283" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2284" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2285" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2286" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2287" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2288" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2289" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2290" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2291" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2292" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2293" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2294" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2295" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2296" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2297" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2298" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2299" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2300" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2301" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2302" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2303" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2304" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2305" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2306" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2307" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2308" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2309" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2310" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2311" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2312" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2313" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2314" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2315" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2316" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2317" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2318" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2319" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2320" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2321" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2322" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2323" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2324" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2325" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2326" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2327" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2328" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2329" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2330" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2331" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2332" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2333" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2334" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2335" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2336" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2337" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2338" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2339" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2340" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2341" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2342" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2343" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2344" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2345" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2346" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2347" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2348" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2349" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2350" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2351" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2352" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2353" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2354" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2355" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2356" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2357" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2358" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2359" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2360" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2361" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2362" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2363" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2364" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2365" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2366" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2367" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2368" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2369" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2370" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2371" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2372" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2373" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2374" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2375" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2376" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2377" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2378" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2379" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2380" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2381" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2382" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2383" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2384" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2385" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2386" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2387" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2388" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2389" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2390" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2391" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2392" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2393" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2394" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2395" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2396" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2397" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2398" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2399" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2400" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2401" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2402" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2403" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2404" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2405" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2406" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2407" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2408" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2409" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2410" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2411" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2412" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2413" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2414" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2415" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2416" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2417" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2418" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2419" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2420" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2421" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2422" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2423" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2424" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2425" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2426" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2427" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2428" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2429" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2430" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2431" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2432" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2433" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2434" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2435" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2436" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2437" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2438" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2439" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2440" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2441" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2442" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2443" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2444" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2445" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2446" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2447" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2448" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2449" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2450" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2451" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2452" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2453" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2454" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2455" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2456" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2457" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2458" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2459" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2460" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2461" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2462" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2463" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2464" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2465" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2466" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2467" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2468" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2469" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2470" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2471" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2472" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2473" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2474" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2475" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2476" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2477" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2478" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2479" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2480" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2481" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2482" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2483" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2484" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2485" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2486" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2487" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2488" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2489" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2490" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2491" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2492" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2493" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2494" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2495" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2496" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2497" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2498" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2499" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2500" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2501" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2502" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2503" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2504" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2505" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2506" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2507" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2508" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2509" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2510" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2511" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2512" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2513" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2514" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2515" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2516" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2517" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2518" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2519" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2520" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2521" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2522" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2523" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2524" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2525" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2526" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2527" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2528" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2529" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2530" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2531" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2532" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2533" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2534" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2535" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2536" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2537" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2538" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2539" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2540" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2541" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2542" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2543" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2544" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2545" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2546" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2547" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2548" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2549" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2550" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2551" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2552" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2553" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2554" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2555" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2556" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2557" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2558" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2559" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2560" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2561" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2562" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2563" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2564" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2565" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2566" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="60:62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="16.899999999999999" customHeight="1" x14ac:dyDesc